--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -32,7 +32,7 @@
     <author>Piotr Musielski</author>
   </authors>
   <commentList>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="M8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0">
+    <comment ref="N8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="P8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA8" authorId="0" shapeId="0">
+    <comment ref="AB8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB8" authorId="0" shapeId="0">
+    <comment ref="AC8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -974,12 +974,6 @@
     <t>IV</t>
   </si>
   <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>WORST</t>
-  </si>
-  <si>
     <t>Tank</t>
   </si>
   <si>
@@ -1088,15 +1082,9 @@
     <t>!Odchyłka</t>
   </si>
   <si>
-    <t>Tougnessness</t>
-  </si>
-  <si>
     <t>Tankowatość</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
     <t>Odchyłka średniej V</t>
   </si>
   <si>
@@ -1122,6 +1110,15 @@
   </si>
   <si>
     <t>Wartość na hp</t>
+  </si>
+  <si>
+    <t>ZBALANSOWANA ILOSC</t>
+  </si>
+  <si>
+    <t>SuperLizard</t>
+  </si>
+  <si>
+    <t>Toughnessness</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="113">
+  <fills count="115">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1961,8 +1958,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2174,12 +2183,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2616,9 +2658,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2706,14 +2745,208 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="113" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="113" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="114" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="114" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="114" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -2782,92 +3015,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="1" tint="0.14999847407452621"/>
@@ -2906,57 +3053,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3048,6 +3144,117 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -3096,6 +3303,23 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top/>
         <bottom/>
       </border>
@@ -3170,39 +3394,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3649,137 +3840,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A8:AI22" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36">
-  <autoFilter ref="A8:AI22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A8:AI25" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54">
+  <autoFilter ref="A8:AI25"/>
   <tableColumns count="35">
-    <tableColumn id="3" name="Name" dataDxfId="34"/>
-    <tableColumn id="1" name="S" dataDxfId="33"/>
-    <tableColumn id="2" name="I" dataDxfId="32"/>
-    <tableColumn id="4" name="Fraction" dataDxfId="31"/>
-    <tableColumn id="5" name="Level" dataDxfId="30"/>
-    <tableColumn id="6" name="Attack" dataDxfId="29"/>
-    <tableColumn id="7" name="Defence" dataDxfId="28"/>
-    <tableColumn id="8" name="Damage min" dataDxfId="27"/>
-    <tableColumn id="9" name="Damage max" dataDxfId="26"/>
-    <tableColumn id="10" name="Health" dataDxfId="25"/>
-    <tableColumn id="27" name="Tougnessness" dataDxfId="10">
+    <tableColumn id="3" name="Name" dataDxfId="52"/>
+    <tableColumn id="1" name="S" dataDxfId="51"/>
+    <tableColumn id="2" name="I" dataDxfId="50"/>
+    <tableColumn id="4" name="Fraction" dataDxfId="18"/>
+    <tableColumn id="5" name="Level" dataDxfId="49"/>
+    <tableColumn id="10" name="Health" dataDxfId="19"/>
+    <tableColumn id="6" name="Attack" dataDxfId="48"/>
+    <tableColumn id="7" name="Defence" dataDxfId="47"/>
+    <tableColumn id="8" name="Damage min" dataDxfId="46"/>
+    <tableColumn id="9" name="Damage max" dataDxfId="45"/>
+    <tableColumn id="29" name="ZBALANSOWANA ILOSC" dataDxfId="20">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" name="Toughnessness" dataDxfId="44">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VWO" dataDxfId="24">
-      <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</calculatedColumnFormula>
+    <tableColumn id="17" name="VWO" dataDxfId="43">
+      <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="VWO_R" dataDxfId="23">
+    <tableColumn id="28" name="VWO_R" dataDxfId="42">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="VWD" dataDxfId="22">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</calculatedColumnFormula>
+    <tableColumn id="18" name="VWD" dataDxfId="41">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="VWD_R" dataDxfId="8">
+    <tableColumn id="14" name="VWD_R" dataDxfId="40">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="V_Off" dataDxfId="7">
+    <tableColumn id="15" name="V_Off" dataDxfId="39">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="V_Def" dataDxfId="5">
+    <tableColumn id="16" name="V_Def" dataDxfId="38">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="!ŚREDNIA" dataDxfId="6">
+    <tableColumn id="33" name="!ŚREDNIA" dataDxfId="37">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Odchyłka" dataDxfId="4">
+    <tableColumn id="35" name="Odchyłka" dataDxfId="24">
+      <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="38" name="Suma VW" dataDxfId="23">
+      <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="39" name="Suma*Odchyłka" dataDxfId="36">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" name="Kolumna2" dataDxfId="21">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="41" name="Kolumna1" dataDxfId="22">
+      <calculatedColumnFormula>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" name="!Odchyłka" dataDxfId="35">
       <calculatedColumnFormula>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Suma VW" dataDxfId="3">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="39" name="Suma*Odchyłka" dataDxfId="2">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="37" name="Kolumna2" dataDxfId="0">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="41" name="Kolumna1" dataDxfId="1"/>
-    <tableColumn id="32" name="!Odchyłka" dataDxfId="11">
-      <calculatedColumnFormula>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="Cena_Atak" dataDxfId="15">
+    <tableColumn id="22" name="Cena_Atak" dataDxfId="34">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Cena_Obrona" dataDxfId="14">
+    <tableColumn id="21" name="Cena_Obrona" dataDxfId="33">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="VOB" dataDxfId="21">
-      <calculatedColumnFormula>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</calculatedColumnFormula>
+    <tableColumn id="19" name="VOB" dataDxfId="32">
+      <calculatedColumnFormula>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="VDB" dataDxfId="20">
-      <calculatedColumnFormula>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</calculatedColumnFormula>
+    <tableColumn id="20" name="VDB" dataDxfId="31">
+      <calculatedColumnFormula>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Cost1 (ZŁY)" dataDxfId="19">
+    <tableColumn id="25" name="Cost1 (ZŁY)" dataDxfId="30">
       <calculatedColumnFormula>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Stosunek W" dataDxfId="18">
+    <tableColumn id="26" name="Stosunek W" dataDxfId="29">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Stosunek B" dataDxfId="17">
+    <tableColumn id="12" name="Stosunek B" dataDxfId="28">
       <calculatedColumnFormula>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="CENA_ZLA" dataDxfId="13">
+    <tableColumn id="23" name="CENA_ZLA" dataDxfId="27">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="ILOSC_ZLA" dataDxfId="12">
+    <tableColumn id="24" name="ILOSC_ZLA" dataDxfId="26">
       <calculatedColumnFormula>$AE$7/Tabela2[[#This Row],[Kolumna5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Suma" dataDxfId="9"/>
-    <tableColumn id="30" name="Kolumna5" dataDxfId="16"/>
+    <tableColumn id="30" name="Kolumna5" dataDxfId="25"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="B1:O7" tableType="xml" totalsRowShown="0" headerRowDxfId="52" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="B1:O7" tableType="xml" totalsRowShown="0" headerRowDxfId="70" connectionId="6">
   <autoFilter ref="B1:O7"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="51">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="69">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP" name="HP" dataDxfId="50">
+    <tableColumn id="2" uniqueName="HP" name="HP" dataDxfId="68">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Attack" name="A" dataDxfId="49">
+    <tableColumn id="3" uniqueName="Attack" name="A" dataDxfId="67">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Defense" name="D" dataDxfId="48">
+    <tableColumn id="4" uniqueName="Defense" name="D" dataDxfId="66">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Initiative" name="I" dataDxfId="47">
+    <tableColumn id="5" uniqueName="Initiative" name="I" dataDxfId="65">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Speed" name="S" dataDxfId="46">
+    <tableColumn id="6" uniqueName="Speed" name="S" dataDxfId="64">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="DamageMinimum" name="Dm" dataDxfId="45">
+    <tableColumn id="11" uniqueName="DamageMinimum" name="Dm" dataDxfId="63">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="DamageMaximum" name="DM2" dataDxfId="44">
+    <tableColumn id="12" uniqueName="DamageMaximum" name="DM2" dataDxfId="62">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Cost" name="Cost" dataDxfId="43">
+    <tableColumn id="14" uniqueName="Cost" name="Cost" dataDxfId="61">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Cost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Skill1" name="Skill1" dataDxfId="42">
+    <tableColumn id="7" uniqueName="Skill1" name="Skill1" dataDxfId="60">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Skill2" name="Skill2" dataDxfId="41">
+    <tableColumn id="8" uniqueName="Skill2" name="Skill2" dataDxfId="59">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Skill3" name="Skill3" dataDxfId="40">
+    <tableColumn id="9" uniqueName="Skill3" name="Skill3" dataDxfId="58">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Skill4" name="Skill4" dataDxfId="39">
+    <tableColumn id="10" uniqueName="Skill4" name="Skill4" dataDxfId="57">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Sprite" name="Sprite" dataDxfId="38">
+    <tableColumn id="13" uniqueName="Sprite" name="Sprite" dataDxfId="56">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4050,13 +4245,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,19 +4263,19 @@
     <col min="5" max="5" width="9.140625" style="136" customWidth="1"/>
     <col min="6" max="9" width="7.42578125" style="137" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="168" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="191"/>
-    <col min="13" max="13" width="9.140625" style="196" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="200" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="203" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="207" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="167" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="190"/>
+    <col min="13" max="13" width="9.140625" style="195" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="199" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="202" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="206" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="135"/>
-    <col min="18" max="23" width="9.140625" style="212"/>
-    <col min="24" max="25" width="3.7109375" style="169" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="3.7109375" style="170" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="3.7109375" style="169" hidden="1" customWidth="1"/>
+    <col min="18" max="23" width="9.140625" style="211"/>
+    <col min="24" max="25" width="3.7109375" style="168" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="3.7109375" style="169" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="3.7109375" style="168" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9.140625" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="220" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -4096,33 +4291,33 @@
       <c r="H1" s="154"/>
       <c r="I1" s="152"/>
       <c r="J1" s="152"/>
-      <c r="L1" s="181" t="s">
-        <v>241</v>
-      </c>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="208" t="s">
-        <v>248</v>
-      </c>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="171" t="s">
+      <c r="M1" s="180" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="207" t="s">
+        <v>246</v>
+      </c>
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="170" t="s">
         <v>208</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="171"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="170"/>
+      <c r="AH1" s="220"/>
     </row>
     <row r="2" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="160"/>
@@ -4135,77 +4330,77 @@
       <c r="H2" s="155"/>
       <c r="I2" s="155"/>
       <c r="J2" s="155"/>
-      <c r="K2" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="188" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208" t="s">
-        <v>254</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="171" t="s">
+      <c r="L2" s="153" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="180"/>
+      <c r="N2" s="187" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207" t="s">
+        <v>250</v>
+      </c>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="170" t="s">
         <v>209</v>
       </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="171"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="170"/>
+      <c r="AH2" s="220"/>
     </row>
     <row r="3" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="160"/>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
-      <c r="E3" s="161" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="L3" s="182"/>
+      <c r="E3" s="214" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
       <c r="M3" s="181"/>
-      <c r="N3" s="181" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="208"/>
-      <c r="T3" s="208" t="s">
-        <v>255</v>
-      </c>
-      <c r="U3" s="208"/>
-      <c r="V3" s="208"/>
-      <c r="W3" s="208"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207" t="s">
+        <v>251</v>
+      </c>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AH3" s="220"/>
     </row>
     <row r="4" spans="1:35" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160"/>
@@ -4216,115 +4411,115 @@
       <c r="F4" s="156">
         <v>0.04</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163">
+      <c r="G4" s="161"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162">
         <v>1.4E-2</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="188" t="s">
-        <v>233</v>
-      </c>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208" t="s">
-        <v>260</v>
-      </c>
-      <c r="V4" s="150"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
+      <c r="J4" s="162"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="187" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207" t="s">
+        <v>256</v>
+      </c>
+      <c r="W4" s="150"/>
+      <c r="Y4" s="168"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="168"/>
+      <c r="AH4" s="220"/>
     </row>
     <row r="5" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="208"/>
-      <c r="S5" s="208"/>
-      <c r="T5" s="208"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="208" t="s">
-        <v>262</v>
-      </c>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180" t="s">
+        <v>234</v>
+      </c>
+      <c r="R5" s="180"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AH5" s="220"/>
     </row>
     <row r="6" spans="1:35" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="181" t="s">
-        <v>239</v>
-      </c>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="172"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="169"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="172"/>
-      <c r="AF6" s="169"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="180" t="s">
+        <v>237</v>
+      </c>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="168"/>
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="168"/>
+      <c r="AH6" s="220"/>
     </row>
     <row r="7" spans="1:35" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164" t="s">
-        <v>227</v>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163" t="s">
+        <v>225</v>
       </c>
       <c r="F7" s="159">
         <f>MAX(Tabela2[Attack])</f>
@@ -4346,63 +4541,62 @@
         <f>MAX(Tabela2[Health])</f>
         <v>300</v>
       </c>
-      <c r="K7" s="183">
+      <c r="M7" s="182">
         <f>MAX(Tabela2[VWO])</f>
         <v>148</v>
       </c>
-      <c r="L7" s="192">
+      <c r="N7" s="191">
         <f>MAX(Tabela2[VWD])</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="M7" s="197">
+      <c r="O7" s="196">
         <f>MAX(Tabela2[VOB])</f>
         <v>796.1783439490448</v>
       </c>
-      <c r="N7" s="158">
+      <c r="P7" s="158">
         <f>MAX(Tabela2[VDB])</f>
         <v>148</v>
       </c>
-      <c r="O7" s="204">
+      <c r="Q7" s="203">
         <f>MAX(Tabela2[Cost1 (ZŁY)])</f>
         <v>343</v>
       </c>
-      <c r="P7" s="205">
+      <c r="R7" s="204">
         <f>MAX(Tabela2[Stosunek W])</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173">
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172">
         <f>MAX(Tabela2[Stosunek B])</f>
         <v>318.47133757961785</v>
       </c>
-      <c r="Z7" s="174">
+      <c r="Z7" s="173">
         <f>MAX(Tabela2[VWO_R])</f>
         <v>148</v>
       </c>
-      <c r="AA7" s="174">
+      <c r="AA7" s="173">
         <f>MAX(Tabela2[VWD_R])</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="AB7" s="174">
+      <c r="AB7" s="173">
         <f>MAX(Tabela2[V_Off])</f>
-        <v>1028.535031847134</v>
-      </c>
-      <c r="AC7" s="174">
+        <v>796.17834394904469</v>
+      </c>
+      <c r="AC7" s="173">
         <f>MAX(Tabela2[V_Def])</f>
         <v>9426.7515923566898</v>
       </c>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173">
+      <c r="AD7" s="172"/>
+      <c r="AE7" s="172">
         <v>5000</v>
       </c>
-      <c r="AF7" s="174"/>
+      <c r="AF7" s="173"/>
+      <c r="AH7" s="220"/>
     </row>
     <row r="8" spans="1:35" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="147" t="s">
@@ -4421,105 +4615,105 @@
         <v>3</v>
       </c>
       <c r="F8" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="147" t="s">
+      <c r="H8" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="147" t="s">
+      <c r="I8" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="147" t="s">
+      <c r="J8" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="147" t="s">
+      <c r="K8" s="221" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="147" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="183" t="s">
+        <v>252</v>
+      </c>
+      <c r="N8" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="192" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="192" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="192" t="s">
+        <v>235</v>
+      </c>
+      <c r="R8" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="S8" s="192" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="192" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="L8" s="184" t="s">
-        <v>256</v>
-      </c>
-      <c r="M8" s="193" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" s="193" t="s">
+      <c r="V8" s="192" t="s">
         <v>257</v>
       </c>
-      <c r="O8" s="193" t="s">
-        <v>258</v>
-      </c>
-      <c r="P8" s="193" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="193" t="s">
-        <v>238</v>
-      </c>
-      <c r="R8" s="193" t="s">
-        <v>247</v>
-      </c>
-      <c r="S8" s="193" t="s">
-        <v>249</v>
-      </c>
-      <c r="T8" s="193" t="s">
-        <v>255</v>
-      </c>
-      <c r="U8" s="193" t="s">
-        <v>261</v>
-      </c>
-      <c r="V8" s="189" t="s">
-        <v>235</v>
-      </c>
-      <c r="W8" s="193" t="s">
+      <c r="W8" s="188" t="s">
+        <v>233</v>
+      </c>
+      <c r="X8" s="192" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y8" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z8" s="179" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA8" s="179" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB8" s="179" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC8" s="179" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD8" s="179" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE8" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="X8" s="147" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y8" s="180" t="s">
+      <c r="AF8" s="179" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG8" s="179" t="s">
         <v>242</v>
       </c>
-      <c r="Z8" s="180" t="s">
+      <c r="AH8" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="AA8" s="180" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB8" s="180" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC8" s="180" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD8" s="180" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE8" s="180" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF8" s="180" t="s">
+      <c r="AI8" s="147" t="s">
         <v>244</v>
-      </c>
-      <c r="AG8" s="180" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH8" s="147" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI8" s="147" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" s="141">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G9" s="141">
         <v>50</v>
@@ -4531,106 +4725,112 @@
         <v>50</v>
       </c>
       <c r="J9" s="141">
-        <v>250</v>
-      </c>
-      <c r="K9" s="167">
+        <v>50</v>
+      </c>
+      <c r="K9" s="222">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>0.99952053140168862</v>
+      </c>
+      <c r="L9" s="166">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>5.3795834050611129</v>
       </c>
-      <c r="L9" s="185">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
+      <c r="M9" s="184">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>148</v>
       </c>
-      <c r="M9" s="194">
+      <c r="N9" s="193">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="N9" s="194">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="O9" s="193">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="O9" s="194">
+      <c r="P9" s="193">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1</v>
       </c>
-      <c r="P9" s="194">
+      <c r="Q9" s="193">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>148</v>
       </c>
-      <c r="Q9" s="194">
+      <c r="R9" s="193">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="R9" s="209">
+      <c r="S9" s="208">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>472.08917197452234</v>
       </c>
-      <c r="S9" s="209">
+      <c r="T9" s="208">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.0000017539599015</v>
+      </c>
+      <c r="U9" s="208">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>944.17834394904469</v>
+      </c>
+      <c r="V9" s="208">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>944.17999999999984</v>
+      </c>
+      <c r="W9" s="213">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>552.34529999999984</v>
+      </c>
+      <c r="X9" s="208">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>0.99951877828583069</v>
+      </c>
+      <c r="Y9" s="166">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>0.10002682254105619</v>
       </c>
-      <c r="T9" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>944.17834394904469</v>
-      </c>
-      <c r="U9" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>94.443159657299404</v>
-      </c>
-      <c r="V9" s="215">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>471.33757961783448</v>
-      </c>
-      <c r="W9" s="209"/>
-      <c r="X9" s="167">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10002682254105619</v>
-      </c>
-      <c r="Y9" s="175">
+      <c r="Z9" s="174">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="Z9" s="175">
+      <c r="AA9" s="174">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AA9" s="175">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
+      <c r="AB9" s="174">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
         <v>5</v>
       </c>
-      <c r="AB9" s="175">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AC9" s="174">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.2</v>
       </c>
-      <c r="AC9" s="175">
+      <c r="AD9" s="174">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>343</v>
       </c>
-      <c r="AD9" s="175">
+      <c r="AE9" s="174">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>5.3795834050611129</v>
       </c>
-      <c r="AE9" s="175">
+      <c r="AF9" s="174">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
         <v>25</v>
       </c>
-      <c r="AF9" s="175">
+      <c r="AG9" s="174">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>2000</v>
       </c>
-      <c r="AG9" s="175" t="e">
+      <c r="AH9" s="174" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
+      <c r="AI9" s="166"/>
     </row>
     <row r="10" spans="1:35" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="146" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D10" s="146" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="146">
         <v>1</v>
@@ -4647,99 +4847,105 @@
       <c r="J10" s="146">
         <v>1</v>
       </c>
-      <c r="K10" s="144">
+      <c r="K10" s="223">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>471.86282004095767</v>
+      </c>
+      <c r="L10" s="144">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="L10" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
+      <c r="M10" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>1</v>
       </c>
-      <c r="M10" s="195">
+      <c r="N10" s="194">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>148</v>
       </c>
-      <c r="N10" s="195">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="O10" s="194">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>1</v>
       </c>
-      <c r="O10" s="195">
+      <c r="P10" s="194">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="P10" s="195">
+      <c r="Q10" s="194">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>796.17834394904469</v>
       </c>
-      <c r="Q10" s="195">
+      <c r="R10" s="194">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>148</v>
       </c>
-      <c r="R10" s="210">
+      <c r="S10" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>472.08917197452234</v>
       </c>
-      <c r="S10" s="210">
+      <c r="T10" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.0000017539599015</v>
+      </c>
+      <c r="U10" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.0000035079198031</v>
+      </c>
+      <c r="W10" s="212">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>1.1700020521330847</v>
+      </c>
+      <c r="X10" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>471.86199241394394</v>
+      </c>
+      <c r="Y10" s="144">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>0.10002682254105619</v>
       </c>
-      <c r="T10" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>2</v>
-      </c>
-      <c r="U10" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.20005364508211237</v>
-      </c>
-      <c r="V10" s="213">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="210"/>
-      <c r="X10" s="144">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10002682254105619</v>
-      </c>
-      <c r="Y10" s="176">
+      <c r="Z10" s="175">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1.2559999999999998</v>
       </c>
-      <c r="Z10" s="176">
+      <c r="AA10" s="175">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>6.756756756756757</v>
       </c>
-      <c r="AA10" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
+      <c r="AB10" s="175">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
         <v>796.1783439490448</v>
       </c>
-      <c r="AB10" s="176">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AC10" s="175">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>148</v>
       </c>
-      <c r="AC10" s="176">
+      <c r="AD10" s="175">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>1</v>
       </c>
-      <c r="AD10" s="176">
+      <c r="AE10" s="175">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="AE10" s="176">
+      <c r="AF10" s="175">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
         <v>5.3795834050611138</v>
       </c>
-      <c r="AF10" s="176">
+      <c r="AG10" s="175">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>8.0127567567567564</v>
       </c>
-      <c r="AG10" s="176" t="e">
+      <c r="AH10" s="175" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="144"/>
       <c r="AI10" s="144"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="139" t="s">
         <v>177</v>
       </c>
@@ -4752,113 +4958,119 @@
         <v>7</v>
       </c>
       <c r="F11" s="140">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="G11" s="140">
         <v>24</v>
       </c>
       <c r="H11" s="140">
+        <v>24</v>
+      </c>
+      <c r="I11" s="140">
         <v>40</v>
       </c>
-      <c r="I11" s="140">
+      <c r="J11" s="140">
         <v>60</v>
       </c>
-      <c r="J11" s="140">
-        <v>300</v>
-      </c>
-      <c r="K11" s="165">
+      <c r="K11" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>1.7525801559501779</v>
+      </c>
+      <c r="L11" s="164">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>4.6091445427728619</v>
       </c>
-      <c r="L11" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
+      <c r="M11" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>96</v>
       </c>
-      <c r="M11" s="190">
+      <c r="N11" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>1.5416666666666667</v>
       </c>
-      <c r="N11" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="O11" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>442.47787610619474</v>
       </c>
-      <c r="O11" s="199">
+      <c r="P11" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1.7993630573248407</v>
       </c>
-      <c r="P11" s="202">
+      <c r="Q11" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>172.73885350318471</v>
       </c>
-      <c r="Q11" s="206">
+      <c r="R11" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>682.15339233038355</v>
       </c>
-      <c r="R11" s="211">
+      <c r="S11" s="210">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>427.44612291678413</v>
       </c>
-      <c r="S11" s="211">
+      <c r="T11" s="210">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.1044432846380201</v>
+      </c>
+      <c r="U11" s="210">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>538.4778761061948</v>
+      </c>
+      <c r="V11" s="210">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>594.7182741916306</v>
+      </c>
+      <c r="W11" s="210">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>347.91019040210386</v>
+      </c>
+      <c r="X11" s="210">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>1.5868448659403853</v>
+      </c>
+      <c r="Y11" s="164">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>9.0567799519805786E-2</v>
       </c>
-      <c r="T11" s="211">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>538.4778761061948</v>
-      </c>
-      <c r="U11" s="211">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>48.76875632903667</v>
-      </c>
-      <c r="V11" s="211">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>141.59292035398232</v>
-      </c>
-      <c r="W11" s="211"/>
-      <c r="X11" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>9.0567799519805786E-2</v>
-      </c>
-      <c r="Y11" s="177">
+      <c r="Z11" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>555.75221238938059</v>
       </c>
-      <c r="Z11" s="177">
+      <c r="AA11" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>648.64864864864865</v>
       </c>
-      <c r="AA11" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
+      <c r="AB11" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
         <v>7.8616352201257858</v>
       </c>
-      <c r="AB11" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AC11" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.34</v>
       </c>
-      <c r="AC11" s="178">
+      <c r="AD11" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>206</v>
       </c>
-      <c r="AD11" s="177">
+      <c r="AE11" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>4.6091445427728619</v>
       </c>
-      <c r="AE11" s="179">
+      <c r="AF11" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
         <v>23.122456529781722</v>
       </c>
-      <c r="AF11" s="177">
+      <c r="AG11" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>1204.4008610380292</v>
       </c>
-      <c r="AG11" s="177" t="e">
+      <c r="AH11" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="166"/>
+      <c r="AI11" s="165"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
         <v>38</v>
       </c>
@@ -4871,115 +5083,121 @@
         <v>1</v>
       </c>
       <c r="F12" s="137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="137">
         <v>3</v>
       </c>
       <c r="H12" s="137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="137">
         <v>2</v>
       </c>
       <c r="J12" s="137">
-        <v>4</v>
-      </c>
-      <c r="K12" s="166">
+        <v>2</v>
+      </c>
+      <c r="K12" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>150.38909982418647</v>
+      </c>
+      <c r="L12" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>2.5402631712645429</v>
-      </c>
-      <c r="L12" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>1.62</v>
-      </c>
-      <c r="M12" s="190">
+        <v>1.9051973784484071</v>
+      </c>
+      <c r="M12" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>2.16</v>
+      </c>
+      <c r="N12" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>91.358024691358025</v>
-      </c>
-      <c r="N12" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>68.518518518518519</v>
+      </c>
+      <c r="O12" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>4.1152263374485596</v>
       </c>
-      <c r="O12" s="199">
+      <c r="P12" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>193.47133757961785</v>
       </c>
-      <c r="P12" s="202">
+      <c r="Q12" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>313.42356687898092</v>
-      </c>
-      <c r="Q12" s="206">
+        <v>417.89808917197456</v>
+      </c>
+      <c r="R12" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>375.95894934715238</v>
-      </c>
-      <c r="R12" s="210">
+        <v>281.96921201036429</v>
+      </c>
+      <c r="S12" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>344.69125811306662</v>
-      </c>
-      <c r="S12" s="210">
+        <v>349.93365059116945</v>
+      </c>
+      <c r="T12" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.3490843169911282</v>
+      </c>
+      <c r="U12" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>6.2752263374485597</v>
+      </c>
+      <c r="V12" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>8.4658094374215285</v>
+      </c>
+      <c r="W12" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>4.9524985208915941</v>
+      </c>
+      <c r="X12" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>111.47494484229146</v>
+      </c>
+      <c r="Y12" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.3033599060369547E-2</v>
-      </c>
-      <c r="T12" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>5.7352263374485597</v>
-      </c>
-      <c r="U12" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.41886422084968983</v>
-      </c>
-      <c r="V12" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="W12" s="210"/>
-      <c r="X12" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.3033599060369547E-2</v>
-      </c>
-      <c r="Y12" s="177">
+        <v>7.4144363494776142E-2</v>
+      </c>
+      <c r="Z12" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>5.1687242798353905</v>
       </c>
-      <c r="Z12" s="177">
+      <c r="AA12" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>10.945945945945946</v>
-      </c>
-      <c r="AA12" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>487.32943469785585</v>
-      </c>
-      <c r="AB12" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>14.594594594594593</v>
+      </c>
+      <c r="AB12" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>365.49707602339186</v>
+      </c>
+      <c r="AC12" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>36</v>
       </c>
-      <c r="AC12" s="178">
+      <c r="AD12" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>2</v>
       </c>
-      <c r="AD12" s="177">
+      <c r="AE12" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>2.5402631712645429</v>
-      </c>
-      <c r="AE12" s="179">
+        <v>1.9051973784484071</v>
+      </c>
+      <c r="AF12" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>13.536928741607106</v>
-      </c>
-      <c r="AF12" s="177">
+        <v>10.15269655620533</v>
+      </c>
+      <c r="AG12" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>16.114670225781335</v>
-      </c>
-      <c r="AG12" s="177" t="e">
+        <v>19.763318874429984</v>
+      </c>
+      <c r="AH12" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="166"/>
+      <c r="AI12" s="165"/>
     </row>
     <row r="13" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="142" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="142"/>
       <c r="C13" s="142"/>
@@ -4990,115 +5208,121 @@
         <v>19</v>
       </c>
       <c r="F13" s="143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="143">
         <v>5</v>
       </c>
       <c r="H13" s="143">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I13" s="143">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J13" s="143">
-        <v>10</v>
-      </c>
-      <c r="K13" s="166">
+        <v>2</v>
+      </c>
+      <c r="K13" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>99.113706927211737</v>
+      </c>
+      <c r="L13" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.91320864991233208</v>
-      </c>
-      <c r="L13" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>11.6</v>
-      </c>
-      <c r="M13" s="190">
+        <v>3.1041577976443882</v>
+      </c>
+      <c r="M13" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N13" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>12.758620689655173</v>
-      </c>
-      <c r="N13" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>10.593220338983052</v>
-      </c>
-      <c r="O13" s="199">
+        <v>63.793103448275865</v>
+      </c>
+      <c r="O13" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>7.2016460905349797</v>
+      </c>
+      <c r="P13" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>75.159235668789805</v>
-      </c>
-      <c r="P13" s="202">
+        <v>110.55505004549592</v>
+      </c>
+      <c r="Q13" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>871.84713375796173</v>
-      </c>
-      <c r="Q13" s="206">
+        <v>256.48771610555053</v>
+      </c>
+      <c r="R13" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>135.15488018702516</v>
-      </c>
-      <c r="R13" s="210">
+        <v>459.41535405136943</v>
+      </c>
+      <c r="S13" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>503.50100697249343</v>
-      </c>
-      <c r="S13" s="210">
+        <v>357.95153507845998</v>
+      </c>
+      <c r="T13" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.3188656947553579</v>
+      </c>
+      <c r="U13" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>9.5216460905349791</v>
+      </c>
+      <c r="V13" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.557772386408052</v>
+      </c>
+      <c r="W13" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>7.3462968460487099</v>
+      </c>
+      <c r="X13" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>75.150720290436226</v>
+      </c>
+      <c r="Y13" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10668239998607448</v>
-      </c>
-      <c r="T13" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>22.193220338983053</v>
-      </c>
-      <c r="U13" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.3676260091824735</v>
-      </c>
-      <c r="V13" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>12.288135593220341</v>
-      </c>
-      <c r="W13" s="210"/>
-      <c r="X13" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10668239998607448</v>
-      </c>
-      <c r="Y13" s="177">
+        <v>7.584320252006134E-2</v>
+      </c>
+      <c r="Z13" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>13.305084745762713</v>
-      </c>
-      <c r="Z13" s="177">
+        <v>9.0452674897119323</v>
+      </c>
+      <c r="AA13" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>78.378378378378372</v>
-      </c>
-      <c r="AA13" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>67.567567567567565</v>
-      </c>
-      <c r="AB13" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>14</v>
-      </c>
-      <c r="AC13" s="178">
+        <v>15.675675675675675</v>
+      </c>
+      <c r="AB13" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>337.83783783783787</v>
+      </c>
+      <c r="AC13" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>20.571428571428573</v>
+      </c>
+      <c r="AD13" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>11</v>
-      </c>
-      <c r="AD13" s="177">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.91320864991233208</v>
-      </c>
-      <c r="AE13" s="179">
+        <v>3.1041577976443882</v>
+      </c>
+      <c r="AF13" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>4.8262548262548259</v>
-      </c>
-      <c r="AF13" s="177">
+        <v>16.422672672672672</v>
+      </c>
+      <c r="AG13" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>91.683463124141085</v>
-      </c>
-      <c r="AG13" s="177" t="e">
+        <v>24.720943165387609</v>
+      </c>
+      <c r="AH13" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="166"/>
+      <c r="AI13" s="165"/>
     </row>
     <row r="14" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="142" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="142"/>
       <c r="C14" s="142"/>
@@ -5109,115 +5333,121 @@
         <v>210</v>
       </c>
       <c r="F14" s="149">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G14" s="149">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H14" s="149">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I14" s="149">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J14" s="149">
-        <v>20</v>
-      </c>
-      <c r="K14" s="166">
+        <v>4</v>
+      </c>
+      <c r="K14" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>47.01678938064947</v>
+      </c>
+      <c r="L14" s="219">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.77408967054743616</v>
-      </c>
-      <c r="L14" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="M14" s="190">
+        <v>3.3258833546189872</v>
+      </c>
+      <c r="M14" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="N14" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>4.2045454545454541</v>
-      </c>
-      <c r="N14" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>27.247956403269754</v>
-      </c>
-      <c r="O14" s="199">
+        <v>31.896551724137932</v>
+      </c>
+      <c r="O14" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>15.4320987654321</v>
+      </c>
+      <c r="P14" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>29.219745222929941</v>
-      </c>
-      <c r="P14" s="202">
+        <v>51.592356687898089</v>
+      </c>
+      <c r="Q14" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>1028.535031847134</v>
-      </c>
-      <c r="Q14" s="206">
+        <v>239.38853503184711</v>
+      </c>
+      <c r="R14" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>114.56527124102054</v>
-      </c>
-      <c r="R14" s="210">
+        <v>492.23073648361009</v>
+      </c>
+      <c r="S14" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>571.55015154407727</v>
-      </c>
-      <c r="S14" s="210">
+        <v>365.80963575772859</v>
+      </c>
+      <c r="T14" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2905346219820728</v>
+      </c>
+      <c r="U14" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>20.072098765432099</v>
+      </c>
+      <c r="V14" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>25.903738392633745</v>
+      </c>
+      <c r="W14" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>15.15368695969074</v>
+      </c>
+      <c r="X14" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>36.432024821184996</v>
+      </c>
+      <c r="Y14" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.12110073472496115</v>
-      </c>
-      <c r="T14" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>62.447956403269757</v>
-      </c>
-      <c r="U14" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>7.5624934025083101</v>
-      </c>
-      <c r="V14" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>47.956403269754773</v>
-      </c>
-      <c r="W14" s="210"/>
-      <c r="X14" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.12110073472496115</v>
-      </c>
-      <c r="Y14" s="177">
+        <v>7.7508186359591932E-2</v>
+      </c>
+      <c r="Z14" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>34.223433242506808</v>
-      </c>
-      <c r="Z14" s="177">
+        <v>19.382716049382719</v>
+      </c>
+      <c r="AA14" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>237.83783783783787</v>
-      </c>
-      <c r="AA14" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>21.551724137931032</v>
-      </c>
-      <c r="AB14" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>5.5000000000000009</v>
-      </c>
-      <c r="AC14" s="178">
+        <v>31.351351351351351</v>
+      </c>
+      <c r="AB14" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>168.91891891891893</v>
+      </c>
+      <c r="AC14" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="AD14" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>30</v>
-      </c>
-      <c r="AD14" s="177">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.77408967054743616</v>
-      </c>
-      <c r="AE14" s="179">
+        <v>3.3258833546189872</v>
+      </c>
+      <c r="AF14" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>3.9184952978056415</v>
-      </c>
-      <c r="AF14" s="177">
+        <v>17.595720720720724</v>
+      </c>
+      <c r="AG14" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>272.06127108034468</v>
-      </c>
-      <c r="AG14" s="177" t="e">
+        <v>50.73406740073407</v>
+      </c>
+      <c r="AH14" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="166"/>
-      <c r="AI14" s="166"/>
+      <c r="AI14" s="165"/>
     </row>
     <row r="15" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="142" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" s="142"/>
       <c r="C15" s="142"/>
@@ -5228,115 +5458,121 @@
         <v>211</v>
       </c>
       <c r="F15" s="143">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G15" s="143">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H15" s="143">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I15" s="143">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J15" s="143">
-        <v>2</v>
-      </c>
-      <c r="K15" s="166">
+        <v>10</v>
+      </c>
+      <c r="K15" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.798095913814294</v>
+      </c>
+      <c r="L15" s="219">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="L15" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>2.08</v>
-      </c>
-      <c r="M15" s="190">
+        <v>3.7268932617769828</v>
+      </c>
+      <c r="M15" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N15" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>71.153846153846146</v>
-      </c>
-      <c r="N15" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>2.028397565922921</v>
-      </c>
-      <c r="O15" s="199">
+        <v>9.4871794871794854</v>
+      </c>
+      <c r="O15" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>58.139534883720934</v>
+      </c>
+      <c r="P15" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>392.515923566879</v>
-      </c>
-      <c r="P15" s="202">
+        <v>13.694267515923567</v>
+      </c>
+      <c r="Q15" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>816.43312101910828</v>
-      </c>
-      <c r="Q15" s="206">
+        <v>213.63057324840767</v>
+      </c>
+      <c r="R15" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>144.32828834451553</v>
-      </c>
-      <c r="R15" s="210">
+        <v>551.58020274299338</v>
+      </c>
+      <c r="S15" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>480.38070468181189</v>
-      </c>
-      <c r="S15" s="210">
+        <v>382.60538799570054</v>
+      </c>
+      <c r="T15" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2338822578350752</v>
+      </c>
+      <c r="U15" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>73.739534883720935</v>
+      </c>
+      <c r="V15" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>90.985903794033874</v>
+      </c>
+      <c r="W15" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>53.226753719509816</v>
+      </c>
+      <c r="X15" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>10.372218120932677</v>
+      </c>
+      <c r="Y15" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="T15" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>4.108397565922921</v>
-      </c>
-      <c r="U15" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.4181676690192655</v>
-      </c>
-      <c r="V15" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>2.1095334685598379</v>
-      </c>
-      <c r="W15" s="210"/>
-      <c r="X15" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="Y15" s="177">
+        <v>8.1066890579653633E-2</v>
+      </c>
+      <c r="Z15" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>2.5476673427991887</v>
-      </c>
-      <c r="Z15" s="177">
+        <v>73.023255813953483</v>
+      </c>
+      <c r="AA15" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>14.054054054054054</v>
-      </c>
-      <c r="AA15" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>381.09756097560984</v>
-      </c>
-      <c r="AB15" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>73</v>
-      </c>
-      <c r="AC15" s="178">
+        <v>105.40540540540543</v>
+      </c>
+      <c r="AB15" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>49.019607843137258</v>
+      </c>
+      <c r="AC15" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>2.56</v>
+      </c>
+      <c r="AD15" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>2</v>
-      </c>
-      <c r="AD15" s="177">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="AE15" s="179">
+        <v>3.7268932617769828</v>
+      </c>
+      <c r="AF15" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>5.2205145339124632</v>
-      </c>
-      <c r="AF15" s="177">
+        <v>19.14828431372549</v>
+      </c>
+      <c r="AG15" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>16.601721396853243</v>
-      </c>
-      <c r="AG15" s="177" t="e">
+        <v>178.4286612193589</v>
+      </c>
+      <c r="AH15" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="166"/>
+      <c r="AI15" s="165"/>
     </row>
     <row r="16" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="142" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" s="142"/>
       <c r="C16" s="142"/>
@@ -5347,115 +5583,121 @@
         <v>212</v>
       </c>
       <c r="F16" s="149">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G16" s="149">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H16" s="149">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16" s="149">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J16" s="149">
-        <v>10</v>
-      </c>
-      <c r="K16" s="166">
+        <v>24</v>
+      </c>
+      <c r="K16" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>4.0983748493313668</v>
+      </c>
+      <c r="L16" s="219">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.84129761744514753</v>
-      </c>
-      <c r="L16" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>13.599999999999998</v>
-      </c>
-      <c r="M16" s="190">
+        <v>3.6127455670366113</v>
+      </c>
+      <c r="M16" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>49.92</v>
+      </c>
+      <c r="N16" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>10.882352941176473</v>
-      </c>
-      <c r="N16" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>11.441647597254004</v>
-      </c>
-      <c r="O16" s="199">
+        <v>2.9647435897435894</v>
+      </c>
+      <c r="O16" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>180.34825870646765</v>
+      </c>
+      <c r="P16" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>69.585987261146514</v>
-      </c>
-      <c r="P16" s="202">
+        <v>4.4146716450691859</v>
+      </c>
+      <c r="Q16" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>946.36942675159241</v>
-      </c>
-      <c r="Q16" s="206">
+        <v>220.38040852185375</v>
+      </c>
+      <c r="R16" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>124.51204738188183</v>
-      </c>
-      <c r="R16" s="210">
+        <v>534.68634392141848</v>
+      </c>
+      <c r="S16" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>535.44073706673714</v>
-      </c>
-      <c r="S16" s="210">
+        <v>377.5333762216361</v>
+      </c>
+      <c r="T16" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2504589785536024</v>
+      </c>
+      <c r="U16" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>230.26825870646763</v>
+      </c>
+      <c r="V16" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>287.94101157540621</v>
+      </c>
+      <c r="W16" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>168.44549177161261</v>
+      </c>
+      <c r="X16" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>3.277496439005084</v>
+      </c>
+      <c r="Y16" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.11344982848011027</v>
-      </c>
-      <c r="T16" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>25.041647597254002</v>
-      </c>
-      <c r="U16" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.8409706247678321</v>
-      </c>
-      <c r="V16" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>15.560640732265444</v>
-      </c>
-      <c r="W16" s="210"/>
-      <c r="X16" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.11344982848011027</v>
-      </c>
-      <c r="Y16" s="177">
+        <v>7.9992226614096995E-2</v>
+      </c>
+      <c r="Z16" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>14.370709382151027</v>
-      </c>
-      <c r="Z16" s="177">
+        <v>226.51741293532334</v>
+      </c>
+      <c r="AA16" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>91.891891891891888</v>
-      </c>
-      <c r="AA16" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>56.818181818181827</v>
-      </c>
-      <c r="AB16" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>13</v>
-      </c>
-      <c r="AC16" s="178">
+        <v>337.29729729729729</v>
+      </c>
+      <c r="AB16" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>15.052986512524086</v>
+      </c>
+      <c r="AC16" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.82758620689655182</v>
+      </c>
+      <c r="AD16" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>12</v>
-      </c>
-      <c r="AD16" s="177">
+        <v>94</v>
+      </c>
+      <c r="AE16" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.84129761744514753</v>
-      </c>
-      <c r="AE16" s="179">
+        <v>3.6127455670366113</v>
+      </c>
+      <c r="AF16" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>4.3706293706293717</v>
-      </c>
-      <c r="AF16" s="177">
+        <v>18.189025369299934</v>
+      </c>
+      <c r="AG16" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>106.26260127404291</v>
-      </c>
-      <c r="AG16" s="177" t="e">
+        <v>563.81471023262066</v>
+      </c>
+      <c r="AH16" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="166"/>
+      <c r="AI16" s="165"/>
     </row>
     <row r="17" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="142" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="142"/>
       <c r="C17" s="142"/>
@@ -5466,115 +5708,121 @@
         <v>19</v>
       </c>
       <c r="F17" s="143">
+        <v>8</v>
+      </c>
+      <c r="G17" s="143">
         <v>3</v>
       </c>
-      <c r="G17" s="143">
-        <v>5</v>
-      </c>
       <c r="H17" s="143">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17" s="143">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J17" s="143">
-        <v>10</v>
-      </c>
-      <c r="K17" s="166">
+        <v>2</v>
+      </c>
+      <c r="K17" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>89.786872864641239</v>
+      </c>
+      <c r="L17" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.98085373509102325</v>
-      </c>
-      <c r="L17" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>10.8</v>
-      </c>
-      <c r="M17" s="190">
+        <v>3.8660790226552231</v>
+      </c>
+      <c r="M17" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>2.16</v>
+      </c>
+      <c r="N17" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>13.703703703703702</v>
-      </c>
-      <c r="N17" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>10.593220338983052</v>
-      </c>
-      <c r="O17" s="199">
+        <v>68.518518518518519</v>
+      </c>
+      <c r="O17" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>8.3507306889352826</v>
+      </c>
+      <c r="P17" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>75.159235668789805</v>
-      </c>
-      <c r="P17" s="202">
+        <v>95.342356687898089</v>
+      </c>
+      <c r="Q17" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>811.71974522292999</v>
-      </c>
-      <c r="Q17" s="206">
+        <v>205.93949044585989</v>
+      </c>
+      <c r="R17" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>145.16635279347145</v>
-      </c>
-      <c r="R17" s="210">
+        <v>572.17969535297311</v>
+      </c>
+      <c r="S17" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>478.44304900820072</v>
-      </c>
-      <c r="S17" s="210">
+        <v>389.05959289941649</v>
+      </c>
+      <c r="T17" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2134130827666016</v>
+      </c>
+      <c r="U17" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>10.510730688935283</v>
+      </c>
+      <c r="V17" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.753858127390489</v>
+      </c>
+      <c r="W17" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>7.4610070045234353</v>
+      </c>
+      <c r="X17" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>73.995306412821677</v>
+      </c>
+      <c r="Y17" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10137308966223842</v>
-      </c>
-      <c r="T17" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>21.393220338983053</v>
-      </c>
-      <c r="U17" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.1686968435877514</v>
-      </c>
-      <c r="V17" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>11.440677966101697</v>
-      </c>
-      <c r="W17" s="210"/>
-      <c r="X17" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10137308966223842</v>
-      </c>
-      <c r="Y17" s="177">
+        <v>8.2434415290816576E-2</v>
+      </c>
+      <c r="Z17" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>13.305084745762713</v>
-      </c>
-      <c r="Z17" s="177">
+        <v>10.488517745302715</v>
+      </c>
+      <c r="AA17" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>72.972972972972983</v>
-      </c>
-      <c r="AA17" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>73.099415204678365</v>
-      </c>
-      <c r="AB17" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>14</v>
-      </c>
-      <c r="AC17" s="178">
+        <v>14.594594594594593</v>
+      </c>
+      <c r="AB17" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>365.49707602339186</v>
+      </c>
+      <c r="AC17" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>17.75</v>
+      </c>
+      <c r="AD17" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>10</v>
-      </c>
-      <c r="AD17" s="177">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.98085373509102325</v>
-      </c>
-      <c r="AE17" s="179">
+        <v>3.8660790226552231</v>
+      </c>
+      <c r="AF17" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>5.2213868003341686</v>
-      </c>
-      <c r="AF17" s="177">
+        <v>20.591384564698131</v>
+      </c>
+      <c r="AG17" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>86.278057718735695</v>
-      </c>
-      <c r="AG17" s="177" t="e">
+        <v>25.083112339897308</v>
+      </c>
+      <c r="AH17" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="166"/>
+      <c r="AI17" s="165"/>
     </row>
     <row r="18" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" s="142"/>
       <c r="C18" s="142"/>
@@ -5585,115 +5833,121 @@
         <v>210</v>
       </c>
       <c r="F18" s="143">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G18" s="143">
         <v>2</v>
       </c>
       <c r="H18" s="143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I18" s="143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="143">
-        <v>2</v>
-      </c>
-      <c r="K18" s="166">
+        <v>3</v>
+      </c>
+      <c r="K18" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>37.818519196630071</v>
+      </c>
+      <c r="L18" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="L18" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>2.08</v>
-      </c>
-      <c r="M18" s="190">
+        <v>6.9980965177471726</v>
+      </c>
+      <c r="M18" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>3.12</v>
+      </c>
+      <c r="N18" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>71.153846153846146</v>
-      </c>
-      <c r="N18" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>2.028397565922921</v>
-      </c>
-      <c r="O18" s="199">
+        <v>47.435897435897431</v>
+      </c>
+      <c r="O18" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>21.834061135371179</v>
+      </c>
+      <c r="P18" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>392.515923566879</v>
-      </c>
-      <c r="P18" s="202">
+        <v>36.464968152866248</v>
+      </c>
+      <c r="Q18" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>816.43312101910828</v>
-      </c>
-      <c r="Q18" s="206">
+        <v>113.77070063694269</v>
+      </c>
+      <c r="R18" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>144.32828834451553</v>
-      </c>
-      <c r="R18" s="210">
+        <v>1035.7182846265814</v>
+      </c>
+      <c r="S18" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>480.38070468181189</v>
-      </c>
-      <c r="S18" s="210">
+        <v>574.744492631762</v>
+      </c>
+      <c r="T18" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.82139108082322654</v>
+      </c>
+      <c r="U18" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>24.95406113537118</v>
+      </c>
+      <c r="V18" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>20.497043246911407</v>
+      </c>
+      <c r="W18" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>11.990770299443172</v>
+      </c>
+      <c r="X18" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>46.042037805824535</v>
+      </c>
+      <c r="Y18" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="T18" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>4.108397565922921</v>
-      </c>
-      <c r="U18" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.4181676690192655</v>
-      </c>
-      <c r="V18" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>2.1095334685598379</v>
-      </c>
-      <c r="W18" s="210"/>
-      <c r="X18" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="Y18" s="177">
+        <v>0.12177755556323</v>
+      </c>
+      <c r="Z18" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>2.5476673427991887</v>
-      </c>
-      <c r="Z18" s="177">
+        <v>27.4235807860262</v>
+      </c>
+      <c r="AA18" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>14.054054054054054</v>
-      </c>
-      <c r="AA18" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>381.09756097560984</v>
-      </c>
-      <c r="AB18" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>73</v>
-      </c>
-      <c r="AC18" s="178">
+        <v>21.081081081081084</v>
+      </c>
+      <c r="AB18" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>254.06504065040653</v>
+      </c>
+      <c r="AC18" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>6.8</v>
+      </c>
+      <c r="AD18" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>2</v>
-      </c>
-      <c r="AD18" s="177">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="AE18" s="179">
+        <v>6.9980965177471726</v>
+      </c>
+      <c r="AF18" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>5.2205145339124632</v>
-      </c>
-      <c r="AF18" s="177">
+        <v>37.362505978000961</v>
+      </c>
+      <c r="AG18" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>16.601721396853243</v>
-      </c>
-      <c r="AG18" s="177" t="e">
+        <v>48.504661867107288</v>
+      </c>
+      <c r="AH18" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="166"/>
+      <c r="AI18" s="165"/>
     </row>
     <row r="19" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="142"/>
       <c r="C19" s="142"/>
@@ -5704,115 +5958,121 @@
         <v>212</v>
       </c>
       <c r="F19" s="143">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G19" s="143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J19" s="143">
-        <v>2</v>
-      </c>
-      <c r="K19" s="166">
+        <v>7</v>
+      </c>
+      <c r="K19" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>16.618663282514984</v>
+      </c>
+      <c r="L19" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="L19" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>2.08</v>
-      </c>
-      <c r="M19" s="190">
+        <v>5.7603686635944698</v>
+      </c>
+      <c r="M19" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>8.4</v>
+      </c>
+      <c r="N19" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>71.153846153846146</v>
-      </c>
-      <c r="N19" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>2.028397565922921</v>
-      </c>
-      <c r="O19" s="199">
+        <v>17.619047619047617</v>
+      </c>
+      <c r="O19" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>48.387096774193552</v>
+      </c>
+      <c r="P19" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>392.515923566879</v>
-      </c>
-      <c r="P19" s="202">
+        <v>16.45435244161359</v>
+      </c>
+      <c r="Q19" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>816.43312101910828</v>
-      </c>
-      <c r="Q19" s="206">
+        <v>138.21656050955417</v>
+      </c>
+      <c r="R19" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>144.32828834451553</v>
-      </c>
-      <c r="R19" s="210">
+        <v>852.53456221198155</v>
+      </c>
+      <c r="S19" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>480.38070468181189</v>
-      </c>
-      <c r="S19" s="210">
+        <v>495.37556136076785</v>
+      </c>
+      <c r="T19" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.95299412571584319</v>
+      </c>
+      <c r="U19" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>56.78709677419355</v>
+      </c>
+      <c r="V19" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>54.117769642263561</v>
+      </c>
+      <c r="W19" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>31.658895240724181</v>
+      </c>
+      <c r="X19" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>17.438369066579341</v>
+      </c>
+      <c r="Y19" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="T19" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>4.108397565922921</v>
-      </c>
-      <c r="U19" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.4181676690192655</v>
-      </c>
-      <c r="V19" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>2.1095334685598379</v>
-      </c>
-      <c r="W19" s="210"/>
-      <c r="X19" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.101783642480892</v>
-      </c>
-      <c r="Y19" s="177">
+        <v>0.10496077078015205</v>
+      </c>
+      <c r="Z19" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>2.5476673427991887</v>
-      </c>
-      <c r="Z19" s="177">
+        <v>60.774193548387082</v>
+      </c>
+      <c r="AA19" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>14.054054054054054</v>
-      </c>
-      <c r="AA19" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>381.09756097560984</v>
-      </c>
-      <c r="AB19" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>73</v>
-      </c>
-      <c r="AC19" s="178">
+        <v>56.756756756756758</v>
+      </c>
+      <c r="AB19" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>93.005952380952365</v>
+      </c>
+      <c r="AC19" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="AD19" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>2</v>
-      </c>
-      <c r="AD19" s="177">
+        <v>20</v>
+      </c>
+      <c r="AE19" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>0.97519113746294273</v>
-      </c>
-      <c r="AE19" s="179">
+        <v>5.7603686635944698</v>
+      </c>
+      <c r="AF19" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>5.2205145339124632</v>
-      </c>
-      <c r="AF19" s="177">
+        <v>30.328027950310553</v>
+      </c>
+      <c r="AG19" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>16.601721396853243</v>
-      </c>
-      <c r="AG19" s="177" t="e">
+        <v>117.53095030514385</v>
+      </c>
+      <c r="AH19" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="166"/>
+      <c r="AI19" s="165"/>
     </row>
     <row r="20" spans="1:35" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="142"/>
       <c r="C20" s="142"/>
@@ -5823,111 +6083,117 @@
         <v>212</v>
       </c>
       <c r="F20" s="149">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="G20" s="149">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H20" s="149">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I20" s="149">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J20" s="149">
-        <v>100</v>
-      </c>
-      <c r="K20" s="166">
+        <v>16</v>
+      </c>
+      <c r="K20" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>4.00445615147349</v>
+      </c>
+      <c r="L20" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>63.694267515923585</v>
-      </c>
-      <c r="L20" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
-        <v>5</v>
-      </c>
-      <c r="M20" s="190">
+        <v>9.2286834192439855</v>
+      </c>
+      <c r="M20" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>23.04</v>
+      </c>
+      <c r="N20" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>29.6</v>
-      </c>
-      <c r="N20" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>318.47133757961791</v>
-      </c>
-      <c r="O20" s="199">
+        <v>6.4236111111111116</v>
+      </c>
+      <c r="O20" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>212.62886597938143</v>
+      </c>
+      <c r="P20" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>2.4999999999999996</v>
-      </c>
-      <c r="P20" s="202">
+        <v>3.7444508782088408</v>
+      </c>
+      <c r="Q20" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>12.499999999999998</v>
-      </c>
-      <c r="Q20" s="206">
+        <v>86.272148233931688</v>
+      </c>
+      <c r="R20" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>9426.7515923566898</v>
-      </c>
-      <c r="R20" s="210">
+        <v>1365.8451460481099</v>
+      </c>
+      <c r="S20" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>4719.6257961783449</v>
-      </c>
-      <c r="S20" s="210">
+        <v>726.05864714102074</v>
+      </c>
+      <c r="T20" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.65020918332001765</v>
+      </c>
+      <c r="U20" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>235.66886597938142</v>
+      </c>
+      <c r="V20" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>153.23406088240827</v>
+      </c>
+      <c r="W20" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>89.641925616208837</v>
+      </c>
+      <c r="X20" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>6.1587197692693785</v>
+      </c>
+      <c r="Y20" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>1</v>
-      </c>
-      <c r="T20" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>323.47133757961791</v>
-      </c>
-      <c r="U20" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>323.47133757961791</v>
-      </c>
-      <c r="V20" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>15.923566878980896</v>
-      </c>
-      <c r="W20" s="210"/>
-      <c r="X20" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="177">
+        <v>0.15383818092716953</v>
+      </c>
+      <c r="Z20" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>400.00000000000006</v>
-      </c>
-      <c r="Z20" s="177">
+        <v>267.06185567010306</v>
+      </c>
+      <c r="AA20" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>33.783783783783782</v>
-      </c>
-      <c r="AA20" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
-        <v>159.23566878980893</v>
-      </c>
-      <c r="AB20" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.5</v>
-      </c>
-      <c r="AC20" s="178">
+        <v>155.67567567567568</v>
+      </c>
+      <c r="AB20" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>33.386752136752136</v>
+      </c>
+      <c r="AC20" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.70303030303030312</v>
+      </c>
+      <c r="AD20" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>39</v>
-      </c>
-      <c r="AD20" s="177">
+        <v>69</v>
+      </c>
+      <c r="AE20" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>63.694267515923585</v>
-      </c>
-      <c r="AE20" s="179">
+        <v>9.2286834192439855</v>
+      </c>
+      <c r="AF20" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>318.47133757961785</v>
-      </c>
-      <c r="AF20" s="177">
+        <v>47.489776746242256</v>
+      </c>
+      <c r="AG20" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>433.78378378378386</v>
-      </c>
-      <c r="AG20" s="177" t="e">
+        <v>422.73753134577873</v>
+      </c>
+      <c r="AH20" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="166"/>
+      <c r="AI20" s="165"/>
     </row>
     <row r="21" spans="1:35" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="142" t="s">
@@ -5935,265 +6201,614 @@
       </c>
       <c r="B21" s="142"/>
       <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
+      <c r="D21" s="142" t="s">
+        <v>221</v>
+      </c>
       <c r="E21" s="142"/>
       <c r="F21" s="143">
+        <v>40</v>
+      </c>
+      <c r="G21" s="143">
         <v>14</v>
       </c>
-      <c r="G21" s="143">
+      <c r="H21" s="143">
         <v>7</v>
-      </c>
-      <c r="H21" s="143">
-        <v>13</v>
       </c>
       <c r="I21" s="143">
         <v>13</v>
       </c>
       <c r="J21" s="143">
-        <v>40</v>
-      </c>
-      <c r="K21" s="166">
+        <v>13</v>
+      </c>
+      <c r="K21" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>14.878662749208166</v>
+      </c>
+      <c r="L21" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="L21" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
+      <c r="M21" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>19.760000000000002</v>
       </c>
-      <c r="M21" s="190">
+      <c r="N21" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>7.4898785425101213</v>
       </c>
-      <c r="N21" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="O21" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>43.668122270742359</v>
       </c>
-      <c r="O21" s="199">
+      <c r="P21" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>18.232484076433124</v>
       </c>
-      <c r="P21" s="202">
+      <c r="Q21" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>360.27388535031855</v>
       </c>
-      <c r="Q21" s="206">
+      <c r="R21" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>327.06893198734156</v>
       </c>
-      <c r="R21" s="210">
+      <c r="S21" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>343.67140866883005</v>
       </c>
-      <c r="S21" s="210">
+      <c r="T21" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.3736667877859956</v>
+      </c>
+      <c r="U21" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>63.428122270742364</v>
+      </c>
+      <c r="V21" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>87.129104974948035</v>
+      </c>
+      <c r="W21" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>50.970526410344597</v>
+      </c>
+      <c r="X21" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>10.831347806835177</v>
+      </c>
+      <c r="Y21" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.2817512131388359E-2</v>
       </c>
-      <c r="T21" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>63.428122270742364</v>
-      </c>
-      <c r="U21" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>4.6186780629209663</v>
-      </c>
-      <c r="V21" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>21.572052401746724</v>
-      </c>
-      <c r="W21" s="210"/>
-      <c r="X21" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.2817512131388359E-2</v>
-      </c>
-      <c r="Y21" s="177">
+      <c r="Z21" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>54.8471615720524</v>
       </c>
-      <c r="Z21" s="177">
+      <c r="AA21" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>133.51351351351352</v>
       </c>
-      <c r="AA21" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
+      <c r="AB21" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
         <v>38.771712158808931</v>
       </c>
-      <c r="AB21" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AC21" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.4</v>
       </c>
-      <c r="AC21" s="178">
+      <c r="AD21" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>29</v>
       </c>
-      <c r="AD21" s="177">
+      <c r="AE21" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="AE21" s="179">
+      <c r="AF21" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
         <v>11.403444752590863</v>
       </c>
-      <c r="AF21" s="177">
+      <c r="AG21" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>188.3606750855659</v>
       </c>
-      <c r="AG21" s="177" t="e">
+      <c r="AH21" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="166"/>
+      <c r="AI21" s="165"/>
     </row>
     <row r="22" spans="1:35" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="142" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B22" s="142"/>
       <c r="C22" s="142"/>
-      <c r="D22" s="148"/>
+      <c r="D22" s="148" t="s">
+        <v>221</v>
+      </c>
       <c r="E22" s="142"/>
       <c r="F22" s="149">
+        <v>53</v>
+      </c>
+      <c r="G22" s="149">
         <v>13</v>
       </c>
-      <c r="G22" s="149">
+      <c r="H22" s="149">
         <v>10</v>
-      </c>
-      <c r="H22" s="149">
-        <v>11</v>
       </c>
       <c r="I22" s="149">
         <v>11</v>
       </c>
       <c r="J22" s="149">
-        <v>53</v>
-      </c>
-      <c r="K22" s="166">
+        <v>11</v>
+      </c>
+      <c r="K22" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.268807281048844</v>
+      </c>
+      <c r="L22" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="L22" s="187">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $F$4,-$I$4)))/$J$10</f>
+      <c r="M22" s="186">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>16.28</v>
       </c>
-      <c r="M22" s="190">
+      <c r="N22" s="189">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.0909090909090899</v>
       </c>
-      <c r="N22" s="198">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="O22" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>60.640732265446225</v>
       </c>
-      <c r="O22" s="199">
+      <c r="P22" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>13.129431558706887</v>
       </c>
-      <c r="P22" s="202">
+      <c r="Q22" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>213.74714577574815</v>
       </c>
-      <c r="Q22" s="206">
+      <c r="R22" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>551.27938423132923</v>
       </c>
-      <c r="R22" s="210">
+      <c r="S22" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>382.51326500353866</v>
       </c>
-      <c r="S22" s="210">
+      <c r="T22" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2341794211911385</v>
+      </c>
+      <c r="U22" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>76.920732265446219</v>
+      </c>
+      <c r="V22" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>94.933984824966956</v>
+      </c>
+      <c r="W22" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>55.536381122605668</v>
+      </c>
+      <c r="X22" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>9.9408619771085629</v>
+      </c>
+      <c r="Y22" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>8.1047371449082625E-2</v>
       </c>
-      <c r="T22" s="210">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>76.920732265446219</v>
-      </c>
-      <c r="U22" s="210">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>6.2342231600530544</v>
-      </c>
-      <c r="V22" s="210">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD]]/Tabela2[Health]</f>
-        <v>18.627002288329521</v>
-      </c>
-      <c r="W22" s="210"/>
-      <c r="X22" s="166">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.1047371449082625E-2</v>
-      </c>
-      <c r="Y22" s="177">
+      <c r="Z22" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>76.164759725400444</v>
       </c>
-      <c r="Z22" s="177">
+      <c r="AA22" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="AA22" s="177">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$F$4,$I$4)))/$J$9)</f>
+      <c r="AB22" s="176">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
         <v>47.15201810637496</v>
       </c>
-      <c r="AB22" s="177">
-        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AC22" s="176">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.4528301886792452</v>
       </c>
-      <c r="AC22" s="178">
+      <c r="AD22" s="177">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AD22" s="177">
+      <c r="AE22" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="AE22" s="179">
+      <c r="AF22" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
         <v>19.223515074137485</v>
       </c>
-      <c r="AF22" s="177">
+      <c r="AG22" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>186.16475972540047</v>
       </c>
-      <c r="AG22" s="177" t="e">
+      <c r="AH22" s="176" t="e">
         <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="166"/>
+      <c r="AI22" s="165"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
+      <c r="A23" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137">
+        <v>125</v>
+      </c>
+      <c r="G23" s="137">
+        <v>25</v>
+      </c>
+      <c r="H23" s="137">
+        <v>25</v>
+      </c>
+      <c r="I23" s="137">
+        <v>25</v>
+      </c>
+      <c r="J23" s="137">
+        <v>25</v>
+      </c>
+      <c r="K23" s="225">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>3.9777182676619431</v>
+      </c>
+      <c r="L23" s="215">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.8418982050651591</v>
+      </c>
+      <c r="M23" s="216">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>49</v>
+      </c>
+      <c r="N23" s="189">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.0204081632653059</v>
+      </c>
+      <c r="O23" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>188.2530120481928</v>
+      </c>
+      <c r="P23" s="198">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>4.2292993630573248</v>
+      </c>
+      <c r="Q23" s="209">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>207.23566878980893</v>
+      </c>
+      <c r="R23" s="217">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>568.60093434964358</v>
+      </c>
+      <c r="S23" s="209">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>387.91830156972628</v>
+      </c>
+      <c r="T23" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2169830556838119</v>
+      </c>
+      <c r="U23" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>237.2530120481928</v>
+      </c>
+      <c r="V23" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>288.7328955725979</v>
+      </c>
+      <c r="W23" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>168.90874390996976</v>
+      </c>
+      <c r="X23" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>3.2685075187237498</v>
+      </c>
+      <c r="Y23" s="219">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>8.2192597108829701E-2</v>
+      </c>
+      <c r="Z23" s="176">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>236.44578313253012</v>
+      </c>
+      <c r="AA23" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>331.08108108108109</v>
+      </c>
+      <c r="AB23" s="144">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>15.384615384615387</v>
+      </c>
+      <c r="AC23" s="144">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.8</v>
+      </c>
+      <c r="AD23" s="177">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>96</v>
+      </c>
+      <c r="AE23" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.8418982050651591</v>
+      </c>
+      <c r="AF23" s="219">
+        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
+        <v>19.230769230769234</v>
+      </c>
+      <c r="AG23" s="176">
+        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
+        <v>567.52686421361125</v>
+      </c>
+      <c r="AH23" s="176" t="e">
+        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI23" s="219"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
+    <row r="24" spans="1:35" s="236" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="227" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
+      <c r="D24" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229">
+        <v>100</v>
+      </c>
+      <c r="G24" s="229">
+        <v>1</v>
+      </c>
+      <c r="H24" s="229">
+        <v>50</v>
+      </c>
+      <c r="I24" s="229">
+        <v>5</v>
+      </c>
+      <c r="J24" s="229">
+        <v>5</v>
+      </c>
+      <c r="K24" s="230">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.9174938563130977</v>
+      </c>
+      <c r="L24" s="231">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>63.694267515923585</v>
+      </c>
+      <c r="M24" s="232">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>5</v>
+      </c>
+      <c r="N24" s="233">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>29.6</v>
+      </c>
+      <c r="O24" s="233">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>318.47133757961791</v>
+      </c>
+      <c r="P24" s="233">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="Q24" s="230">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="R24" s="234">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>9426.7515923566898</v>
+      </c>
+      <c r="S24" s="233">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>4719.6257961783449</v>
+      </c>
+      <c r="T24" s="233">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.10002699798409201</v>
+      </c>
+      <c r="U24" s="233">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>323.47133757961791</v>
+      </c>
+      <c r="V24" s="233">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>32.355866831987989</v>
+      </c>
+      <c r="W24" s="233">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>18.928182096712973</v>
+      </c>
+      <c r="X24" s="233">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>29.167064043820318</v>
+      </c>
+      <c r="Y24" s="230">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="232">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="AA24" s="232">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>33.783783783783782</v>
+      </c>
+      <c r="AB24" s="232">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>159.23566878980893</v>
+      </c>
+      <c r="AC24" s="232">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD24" s="235">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>39</v>
+      </c>
+      <c r="AE24" s="232">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>63.694267515923585</v>
+      </c>
+      <c r="AF24" s="230">
+        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
+        <v>318.47133757961785</v>
+      </c>
+      <c r="AG24" s="232">
+        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
+        <v>433.78378378378386</v>
+      </c>
+      <c r="AH24" s="232" t="e">
+        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI24" s="230"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
+      <c r="A25" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="218"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="136" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137">
+        <v>40</v>
+      </c>
+      <c r="G25" s="137">
+        <v>21</v>
+      </c>
+      <c r="H25" s="137">
+        <v>25</v>
+      </c>
+      <c r="I25" s="137">
+        <v>9</v>
+      </c>
+      <c r="J25" s="137">
+        <v>9</v>
+      </c>
+      <c r="K25" s="225">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.345810315354626</v>
+      </c>
+      <c r="L25" s="215">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.7185780157667714</v>
+      </c>
+      <c r="M25" s="216">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>16.2</v>
+      </c>
+      <c r="N25" s="189">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>9.1358024691358022</v>
+      </c>
+      <c r="O25" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>60.240963855421697</v>
+      </c>
+      <c r="P25" s="198">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>13.216560509554139</v>
+      </c>
+      <c r="Q25" s="219">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>214.10828025477704</v>
+      </c>
+      <c r="R25" s="226">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>550.34954633348218</v>
+      </c>
+      <c r="S25" s="209">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>382.2289132941296</v>
+      </c>
+      <c r="T25" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.2350975647850093</v>
+      </c>
+      <c r="U25" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>76.4409638554217</v>
+      </c>
+      <c r="V25" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>94.412048307650252</v>
+      </c>
+      <c r="W25" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>55.231048259975395</v>
+      </c>
+      <c r="X25" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>9.9958178749252369</v>
+      </c>
+      <c r="Y25" s="219">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>8.0987122666300038E-2</v>
+      </c>
+      <c r="Z25" s="176">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>75.662650602409641</v>
+      </c>
+      <c r="AA25" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>109.45945945945945</v>
+      </c>
+      <c r="AB25" s="144">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>46.763935652824543</v>
+      </c>
+      <c r="AC25" s="144">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD25" s="177">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>31</v>
+      </c>
+      <c r="AE25" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.7185780157667714</v>
+      </c>
+      <c r="AF25" s="219">
+        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
+        <v>18.705574261129819</v>
+      </c>
+      <c r="AG25" s="176">
+        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
+        <v>185.12211006186908</v>
+      </c>
+      <c r="AH25" s="176" t="e">
+        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="219"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
@@ -6272,12 +6887,12 @@
       <c r="B32" s="135"/>
       <c r="C32" s="135"/>
       <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="135"/>
@@ -6296,7 +6911,7 @@
       <c r="B34" s="135"/>
       <c r="C34" s="135"/>
       <c r="D34" s="135"/>
-      <c r="E34" s="138"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="138"/>
       <c r="G34" s="138"/>
       <c r="H34" s="138"/>
@@ -6363,31 +6978,36 @@
       <c r="I39" s="138"/>
       <c r="J39" s="138"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="V9" r:id="rId1" display="=@[VWO]*[@DEF]"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>"Toster"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>$D$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>Toster</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Toster">
+      <formula>NOT(ISERROR(SEARCH("Toster",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Barbarians">
+      <formula>NOT(ISERROR(SEARCH("Barbarians",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Lizardman">
+      <formula>NOT(ISERROR(SEARCH("Lizardman",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Documents\GitHub\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EFB00-AFE4-45ED-BB84-BA6C95481552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="32355" yWindow="645" windowWidth="26790" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toster_Arena" sheetId="1" r:id="rId1"/>
@@ -17,22 +18,28 @@
     <sheet name="Toster_Export_xml" sheetId="3" r:id="rId3"/>
     <sheet name="Spelle_Export_xml" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Piotr Musielski</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0" shapeId="0">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB8" authorId="0" shapeId="0">
+    <comment ref="AB8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC8" authorId="0" shapeId="0">
+    <comment ref="AC8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -281,36 +288,36 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="mapowanie" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="mapowanie" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\mapowanie.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Units_Map" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Units_Map" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="Units_Map1" type="4" refreshedVersion="0" background="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Units_Map1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="272">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -1067,9 +1074,6 @@
     <t>ILOSC_ZLA</t>
   </si>
   <si>
-    <t>Kolumna5</t>
-  </si>
-  <si>
     <t>!ŚREDNIA</t>
   </si>
   <si>
@@ -1119,17 +1123,50 @@
   </si>
   <si>
     <t>Toughnessness</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>FixedAmountAfterSearching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w porównaniu do TosterHEAL</t>
+  </si>
+  <si>
+    <t>Ilość jednostki znaleziona przez symulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w porównaniu do SuperLizard</t>
+  </si>
+  <si>
+    <t>FixedAmountAfterSearchingFixedAmountAfterSearching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w porównaniu do TosterDPS</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>FixedAmountAfterSearchingFixedAmountAfterSearching2</t>
+  </si>
+  <si>
+    <t>CENA</t>
+  </si>
+  <si>
+    <t>Cena na podstawie średniej</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,8 +1321,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="115">
+  <fills count="116">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1970,6 +2015,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -2221,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2746,9 +2797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="111" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2773,51 +2821,62 @@
     <xf numFmtId="2" fontId="0" fillId="114" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="102" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="62">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2864,156 +2923,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3031,494 +2941,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3782,6 +3204,592 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3840,141 +3848,146 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A8:AI25" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54">
-  <autoFilter ref="A8:AI25"/>
-  <tableColumns count="35">
-    <tableColumn id="3" name="Name" dataDxfId="52"/>
-    <tableColumn id="1" name="S" dataDxfId="51"/>
-    <tableColumn id="2" name="I" dataDxfId="50"/>
-    <tableColumn id="4" name="Fraction" dataDxfId="18"/>
-    <tableColumn id="5" name="Level" dataDxfId="49"/>
-    <tableColumn id="10" name="Health" dataDxfId="19"/>
-    <tableColumn id="6" name="Attack" dataDxfId="48"/>
-    <tableColumn id="7" name="Defence" dataDxfId="47"/>
-    <tableColumn id="8" name="Damage min" dataDxfId="46"/>
-    <tableColumn id="9" name="Damage max" dataDxfId="45"/>
-    <tableColumn id="29" name="ZBALANSOWANA ILOSC" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AL26" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+  <autoFilter ref="A8:AL26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="38">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fraction" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Health" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Attack" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Defence" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Damage min" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Damage max" dataDxfId="49"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="ZBALANSOWANA ILOSC" dataDxfId="48">
       <calculatedColumnFormula>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Toughnessness" dataDxfId="44">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Toughnessness" dataDxfId="47">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="VWO" dataDxfId="43">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="VWO" dataDxfId="46">
       <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="VWO_R" dataDxfId="42">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="VWO_R" dataDxfId="45">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="VWD" dataDxfId="41">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="VWD" dataDxfId="44">
       <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="VWD_R" dataDxfId="40">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VWD_R" dataDxfId="43">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="V_Off" dataDxfId="39">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="V_Off" dataDxfId="42">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="V_Def" dataDxfId="38">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="V_Def" dataDxfId="41">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="!ŚREDNIA" dataDxfId="37">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="!ŚREDNIA" dataDxfId="40">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Odchyłka" dataDxfId="24">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Odchyłka" dataDxfId="39">
       <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Suma VW" dataDxfId="23">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Suma VW" dataDxfId="38">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Suma*Odchyłka" dataDxfId="36">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Suma*Odchyłka" dataDxfId="37">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="Kolumna2" dataDxfId="21">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Kolumna2" dataDxfId="36">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" name="Kolumna1" dataDxfId="22">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Kolumna1" dataDxfId="35">
       <calculatedColumnFormula>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="!Odchyłka" dataDxfId="35">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="!Odchyłka" dataDxfId="34">
       <calculatedColumnFormula>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Cena_Atak" dataDxfId="34">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Cena_Atak" dataDxfId="33">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Cena_Obrona" dataDxfId="33">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Cena_Obrona" dataDxfId="32">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="VOB" dataDxfId="32">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="VOB" dataDxfId="31">
       <calculatedColumnFormula>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="VDB" dataDxfId="31">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="VDB" dataDxfId="30">
       <calculatedColumnFormula>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Cost1 (ZŁY)" dataDxfId="30">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cost1 (ZŁY)" dataDxfId="29">
       <calculatedColumnFormula>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Stosunek W" dataDxfId="29">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Stosunek W" dataDxfId="28">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Stosunek B" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Stosunek B" dataDxfId="27">
       <calculatedColumnFormula>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="CENA_ZLA" dataDxfId="27">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="CENA_ZLA" dataDxfId="26">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="ILOSC_ZLA" dataDxfId="26">
-      <calculatedColumnFormula>$AE$7/Tabela2[[#This Row],[Kolumna5]]</calculatedColumnFormula>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ILOSC_ZLA" dataDxfId="10">
+      <calculatedColumnFormula>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Kolumna5" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FixedAmountAfterSearchingFixedAmountAfterSearching" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{E81D788C-D7EC-40FE-9AD7-435B0C143227}" name="FixedAmountAfterSearchingFixedAmountAfterSearching2" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7DEC9FA1-82AC-4B54-B821-96FFC4B933A8}" name="FixedAmountAfterSearching" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{C3B58278-C645-4088-8882-E7DB32A0DDE7}" name="ŚREDNIA" dataDxfId="0">
+      <calculatedColumnFormula>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabela14" displayName="Tabela14" ref="B1:O7" tableType="xml" totalsRowShown="0" headerRowDxfId="70" connectionId="6">
-  <autoFilter ref="B1:O7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela14" displayName="Tabela14" ref="B1:O7" tableType="xml" totalsRowShown="0" headerRowDxfId="25" connectionId="6">
+  <autoFilter ref="B1:O7" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="Name" name="Name" dataDxfId="24">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP" name="HP" dataDxfId="68">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="HP" name="HP" dataDxfId="23">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Attack" name="A" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="Attack" name="A" dataDxfId="22">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Defense" name="D" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="Defense" name="D" dataDxfId="21">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Initiative" name="I" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="Initiative" name="I" dataDxfId="20">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Speed" name="S" dataDxfId="64">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="Speed" name="S" dataDxfId="19">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="DamageMinimum" name="Dm" dataDxfId="63">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="DamageMinimum" name="Dm" dataDxfId="18">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="DamageMaximum" name="DM2" dataDxfId="62">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" uniqueName="DamageMaximum" name="DM2" dataDxfId="17">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Cost" name="Cost" dataDxfId="61">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="Cost" name="Cost" dataDxfId="16">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Cost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Skill1" name="Skill1" dataDxfId="60">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="Skill1" name="Skill1" dataDxfId="15">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Skill2" name="Skill2" dataDxfId="59">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="Skill2" name="Skill2" dataDxfId="14">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Skill3" name="Skill3" dataDxfId="58">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="Skill3" name="Skill3" dataDxfId="13">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Skill4" name="Skill4" dataDxfId="57">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="Skill4" name="Skill4" dataDxfId="12">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Sprite" name="Sprite" dataDxfId="56">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="Sprite" name="Sprite" dataDxfId="11">
       <xmlColumnPr mapId="8" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4244,14 +4257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="AU26" sqref="AU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,10 +4288,11 @@
     <col min="26" max="27" width="3.7109375" style="169" hidden="1" customWidth="1"/>
     <col min="28" max="32" width="3.7109375" style="168" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9.140625" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="220" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="219" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="150"/>
       <c r="B1" s="150"/>
       <c r="C1" s="151" t="s">
@@ -4300,7 +4314,7 @@
       <c r="Q1" s="200"/>
       <c r="R1" s="180"/>
       <c r="S1" s="207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T1" s="207"/>
       <c r="U1" s="207"/>
@@ -4317,9 +4331,18 @@
       <c r="AD1" s="168"/>
       <c r="AE1" s="168"/>
       <c r="AF1" s="170"/>
-      <c r="AH1" s="220"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="237" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1" s="239"/>
+      <c r="AK1" s="239"/>
+      <c r="AL1" s="239"/>
+      <c r="AM1" s="239"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="237"/>
     </row>
-    <row r="2" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -4331,7 +4354,7 @@
       <c r="I2" s="155"/>
       <c r="J2" s="155"/>
       <c r="L2" s="153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M2" s="180"/>
       <c r="N2" s="187" t="s">
@@ -4343,7 +4366,7 @@
       <c r="R2" s="180"/>
       <c r="S2" s="207"/>
       <c r="T2" s="207" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U2" s="207"/>
       <c r="V2" s="207"/>
@@ -4359,23 +4382,30 @@
       <c r="AD2" s="168"/>
       <c r="AE2" s="168"/>
       <c r="AF2" s="170"/>
-      <c r="AH2" s="220"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="237"/>
     </row>
-    <row r="3" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="160"/>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
-      <c r="E3" s="214" t="s">
+      <c r="E3" s="236" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214" t="s">
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
       <c r="M3" s="181"/>
       <c r="N3" s="180"/>
       <c r="O3" s="180" t="s">
@@ -4387,7 +4417,7 @@
       <c r="S3" s="207"/>
       <c r="T3" s="207"/>
       <c r="U3" s="207" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V3" s="207"/>
       <c r="W3" s="207"/>
@@ -4400,9 +4430,18 @@
       <c r="AD3" s="168"/>
       <c r="AE3" s="168"/>
       <c r="AF3" s="168"/>
-      <c r="AH3" s="220"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="237" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ3" s="239"/>
+      <c r="AK3" s="239"/>
+      <c r="AL3" s="239"/>
+      <c r="AM3" s="239"/>
+      <c r="AN3" s="150"/>
+      <c r="AO3" s="237"/>
     </row>
-    <row r="4" spans="1:35" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160"/>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -4429,7 +4468,7 @@
       <c r="T4" s="207"/>
       <c r="U4" s="207"/>
       <c r="V4" s="207" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W4" s="150"/>
       <c r="Y4" s="168"/>
@@ -4440,9 +4479,18 @@
       <c r="AD4" s="168"/>
       <c r="AE4" s="168"/>
       <c r="AF4" s="168"/>
-      <c r="AH4" s="220"/>
+      <c r="AH4" s="219"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="239" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK4" s="239"/>
+      <c r="AL4" s="239"/>
+      <c r="AM4" s="239"/>
+      <c r="AN4" s="150"/>
+      <c r="AO4" s="237"/>
     </row>
-    <row r="5" spans="1:35" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="162"/>
       <c r="B5" s="162"/>
       <c r="C5" s="162"/>
@@ -4466,7 +4514,7 @@
       <c r="U5" s="207"/>
       <c r="V5" s="207"/>
       <c r="W5" s="207" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y5" s="168"/>
       <c r="Z5" s="169"/>
@@ -4476,9 +4524,18 @@
       <c r="AD5" s="168"/>
       <c r="AE5" s="168"/>
       <c r="AF5" s="168"/>
-      <c r="AH5" s="220"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="237"/>
+      <c r="AJ5" s="239"/>
+      <c r="AK5" s="239" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL5" s="239"/>
+      <c r="AM5" s="239"/>
+      <c r="AN5" s="150"/>
+      <c r="AO5" s="237"/>
     </row>
-    <row r="6" spans="1:35" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="162"/>
       <c r="B6" s="162"/>
       <c r="C6" s="162"/>
@@ -4511,9 +4568,20 @@
       <c r="AD6" s="171"/>
       <c r="AE6" s="171"/>
       <c r="AF6" s="168"/>
-      <c r="AH6" s="220"/>
+      <c r="AH6" s="219"/>
+      <c r="AI6" s="237"/>
+      <c r="AJ6" s="239"/>
+      <c r="AK6" s="239"/>
+      <c r="AL6" s="239" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM6" s="239"/>
+      <c r="AN6" s="150"/>
+      <c r="AO6" s="237" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" s="157" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="162"/>
       <c r="B7" s="162"/>
       <c r="C7" s="162"/>
@@ -4547,11 +4615,11 @@
       </c>
       <c r="N7" s="191">
         <f>MAX(Tabela2[VWD])</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="O7" s="196">
         <f>MAX(Tabela2[VOB])</f>
-        <v>796.1783439490448</v>
+        <v>547.77070063694271</v>
       </c>
       <c r="P7" s="158">
         <f>MAX(Tabela2[VDB])</f>
@@ -4559,7 +4627,7 @@
       </c>
       <c r="Q7" s="203">
         <f>MAX(Tabela2[Cost1 (ZŁY)])</f>
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="R7" s="204">
         <f>MAX(Tabela2[Stosunek W])</f>
@@ -4573,7 +4641,7 @@
       <c r="X7" s="172"/>
       <c r="Y7" s="172">
         <f>MAX(Tabela2[Stosunek B])</f>
-        <v>318.47133757961785</v>
+        <v>219.1082802547771</v>
       </c>
       <c r="Z7" s="173">
         <f>MAX(Tabela2[VWO_R])</f>
@@ -4581,11 +4649,11 @@
       </c>
       <c r="AA7" s="173">
         <f>MAX(Tabela2[VWD_R])</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="AB7" s="173">
         <f>MAX(Tabela2[V_Off])</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="AC7" s="173">
         <f>MAX(Tabela2[V_Def])</f>
@@ -4596,9 +4664,18 @@
         <v>5000</v>
       </c>
       <c r="AF7" s="173"/>
-      <c r="AH7" s="220"/>
+      <c r="AH7" s="219"/>
+      <c r="AI7" s="238">
+        <v>136</v>
+      </c>
+      <c r="AJ7" s="240">
+        <v>34550</v>
+      </c>
+      <c r="AK7" s="157">
+        <v>387</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="147" t="s">
         <v>1</v>
       </c>
@@ -4629,23 +4706,23 @@
       <c r="J8" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="221" t="s">
-        <v>259</v>
+      <c r="K8" s="220" t="s">
+        <v>258</v>
       </c>
       <c r="L8" s="147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M8" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="192" t="s">
+        <v>254</v>
+      </c>
+      <c r="O8" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="N8" s="192" t="s">
-        <v>255</v>
-      </c>
-      <c r="O8" s="192" t="s">
+      <c r="P8" s="192" t="s">
         <v>253</v>
-      </c>
-      <c r="P8" s="192" t="s">
-        <v>254</v>
       </c>
       <c r="Q8" s="192" t="s">
         <v>235</v>
@@ -4654,16 +4731,16 @@
         <v>236</v>
       </c>
       <c r="S8" s="192" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T8" s="192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U8" s="192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V8" s="192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W8" s="188" t="s">
         <v>233</v>
@@ -4672,7 +4749,7 @@
         <v>227</v>
       </c>
       <c r="Y8" s="147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z8" s="179" t="s">
         <v>240</v>
@@ -4702,18 +4779,30 @@
         <v>243</v>
       </c>
       <c r="AI8" s="147" t="s">
-        <v>244</v>
+        <v>266</v>
+      </c>
+      <c r="AJ8" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK8" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL8" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO8" s="242" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="141" t="s">
         <v>221</v>
       </c>
       <c r="F9" s="141">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="G9" s="141">
         <v>50</v>
@@ -4727,13 +4816,13 @@
       <c r="J9" s="141">
         <v>50</v>
       </c>
-      <c r="K9" s="222">
+      <c r="K9" s="221">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>0.99952053140168862</v>
+        <v>1.3563745055921186</v>
       </c>
       <c r="L9" s="166">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.3795834050611129</v>
+        <v>3.7011533826820462</v>
       </c>
       <c r="M9" s="184">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
@@ -4745,7 +4834,7 @@
       </c>
       <c r="O9" s="193">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="P9" s="193">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
@@ -4757,35 +4846,35 @@
       </c>
       <c r="R9" s="193">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="S9" s="208">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>472.08917197452234</v>
+        <v>347.88535031847141</v>
       </c>
       <c r="T9" s="208">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.0000017539599015</v>
+        <v>1.3570275367095093</v>
       </c>
       <c r="U9" s="208">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>944.17834394904469</v>
+        <v>695.77070063694282</v>
       </c>
       <c r="V9" s="208">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>944.17999999999984</v>
+        <v>944.18</v>
       </c>
       <c r="W9" s="213">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>552.34529999999984</v>
+        <v>552.34529999999995</v>
       </c>
       <c r="X9" s="208">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>0.99951877828583069</v>
+        <v>0.99951877828583047</v>
       </c>
       <c r="Y9" s="166">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10002682254105619</v>
+        <v>7.3740834544053113E-2</v>
       </c>
       <c r="Z9" s="174">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
@@ -4797,35 +4886,55 @@
       </c>
       <c r="AB9" s="174">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>5</v>
+        <v>3.44</v>
       </c>
       <c r="AC9" s="174">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.2</v>
+        <v>0.29069767441860467</v>
       </c>
       <c r="AD9" s="174">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="AE9" s="174">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.3795834050611129</v>
+        <v>3.7011533826820462</v>
       </c>
       <c r="AF9" s="174">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>25</v>
+        <v>11.833599999999999</v>
       </c>
       <c r="AG9" s="174">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
         <v>2000</v>
       </c>
-      <c r="AH9" s="174" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI9" s="166"/>
+      <c r="AH9" s="174">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>40800</v>
+      </c>
+      <c r="AI9" s="243">
+        <v>136</v>
+      </c>
+      <c r="AJ9" s="243">
+        <v>136</v>
+      </c>
+      <c r="AK9" s="243">
+        <v>136</v>
+      </c>
+      <c r="AL9" s="243">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>136</v>
+      </c>
+      <c r="AN9" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>1</v>
+      </c>
+      <c r="AO9" s="141">
+        <f>1000/AN9</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" s="146" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="146" t="s">
         <v>189</v>
       </c>
@@ -4847,7 +4956,7 @@
       <c r="J10" s="146">
         <v>1</v>
       </c>
-      <c r="K10" s="223">
+      <c r="K10" s="222">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>471.86282004095767</v>
       </c>
@@ -4869,11 +4978,11 @@
       </c>
       <c r="P10" s="194">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="Q10" s="194">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>796.17834394904469</v>
+        <v>547.77070063694282</v>
       </c>
       <c r="R10" s="194">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -4881,11 +4990,11 @@
       </c>
       <c r="S10" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>472.08917197452234</v>
+        <v>347.88535031847141</v>
       </c>
       <c r="T10" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.0000017539599015</v>
+        <v>1.3570275367095093</v>
       </c>
       <c r="U10" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -4893,23 +5002,23 @@
       </c>
       <c r="V10" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.0000035079198031</v>
+        <v>2.7140550734190185</v>
       </c>
       <c r="W10" s="212">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>1.1700020521330847</v>
+        <v>1.5877222179501258</v>
       </c>
       <c r="X10" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>471.86199241394394</v>
+        <v>347.71794033385669</v>
       </c>
       <c r="Y10" s="144">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10002682254105619</v>
+        <v>7.3740834544053113E-2</v>
       </c>
       <c r="Z10" s="175">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>1.2559999999999998</v>
+        <v>1.8255813953488367</v>
       </c>
       <c r="AA10" s="175">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -4917,7 +5026,7 @@
       </c>
       <c r="AB10" s="175">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>796.1783439490448</v>
+        <v>547.77070063694271</v>
       </c>
       <c r="AC10" s="175">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -4933,19 +5042,39 @@
       </c>
       <c r="AF10" s="175">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>5.3795834050611138</v>
+        <v>3.7011533826820453</v>
       </c>
       <c r="AG10" s="175">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>8.0127567567567564</v>
-      </c>
-      <c r="AH10" s="175" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI10" s="144"/>
+        <v>8.5823381521055939</v>
+      </c>
+      <c r="AH10" s="175">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>10365000</v>
+      </c>
+      <c r="AI10" s="244">
+        <v>34550</v>
+      </c>
+      <c r="AJ10" s="244">
+        <v>34550</v>
+      </c>
+      <c r="AK10" s="243">
+        <v>33308</v>
+      </c>
+      <c r="AL10" s="243">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>34136</v>
+      </c>
+      <c r="AN10" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>251</v>
+      </c>
+      <c r="AO10" s="141">
+        <f t="shared" ref="AO10:AO26" si="0">1000/AN10</f>
+        <v>3.9840637450199203</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="139" t="s">
         <v>177</v>
       </c>
@@ -4972,9 +5101,9 @@
       <c r="J11" s="140">
         <v>60</v>
       </c>
-      <c r="K11" s="224">
+      <c r="K11" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>1.7525801559501779</v>
+        <v>1.7525801559501777</v>
       </c>
       <c r="L11" s="164">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
@@ -4994,11 +5123,11 @@
       </c>
       <c r="P11" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>1.7993630573248407</v>
+        <v>1.2379617834394907</v>
       </c>
       <c r="Q11" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>172.73885350318471</v>
+        <v>118.84433121019111</v>
       </c>
       <c r="R11" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5006,11 +5135,11 @@
       </c>
       <c r="S11" s="210">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>427.44612291678413</v>
+        <v>400.49886177028736</v>
       </c>
       <c r="T11" s="210">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.1044432846380201</v>
+        <v>1.1787549105964124</v>
       </c>
       <c r="U11" s="210">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5018,23 +5147,23 @@
       </c>
       <c r="V11" s="210">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>594.7182741916306</v>
+        <v>634.73344070770361</v>
       </c>
       <c r="W11" s="210">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>347.91019040210386</v>
+        <v>371.3190628140066</v>
       </c>
       <c r="X11" s="210">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>1.5868448659403853</v>
+        <v>1.4868062395289858</v>
       </c>
       <c r="Y11" s="164">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>9.0567799519805786E-2</v>
+        <v>8.4893256568143172E-2</v>
       </c>
       <c r="Z11" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>555.75221238938059</v>
+        <v>807.77937847293651</v>
       </c>
       <c r="AA11" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5042,7 +5171,7 @@
       </c>
       <c r="AB11" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>7.8616352201257858</v>
+        <v>5.4088050314465406</v>
       </c>
       <c r="AC11" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5058,19 +5187,33 @@
       </c>
       <c r="AF11" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>23.122456529781722</v>
+        <v>15.908250092489824</v>
       </c>
       <c r="AG11" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>1204.4008610380292</v>
-      </c>
-      <c r="AH11" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
+        <v>1456.4280271215853</v>
+      </c>
+      <c r="AH11" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="245"/>
+      <c r="AJ11" s="245"/>
+      <c r="AK11" s="143"/>
+      <c r="AL11" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="141" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="165"/>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
         <v>38</v>
       </c>
@@ -5097,7 +5240,7 @@
       <c r="J12" s="137">
         <v>2</v>
       </c>
-      <c r="K12" s="224">
+      <c r="K12" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>150.38909982418647</v>
       </c>
@@ -5119,11 +5262,11 @@
       </c>
       <c r="P12" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>193.47133757961785</v>
+        <v>133.1082802547771</v>
       </c>
       <c r="Q12" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>417.89808917197456</v>
+        <v>287.51388535031856</v>
       </c>
       <c r="R12" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5131,11 +5274,11 @@
       </c>
       <c r="S12" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>349.93365059116945</v>
+        <v>284.74154868034145</v>
       </c>
       <c r="T12" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3490843169911282</v>
+        <v>1.657959655652435</v>
       </c>
       <c r="U12" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5143,23 +5286,23 @@
       </c>
       <c r="V12" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>8.4658094374215285</v>
+        <v>10.404072097577306</v>
       </c>
       <c r="W12" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>4.9524985208915941</v>
+        <v>6.0863821770827231</v>
       </c>
       <c r="X12" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>111.47494484229146</v>
+        <v>90.707333746915467</v>
       </c>
       <c r="Y12" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.4144363494776142E-2</v>
+        <v>6.0356319718070171E-2</v>
       </c>
       <c r="Z12" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>5.1687242798353905</v>
+        <v>7.512680639295624</v>
       </c>
       <c r="AA12" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5167,7 +5310,7 @@
       </c>
       <c r="AB12" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>365.49707602339186</v>
+        <v>251.46198830409358</v>
       </c>
       <c r="AC12" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5183,19 +5326,33 @@
       </c>
       <c r="AF12" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>10.15269655620533</v>
+        <v>6.9850552306692659</v>
       </c>
       <c r="AG12" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>19.763318874429984</v>
-      </c>
-      <c r="AH12" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
+        <v>22.107275233890217</v>
+      </c>
+      <c r="AH12" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="245"/>
+      <c r="AJ12" s="245"/>
+      <c r="AK12" s="143"/>
+      <c r="AL12" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="141" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="165"/>
     </row>
-    <row r="13" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="142" t="s">
         <v>217</v>
       </c>
@@ -5222,7 +5379,7 @@
       <c r="J13" s="143">
         <v>2</v>
       </c>
-      <c r="K13" s="224">
+      <c r="K13" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>99.113706927211737</v>
       </c>
@@ -5244,11 +5401,11 @@
       </c>
       <c r="P13" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>110.55505004549592</v>
+        <v>76.061874431301206</v>
       </c>
       <c r="Q13" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>256.48771610555053</v>
+        <v>176.46354868061877</v>
       </c>
       <c r="R13" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5256,11 +5413,11 @@
       </c>
       <c r="S13" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>357.95153507845998</v>
+        <v>317.9394513659941</v>
       </c>
       <c r="T13" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3188656947553579</v>
+        <v>1.4848424691296218</v>
       </c>
       <c r="U13" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5268,23 +5425,23 @@
       </c>
       <c r="V13" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.557772386408052</v>
+        <v>14.138144491248369</v>
       </c>
       <c r="W13" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>7.3462968460487099</v>
+        <v>8.2708145273802955</v>
       </c>
       <c r="X13" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>75.150720290436226</v>
+        <v>66.750317954812914</v>
       </c>
       <c r="Y13" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.584320252006134E-2</v>
+        <v>6.7393238768875943E-2</v>
       </c>
       <c r="Z13" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>9.0452674897119323</v>
+        <v>13.147191118767344</v>
       </c>
       <c r="AA13" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5292,7 +5449,7 @@
       </c>
       <c r="AB13" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>337.83783783783787</v>
+        <v>232.43243243243245</v>
       </c>
       <c r="AC13" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5308,19 +5465,39 @@
       </c>
       <c r="AF13" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>16.422672672672672</v>
+        <v>11.298798798798799</v>
       </c>
       <c r="AG13" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>24.720943165387609</v>
-      </c>
-      <c r="AH13" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="165"/>
+        <v>28.822866794443019</v>
+      </c>
+      <c r="AH13" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>2709000</v>
+      </c>
+      <c r="AI13" s="245">
+        <v>9030</v>
+      </c>
+      <c r="AJ13" s="245">
+        <v>7472</v>
+      </c>
+      <c r="AK13" s="143">
+        <v>9080</v>
+      </c>
+      <c r="AL13" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>8527.3333333333339</v>
+      </c>
+      <c r="AN13" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>62.700980392156865</v>
+      </c>
+      <c r="AO13" s="141">
+        <f t="shared" si="0"/>
+        <v>15.948713939488702</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="142" t="s">
         <v>219</v>
       </c>
@@ -5347,11 +5524,11 @@
       <c r="J14" s="149">
         <v>4</v>
       </c>
-      <c r="K14" s="224">
+      <c r="K14" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>47.01678938064947</v>
-      </c>
-      <c r="L14" s="219">
+        <v>47.016789380649485</v>
+      </c>
+      <c r="L14" s="218">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.3258833546189872</v>
       </c>
@@ -5369,11 +5546,11 @@
       </c>
       <c r="P14" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>51.592356687898089</v>
+        <v>35.49554140127389</v>
       </c>
       <c r="Q14" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>239.38853503184711</v>
+        <v>164.69931210191083</v>
       </c>
       <c r="R14" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5381,11 +5558,11 @@
       </c>
       <c r="S14" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>365.80963575772859</v>
+        <v>328.46502429276046</v>
       </c>
       <c r="T14" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2905346219820728</v>
+        <v>1.4372610935258263</v>
       </c>
       <c r="U14" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5393,23 +5570,23 @@
       </c>
       <c r="V14" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>25.903738392633745</v>
+        <v>28.848846620963325</v>
       </c>
       <c r="W14" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>15.15368695969074</v>
+        <v>16.876575273263544</v>
       </c>
       <c r="X14" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>36.432024821184996</v>
+        <v>32.712768468051927</v>
       </c>
       <c r="Y14" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.7508186359591932E-2</v>
+        <v>6.9624331659000518E-2</v>
       </c>
       <c r="Z14" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>19.382716049382719</v>
+        <v>28.172552397358597</v>
       </c>
       <c r="AA14" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5417,7 +5594,7 @@
       </c>
       <c r="AB14" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>168.91891891891893</v>
+        <v>116.21621621621622</v>
       </c>
       <c r="AC14" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5433,19 +5610,39 @@
       </c>
       <c r="AF14" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>17.595720720720724</v>
+        <v>12.105855855855857</v>
       </c>
       <c r="AG14" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>50.73406740073407</v>
-      </c>
-      <c r="AH14" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="165"/>
+        <v>59.523903748709948</v>
+      </c>
+      <c r="AH14" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>1326300</v>
+      </c>
+      <c r="AI14" s="245">
+        <v>4421</v>
+      </c>
+      <c r="AJ14" s="245">
+        <v>3619</v>
+      </c>
+      <c r="AK14" s="143">
+        <v>4397</v>
+      </c>
+      <c r="AL14" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>4145.666666666667</v>
+      </c>
+      <c r="AN14" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>30.482843137254903</v>
+      </c>
+      <c r="AO14" s="141">
+        <f t="shared" si="0"/>
+        <v>32.805338908096807</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="142" t="s">
         <v>220</v>
       </c>
@@ -5472,11 +5669,11 @@
       <c r="J15" s="143">
         <v>10</v>
       </c>
-      <c r="K15" s="224">
+      <c r="K15" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.798095913814294</v>
-      </c>
-      <c r="L15" s="219">
+        <v>12.798095913814292</v>
+      </c>
+      <c r="L15" s="218">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7268932617769828</v>
       </c>
@@ -5494,11 +5691,11 @@
       </c>
       <c r="P15" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>13.694267515923567</v>
+        <v>9.4216560509554164</v>
       </c>
       <c r="Q15" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>213.63057324840767</v>
+        <v>146.97783439490451</v>
       </c>
       <c r="R15" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5506,11 +5703,11 @@
       </c>
       <c r="S15" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>382.60538799570054</v>
+        <v>349.27901856894891</v>
       </c>
       <c r="T15" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2338822578350752</v>
+        <v>1.3516128221335109</v>
       </c>
       <c r="U15" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5518,23 +5715,23 @@
       </c>
       <c r="V15" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>90.985903794033874</v>
+        <v>99.667300846998529</v>
       </c>
       <c r="W15" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>53.226753719509816</v>
+        <v>58.305370995494137</v>
       </c>
       <c r="X15" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>10.372218120932677</v>
+        <v>9.4687588814173811</v>
       </c>
       <c r="Y15" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.1066890579653633E-2</v>
+        <v>7.4036248707867958E-2</v>
       </c>
       <c r="Z15" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>73.023255813953483</v>
+        <v>106.13845321795563</v>
       </c>
       <c r="AA15" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5542,7 +5739,7 @@
       </c>
       <c r="AB15" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>49.019607843137258</v>
+        <v>33.725490196078432</v>
       </c>
       <c r="AC15" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5558,19 +5755,39 @@
       </c>
       <c r="AF15" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>19.14828431372549</v>
+        <v>13.174019607843137</v>
       </c>
       <c r="AG15" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>178.4286612193589</v>
-      </c>
-      <c r="AH15" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI15" s="165"/>
+        <v>211.54385862336107</v>
+      </c>
+      <c r="AH15" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>371100</v>
+      </c>
+      <c r="AI15" s="245">
+        <v>1237</v>
+      </c>
+      <c r="AJ15" s="245">
+        <v>1035</v>
+      </c>
+      <c r="AK15" s="143">
+        <v>1291</v>
+      </c>
+      <c r="AL15" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>1187.6666666666667</v>
+      </c>
+      <c r="AN15" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>8.7328431372549034</v>
+      </c>
+      <c r="AO15" s="141">
+        <f t="shared" si="0"/>
+        <v>114.51024417625595</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="142" t="s">
         <v>218</v>
       </c>
@@ -5597,11 +5814,11 @@
       <c r="J16" s="149">
         <v>24</v>
       </c>
-      <c r="K16" s="224">
+      <c r="K16" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>4.0983748493313668</v>
       </c>
-      <c r="L16" s="219">
+      <c r="L16" s="218">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.6127455670366113</v>
       </c>
@@ -5619,11 +5836,11 @@
       </c>
       <c r="P16" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>4.4146716450691859</v>
+        <v>3.0372940918076003</v>
       </c>
       <c r="Q16" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>220.38040852185375</v>
+        <v>151.62172106303541</v>
       </c>
       <c r="R16" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5631,11 +5848,11 @@
       </c>
       <c r="S16" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>377.5333762216361</v>
+        <v>343.15403249222697</v>
       </c>
       <c r="T16" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2504589785536024</v>
+        <v>1.3757378765778998</v>
       </c>
       <c r="U16" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5643,23 +5860,23 @@
       </c>
       <c r="V16" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>287.94101157540621</v>
+        <v>316.7887652761263</v>
       </c>
       <c r="W16" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>168.44549177161261</v>
+        <v>185.32142768653387</v>
       </c>
       <c r="X16" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>3.277496439005084</v>
+        <v>2.9790375907407096</v>
       </c>
       <c r="Y16" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.9992226614096995E-2</v>
+        <v>7.2737942859533986E-2</v>
       </c>
       <c r="Z16" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>226.51741293532334</v>
+        <v>329.24042577808621</v>
       </c>
       <c r="AA16" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5667,7 +5884,7 @@
       </c>
       <c r="AB16" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>15.052986512524086</v>
+        <v>10.356454720616572</v>
       </c>
       <c r="AC16" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5683,19 +5900,39 @@
       </c>
       <c r="AF16" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>18.189025369299934</v>
+        <v>12.514049454078357</v>
       </c>
       <c r="AG16" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>563.81471023262066</v>
-      </c>
-      <c r="AH16" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="165"/>
+        <v>666.5377230753835</v>
+      </c>
+      <c r="AH16" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>115500</v>
+      </c>
+      <c r="AI16" s="245">
+        <v>385</v>
+      </c>
+      <c r="AJ16" s="245">
+        <v>326</v>
+      </c>
+      <c r="AK16" s="143">
+        <v>405</v>
+      </c>
+      <c r="AL16" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>372</v>
+      </c>
+      <c r="AN16" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>2.7352941176470589</v>
+      </c>
+      <c r="AO16" s="141">
+        <f t="shared" si="0"/>
+        <v>365.59139784946234</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="142" t="s">
         <v>216</v>
       </c>
@@ -5722,7 +5959,7 @@
       <c r="J17" s="143">
         <v>2</v>
       </c>
-      <c r="K17" s="224">
+      <c r="K17" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>89.786872864641239</v>
       </c>
@@ -5744,11 +5981,11 @@
       </c>
       <c r="P17" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>95.342356687898089</v>
+        <v>65.595541401273891</v>
       </c>
       <c r="Q17" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>205.93949044585989</v>
+        <v>141.68636942675161</v>
       </c>
       <c r="R17" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5756,11 +5993,11 @@
       </c>
       <c r="S17" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>389.05959289941649</v>
+        <v>356.93303238986238</v>
       </c>
       <c r="T17" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2134130827666016</v>
+        <v>1.3226290568824592</v>
       </c>
       <c r="U17" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5768,23 +6005,23 @@
       </c>
       <c r="V17" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.753858127390489</v>
+        <v>13.901797818251994</v>
       </c>
       <c r="W17" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>7.4610070045234353</v>
+        <v>8.1325517236774161</v>
       </c>
       <c r="X17" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>73.995306412821677</v>
+        <v>67.885150713591585</v>
       </c>
       <c r="Y17" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.2434415290816576E-2</v>
+        <v>7.5658660707249886E-2</v>
       </c>
       <c r="Z17" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>10.488517745302715</v>
+        <v>15.244938583288828</v>
       </c>
       <c r="AA17" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5792,7 +6029,7 @@
       </c>
       <c r="AB17" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>365.49707602339186</v>
+        <v>251.46198830409358</v>
       </c>
       <c r="AC17" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5808,19 +6045,39 @@
       </c>
       <c r="AF17" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>20.591384564698131</v>
+        <v>14.166872580512315</v>
       </c>
       <c r="AG17" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>25.083112339897308</v>
-      </c>
-      <c r="AH17" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI17" s="165"/>
+        <v>29.839533177883421</v>
+      </c>
+      <c r="AH17" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>2681700</v>
+      </c>
+      <c r="AI17" s="245">
+        <v>8939</v>
+      </c>
+      <c r="AJ17" s="245">
+        <v>7332</v>
+      </c>
+      <c r="AK17" s="245">
+        <v>8610</v>
+      </c>
+      <c r="AL17" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>8293.6666666666661</v>
+      </c>
+      <c r="AN17" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>60.982843137254896</v>
+      </c>
+      <c r="AO17" s="141">
+        <f t="shared" si="0"/>
+        <v>16.39805474056509</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142" t="s">
         <v>215</v>
       </c>
@@ -5847,9 +6104,9 @@
       <c r="J18" s="143">
         <v>3</v>
       </c>
-      <c r="K18" s="224">
+      <c r="K18" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>37.818519196630071</v>
+        <v>37.818519196630078</v>
       </c>
       <c r="L18" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
@@ -5869,11 +6126,11 @@
       </c>
       <c r="P18" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>36.464968152866248</v>
+        <v>25.087898089171979</v>
       </c>
       <c r="Q18" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>113.77070063694269</v>
+        <v>78.274242038216585</v>
       </c>
       <c r="R18" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -5881,11 +6138,11 @@
       </c>
       <c r="S18" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>574.744492631762</v>
+        <v>556.99626333239894</v>
       </c>
       <c r="T18" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.82139108082322654</v>
+        <v>0.84756403422812654</v>
       </c>
       <c r="U18" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -5893,23 +6150,23 @@
       </c>
       <c r="V18" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>20.497043246911407</v>
+        <v>21.1501647262705</v>
       </c>
       <c r="W18" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>11.990770299443172</v>
+        <v>12.372846364868241</v>
       </c>
       <c r="X18" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>46.042037805824535</v>
+        <v>44.620250116053192</v>
       </c>
       <c r="Y18" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.12177755556323</v>
+        <v>0.11806582041597809</v>
       </c>
       <c r="Z18" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>27.4235807860262</v>
+        <v>39.859855793642723</v>
       </c>
       <c r="AA18" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -5917,7 +6174,7 @@
       </c>
       <c r="AB18" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>254.06504065040653</v>
+        <v>174.79674796747972</v>
       </c>
       <c r="AC18" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5933,19 +6190,39 @@
       </c>
       <c r="AF18" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>37.362505978000961</v>
+        <v>25.705404112864667</v>
       </c>
       <c r="AG18" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>48.504661867107288</v>
-      </c>
-      <c r="AH18" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI18" s="165"/>
+        <v>60.940936874723803</v>
+      </c>
+      <c r="AH18" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>1402800</v>
+      </c>
+      <c r="AI18" s="245">
+        <v>4676</v>
+      </c>
+      <c r="AJ18" s="245">
+        <v>3982</v>
+      </c>
+      <c r="AK18" s="143">
+        <v>4420</v>
+      </c>
+      <c r="AL18" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>4359.333333333333</v>
+      </c>
+      <c r="AN18" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>32.053921568627452</v>
+      </c>
+      <c r="AO18" s="141">
+        <f t="shared" si="0"/>
+        <v>31.197430799816484</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
         <v>214</v>
       </c>
@@ -5972,9 +6249,9 @@
       <c r="J19" s="143">
         <v>7</v>
       </c>
-      <c r="K19" s="224">
+      <c r="K19" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>16.618663282514984</v>
+        <v>16.618663282514987</v>
       </c>
       <c r="L19" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
@@ -5994,11 +6271,11 @@
       </c>
       <c r="P19" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>16.45435244161359</v>
+        <v>11.320594479830151</v>
       </c>
       <c r="Q19" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>138.21656050955417</v>
+        <v>95.092993630573275</v>
       </c>
       <c r="R19" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -6006,11 +6283,11 @@
       </c>
       <c r="S19" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>495.37556136076785</v>
+        <v>473.81377792127739</v>
       </c>
       <c r="T19" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.95299412571584319</v>
+        <v>0.99636190840874239</v>
       </c>
       <c r="U19" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6018,23 +6295,23 @@
       </c>
       <c r="V19" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>54.117769642263561</v>
+        <v>56.580500114927425</v>
       </c>
       <c r="W19" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>31.658895240724181</v>
+        <v>33.099592567232541</v>
       </c>
       <c r="X19" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>17.438369066579341</v>
+        <v>16.679344264631833</v>
       </c>
       <c r="Y19" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10496077078015205</v>
+        <v>0.10043373016541332</v>
       </c>
       <c r="Z19" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>60.774193548387082</v>
+        <v>88.334583645911451</v>
       </c>
       <c r="AA19" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6042,7 +6319,7 @@
       </c>
       <c r="AB19" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>93.005952380952365</v>
+        <v>63.988095238095241</v>
       </c>
       <c r="AC19" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6058,19 +6335,39 @@
       </c>
       <c r="AF19" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>30.328027950310553</v>
+        <v>20.865683229813666</v>
       </c>
       <c r="AG19" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>117.53095030514385</v>
-      </c>
-      <c r="AH19" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI19" s="165"/>
+        <v>145.09134040266821</v>
+      </c>
+      <c r="AH19" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>561600</v>
+      </c>
+      <c r="AI19" s="245">
+        <v>1872</v>
+      </c>
+      <c r="AJ19" s="245">
+        <v>1601</v>
+      </c>
+      <c r="AK19" s="143">
+        <v>1865</v>
+      </c>
+      <c r="AL19" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>1779.3333333333333</v>
+      </c>
+      <c r="AN19" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>13.083333333333332</v>
+      </c>
+      <c r="AO19" s="141">
+        <f t="shared" si="0"/>
+        <v>76.433121019108285</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="142" t="s">
         <v>213</v>
       </c>
@@ -6097,7 +6394,7 @@
       <c r="J20" s="149">
         <v>16</v>
       </c>
-      <c r="K20" s="224">
+      <c r="K20" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>4.00445615147349</v>
       </c>
@@ -6119,11 +6416,11 @@
       </c>
       <c r="P20" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>3.7444508782088408</v>
+        <v>2.576182204207683</v>
       </c>
       <c r="Q20" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>86.272148233931688</v>
+        <v>59.355237984945013</v>
       </c>
       <c r="R20" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -6131,11 +6428,11 @@
       </c>
       <c r="S20" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>726.05864714102074</v>
+        <v>712.60019201652744</v>
       </c>
       <c r="T20" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.65020918332001765</v>
+        <v>0.66248929664763645</v>
       </c>
       <c r="U20" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6143,23 +6440,23 @@
       </c>
       <c r="V20" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>153.23406088240827</v>
+        <v>156.1281012644265</v>
       </c>
       <c r="W20" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>89.641925616208837</v>
+        <v>91.334939239689504</v>
       </c>
       <c r="X20" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>6.1587197692693785</v>
+        <v>6.0445597713609134</v>
       </c>
       <c r="Y20" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.15383818092716953</v>
+        <v>0.15104899590467505</v>
       </c>
       <c r="Z20" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>267.06185567010306</v>
+        <v>388.17130184607987</v>
       </c>
       <c r="AA20" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6167,7 +6464,7 @@
       </c>
       <c r="AB20" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>33.386752136752136</v>
+        <v>22.970085470085472</v>
       </c>
       <c r="AC20" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6183,19 +6480,39 @@
       </c>
       <c r="AF20" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>47.489776746242256</v>
+        <v>32.672966401414676</v>
       </c>
       <c r="AG20" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>422.73753134577873</v>
-      </c>
-      <c r="AH20" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI20" s="165"/>
+        <v>543.84697752175555</v>
+      </c>
+      <c r="AH20" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>163200</v>
+      </c>
+      <c r="AI20" s="245">
+        <v>544</v>
+      </c>
+      <c r="AJ20" s="245">
+        <v>477</v>
+      </c>
+      <c r="AK20" s="143">
+        <v>538</v>
+      </c>
+      <c r="AL20" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>519.66666666666663</v>
+      </c>
+      <c r="AN20" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>3.8210784313725488</v>
+      </c>
+      <c r="AO20" s="141">
+        <f t="shared" si="0"/>
+        <v>261.70622193713922</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="142" t="s">
         <v>190</v>
       </c>
@@ -6220,9 +6537,9 @@
       <c r="J21" s="143">
         <v>13</v>
       </c>
-      <c r="K21" s="224">
+      <c r="K21" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>14.878662749208166</v>
+        <v>14.878662749208168</v>
       </c>
       <c r="L21" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
@@ -6242,11 +6559,11 @@
       </c>
       <c r="P21" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>18.232484076433124</v>
+        <v>12.54394904458599</v>
       </c>
       <c r="Q21" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>360.27388535031855</v>
+        <v>247.86843312101917</v>
       </c>
       <c r="R21" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -6254,11 +6571,11 @@
       </c>
       <c r="S21" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>343.67140866883005</v>
+        <v>287.46868255418036</v>
       </c>
       <c r="T21" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3736667877859956</v>
+        <v>1.6422310625472161</v>
       </c>
       <c r="U21" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6266,23 +6583,23 @@
       </c>
       <c r="V21" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>87.129104974948035</v>
+        <v>104.16363263205596</v>
       </c>
       <c r="W21" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>50.970526410344597</v>
+        <v>60.935725089752736</v>
       </c>
       <c r="X21" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>10.831347806835177</v>
+        <v>9.060030033855476</v>
       </c>
       <c r="Y21" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.2817512131388359E-2</v>
+        <v>6.0934386968059688E-2</v>
       </c>
       <c r="Z21" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>54.8471615720524</v>
+        <v>79.71971158728546</v>
       </c>
       <c r="AA21" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6290,7 +6607,7 @@
       </c>
       <c r="AB21" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>38.771712158808931</v>
+        <v>26.674937965260547</v>
       </c>
       <c r="AC21" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6306,19 +6623,39 @@
       </c>
       <c r="AF21" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>11.403444752590863</v>
+        <v>7.845569989782514</v>
       </c>
       <c r="AG21" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>188.3606750855659</v>
-      </c>
-      <c r="AH21" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI21" s="165"/>
+        <v>213.23322510079896</v>
+      </c>
+      <c r="AH21" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>365100</v>
+      </c>
+      <c r="AI21" s="245">
+        <v>1217</v>
+      </c>
+      <c r="AJ21" s="245">
+        <v>1233</v>
+      </c>
+      <c r="AK21" s="143">
+        <v>1315</v>
+      </c>
+      <c r="AL21" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>1255</v>
+      </c>
+      <c r="AN21" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>9.2279411764705888</v>
+      </c>
+      <c r="AO21" s="141">
+        <f t="shared" si="0"/>
+        <v>108.36653386454182</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="142" t="s">
         <v>191</v>
       </c>
@@ -6343,9 +6680,9 @@
       <c r="J22" s="149">
         <v>11</v>
       </c>
-      <c r="K22" s="224">
+      <c r="K22" s="223">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.268807281048844</v>
+        <v>12.268807281048847</v>
       </c>
       <c r="L22" s="165">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
@@ -6365,11 +6702,11 @@
       </c>
       <c r="P22" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>13.129431558706887</v>
+        <v>9.0330489123903401</v>
       </c>
       <c r="Q22" s="201">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>213.74714577574815</v>
+        <v>147.05803629371474</v>
       </c>
       <c r="R22" s="205">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
@@ -6377,11 +6714,11 @@
       </c>
       <c r="S22" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>382.51326500353866</v>
+        <v>349.16871026252198</v>
       </c>
       <c r="T22" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2341794211911385</v>
+        <v>1.3520398195046166</v>
       </c>
       <c r="U22" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6389,23 +6726,23 @@
       </c>
       <c r="V22" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>94.933984824966956</v>
+        <v>103.99989296833684</v>
       </c>
       <c r="W22" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>55.536381122605668</v>
+        <v>60.839937386477047</v>
       </c>
       <c r="X22" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>9.9408619771085629</v>
+        <v>9.0742943396031794</v>
       </c>
       <c r="Y22" s="165">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.1047371449082625E-2</v>
+        <v>7.4012866790332144E-2</v>
       </c>
       <c r="Z22" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>76.164759725400444</v>
+        <v>110.70459262412855</v>
       </c>
       <c r="AA22" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6413,7 +6750,7 @@
       </c>
       <c r="AB22" s="176">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>47.15201810637496</v>
+        <v>32.440588457185967</v>
       </c>
       <c r="AC22" s="176">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6429,24 +6766,44 @@
       </c>
       <c r="AF22" s="178">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>19.223515074137485</v>
+        <v>13.225778371006587</v>
       </c>
       <c r="AG22" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>186.16475972540047</v>
-      </c>
-      <c r="AH22" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI22" s="165"/>
+        <v>220.70459262412857</v>
+      </c>
+      <c r="AH22" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>354600</v>
+      </c>
+      <c r="AI22" s="245">
+        <v>1182</v>
+      </c>
+      <c r="AJ22" s="245">
+        <v>982</v>
+      </c>
+      <c r="AK22" s="143">
+        <v>1217</v>
+      </c>
+      <c r="AL22" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>1127</v>
+      </c>
+      <c r="AN22" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>8.2867647058823533</v>
+      </c>
+      <c r="AO22" s="141">
+        <f t="shared" si="0"/>
+        <v>120.67435669920141</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="136" t="s">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="241" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="136" t="s">
         <v>221</v>
       </c>
@@ -6466,15 +6823,15 @@
       <c r="J23" s="137">
         <v>25</v>
       </c>
-      <c r="K23" s="225">
+      <c r="K23" s="224">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>3.9777182676619431</v>
-      </c>
-      <c r="L23" s="215">
+        <v>3.9777182676619427</v>
+      </c>
+      <c r="L23" s="214">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="M23" s="216">
+      <c r="M23" s="215">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>49</v>
       </c>
@@ -6488,23 +6845,23 @@
       </c>
       <c r="P23" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>4.2292993630573248</v>
+        <v>2.9097579617834399</v>
       </c>
       <c r="Q23" s="209">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>207.23566878980893</v>
-      </c>
-      <c r="R23" s="217">
+        <v>142.57814012738856</v>
+      </c>
+      <c r="R23" s="216">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>568.60093434964358</v>
       </c>
       <c r="S23" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>387.91830156972628</v>
+        <v>355.58953723851607</v>
       </c>
       <c r="T23" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2169830556838119</v>
+        <v>1.32762623913577</v>
       </c>
       <c r="U23" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6512,23 +6869,23 @@
       </c>
       <c r="V23" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>288.7328955725979</v>
+        <v>314.98332410917573</v>
       </c>
       <c r="W23" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>168.90874390996976</v>
+        <v>184.26524460386779</v>
       </c>
       <c r="X23" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>3.2685075187237498</v>
-      </c>
-      <c r="Y23" s="219">
+        <v>2.9961130251924466</v>
+      </c>
+      <c r="Y23" s="218">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.2192597108829701E-2</v>
+        <v>7.5373881674228024E-2</v>
       </c>
       <c r="Z23" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>236.44578313253012</v>
+        <v>343.67119641356112</v>
       </c>
       <c r="AA23" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6536,7 +6893,7 @@
       </c>
       <c r="AB23" s="144">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>15.384615384615387</v>
+        <v>10.584615384615388</v>
       </c>
       <c r="AC23" s="144">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6550,149 +6907,189 @@
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="AF23" s="219">
+      <c r="AF23" s="218">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>19.230769230769234</v>
+        <v>13.230769230769234</v>
       </c>
       <c r="AG23" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>567.52686421361125</v>
-      </c>
-      <c r="AH23" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI23" s="219"/>
+        <v>674.75227749464216</v>
+      </c>
+      <c r="AH23" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>116100</v>
+      </c>
+      <c r="AI23" s="246">
+        <v>387</v>
+      </c>
+      <c r="AJ23" s="247">
+        <v>387</v>
+      </c>
+      <c r="AK23" s="243">
+        <v>387</v>
+      </c>
+      <c r="AL23" s="243">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>387</v>
+      </c>
+      <c r="AN23" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>2.8455882352941178</v>
+      </c>
+      <c r="AO23" s="141">
+        <f t="shared" si="0"/>
+        <v>351.42118863049092</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" s="236" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="227" t="s">
+    <row r="24" spans="1:41" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="226" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="228"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="227" t="s">
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="226" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229">
+      <c r="E24" s="228"/>
+      <c r="F24" s="228">
         <v>100</v>
       </c>
-      <c r="G24" s="229">
+      <c r="G24" s="228">
         <v>1</v>
       </c>
-      <c r="H24" s="229">
+      <c r="H24" s="228">
         <v>50</v>
       </c>
-      <c r="I24" s="229">
+      <c r="I24" s="228">
         <v>5</v>
       </c>
-      <c r="J24" s="229">
+      <c r="J24" s="228">
         <v>5</v>
       </c>
-      <c r="K24" s="230">
+      <c r="K24" s="229">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.9174938563130977</v>
-      </c>
-      <c r="L24" s="231">
+        <v>2.9174938563130981</v>
+      </c>
+      <c r="L24" s="230">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="M24" s="232">
+      <c r="M24" s="231">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>5</v>
       </c>
-      <c r="N24" s="233">
+      <c r="N24" s="232">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>29.6</v>
       </c>
-      <c r="O24" s="233">
+      <c r="O24" s="232">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
         <v>318.47133757961791</v>
       </c>
-      <c r="P24" s="233">
+      <c r="P24" s="232">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>2.4999999999999996</v>
-      </c>
-      <c r="Q24" s="230">
+        <v>1.72</v>
+      </c>
+      <c r="Q24" s="229">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>12.499999999999998</v>
-      </c>
-      <c r="R24" s="234">
+        <v>8.6</v>
+      </c>
+      <c r="R24" s="233">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>9426.7515923566898</v>
       </c>
-      <c r="S24" s="233">
+      <c r="S24" s="232">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>4719.6257961783449</v>
-      </c>
-      <c r="T24" s="233">
+        <v>4717.6757961783451</v>
+      </c>
+      <c r="T24" s="232">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.10002699798409201</v>
-      </c>
-      <c r="U24" s="233">
+        <v>0.10006834305621989</v>
+      </c>
+      <c r="U24" s="232">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>323.47133757961791</v>
       </c>
-      <c r="V24" s="233">
+      <c r="V24" s="232">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>32.355866831987989</v>
-      </c>
-      <c r="W24" s="233">
+        <v>32.369240777771516</v>
+      </c>
+      <c r="W24" s="232">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>18.928182096712973</v>
-      </c>
-      <c r="X24" s="233">
+        <v>18.936005854996335</v>
+      </c>
+      <c r="X24" s="232">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>29.167064043820318</v>
-      </c>
-      <c r="Y24" s="230">
+        <v>29.155013136112451</v>
+      </c>
+      <c r="Y24" s="229">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>1</v>
       </c>
-      <c r="Z24" s="232">
+      <c r="Z24" s="231">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>400.00000000000006</v>
-      </c>
-      <c r="AA24" s="232">
+        <v>581.39534883720933</v>
+      </c>
+      <c r="AA24" s="231">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>33.783783783783782</v>
       </c>
-      <c r="AB24" s="232">
+      <c r="AB24" s="231">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>159.23566878980893</v>
-      </c>
-      <c r="AC24" s="232">
+        <v>109.55414012738855</v>
+      </c>
+      <c r="AC24" s="231">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.5</v>
       </c>
-      <c r="AD24" s="235">
+      <c r="AD24" s="234">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>39</v>
       </c>
-      <c r="AE24" s="232">
+      <c r="AE24" s="231">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="AF24" s="230">
+      <c r="AF24" s="229">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>318.47133757961785</v>
-      </c>
-      <c r="AG24" s="232">
+        <v>219.1082802547771</v>
+      </c>
+      <c r="AG24" s="231">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>433.78378378378386</v>
-      </c>
-      <c r="AH24" s="232" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI24" s="230"/>
+        <v>615.17913262099307</v>
+      </c>
+      <c r="AH24" s="231">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>303900</v>
+      </c>
+      <c r="AI24" s="245">
+        <v>1013</v>
+      </c>
+      <c r="AJ24" s="245">
+        <v>860</v>
+      </c>
+      <c r="AK24" s="143">
+        <v>958</v>
+      </c>
+      <c r="AL24" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>943.66666666666663</v>
+      </c>
+      <c r="AN24" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>6.9387254901960782</v>
+      </c>
+      <c r="AO24" s="141">
+        <f t="shared" si="0"/>
+        <v>144.11868597668669</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="218"/>
-      <c r="C25" s="218"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="217"/>
       <c r="D25" s="136" t="s">
         <v>221</v>
       </c>
@@ -6712,15 +7109,15 @@
       <c r="J25" s="137">
         <v>9</v>
       </c>
-      <c r="K25" s="225">
+      <c r="K25" s="224">
         <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.345810315354626</v>
       </c>
-      <c r="L25" s="215">
+      <c r="L25" s="214">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="M25" s="216">
+      <c r="M25" s="215">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
         <v>16.2</v>
       </c>
@@ -6734,23 +7131,23 @@
       </c>
       <c r="P25" s="198">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>13.216560509554139</v>
-      </c>
-      <c r="Q25" s="219">
+        <v>9.0929936305732486</v>
+      </c>
+      <c r="Q25" s="218">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>214.10828025477704</v>
-      </c>
-      <c r="R25" s="226">
+        <v>147.30649681528661</v>
+      </c>
+      <c r="R25" s="225">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>550.34954633348218</v>
       </c>
       <c r="S25" s="209">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>382.2289132941296</v>
+        <v>348.82802157438437</v>
       </c>
       <c r="T25" s="209">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.2350975647850093</v>
+        <v>1.3533603116782036</v>
       </c>
       <c r="U25" s="209">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
@@ -6758,23 +7155,23 @@
       </c>
       <c r="V25" s="209">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>94.412048307650252</v>
+        <v>103.4521666683558</v>
       </c>
       <c r="W25" s="209">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>55.231048259975395</v>
+        <v>60.519517500988137</v>
       </c>
       <c r="X25" s="209">
         <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>9.9958178749252369</v>
-      </c>
-      <c r="Y25" s="219">
+        <v>9.1223380860382157</v>
+      </c>
+      <c r="Y25" s="218">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.0987122666300038E-2</v>
+        <v>7.3940651423516648E-2</v>
       </c>
       <c r="Z25" s="176">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>75.662650602409641</v>
+        <v>109.9747828523396</v>
       </c>
       <c r="AA25" s="176">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
@@ -6782,7 +7179,7 @@
       </c>
       <c r="AB25" s="144">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>46.763935652824543</v>
+        <v>32.173587729143286</v>
       </c>
       <c r="AC25" s="144">
         <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -6796,33 +7193,181 @@
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="AF25" s="219">
+      <c r="AF25" s="218">
         <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>18.705574261129819</v>
+        <v>12.869435091657314</v>
       </c>
       <c r="AG25" s="176">
         <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>185.12211006186908</v>
-      </c>
-      <c r="AH25" s="176" t="e">
-        <f>$AE$7/Tabela2[[#This Row],[Kolumna5]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI25" s="219"/>
+        <v>219.43424231179904</v>
+      </c>
+      <c r="AH25" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>358800</v>
+      </c>
+      <c r="AI25" s="248">
+        <v>1196</v>
+      </c>
+      <c r="AJ25" s="245">
+        <v>999</v>
+      </c>
+      <c r="AK25" s="143">
+        <v>1162</v>
+      </c>
+      <c r="AL25" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>1119</v>
+      </c>
+      <c r="AN25" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>8.2279411764705888</v>
+      </c>
+      <c r="AO25" s="141">
+        <f t="shared" si="0"/>
+        <v>121.53708668453976</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="136" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137">
+        <v>30</v>
+      </c>
+      <c r="G26" s="137">
+        <v>7</v>
+      </c>
+      <c r="H26" s="137">
+        <v>10</v>
+      </c>
+      <c r="I26" s="137">
+        <v>4</v>
+      </c>
+      <c r="J26" s="137">
+        <v>4</v>
+      </c>
+      <c r="K26" s="224">
+        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>24.022578958160349</v>
+      </c>
+      <c r="L26" s="214">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>6.9203513693068572</v>
+      </c>
+      <c r="M26" s="215">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>4.96</v>
+      </c>
+      <c r="N26" s="189">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>29.838709677419356</v>
+      </c>
+      <c r="O26" s="197">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+        <v>34.324942791762012</v>
+      </c>
+      <c r="P26" s="198">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>15.958386411889601</v>
+      </c>
+      <c r="Q26" s="218">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>79.153596602972414</v>
+      </c>
+      <c r="R26" s="225">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>1024.2120026574148</v>
+      </c>
+      <c r="S26" s="209">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>551.68279963019359</v>
+      </c>
+      <c r="T26" s="209">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.85572724093709895</v>
+      </c>
+      <c r="U26" s="209">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>39.284942791762013</v>
+      </c>
+      <c r="V26" s="209">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>33.617195705566282</v>
+      </c>
+      <c r="W26" s="209">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>19.666059487756275</v>
+      </c>
+      <c r="X26" s="209">
+        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+        <v>28.072705657767123</v>
+      </c>
+      <c r="Y26" s="218">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>0.11693953197824576</v>
+      </c>
+      <c r="Z26" s="176">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>62.662976957053907</v>
+      </c>
+      <c r="AA26" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>33.513513513513516</v>
+      </c>
+      <c r="AB26" s="144">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+        <v>108.04020100502511</v>
+      </c>
+      <c r="AC26" s="144">
+        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AD26" s="177">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>13</v>
+      </c>
+      <c r="AE26" s="176">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>6.9203513693068572</v>
+      </c>
+      <c r="AF26" s="218">
+        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
+        <v>24.932354078082721</v>
+      </c>
+      <c r="AG26" s="176">
+        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
+        <v>96.176490470567416</v>
+      </c>
+      <c r="AH26" s="176">
+        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
+        <v>870900</v>
+      </c>
+      <c r="AI26" s="248">
+        <v>2903</v>
+      </c>
+      <c r="AJ26" s="245">
+        <v>2522</v>
+      </c>
+      <c r="AK26" s="143">
+        <v>2900</v>
+      </c>
+      <c r="AL26" s="245">
+        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>2775</v>
+      </c>
+      <c r="AN26" s="141">
+        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <v>20.404411764705884</v>
+      </c>
+      <c r="AO26" s="141">
+        <f t="shared" si="0"/>
+        <v>49.009009009009006</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="135"/>
       <c r="B27" s="135"/>
       <c r="C27" s="135"/>
@@ -6834,7 +7379,7 @@
       <c r="I27" s="135"/>
       <c r="J27" s="135"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="135"/>
       <c r="B28" s="135"/>
       <c r="C28" s="135"/>
@@ -6846,7 +7391,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="135"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="135"/>
       <c r="B29" s="135"/>
       <c r="C29" s="135"/>
@@ -6858,7 +7403,7 @@
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
       <c r="B30" s="135"/>
       <c r="C30" s="135"/>
@@ -6870,7 +7415,7 @@
       <c r="I30" s="135"/>
       <c r="J30" s="135"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="135"/>
       <c r="B31" s="135"/>
       <c r="C31" s="135"/>
@@ -6882,17 +7427,17 @@
       <c r="I31" s="135"/>
       <c r="J31" s="135"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="135"/>
       <c r="B32" s="135"/>
       <c r="C32" s="135"/>
       <c r="D32" s="135"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="135"/>
@@ -6911,7 +7456,7 @@
       <c r="B34" s="135"/>
       <c r="C34" s="135"/>
       <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="138"/>
       <c r="G34" s="138"/>
       <c r="H34" s="138"/>
@@ -6978,29 +7523,41 @@
       <c r="I39" s="138"/>
       <c r="J39" s="138"/>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="17" priority="6">
-      <formula>"Toster"</formula>
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Lizardman">
+      <formula>NOT(ISERROR(SEARCH("Lizardman",D1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Barbarians">
+      <formula>NOT(ISERROR(SEARCH("Barbarians",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Toster">
+      <formula>NOT(ISERROR(SEARCH("Toster",D1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>Toster</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$D$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>Toster</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Toster">
-      <formula>NOT(ISERROR(SEARCH("Toster",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Barbarians">
-      <formula>NOT(ISERROR(SEARCH("Barbarians",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Lizardman">
-      <formula>NOT(ISERROR(SEARCH("Lizardman",D1)))</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7013,13 +7570,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T127" sqref="T127"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18902,7 +19459,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B1:AD137">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AD137">
     <sortCondition ref="AB1:AB137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18910,7 +19467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19231,7 +19788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Documents\GitHub\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EFB00-AFE4-45ED-BB84-BA6C95481552}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9BD01-0D32-40F6-8B41-4E2FA12937FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32355" yWindow="645" windowWidth="26790" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="275">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -1155,7 +1155,16 @@
     <t>CENA</t>
   </si>
   <si>
-    <t>Cena na podstawie średniej</t>
+    <t>Cena na podstawie TosterDPS</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Ilość dla 10000 G</t>
+  </si>
+  <si>
+    <t>OSTATECZNY BALANS?</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1339,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="116">
+  <fills count="117">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -2272,7 +2287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2838,6 +2853,13 @@
     <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="116" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2849,7 +2871,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3935,8 +3957,8 @@
     </tableColumn>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FixedAmountAfterSearchingFixedAmountAfterSearching" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{E81D788C-D7EC-40FE-9AD7-435B0C143227}" name="FixedAmountAfterSearchingFixedAmountAfterSearching2" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7DEC9FA1-82AC-4B54-B821-96FFC4B933A8}" name="FixedAmountAfterSearching" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{C3B58278-C645-4088-8882-E7DB32A0DDE7}" name="ŚREDNIA" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{7DEC9FA1-82AC-4B54-B821-96FFC4B933A8}" name="FixedAmountAfterSearching" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{C3B58278-C645-4088-8882-E7DB32A0DDE7}" name="ŚREDNIA" dataDxfId="1">
       <calculatedColumnFormula>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4258,13 +4280,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AU26" sqref="AU26"/>
+      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,10 +4311,11 @@
     <col min="28" max="32" width="3.7109375" style="168" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9.140625" customWidth="1"/>
     <col min="34" max="34" width="9.85546875" style="219" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="250"/>
+    <col min="40" max="40" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="150"/>
       <c r="B1" s="150"/>
       <c r="C1" s="151" t="s">
@@ -4336,13 +4359,13 @@
         <v>264</v>
       </c>
       <c r="AJ1" s="239"/>
-      <c r="AK1" s="239"/>
+      <c r="AK1" s="249"/>
       <c r="AL1" s="239"/>
       <c r="AM1" s="239"/>
       <c r="AN1" s="150"/>
       <c r="AO1" s="237"/>
     </row>
-    <row r="2" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="160"/>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -4385,13 +4408,13 @@
       <c r="AH2" s="219"/>
       <c r="AI2" s="237"/>
       <c r="AJ2" s="239"/>
-      <c r="AK2" s="239"/>
+      <c r="AK2" s="249"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="150"/>
       <c r="AO2" s="237"/>
     </row>
-    <row r="3" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="160"/>
       <c r="B3" s="160"/>
       <c r="C3" s="160"/>
@@ -4435,13 +4458,13 @@
         <v>265</v>
       </c>
       <c r="AJ3" s="239"/>
-      <c r="AK3" s="239"/>
+      <c r="AK3" s="249"/>
       <c r="AL3" s="239"/>
       <c r="AM3" s="239"/>
       <c r="AN3" s="150"/>
       <c r="AO3" s="237"/>
     </row>
-    <row r="4" spans="1:41" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="160"/>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -4484,13 +4507,13 @@
       <c r="AJ4" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="AK4" s="239"/>
+      <c r="AK4" s="249"/>
       <c r="AL4" s="239"/>
       <c r="AM4" s="239"/>
       <c r="AN4" s="150"/>
       <c r="AO4" s="237"/>
     </row>
-    <row r="5" spans="1:41" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="162"/>
       <c r="B5" s="162"/>
       <c r="C5" s="162"/>
@@ -4527,15 +4550,18 @@
       <c r="AH5" s="219"/>
       <c r="AI5" s="237"/>
       <c r="AJ5" s="239"/>
-      <c r="AK5" s="239" t="s">
+      <c r="AK5" s="249" t="s">
         <v>267</v>
       </c>
       <c r="AL5" s="239"/>
       <c r="AM5" s="239"/>
       <c r="AN5" s="150"/>
       <c r="AO5" s="237"/>
+      <c r="AQ5" s="153" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" s="153" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="162"/>
       <c r="B6" s="162"/>
       <c r="C6" s="162"/>
@@ -4571,7 +4597,7 @@
       <c r="AH6" s="219"/>
       <c r="AI6" s="237"/>
       <c r="AJ6" s="239"/>
-      <c r="AK6" s="239"/>
+      <c r="AK6" s="249"/>
       <c r="AL6" s="239" t="s">
         <v>268</v>
       </c>
@@ -4581,7 +4607,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="157" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" s="157" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="162"/>
       <c r="B7" s="162"/>
       <c r="C7" s="162"/>
@@ -4671,11 +4697,14 @@
       <c r="AJ7" s="240">
         <v>34550</v>
       </c>
-      <c r="AK7" s="157">
+      <c r="AK7" s="250">
         <v>387</v>
       </c>
+      <c r="AQ7" s="157" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="147" t="s">
         <v>1</v>
       </c>
@@ -4784,7 +4813,7 @@
       <c r="AJ8" s="147" t="s">
         <v>269</v>
       </c>
-      <c r="AK8" s="147" t="s">
+      <c r="AK8" s="251" t="s">
         <v>262</v>
       </c>
       <c r="AL8" s="147" t="s">
@@ -4793,8 +4822,11 @@
       <c r="AO8" s="242" t="s">
         <v>270</v>
       </c>
+      <c r="AQ8" s="147" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
         <v>259</v>
       </c>
@@ -4918,7 +4950,7 @@
       <c r="AJ9" s="243">
         <v>136</v>
       </c>
-      <c r="AK9" s="243">
+      <c r="AK9" s="247">
         <v>136</v>
       </c>
       <c r="AL9" s="243">
@@ -4926,15 +4958,19 @@
         <v>136</v>
       </c>
       <c r="AN9" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>1</v>
       </c>
       <c r="AO9" s="141">
         <f>1000/AN9</f>
         <v>1000</v>
       </c>
+      <c r="AQ9" s="141">
+        <f>10000/AO9</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" s="146" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="146" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="146" t="s">
         <v>189</v>
       </c>
@@ -5058,7 +5094,7 @@
       <c r="AJ10" s="244">
         <v>34550</v>
       </c>
-      <c r="AK10" s="243">
+      <c r="AK10" s="247">
         <v>33308</v>
       </c>
       <c r="AL10" s="243">
@@ -5066,15 +5102,19 @@
         <v>34136</v>
       </c>
       <c r="AN10" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>251</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>244.91176470588235</v>
       </c>
       <c r="AO10" s="141">
         <f t="shared" ref="AO10:AO26" si="0">1000/AN10</f>
-        <v>3.9840637450199203</v>
+        <v>4.0831031584003847</v>
+      </c>
+      <c r="AQ10" s="141">
+        <f t="shared" ref="AQ10:AQ26" si="1">10000/AO10</f>
+        <v>2449.1176470588234</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="139" t="s">
         <v>177</v>
       </c>
@@ -5199,21 +5239,25 @@
       </c>
       <c r="AI11" s="245"/>
       <c r="AJ11" s="245"/>
-      <c r="AK11" s="143"/>
+      <c r="AK11" s="252"/>
       <c r="AL11" s="245">
         <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>0</v>
       </c>
       <c r="AN11" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>0</v>
       </c>
       <c r="AO11" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AQ11" s="141" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
         <v>38</v>
       </c>
@@ -5338,21 +5382,25 @@
       </c>
       <c r="AI12" s="245"/>
       <c r="AJ12" s="245"/>
-      <c r="AK12" s="143"/>
+      <c r="AK12" s="252"/>
       <c r="AL12" s="245">
         <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>0</v>
       </c>
       <c r="AN12" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>0</v>
       </c>
       <c r="AO12" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AQ12" s="141" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="142" t="s">
         <v>217</v>
       </c>
@@ -5481,7 +5529,7 @@
       <c r="AJ13" s="245">
         <v>7472</v>
       </c>
-      <c r="AK13" s="143">
+      <c r="AK13" s="252">
         <v>9080</v>
       </c>
       <c r="AL13" s="245">
@@ -5489,15 +5537,19 @@
         <v>8527.3333333333339</v>
       </c>
       <c r="AN13" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>62.700980392156865</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>66.764705882352942</v>
       </c>
       <c r="AO13" s="141">
         <f t="shared" si="0"/>
-        <v>15.948713939488702</v>
+        <v>14.977973568281937</v>
+      </c>
+      <c r="AQ13" s="141">
+        <f t="shared" si="1"/>
+        <v>667.64705882352951</v>
       </c>
     </row>
-    <row r="14" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="142" t="s">
         <v>219</v>
       </c>
@@ -5626,7 +5678,7 @@
       <c r="AJ14" s="245">
         <v>3619</v>
       </c>
-      <c r="AK14" s="143">
+      <c r="AK14" s="252">
         <v>4397</v>
       </c>
       <c r="AL14" s="245">
@@ -5634,15 +5686,19 @@
         <v>4145.666666666667</v>
       </c>
       <c r="AN14" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>30.482843137254903</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>32.330882352941174</v>
       </c>
       <c r="AO14" s="141">
         <f t="shared" si="0"/>
-        <v>32.805338908096807</v>
+        <v>30.930179667955425</v>
+      </c>
+      <c r="AQ14" s="141">
+        <f t="shared" si="1"/>
+        <v>323.30882352941177</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="142" t="s">
         <v>220</v>
       </c>
@@ -5771,7 +5827,7 @@
       <c r="AJ15" s="245">
         <v>1035</v>
       </c>
-      <c r="AK15" s="143">
+      <c r="AK15" s="252">
         <v>1291</v>
       </c>
       <c r="AL15" s="245">
@@ -5779,15 +5835,19 @@
         <v>1187.6666666666667</v>
       </c>
       <c r="AN15" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>8.7328431372549034</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>9.492647058823529</v>
       </c>
       <c r="AO15" s="141">
         <f t="shared" si="0"/>
-        <v>114.51024417625595</v>
+        <v>105.34469403563129</v>
+      </c>
+      <c r="AQ15" s="141">
+        <f t="shared" si="1"/>
+        <v>94.92647058823529</v>
       </c>
     </row>
-    <row r="16" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="142" t="s">
         <v>218</v>
       </c>
@@ -5916,7 +5976,7 @@
       <c r="AJ16" s="245">
         <v>326</v>
       </c>
-      <c r="AK16" s="143">
+      <c r="AK16" s="252">
         <v>405</v>
       </c>
       <c r="AL16" s="245">
@@ -5924,15 +5984,19 @@
         <v>372</v>
       </c>
       <c r="AN16" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>2.7352941176470589</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>2.9779411764705883</v>
       </c>
       <c r="AO16" s="141">
         <f t="shared" si="0"/>
-        <v>365.59139784946234</v>
+        <v>335.80246913580248</v>
+      </c>
+      <c r="AQ16" s="141">
+        <f t="shared" si="1"/>
+        <v>29.77941176470588</v>
       </c>
     </row>
-    <row r="17" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="142" t="s">
         <v>216</v>
       </c>
@@ -6061,7 +6125,7 @@
       <c r="AJ17" s="245">
         <v>7332</v>
       </c>
-      <c r="AK17" s="245">
+      <c r="AK17" s="253">
         <v>8610</v>
       </c>
       <c r="AL17" s="245">
@@ -6069,15 +6133,19 @@
         <v>8293.6666666666661</v>
       </c>
       <c r="AN17" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>60.982843137254896</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>63.308823529411768</v>
       </c>
       <c r="AO17" s="141">
         <f t="shared" si="0"/>
-        <v>16.39805474056509</v>
+        <v>15.795586527293844</v>
+      </c>
+      <c r="AQ17" s="141">
+        <f t="shared" si="1"/>
+        <v>633.08823529411768</v>
       </c>
     </row>
-    <row r="18" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142" t="s">
         <v>215</v>
       </c>
@@ -6206,7 +6274,7 @@
       <c r="AJ18" s="245">
         <v>3982</v>
       </c>
-      <c r="AK18" s="143">
+      <c r="AK18" s="252">
         <v>4420</v>
       </c>
       <c r="AL18" s="245">
@@ -6214,15 +6282,19 @@
         <v>4359.333333333333</v>
       </c>
       <c r="AN18" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>32.053921568627452</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>32.5</v>
       </c>
       <c r="AO18" s="141">
         <f t="shared" si="0"/>
-        <v>31.197430799816484</v>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="AQ18" s="141">
+        <f t="shared" si="1"/>
+        <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:41" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
         <v>214</v>
       </c>
@@ -6351,7 +6423,7 @@
       <c r="AJ19" s="245">
         <v>1601</v>
       </c>
-      <c r="AK19" s="143">
+      <c r="AK19" s="252">
         <v>1865</v>
       </c>
       <c r="AL19" s="245">
@@ -6359,15 +6431,19 @@
         <v>1779.3333333333333</v>
       </c>
       <c r="AN19" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>13.083333333333332</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>13.713235294117647</v>
       </c>
       <c r="AO19" s="141">
         <f t="shared" si="0"/>
-        <v>76.433121019108285</v>
+        <v>72.922252010723867</v>
+      </c>
+      <c r="AQ19" s="141">
+        <f t="shared" si="1"/>
+        <v>137.13235294117646</v>
       </c>
     </row>
-    <row r="20" spans="1:41" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="142" t="s">
         <v>213</v>
       </c>
@@ -6496,7 +6572,7 @@
       <c r="AJ20" s="245">
         <v>477</v>
       </c>
-      <c r="AK20" s="143">
+      <c r="AK20" s="252">
         <v>538</v>
       </c>
       <c r="AL20" s="245">
@@ -6504,15 +6580,19 @@
         <v>519.66666666666663</v>
       </c>
       <c r="AN20" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>3.8210784313725488</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>3.9558823529411766</v>
       </c>
       <c r="AO20" s="141">
         <f t="shared" si="0"/>
-        <v>261.70622193713922</v>
+        <v>252.78810408921933</v>
+      </c>
+      <c r="AQ20" s="141">
+        <f t="shared" si="1"/>
+        <v>39.558823529411768</v>
       </c>
     </row>
-    <row r="21" spans="1:41" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="142" t="s">
         <v>190</v>
       </c>
@@ -6639,7 +6719,7 @@
       <c r="AJ21" s="245">
         <v>1233</v>
       </c>
-      <c r="AK21" s="143">
+      <c r="AK21" s="252">
         <v>1315</v>
       </c>
       <c r="AL21" s="245">
@@ -6647,15 +6727,19 @@
         <v>1255</v>
       </c>
       <c r="AN21" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>9.2279411764705888</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>9.6691176470588243</v>
       </c>
       <c r="AO21" s="141">
         <f t="shared" si="0"/>
-        <v>108.36653386454182</v>
+        <v>103.42205323193916</v>
+      </c>
+      <c r="AQ21" s="141">
+        <f t="shared" si="1"/>
+        <v>96.691176470588246</v>
       </c>
     </row>
-    <row r="22" spans="1:41" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="142" t="s">
         <v>191</v>
       </c>
@@ -6782,7 +6866,7 @@
       <c r="AJ22" s="245">
         <v>982</v>
       </c>
-      <c r="AK22" s="143">
+      <c r="AK22" s="252">
         <v>1217</v>
       </c>
       <c r="AL22" s="245">
@@ -6790,15 +6874,19 @@
         <v>1127</v>
       </c>
       <c r="AN22" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>8.2867647058823533</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>8.9485294117647065</v>
       </c>
       <c r="AO22" s="141">
         <f t="shared" si="0"/>
-        <v>120.67435669920141</v>
+        <v>111.75020542317172</v>
+      </c>
+      <c r="AQ22" s="141">
+        <f t="shared" si="1"/>
+        <v>89.485294117647072</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="241" t="s">
         <v>187</v>
       </c>
@@ -6925,7 +7013,7 @@
       <c r="AJ23" s="247">
         <v>387</v>
       </c>
-      <c r="AK23" s="243">
+      <c r="AK23" s="247">
         <v>387</v>
       </c>
       <c r="AL23" s="243">
@@ -6933,15 +7021,19 @@
         <v>387</v>
       </c>
       <c r="AN23" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>2.8455882352941178</v>
       </c>
       <c r="AO23" s="141">
         <f t="shared" si="0"/>
         <v>351.42118863049092</v>
       </c>
+      <c r="AQ23" s="141">
+        <f t="shared" si="1"/>
+        <v>28.455882352941181</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="226" t="s">
         <v>188</v>
       </c>
@@ -7068,7 +7160,7 @@
       <c r="AJ24" s="245">
         <v>860</v>
       </c>
-      <c r="AK24" s="143">
+      <c r="AK24" s="252">
         <v>958</v>
       </c>
       <c r="AL24" s="245">
@@ -7076,15 +7168,19 @@
         <v>943.66666666666663</v>
       </c>
       <c r="AN24" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>6.9387254901960782</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>7.0441176470588234</v>
       </c>
       <c r="AO24" s="141">
         <f t="shared" si="0"/>
-        <v>144.11868597668669</v>
+        <v>141.96242171189979</v>
+      </c>
+      <c r="AQ24" s="141">
+        <f t="shared" si="1"/>
+        <v>70.441176470588232</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="136" t="s">
         <v>192</v>
       </c>
@@ -7211,7 +7307,7 @@
       <c r="AJ25" s="245">
         <v>999</v>
       </c>
-      <c r="AK25" s="143">
+      <c r="AK25" s="252">
         <v>1162</v>
       </c>
       <c r="AL25" s="245">
@@ -7219,15 +7315,19 @@
         <v>1119</v>
       </c>
       <c r="AN25" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>8.2279411764705888</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>8.5441176470588243</v>
       </c>
       <c r="AO25" s="141">
         <f t="shared" si="0"/>
-        <v>121.53708668453976</v>
+        <v>117.03958691910498</v>
+      </c>
+      <c r="AQ25" s="141">
+        <f t="shared" si="1"/>
+        <v>85.441176470588246</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="136" t="s">
         <v>261</v>
       </c>
@@ -7351,7 +7451,7 @@
       <c r="AJ26" s="245">
         <v>2522</v>
       </c>
-      <c r="AK26" s="143">
+      <c r="AK26" s="252">
         <v>2900</v>
       </c>
       <c r="AL26" s="245">
@@ -7359,15 +7459,19 @@
         <v>2775</v>
       </c>
       <c r="AN26" s="141">
-        <f>Tabela2[[#This Row],[ŚREDNIA]]/136</f>
-        <v>20.404411764705884</v>
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>21.323529411764707</v>
       </c>
       <c r="AO26" s="141">
         <f t="shared" si="0"/>
-        <v>49.009009009009006</v>
+        <v>46.896551724137929</v>
+      </c>
+      <c r="AQ26" s="141">
+        <f t="shared" si="1"/>
+        <v>213.23529411764707</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="135"/>
       <c r="B27" s="135"/>
       <c r="C27" s="135"/>
@@ -7379,7 +7483,7 @@
       <c r="I27" s="135"/>
       <c r="J27" s="135"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="135"/>
       <c r="B28" s="135"/>
       <c r="C28" s="135"/>
@@ -7391,7 +7495,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="135"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="135"/>
       <c r="B29" s="135"/>
       <c r="C29" s="135"/>
@@ -7403,7 +7507,7 @@
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="135"/>
       <c r="B30" s="135"/>
       <c r="C30" s="135"/>
@@ -7415,7 +7519,7 @@
       <c r="I30" s="135"/>
       <c r="J30" s="135"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" s="135"/>
       <c r="B31" s="135"/>
       <c r="C31" s="135"/>
@@ -7427,7 +7531,7 @@
       <c r="I31" s="135"/>
       <c r="J31" s="135"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" s="135"/>
       <c r="B32" s="135"/>
       <c r="C32" s="135"/>

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Documents\GitHub\TArenaUnity3D\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9BD01-0D32-40F6-8B41-4E2FA12937FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="645" windowWidth="26790" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32355" yWindow="645" windowWidth="26790" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="Toster_Arena" sheetId="1" r:id="rId1"/>
     <sheet name="Heroes 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Toster_Export_xml" sheetId="3" r:id="rId3"/>
-    <sheet name="Spelle_Export_xml" sheetId="4" r:id="rId4"/>
+    <sheet name="Spelle_Export_xml" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Piotr Musielski</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="U8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="V8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="W8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="X8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AR8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AS8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,36 +286,42 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="mapowanie" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="mapowanie" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\mapowanie.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Units_Map" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="Units_Map" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Units_Map1" type="4" refreshedVersion="0" background="1">
+  <connection id="3" name="Units_Map1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="Units_Mapping_Template2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="Units_Mapping_Template3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="289">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -870,18 +874,6 @@
     <t>Roznica od srednej</t>
   </si>
   <si>
-    <t>Heroes 3</t>
-  </si>
-  <si>
-    <t>Tytan</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>Skill1</t>
   </si>
   <si>
@@ -894,15 +886,6 @@
     <t>Skill4</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Dm</t>
-  </si>
-  <si>
     <t>TosterDPS</t>
   </si>
   <si>
@@ -921,9 +904,6 @@
     <t>Lizard</t>
   </si>
   <si>
-    <t>DM2</t>
-  </si>
-  <si>
     <t>Sprites/redT2</t>
   </si>
   <si>
@@ -933,9 +913,6 @@
     <t>Sprites/gT2</t>
   </si>
   <si>
-    <t>Sprites/Szaman1</t>
-  </si>
-  <si>
     <t>Sprites/axe</t>
   </si>
   <si>
@@ -957,15 +934,6 @@
     <t>Topornik_Skill2</t>
   </si>
   <si>
-    <t>P.Lich</t>
-  </si>
-  <si>
-    <t>Troglo</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Barbarzyńcy - frakcja oparta na sile o liniowym wzroście, posiada dość ograniczone umiejętnośći wzmacniające walkę</t>
   </si>
   <si>
@@ -996,9 +964,6 @@
     <t>Rusher</t>
   </si>
   <si>
-    <t>Heavy Hitter</t>
-  </si>
-  <si>
     <t>Thrower</t>
   </si>
   <si>
@@ -1041,9 +1006,6 @@
     <t>Ilu zada 148 dmg</t>
   </si>
   <si>
-    <t>Kolumna2</t>
-  </si>
-  <si>
     <t>Ile zadadzą wytrzymując 796</t>
   </si>
   <si>
@@ -1125,9 +1087,6 @@
     <t>Toughnessness</t>
   </si>
   <si>
-    <t>Golem</t>
-  </si>
-  <si>
     <t>FixedAmountAfterSearching</t>
   </si>
   <si>
@@ -1143,34 +1102,121 @@
     <t>FixedAmountAfterSearchingFixedAmountAfterSearching</t>
   </si>
   <si>
-    <t xml:space="preserve"> w porównaniu do TosterDPS</t>
-  </si>
-  <si>
     <t>ŚREDNIA</t>
   </si>
   <si>
     <t>FixedAmountAfterSearchingFixedAmountAfterSearching2</t>
   </si>
   <si>
-    <t>CENA</t>
-  </si>
-  <si>
-    <t>Cena na podstawie TosterDPS</t>
-  </si>
-  <si>
     <t>Ilość</t>
   </si>
   <si>
-    <t>Ilość dla 10000 G</t>
-  </si>
-  <si>
-    <t>OSTATECZNY BALANS?</t>
+    <t>HeavyHitter</t>
+  </si>
+  <si>
+    <t>Statystyki</t>
+  </si>
+  <si>
+    <t>Wskaźniki</t>
+  </si>
+  <si>
+    <t>Wsk</t>
+  </si>
+  <si>
+    <t>Sk</t>
+  </si>
+  <si>
+    <t>Skile</t>
+  </si>
+  <si>
+    <t>Kolumna22</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Symula</t>
+  </si>
+  <si>
+    <t>Zbalansowana ilośc względem DPS</t>
+  </si>
+  <si>
+    <t>Zrównane do 1 lizarda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT </t>
+  </si>
+  <si>
+    <t>Cena SIM</t>
+  </si>
+  <si>
+    <t>Zrównane do 1000/ lizarda</t>
+  </si>
+  <si>
+    <t>Ilość za gold</t>
+  </si>
+  <si>
+    <t>NIE UŻYWANE</t>
+  </si>
+  <si>
+    <t>Zrównane do lziarda</t>
+  </si>
+  <si>
+    <t>V/HP</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Tank_Skill1</t>
+  </si>
+  <si>
+    <t>Tank_Skill2</t>
+  </si>
+  <si>
+    <t>TeleportOT</t>
+  </si>
+  <si>
+    <t>TosterTemplate</t>
+  </si>
+  <si>
+    <t>Sprites/superL</t>
+  </si>
+  <si>
+    <t>Spprites/Szaman1</t>
+  </si>
+  <si>
+    <t>Sprites/Brb_Axeman_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Brb_Thrower_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Brb_Rusher_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Brb_HeavyHitter_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Liz_Healer_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Liz_Trapper_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Liz_Specialist_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Liz_Tank_sprite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1285,13 +1331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1337,6 +1376,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="117">
@@ -1942,12 +1990,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2008,31 +2050,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,21 +2135,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2282,12 +2315,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2673,207 +2715,243 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="102" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="103" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="104" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="102" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="110" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="104" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="109" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="102" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="107" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="106" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="104" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="108" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="108" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="105" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="110" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="102" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="103" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="113" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="113" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="112" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="112" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="112" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="112" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="112" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="112" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="112" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="112" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="112" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="114" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="114" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="111" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="111" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="115" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="103" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="104" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="111" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="105" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="110" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="115" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="102" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="111" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="103" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="104" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="108" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="107" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="105" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="109" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="109" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="106" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="111" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="113" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="113" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="113" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="114" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="114" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="114" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="114" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="116" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="116" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="102" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="115" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="115" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="116" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="116" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="60">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2889,58 +2967,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2949,29 +2976,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -2981,407 +2993,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3583,7 +3194,42 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3591,11 +3237,34 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
-        <vertical style="medium">
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
           <color indexed="64"/>
-        </vertical>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
         <horizontal/>
       </border>
     </dxf>
@@ -3685,7 +3354,27 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -3694,62 +3383,17 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -3758,10 +3402,18 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="medium">
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color indexed="64"/>
-        </vertical>
-        <horizontal/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3812,6 +3464,132 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3827,7 +3605,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Units">
         <xsd:complexType>
@@ -3854,7 +3632,7 @@
                     </xsd:complexType>
                   </xsd:element>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Sprite" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cost" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -3863,157 +3641,120 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="8" Name="Units_mapa" RootElement="Units" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="10" Name="Units_mapa" RootElement="Units" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AL26" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
-  <autoFilter ref="A8:AL26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="38">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="58"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fraction" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Health" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Attack" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Defence" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Damage min" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Damage max" dataDxfId="49"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="ZBALANSOWANA ILOSC" dataDxfId="48">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A8:AM24" tableType="xml" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" connectionId="8">
+  <autoFilter ref="A8:AM24"/>
+  <tableColumns count="39">
+    <tableColumn id="3" uniqueName="Name" name="Name" dataDxfId="38">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Toughnessness" dataDxfId="47">
+    <tableColumn id="4" uniqueName="0" name="Fraction" dataDxfId="37"/>
+    <tableColumn id="46" uniqueName="46" name="Stat" dataDxfId="36"/>
+    <tableColumn id="5" uniqueName="0" name="Level" dataDxfId="35"/>
+    <tableColumn id="10" uniqueName="HP" name="Health" dataDxfId="34">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/HP" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Attack" name="Attack" dataDxfId="33">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Defense" name="Defence" dataDxfId="32">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="DamageMinimum" name="Damage min" dataDxfId="31">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="DamageMaximum" name="Damage max" dataDxfId="30">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="1" uniqueName="Speed" name="S" dataDxfId="29">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Initiative" name="I" dataDxfId="28">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="52" uniqueName="Cost" name="Cena" dataDxfId="0">
+      <calculatedColumnFormula>INT(Tabela2[[#This Row],[Cena SIM]])</calculatedColumnFormula>
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="44" uniqueName="44" name="Sk" dataDxfId="27"/>
+    <tableColumn id="42" uniqueName="Skill1" name="Skill1" dataDxfId="26">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="Skill2" name="Skill2" dataDxfId="25">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="Skill3" name="Skill3" dataDxfId="24">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="Skill4" name="Skill4" dataDxfId="23">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="48" uniqueName="48" name="Wsk" dataDxfId="22"/>
+    <tableColumn id="29" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="21">
+      <calculatedColumnFormula>AF9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="0" name="Toughnessness" dataDxfId="20">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="VWO" dataDxfId="46">
-      <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</calculatedColumnFormula>
+    <tableColumn id="17" uniqueName="0" name="VWO" dataDxfId="19">
+      <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="VWO_R" dataDxfId="45">
+    <tableColumn id="28" uniqueName="0" name="VWO_R" dataDxfId="18">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="VWD" dataDxfId="44">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</calculatedColumnFormula>
+    <tableColumn id="18" uniqueName="0" name="VWD" dataDxfId="17">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VWD_R" dataDxfId="43">
+    <tableColumn id="14" uniqueName="0" name="VWD_R" dataDxfId="16">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="V_Off" dataDxfId="42">
+    <tableColumn id="15" uniqueName="0" name="V_Off" dataDxfId="15">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="V_Def" dataDxfId="41">
+    <tableColumn id="16" uniqueName="0" name="V_Def" dataDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="!ŚREDNIA" dataDxfId="40">
+    <tableColumn id="33" uniqueName="0" name="!ŚREDNIA" dataDxfId="13">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Odchyłka" dataDxfId="39">
+    <tableColumn id="35" uniqueName="0" name="Odchyłka" dataDxfId="12">
       <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Suma VW" dataDxfId="38">
+    <tableColumn id="38" uniqueName="0" name="Suma VW" dataDxfId="11">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Suma*Odchyłka" dataDxfId="37">
+    <tableColumn id="39" uniqueName="0" name="Suma*Odchyłka" dataDxfId="10">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Kolumna2" dataDxfId="36">
+    <tableColumn id="37" uniqueName="0" name="V/HP" dataDxfId="9">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Kolumna1" dataDxfId="35">
-      <calculatedColumnFormula>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</calculatedColumnFormula>
+    <tableColumn id="70" uniqueName="70" name="Kolumna1" dataDxfId="8">
+      <calculatedColumnFormula>15000/Tabela2[[#This Row],[V/HP]]/27.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="!Odchyłka" dataDxfId="34">
-      <calculatedColumnFormula>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</calculatedColumnFormula>
+    <tableColumn id="11" uniqueName="0" name="SIM" dataDxfId="7"/>
+    <tableColumn id="13" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="6"/>
+    <tableColumn id="31" uniqueName="0" name="AMT " dataDxfId="5">
+      <calculatedColumnFormula>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Cena_Atak" dataDxfId="33">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</calculatedColumnFormula>
+    <tableColumn id="53" uniqueName="53" name="Cena SIM" dataDxfId="4">
+      <calculatedColumnFormula>1000/Tabela2[[#This Row],[AMT ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Cena_Obrona" dataDxfId="32">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</calculatedColumnFormula>
+    <tableColumn id="54" uniqueName="54" name="Ilość" dataDxfId="3">
+      <calculatedColumnFormula>$AK$7/Tabela2[[#This Row],[Cena SIM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="VOB" dataDxfId="31">
-      <calculatedColumnFormula>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="VDB" dataDxfId="30">
-      <calculatedColumnFormula>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Cost1 (ZŁY)" dataDxfId="29">
-      <calculatedColumnFormula>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Stosunek W" dataDxfId="28">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Stosunek B" dataDxfId="27">
-      <calculatedColumnFormula>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="CENA_ZLA" dataDxfId="26">
-      <calculatedColumnFormula>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ILOSC_ZLA" dataDxfId="10">
-      <calculatedColumnFormula>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FixedAmountAfterSearchingFixedAmountAfterSearching" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{E81D788C-D7EC-40FE-9AD7-435B0C143227}" name="FixedAmountAfterSearchingFixedAmountAfterSearching2" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7DEC9FA1-82AC-4B54-B821-96FFC4B933A8}" name="FixedAmountAfterSearching" dataDxfId="0"/>
-    <tableColumn id="31" xr3:uid="{C3B58278-C645-4088-8882-E7DB32A0DDE7}" name="ŚREDNIA" dataDxfId="1">
-      <calculatedColumnFormula>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</calculatedColumnFormula>
+    <tableColumn id="72" uniqueName="72" name="Data" dataDxfId="2"/>
+    <tableColumn id="73" uniqueName="Sprite" name="Sprite" dataDxfId="1">
+      <xmlColumnPr mapId="10" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela14" displayName="Tabela14" ref="B1:O7" tableType="xml" totalsRowShown="0" headerRowDxfId="25" connectionId="6">
-  <autoFilter ref="B1:O7" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="Name" name="Name" dataDxfId="24">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="HP" name="HP" dataDxfId="23">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/HP" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="Attack" name="A" dataDxfId="22">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="Defense" name="D" dataDxfId="21">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="Initiative" name="I" dataDxfId="20">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="Speed" name="S" dataDxfId="19">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="DamageMinimum" name="Dm" dataDxfId="18">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" uniqueName="DamageMaximum" name="DM2" dataDxfId="17">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="Cost" name="Cost" dataDxfId="16">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Cost" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="Skill1" name="Skill1" dataDxfId="15">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="Skill2" name="Skill2" dataDxfId="14">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="Skill3" name="Skill3" dataDxfId="13">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="Skill4" name="Skill4" dataDxfId="12">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="Sprite" name="Sprite" dataDxfId="11">
-      <xmlColumnPr mapId="8" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4279,3393 +4020,3608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="AJ11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
+      <selection pane="bottomRight" activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="136" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="136" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="136" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="136" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="136" customWidth="1"/>
-    <col min="6" max="9" width="7.42578125" style="137" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="137" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="167" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="190"/>
-    <col min="13" max="13" width="9.140625" style="195" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="199" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="202" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="206" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="135"/>
-    <col min="18" max="23" width="9.140625" style="211"/>
-    <col min="24" max="25" width="3.7109375" style="168" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="3.7109375" style="169" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="3.7109375" style="168" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="219" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="250"/>
-    <col min="40" max="40" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="130" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="140" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="223" customWidth="1"/>
+    <col min="4" max="6" width="7" style="130" customWidth="1"/>
+    <col min="7" max="11" width="7" style="131" customWidth="1"/>
+    <col min="12" max="12" width="7" style="132" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="205" customWidth="1"/>
+    <col min="14" max="17" width="10.42578125" style="132" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="224" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="155" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="165" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="169" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="172" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="175" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="177" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="129" hidden="1" customWidth="1"/>
+    <col min="26" max="32" width="14.85546875" style="181" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" style="188" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" style="137" customWidth="1"/>
+    <col min="35" max="37" width="9.140625" customWidth="1"/>
+    <col min="38" max="38" width="7.28515625" style="251" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" style="236" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" style="236" hidden="1" customWidth="1"/>
+    <col min="42" max="47" width="3.7109375" style="236" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="3.28515625" style="236" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="237" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" style="237" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="39" style="237" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="27.85546875" style="237" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="11" style="237" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="150"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="151" t="s">
+    <row r="1" spans="1:53" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="141"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="M1" s="180" t="s">
-        <v>239</v>
-      </c>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="207" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="170" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="170"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="237" t="s">
+      <c r="E1" s="142"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="224"/>
+      <c r="U1" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="178" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="144" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ1" s="196"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="251"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="237"/>
+      <c r="AY1" s="238" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ1" s="239"/>
+      <c r="BA1" s="239"/>
+    </row>
+    <row r="2" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="149"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="225"/>
+      <c r="T2" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" s="156"/>
+      <c r="V2" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="188"/>
+      <c r="AI2" s="144" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="251"/>
+      <c r="AN2" s="236"/>
+      <c r="AO2" s="236"/>
+      <c r="AP2" s="236"/>
+      <c r="AQ2" s="236"/>
+      <c r="AR2" s="236"/>
+      <c r="AS2" s="236" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT2" s="236"/>
+      <c r="AU2" s="236"/>
+      <c r="AV2" s="236"/>
+      <c r="AW2" s="237"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="238"/>
+      <c r="AZ2" s="239"/>
+      <c r="BA2" s="239"/>
+    </row>
+    <row r="3" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="149"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="259" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="225"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="188"/>
+      <c r="AJ3" s="196" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK3" s="141"/>
+      <c r="AL3" s="251"/>
+      <c r="AN3" s="236"/>
+      <c r="AO3" s="236"/>
+      <c r="AP3" s="236"/>
+      <c r="AQ3" s="236"/>
+      <c r="AR3" s="236"/>
+      <c r="AS3" s="236"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="237"/>
+      <c r="AX3" s="237"/>
+      <c r="AY3" s="238" t="s">
+        <v>250</v>
+      </c>
+      <c r="AZ3" s="239"/>
+      <c r="BA3" s="239"/>
+    </row>
+    <row r="4" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="149"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="217" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="147">
+        <v>0.04</v>
+      </c>
+      <c r="H4" s="150"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="215" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="246" t="s">
+        <v>257</v>
+      </c>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="250" t="s">
         <v>264</v>
       </c>
-      <c r="AJ1" s="239"/>
-      <c r="AK1" s="249"/>
-      <c r="AL1" s="239"/>
-      <c r="AM1" s="239"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="237"/>
+      <c r="AJ4" s="196"/>
+      <c r="AK4" s="141" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL4" s="252" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN4" s="256" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO4" s="236"/>
+      <c r="AP4" s="236"/>
+      <c r="AQ4" s="236"/>
+      <c r="AR4" s="236"/>
+      <c r="AS4" s="236"/>
+      <c r="AT4" s="236"/>
+      <c r="AU4" s="236"/>
+      <c r="AV4" s="236"/>
+      <c r="AW4" s="237"/>
+      <c r="AX4" s="237"/>
+      <c r="AY4" s="238"/>
+      <c r="AZ4" s="239" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA4" s="239"/>
     </row>
-    <row r="2" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="L2" s="153" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="187" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="207" t="s">
-        <v>249</v>
-      </c>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="170" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="170"/>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="239"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="239"/>
-      <c r="AM2" s="239"/>
-      <c r="AN2" s="150"/>
-      <c r="AO2" s="237"/>
+    <row r="5" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="151"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="226"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
+      <c r="AE5" s="178" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="178"/>
+      <c r="AG5" s="188"/>
+      <c r="AJ5" s="196"/>
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="251"/>
+      <c r="AN5" s="236"/>
+      <c r="AO5" s="236"/>
+      <c r="AP5" s="236"/>
+      <c r="AQ5" s="236"/>
+      <c r="AR5" s="236"/>
+      <c r="AS5" s="236"/>
+      <c r="AT5" s="236"/>
+      <c r="AU5" s="236"/>
+      <c r="AV5" s="236"/>
+      <c r="AW5" s="237"/>
+      <c r="AX5" s="237"/>
+      <c r="AY5" s="238"/>
+      <c r="AZ5" s="239"/>
+      <c r="BA5" s="239"/>
     </row>
-    <row r="3" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="236" t="s">
+    <row r="6" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="151"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="226"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="173"/>
+      <c r="Z6" s="156" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236" t="s">
-        <v>224</v>
-      </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180" t="s">
-        <v>238</v>
-      </c>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207" t="s">
-        <v>250</v>
-      </c>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="237" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ3" s="239"/>
-      <c r="AK3" s="249"/>
-      <c r="AL3" s="239"/>
-      <c r="AM3" s="239"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="237"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="178"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="178" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG6" s="188"/>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="251"/>
+      <c r="AN6" s="236"/>
+      <c r="AO6" s="236"/>
+      <c r="AP6" s="236"/>
+      <c r="AQ6" s="236"/>
+      <c r="AR6" s="236"/>
+      <c r="AS6" s="236"/>
+      <c r="AT6" s="236"/>
+      <c r="AU6" s="236"/>
+      <c r="AV6" s="236"/>
+      <c r="AW6" s="237"/>
+      <c r="AX6" s="237"/>
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="239"/>
+      <c r="BA6" s="239" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="156">
-        <v>0.04</v>
-      </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J4" s="162"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="187" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
-        <v>255</v>
-      </c>
-      <c r="W4" s="150"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AH4" s="219"/>
-      <c r="AI4" s="237"/>
-      <c r="AJ4" s="239" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK4" s="249"/>
-      <c r="AL4" s="239"/>
-      <c r="AM4" s="239"/>
-      <c r="AN4" s="150"/>
-      <c r="AO4" s="237"/>
-    </row>
-    <row r="5" spans="1:43" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180" t="s">
-        <v>234</v>
-      </c>
-      <c r="R5" s="180"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="168"/>
-      <c r="AH5" s="219"/>
-      <c r="AI5" s="237"/>
-      <c r="AJ5" s="239"/>
-      <c r="AK5" s="249" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL5" s="239"/>
-      <c r="AM5" s="239"/>
-      <c r="AN5" s="150"/>
-      <c r="AO5" s="237"/>
-      <c r="AQ5" s="153" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="180" t="s">
-        <v>237</v>
-      </c>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="168"/>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="168"/>
-      <c r="AH6" s="219"/>
-      <c r="AI6" s="237"/>
-      <c r="AJ6" s="239"/>
-      <c r="AK6" s="249"/>
-      <c r="AL6" s="239" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM6" s="239"/>
-      <c r="AN6" s="150"/>
-      <c r="AO6" s="237" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" s="157" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="159">
+    <row r="7" spans="1:53" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="151"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="214" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="214">
         <f>MAX(Tabela2[Attack])</f>
         <v>50</v>
       </c>
-      <c r="G7" s="159">
+      <c r="F7" s="214">
         <f>MAX(Tabela2[Defence])</f>
         <v>50</v>
       </c>
-      <c r="H7" s="159">
+      <c r="G7" s="214">
         <f>MAX(Tabela2[Damage min])</f>
         <v>50</v>
       </c>
-      <c r="I7" s="159">
+      <c r="H7" s="214">
         <f>MAX(Tabela2[Damage max])</f>
-        <v>60</v>
-      </c>
-      <c r="J7" s="159">
+        <v>50</v>
+      </c>
+      <c r="I7" s="214">
         <f>MAX(Tabela2[Health])</f>
-        <v>300</v>
-      </c>
-      <c r="M7" s="182">
+        <v>172</v>
+      </c>
+      <c r="J7" s="214">
+        <f>MAX(Tabela2[Attack])</f>
+        <v>50</v>
+      </c>
+      <c r="K7" s="214">
+        <f>MAX(Tabela2[Defence])</f>
+        <v>50</v>
+      </c>
+      <c r="L7" s="152">
+        <f>MAX(Tabela2[Damage min])</f>
+        <v>50</v>
+      </c>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="208"/>
+      <c r="R7" s="227"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="226"/>
+      <c r="U7" s="226">
         <f>MAX(Tabela2[VWO])</f>
         <v>148</v>
       </c>
-      <c r="N7" s="191">
+      <c r="V7" s="226">
         <f>MAX(Tabela2[VWD])</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="O7" s="196">
-        <f>MAX(Tabela2[VOB])</f>
-        <v>547.77070063694271</v>
-      </c>
-      <c r="P7" s="158">
-        <f>MAX(Tabela2[VDB])</f>
-        <v>148</v>
-      </c>
-      <c r="Q7" s="203">
-        <f>MAX(Tabela2[Cost1 (ZŁY)])</f>
-        <v>284</v>
-      </c>
-      <c r="R7" s="204">
-        <f>MAX(Tabela2[Stosunek W])</f>
-        <v>63.694267515923585</v>
-      </c>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172">
-        <f>MAX(Tabela2[Stosunek B])</f>
-        <v>219.1082802547771</v>
-      </c>
-      <c r="Z7" s="173">
+      <c r="W7" s="226" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X7" s="226" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y7" s="226" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z7" s="226" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA7" s="226"/>
+      <c r="AB7" s="226"/>
+      <c r="AC7" s="226"/>
+      <c r="AD7" s="226"/>
+      <c r="AE7" s="226"/>
+      <c r="AF7" s="226"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188">
+        <v>387</v>
+      </c>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188">
+        <v>10000</v>
+      </c>
+      <c r="AL7" s="251"/>
+      <c r="AN7" s="236"/>
+      <c r="AO7" s="236" t="e">
+        <f>MAX(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AP7" s="236" t="e">
         <f>MAX(Tabela2[VWO_R])</f>
-        <v>148</v>
-      </c>
-      <c r="AA7" s="173">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" s="236" t="e">
         <f>MAX(Tabela2[VWD_R])</f>
-        <v>547.77070063694282</v>
-      </c>
-      <c r="AB7" s="173">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR7" s="236" t="e">
         <f>MAX(Tabela2[V_Off])</f>
-        <v>547.77070063694282</v>
-      </c>
-      <c r="AC7" s="173">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS7" s="236" t="e">
         <f>MAX(Tabela2[V_Def])</f>
-        <v>9426.7515923566898</v>
-      </c>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="172">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT7" s="236"/>
+      <c r="AU7" s="236">
         <v>5000</v>
       </c>
-      <c r="AF7" s="173"/>
-      <c r="AH7" s="219"/>
-      <c r="AI7" s="238">
+      <c r="AV7" s="236"/>
+      <c r="AW7" s="237"/>
+      <c r="AX7" s="237"/>
+      <c r="AY7" s="238">
         <v>136</v>
       </c>
-      <c r="AJ7" s="240">
+      <c r="AZ7" s="239">
         <v>34550</v>
       </c>
-      <c r="AK7" s="250">
-        <v>387</v>
-      </c>
-      <c r="AQ7" s="157" t="s">
+      <c r="BA7" s="237"/>
+    </row>
+    <row r="8" spans="1:53" s="139" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="219" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="209" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="O8" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="228" t="s">
+        <v>258</v>
+      </c>
+      <c r="S8" s="189" t="s">
+        <v>244</v>
+      </c>
+      <c r="T8" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="U8" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="V8" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="W8" s="166" t="s">
+        <v>238</v>
+      </c>
+      <c r="X8" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y8" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z8" s="166" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA8" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB8" s="166" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC8" s="166" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD8" s="166" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE8" s="163" t="s">
         <v>273</v>
       </c>
+      <c r="AF8" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG8" s="189" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH8" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI8" s="139" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ8" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK8" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL8" s="253" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM8" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN8" s="236" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO8" s="236" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP8" s="236" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ8" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR8" s="236" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS8" s="236" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT8" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU8" s="236" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV8" s="236" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW8" s="240" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX8" s="240" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY8" s="241" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ8" s="241" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA8" s="241" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" s="147" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="147" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="147" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="147" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="147" t="s">
+    <row r="9" spans="1:53" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="220"/>
+      <c r="E9" s="133">
+        <v>172</v>
+      </c>
+      <c r="F9" s="133">
+        <v>50</v>
+      </c>
+      <c r="G9" s="133">
+        <v>50</v>
+      </c>
+      <c r="H9" s="133">
+        <v>50</v>
+      </c>
+      <c r="I9" s="133">
+        <v>50</v>
+      </c>
+      <c r="J9" s="133">
         <v>4</v>
       </c>
-      <c r="H8" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="220" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="147" t="s">
-        <v>260</v>
-      </c>
-      <c r="M8" s="183" t="s">
-        <v>251</v>
-      </c>
-      <c r="N8" s="192" t="s">
-        <v>254</v>
-      </c>
-      <c r="O8" s="192" t="s">
-        <v>252</v>
-      </c>
-      <c r="P8" s="192" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q8" s="192" t="s">
-        <v>235</v>
-      </c>
-      <c r="R8" s="192" t="s">
-        <v>236</v>
-      </c>
-      <c r="S8" s="192" t="s">
-        <v>244</v>
-      </c>
-      <c r="T8" s="192" t="s">
-        <v>246</v>
-      </c>
-      <c r="U8" s="192" t="s">
-        <v>250</v>
-      </c>
-      <c r="V8" s="192" t="s">
-        <v>256</v>
-      </c>
-      <c r="W8" s="188" t="s">
-        <v>233</v>
-      </c>
-      <c r="X8" s="192" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y8" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z8" s="179" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA8" s="179" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB8" s="179" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC8" s="179" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD8" s="179" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE8" s="179" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF8" s="179" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG8" s="179" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH8" s="179" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI8" s="147" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ8" s="147" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK8" s="251" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL8" s="147" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO8" s="242" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ8" s="147" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" s="141" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="141">
-        <v>172</v>
-      </c>
-      <c r="G9" s="141">
-        <v>50</v>
-      </c>
-      <c r="H9" s="141">
-        <v>50</v>
-      </c>
-      <c r="I9" s="141">
-        <v>50</v>
-      </c>
-      <c r="J9" s="141">
-        <v>50</v>
-      </c>
-      <c r="K9" s="221">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="K9" s="133">
+        <v>5</v>
+      </c>
+      <c r="L9" s="133">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>1000</v>
+      </c>
+      <c r="M9" s="211"/>
+      <c r="N9" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="199" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="199" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="229"/>
+      <c r="S9" s="190">
+        <f>AF9*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>1.3563745055921186</v>
       </c>
-      <c r="L9" s="166">
+      <c r="T9" s="154">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7011533826820462</v>
       </c>
-      <c r="M9" s="184">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U9" s="159">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>148</v>
       </c>
-      <c r="N9" s="193">
+      <c r="V9" s="167">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="O9" s="193">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W9" s="167">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="P9" s="193">
+      <c r="X9" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="193">
+      <c r="Y9" s="167">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>148</v>
       </c>
-      <c r="R9" s="193">
+      <c r="Z9" s="167">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="S9" s="208">
+      <c r="AA9" s="179">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>347.88535031847141</v>
       </c>
-      <c r="T9" s="208">
+      <c r="AB9" s="179">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3570275367095093</v>
       </c>
-      <c r="U9" s="208">
+      <c r="AC9" s="179">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>695.77070063694282</v>
       </c>
-      <c r="V9" s="208">
+      <c r="AD9" s="179">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>944.18</v>
       </c>
-      <c r="W9" s="213">
+      <c r="AE9" s="183">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>552.34529999999995</v>
       </c>
-      <c r="X9" s="208">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF9" s="183">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>0.99951877828583047</v>
       </c>
-      <c r="Y9" s="166">
+      <c r="AG9" s="234"/>
+      <c r="AH9" s="133">
+        <v>136</v>
+      </c>
+      <c r="AI9" s="133">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="133">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>1000</v>
+      </c>
+      <c r="AK9" s="133">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>10</v>
+      </c>
+      <c r="AL9" s="254"/>
+      <c r="AM9" s="213" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN9" s="236"/>
+      <c r="AO9" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.3740834544053113E-2</v>
-      </c>
-      <c r="Z9" s="174">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AA9" s="174">
+      <c r="AQ9" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AB9" s="174">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR9" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>3.44</v>
       </c>
-      <c r="AC9" s="174">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS9" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.29069767441860467</v>
       </c>
-      <c r="AD9" s="174">
+      <c r="AT9" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>284</v>
       </c>
-      <c r="AE9" s="174">
+      <c r="AU9" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7011533826820462</v>
       </c>
-      <c r="AF9" s="174">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>11.833599999999999</v>
-      </c>
-      <c r="AG9" s="174">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>2000</v>
-      </c>
-      <c r="AH9" s="174">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>40800</v>
-      </c>
-      <c r="AI9" s="243">
+      <c r="AV9" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW9" s="242" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX9" s="242" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY9" s="242">
         <v>136</v>
       </c>
-      <c r="AJ9" s="243">
+      <c r="AZ9" s="242">
         <v>136</v>
       </c>
-      <c r="AK9" s="247">
-        <v>136</v>
-      </c>
-      <c r="AL9" s="243">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>136</v>
-      </c>
-      <c r="AN9" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+      <c r="BA9" s="242" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="200" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="221"/>
+      <c r="E10" s="138">
         <v>1</v>
       </c>
-      <c r="AO9" s="141">
-        <f>1000/AN9</f>
-        <v>1000</v>
-      </c>
-      <c r="AQ9" s="141">
-        <f>10000/AO9</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="146">
+      <c r="F10" s="138">
         <v>1</v>
       </c>
-      <c r="G10" s="146">
+      <c r="G10" s="138">
         <v>1</v>
       </c>
-      <c r="H10" s="146">
+      <c r="H10" s="138">
         <v>1</v>
       </c>
-      <c r="I10" s="146">
+      <c r="I10" s="138">
         <v>1</v>
       </c>
-      <c r="J10" s="146">
+      <c r="J10" s="138">
         <v>1</v>
       </c>
-      <c r="K10" s="222">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="K10" s="138">
+        <v>1</v>
+      </c>
+      <c r="L10" s="138">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="212"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="200" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="230"/>
+      <c r="S10" s="191">
+        <f>AF10*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>471.86282004095767</v>
       </c>
-      <c r="L10" s="144">
+      <c r="T10" s="136">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="M10" s="185">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U10" s="160">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>1</v>
       </c>
-      <c r="N10" s="194">
+      <c r="V10" s="168">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>148</v>
       </c>
-      <c r="O10" s="194">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W10" s="168">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>1</v>
       </c>
-      <c r="P10" s="194">
+      <c r="X10" s="168">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="Q10" s="194">
+      <c r="Y10" s="168">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="R10" s="194">
+      <c r="Z10" s="168">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>148</v>
       </c>
-      <c r="S10" s="209">
+      <c r="AA10" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>347.88535031847141</v>
       </c>
-      <c r="T10" s="209">
+      <c r="AB10" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3570275367095093</v>
       </c>
-      <c r="U10" s="209">
+      <c r="AC10" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>2</v>
       </c>
-      <c r="V10" s="209">
+      <c r="AD10" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>2.7140550734190185</v>
       </c>
-      <c r="W10" s="212">
+      <c r="AE10" s="182">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>1.5877222179501258</v>
       </c>
-      <c r="X10" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF10" s="182">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>347.71794033385669</v>
       </c>
-      <c r="Y10" s="144">
+      <c r="AG10" s="235"/>
+      <c r="AH10" s="138">
+        <v>33308</v>
+      </c>
+      <c r="AI10" s="138">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>244.91176470588235</v>
+      </c>
+      <c r="AJ10" s="138">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>4.0831031584003847</v>
+      </c>
+      <c r="AK10" s="138">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>2449.1176470588234</v>
+      </c>
+      <c r="AL10" s="255"/>
+      <c r="AM10" s="200" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN10" s="236"/>
+      <c r="AO10" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.3740834544053113E-2</v>
-      </c>
-      <c r="Z10" s="175">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1.8255813953488367</v>
       </c>
-      <c r="AA10" s="175">
+      <c r="AQ10" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>6.756756756756757</v>
       </c>
-      <c r="AB10" s="175">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR10" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>547.77070063694271</v>
       </c>
-      <c r="AC10" s="175">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS10" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>148</v>
       </c>
-      <c r="AD10" s="175">
+      <c r="AT10" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>1</v>
       </c>
-      <c r="AE10" s="175">
+      <c r="AU10" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="AF10" s="175">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>3.7011533826820453</v>
-      </c>
-      <c r="AG10" s="175">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>8.5823381521055939</v>
-      </c>
-      <c r="AH10" s="175">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>10365000</v>
-      </c>
-      <c r="AI10" s="244">
+      <c r="AV10" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW10" s="243" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX10" s="243" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY10" s="242">
         <v>34550</v>
       </c>
-      <c r="AJ10" s="244">
+      <c r="AZ10" s="242">
         <v>34550</v>
       </c>
-      <c r="AK10" s="247">
-        <v>33308</v>
-      </c>
-      <c r="AL10" s="243">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>34136</v>
-      </c>
-      <c r="AN10" s="141">
+      <c r="BA10" s="242" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="222"/>
+      <c r="D11" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="135">
+        <v>7</v>
+      </c>
+      <c r="F11" s="135">
+        <v>5</v>
+      </c>
+      <c r="G11" s="135">
+        <v>3</v>
+      </c>
+      <c r="H11" s="135">
+        <v>2</v>
+      </c>
+      <c r="I11" s="135">
+        <v>2</v>
+      </c>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>14</v>
+      </c>
+      <c r="M11" s="205"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="192">
+        <f>AF11*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>99.113706927211737</v>
+      </c>
+      <c r="T11" s="153">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.1041577976443882</v>
+      </c>
+      <c r="U11" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V11" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>63.793103448275865</v>
+      </c>
+      <c r="W11" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>7.2016460905349797</v>
+      </c>
+      <c r="X11" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>76.061874431301206</v>
+      </c>
+      <c r="Y11" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>176.46354868061877</v>
+      </c>
+      <c r="Z11" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>459.41535405136943</v>
+      </c>
+      <c r="AA11" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>317.9394513659941</v>
+      </c>
+      <c r="AB11" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.4848424691296218</v>
+      </c>
+      <c r="AC11" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>9.5216460905349791</v>
+      </c>
+      <c r="AD11" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>14.138144491248369</v>
+      </c>
+      <c r="AE11" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>8.2708145273802955</v>
+      </c>
+      <c r="AF11" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>66.750317954812914</v>
+      </c>
+      <c r="AG11" s="188"/>
+      <c r="AH11" s="135">
+        <v>9080</v>
+      </c>
+      <c r="AI11" s="197">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>244.91176470588235</v>
-      </c>
-      <c r="AO10" s="141">
-        <f t="shared" ref="AO10:AO26" si="0">1000/AN10</f>
-        <v>4.0831031584003847</v>
-      </c>
-      <c r="AQ10" s="141">
-        <f t="shared" ref="AQ10:AQ26" si="1">10000/AO10</f>
-        <v>2449.1176470588234</v>
+        <v>66.764705882352942</v>
+      </c>
+      <c r="AJ11" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>14.977973568281937</v>
+      </c>
+      <c r="AK11" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>667.64705882352951</v>
+      </c>
+      <c r="AL11" s="251"/>
+      <c r="AM11" s="257" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN11" s="236"/>
+      <c r="AO11" s="236" t="e">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP11" s="236">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>13.147191118767344</v>
+      </c>
+      <c r="AQ11" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>15.675675675675675</v>
+      </c>
+      <c r="AR11" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>232.43243243243245</v>
+      </c>
+      <c r="AS11" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>20.571428571428573</v>
+      </c>
+      <c r="AT11" s="236">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>4</v>
+      </c>
+      <c r="AU11" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.1041577976443882</v>
+      </c>
+      <c r="AV11" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW11" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX11" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY11" s="242">
+        <v>9030</v>
+      </c>
+      <c r="AZ11" s="242">
+        <v>7472</v>
+      </c>
+      <c r="BA11" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="139">
-        <v>7</v>
-      </c>
-      <c r="F11" s="140">
-        <v>300</v>
-      </c>
-      <c r="G11" s="140">
+    <row r="12" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="223"/>
+      <c r="D12" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="140">
+        <v>15</v>
+      </c>
+      <c r="F12" s="140">
+        <v>5</v>
+      </c>
+      <c r="G12" s="140">
+        <v>3</v>
+      </c>
+      <c r="H12" s="140">
+        <v>4</v>
+      </c>
+      <c r="I12" s="140">
+        <v>4</v>
+      </c>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>30</v>
+      </c>
+      <c r="M12" s="205"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="192">
+        <f>AF12*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>47.016789380649485</v>
+      </c>
+      <c r="T12" s="187">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.3258833546189872</v>
+      </c>
+      <c r="U12" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="V12" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>31.896551724137932</v>
+      </c>
+      <c r="W12" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>15.4320987654321</v>
+      </c>
+      <c r="X12" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>35.49554140127389</v>
+      </c>
+      <c r="Y12" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>164.69931210191083</v>
+      </c>
+      <c r="Z12" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>492.23073648361009</v>
+      </c>
+      <c r="AA12" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>328.46502429276046</v>
+      </c>
+      <c r="AB12" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.4372610935258263</v>
+      </c>
+      <c r="AC12" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>20.072098765432099</v>
+      </c>
+      <c r="AD12" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>28.848846620963325</v>
+      </c>
+      <c r="AE12" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>16.876575273263544</v>
+      </c>
+      <c r="AF12" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>32.712768468051927</v>
+      </c>
+      <c r="AG12" s="188"/>
+      <c r="AH12" s="135">
+        <v>4397</v>
+      </c>
+      <c r="AI12" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>32.330882352941174</v>
+      </c>
+      <c r="AJ12" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>30.930179667955425</v>
+      </c>
+      <c r="AK12" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>323.30882352941177</v>
+      </c>
+      <c r="AL12" s="251"/>
+      <c r="AM12" s="257" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN12" s="236"/>
+      <c r="AO12" s="236" t="e">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP12" s="236">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>28.172552397358597</v>
+      </c>
+      <c r="AQ12" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>31.351351351351351</v>
+      </c>
+      <c r="AR12" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>116.21621621621622</v>
+      </c>
+      <c r="AS12" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>9.6</v>
+      </c>
+      <c r="AT12" s="236">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>8</v>
+      </c>
+      <c r="AU12" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.3258833546189872</v>
+      </c>
+      <c r="AV12" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW12" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX12" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY12" s="242">
+        <v>4421</v>
+      </c>
+      <c r="AZ12" s="242">
+        <v>3619</v>
+      </c>
+      <c r="BA12" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="201" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="222"/>
+      <c r="D13" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="135">
+        <v>50</v>
+      </c>
+      <c r="F13" s="135">
+        <v>15</v>
+      </c>
+      <c r="G13" s="135">
+        <v>11</v>
+      </c>
+      <c r="H13" s="135">
+        <v>10</v>
+      </c>
+      <c r="I13" s="135">
+        <v>10</v>
+      </c>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>105</v>
+      </c>
+      <c r="M13" s="205"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="192">
+        <f>AF13*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>12.798095913814292</v>
+      </c>
+      <c r="T13" s="187">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.7268932617769828</v>
+      </c>
+      <c r="U13" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="V13" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>9.4871794871794854</v>
+      </c>
+      <c r="W13" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>58.139534883720934</v>
+      </c>
+      <c r="X13" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>9.4216560509554164</v>
+      </c>
+      <c r="Y13" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>146.97783439490451</v>
+      </c>
+      <c r="Z13" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>551.58020274299338</v>
+      </c>
+      <c r="AA13" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>349.27901856894891</v>
+      </c>
+      <c r="AB13" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.3516128221335109</v>
+      </c>
+      <c r="AC13" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>73.739534883720935</v>
+      </c>
+      <c r="AD13" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>99.667300846998529</v>
+      </c>
+      <c r="AE13" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>58.305370995494137</v>
+      </c>
+      <c r="AF13" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>9.4687588814173811</v>
+      </c>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="135">
+        <v>1291</v>
+      </c>
+      <c r="AI13" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>9.492647058823529</v>
+      </c>
+      <c r="AJ13" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>105.34469403563129</v>
+      </c>
+      <c r="AK13" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>94.92647058823529</v>
+      </c>
+      <c r="AL13" s="251"/>
+      <c r="AM13" s="257" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN13" s="236"/>
+      <c r="AO13" s="236" t="e">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="236">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>106.13845321795563</v>
+      </c>
+      <c r="AQ13" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>105.40540540540543</v>
+      </c>
+      <c r="AR13" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>33.725490196078432</v>
+      </c>
+      <c r="AS13" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>2.56</v>
+      </c>
+      <c r="AT13" s="236">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>30</v>
+      </c>
+      <c r="AU13" s="236">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.7268932617769828</v>
+      </c>
+      <c r="AV13" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW13" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX13" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY13" s="242">
+        <v>1237</v>
+      </c>
+      <c r="AZ13" s="242">
+        <v>1035</v>
+      </c>
+      <c r="BA13" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="223"/>
+      <c r="D14" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="140">
+        <v>145</v>
+      </c>
+      <c r="F14" s="140">
+        <v>28</v>
+      </c>
+      <c r="G14" s="140">
+        <v>15</v>
+      </c>
+      <c r="H14" s="140">
         <v>24</v>
       </c>
-      <c r="H11" s="140">
+      <c r="I14" s="140">
         <v>24</v>
       </c>
-      <c r="I11" s="140">
-        <v>40</v>
-      </c>
-      <c r="J11" s="140">
-        <v>60</v>
-      </c>
-      <c r="K11" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>1.7525801559501777</v>
-      </c>
-      <c r="L11" s="164">
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>335</v>
+      </c>
+      <c r="M14" s="205"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="192">
+        <f>AF14*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>4.0983748493313668</v>
+      </c>
+      <c r="T14" s="187">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>4.6091445427728619</v>
-      </c>
-      <c r="M11" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>96</v>
-      </c>
-      <c r="N11" s="189">
+        <v>3.6127455670366113</v>
+      </c>
+      <c r="U14" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>49.92</v>
+      </c>
+      <c r="V14" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>1.5416666666666667</v>
-      </c>
-      <c r="O11" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>442.47787610619474</v>
-      </c>
-      <c r="P11" s="198">
+        <v>2.9647435897435894</v>
+      </c>
+      <c r="W14" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>180.34825870646765</v>
+      </c>
+      <c r="X14" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>1.2379617834394907</v>
-      </c>
-      <c r="Q11" s="201">
+        <v>3.0372940918076003</v>
+      </c>
+      <c r="Y14" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>118.84433121019111</v>
-      </c>
-      <c r="R11" s="205">
+        <v>151.62172106303541</v>
+      </c>
+      <c r="Z14" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>682.15339233038355</v>
-      </c>
-      <c r="S11" s="210">
+        <v>534.68634392141848</v>
+      </c>
+      <c r="AA14" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>400.49886177028736</v>
-      </c>
-      <c r="T11" s="210">
+        <v>343.15403249222697</v>
+      </c>
+      <c r="AB14" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.1787549105964124</v>
-      </c>
-      <c r="U11" s="210">
+        <v>1.3757378765778998</v>
+      </c>
+      <c r="AC14" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>538.4778761061948</v>
-      </c>
-      <c r="V11" s="210">
+        <v>230.26825870646763</v>
+      </c>
+      <c r="AD14" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>634.73344070770361</v>
-      </c>
-      <c r="W11" s="210">
+        <v>316.7887652761263</v>
+      </c>
+      <c r="AE14" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>371.3190628140066</v>
-      </c>
-      <c r="X11" s="210">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>1.4868062395289858</v>
-      </c>
-      <c r="Y11" s="164">
+        <v>185.32142768653387</v>
+      </c>
+      <c r="AF14" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>2.9790375907407096</v>
+      </c>
+      <c r="AG14" s="188"/>
+      <c r="AH14" s="135">
+        <v>405</v>
+      </c>
+      <c r="AI14" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>2.9779411764705883</v>
+      </c>
+      <c r="AJ14" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>335.80246913580248</v>
+      </c>
+      <c r="AK14" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>29.77941176470588</v>
+      </c>
+      <c r="AL14" s="251"/>
+      <c r="AM14" s="257" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN14" s="236"/>
+      <c r="AO14" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>8.4893256568143172E-2</v>
-      </c>
-      <c r="Z11" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>807.77937847293651</v>
-      </c>
-      <c r="AA11" s="176">
+        <v>329.24042577808621</v>
+      </c>
+      <c r="AQ14" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>648.64864864864865</v>
-      </c>
-      <c r="AB11" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>5.4088050314465406</v>
-      </c>
-      <c r="AC11" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.34</v>
-      </c>
-      <c r="AD11" s="177">
+        <v>337.29729729729729</v>
+      </c>
+      <c r="AR14" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>10.356454720616572</v>
+      </c>
+      <c r="AS14" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.82758620689655182</v>
+      </c>
+      <c r="AT14" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>206</v>
-      </c>
-      <c r="AE11" s="176">
+        <v>94</v>
+      </c>
+      <c r="AU14" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>4.6091445427728619</v>
-      </c>
-      <c r="AF11" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>15.908250092489824</v>
-      </c>
-      <c r="AG11" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>1456.4280271215853</v>
-      </c>
-      <c r="AH11" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="245"/>
-      <c r="AJ11" s="245"/>
-      <c r="AK11" s="252"/>
-      <c r="AL11" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="141" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ11" s="141" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.6127455670366113</v>
+      </c>
+      <c r="AV14" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW14" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX14" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY14" s="242">
+        <v>385</v>
+      </c>
+      <c r="AZ14" s="242">
+        <v>326</v>
+      </c>
+      <c r="BA14" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:43" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="139">
-        <v>1</v>
-      </c>
-      <c r="F12" s="137">
+    <row r="15" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="222"/>
+      <c r="D15" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="135">
+        <v>8</v>
+      </c>
+      <c r="F15" s="135">
+        <v>3</v>
+      </c>
+      <c r="G15" s="135">
         <v>4</v>
       </c>
-      <c r="G12" s="137">
-        <v>3</v>
-      </c>
-      <c r="H12" s="137">
-        <v>3</v>
-      </c>
-      <c r="I12" s="137">
+      <c r="H15" s="135">
         <v>2</v>
       </c>
-      <c r="J12" s="137">
+      <c r="I15" s="135">
         <v>2</v>
       </c>
-      <c r="K12" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>150.38909982418647</v>
-      </c>
-      <c r="L12" s="165">
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>15</v>
+      </c>
+      <c r="M15" s="205"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="204"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="192">
+        <f>AF15*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>89.786872864641239</v>
+      </c>
+      <c r="T15" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>1.9051973784484071</v>
-      </c>
-      <c r="M12" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+        <v>3.8660790226552231</v>
+      </c>
+      <c r="U15" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>2.16</v>
       </c>
-      <c r="N12" s="189">
+      <c r="V15" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>68.518518518518519</v>
       </c>
-      <c r="O12" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>4.1152263374485596</v>
-      </c>
-      <c r="P12" s="198">
+      <c r="W15" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>8.3507306889352826</v>
+      </c>
+      <c r="X15" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>133.1082802547771</v>
-      </c>
-      <c r="Q12" s="201">
+        <v>65.595541401273891</v>
+      </c>
+      <c r="Y15" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>287.51388535031856</v>
-      </c>
-      <c r="R12" s="205">
+        <v>141.68636942675161</v>
+      </c>
+      <c r="Z15" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>281.96921201036429</v>
-      </c>
-      <c r="S12" s="209">
+        <v>572.17969535297311</v>
+      </c>
+      <c r="AA15" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>284.74154868034145</v>
-      </c>
-      <c r="T12" s="209">
+        <v>356.93303238986238</v>
+      </c>
+      <c r="AB15" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.657959655652435</v>
-      </c>
-      <c r="U12" s="209">
+        <v>1.3226290568824592</v>
+      </c>
+      <c r="AC15" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>6.2752263374485597</v>
-      </c>
-      <c r="V12" s="209">
+        <v>10.510730688935283</v>
+      </c>
+      <c r="AD15" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>10.404072097577306</v>
-      </c>
-      <c r="W12" s="209">
+        <v>13.901797818251994</v>
+      </c>
+      <c r="AE15" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>6.0863821770827231</v>
-      </c>
-      <c r="X12" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>90.707333746915467</v>
-      </c>
-      <c r="Y12" s="165">
+        <v>8.1325517236774161</v>
+      </c>
+      <c r="AF15" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>67.885150713591585</v>
+      </c>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="197">
+        <v>8610</v>
+      </c>
+      <c r="AI15" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>63.308823529411768</v>
+      </c>
+      <c r="AJ15" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>15.795586527293844</v>
+      </c>
+      <c r="AK15" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>633.08823529411768</v>
+      </c>
+      <c r="AL15" s="251"/>
+      <c r="AM15" s="257" t="s">
+        <v>286</v>
+      </c>
+      <c r="AN15" s="236"/>
+      <c r="AO15" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.0356319718070171E-2</v>
-      </c>
-      <c r="Z12" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP15" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>7.512680639295624</v>
-      </c>
-      <c r="AA12" s="176">
+        <v>15.244938583288828</v>
+      </c>
+      <c r="AQ15" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>14.594594594594593</v>
       </c>
-      <c r="AB12" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR15" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>251.46198830409358</v>
       </c>
-      <c r="AC12" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>36</v>
-      </c>
-      <c r="AD12" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>2</v>
-      </c>
-      <c r="AE12" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>1.9051973784484071</v>
-      </c>
-      <c r="AF12" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>6.9850552306692659</v>
-      </c>
-      <c r="AG12" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>22.107275233890217</v>
-      </c>
-      <c r="AH12" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="245"/>
-      <c r="AJ12" s="245"/>
-      <c r="AK12" s="252"/>
-      <c r="AL12" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="141" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ12" s="141" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="143">
-        <v>7</v>
-      </c>
-      <c r="G13" s="143">
-        <v>5</v>
-      </c>
-      <c r="H13" s="143">
-        <v>3</v>
-      </c>
-      <c r="I13" s="143">
-        <v>2</v>
-      </c>
-      <c r="J13" s="143">
-        <v>2</v>
-      </c>
-      <c r="K13" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>99.113706927211737</v>
-      </c>
-      <c r="L13" s="165">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.1041577976443882</v>
-      </c>
-      <c r="M13" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="N13" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>63.793103448275865</v>
-      </c>
-      <c r="O13" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>7.2016460905349797</v>
-      </c>
-      <c r="P13" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>76.061874431301206</v>
-      </c>
-      <c r="Q13" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>176.46354868061877</v>
-      </c>
-      <c r="R13" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>459.41535405136943</v>
-      </c>
-      <c r="S13" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>317.9394513659941</v>
-      </c>
-      <c r="T13" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.4848424691296218</v>
-      </c>
-      <c r="U13" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>9.5216460905349791</v>
-      </c>
-      <c r="V13" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>14.138144491248369</v>
-      </c>
-      <c r="W13" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>8.2708145273802955</v>
-      </c>
-      <c r="X13" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>66.750317954812914</v>
-      </c>
-      <c r="Y13" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.7393238768875943E-2</v>
-      </c>
-      <c r="Z13" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>13.147191118767344</v>
-      </c>
-      <c r="AA13" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>15.675675675675675</v>
-      </c>
-      <c r="AB13" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>232.43243243243245</v>
-      </c>
-      <c r="AC13" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>20.571428571428573</v>
-      </c>
-      <c r="AD13" s="177">
+      <c r="AS15" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>17.75</v>
+      </c>
+      <c r="AT15" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>4</v>
       </c>
-      <c r="AE13" s="176">
+      <c r="AU15" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.1041577976443882</v>
-      </c>
-      <c r="AF13" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>11.298798798798799</v>
-      </c>
-      <c r="AG13" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>28.822866794443019</v>
-      </c>
-      <c r="AH13" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>2709000</v>
-      </c>
-      <c r="AI13" s="245">
-        <v>9030</v>
-      </c>
-      <c r="AJ13" s="245">
-        <v>7472</v>
-      </c>
-      <c r="AK13" s="252">
-        <v>9080</v>
-      </c>
-      <c r="AL13" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>8527.3333333333339</v>
-      </c>
-      <c r="AN13" s="141">
+        <v>3.8660790226552231</v>
+      </c>
+      <c r="AV15" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW15" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX15" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY15" s="242">
+        <v>8939</v>
+      </c>
+      <c r="AZ15" s="242">
+        <v>7332</v>
+      </c>
+      <c r="BA15" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="223"/>
+      <c r="D16" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="135">
+        <v>20</v>
+      </c>
+      <c r="F16" s="135">
+        <v>2</v>
+      </c>
+      <c r="G16" s="135">
+        <v>7</v>
+      </c>
+      <c r="H16" s="135">
+        <v>3</v>
+      </c>
+      <c r="I16" s="135">
+        <v>3</v>
+      </c>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>31</v>
+      </c>
+      <c r="M16" s="205"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="231"/>
+      <c r="S16" s="192">
+        <f>AF16*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>37.818519196630078</v>
+      </c>
+      <c r="T16" s="153">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>6.9980965177471726</v>
+      </c>
+      <c r="U16" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>3.12</v>
+      </c>
+      <c r="V16" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>47.435897435897431</v>
+      </c>
+      <c r="W16" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>21.834061135371179</v>
+      </c>
+      <c r="X16" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>25.087898089171979</v>
+      </c>
+      <c r="Y16" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>78.274242038216585</v>
+      </c>
+      <c r="Z16" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>1035.7182846265814</v>
+      </c>
+      <c r="AA16" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>556.99626333239894</v>
+      </c>
+      <c r="AB16" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.84756403422812654</v>
+      </c>
+      <c r="AC16" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>24.95406113537118</v>
+      </c>
+      <c r="AD16" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>21.1501647262705</v>
+      </c>
+      <c r="AE16" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>12.372846364868241</v>
+      </c>
+      <c r="AF16" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>44.620250116053192</v>
+      </c>
+      <c r="AG16" s="188"/>
+      <c r="AH16" s="135">
+        <v>4359</v>
+      </c>
+      <c r="AI16" s="197">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>66.764705882352942</v>
-      </c>
-      <c r="AO13" s="141">
-        <f t="shared" si="0"/>
-        <v>14.977973568281937</v>
-      </c>
-      <c r="AQ13" s="141">
-        <f t="shared" si="1"/>
-        <v>667.64705882352951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="149">
-        <v>15</v>
-      </c>
-      <c r="G14" s="149">
-        <v>5</v>
-      </c>
-      <c r="H14" s="149">
-        <v>3</v>
-      </c>
-      <c r="I14" s="149">
-        <v>4</v>
-      </c>
-      <c r="J14" s="149">
-        <v>4</v>
-      </c>
-      <c r="K14" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>47.016789380649485</v>
-      </c>
-      <c r="L14" s="218">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.3258833546189872</v>
-      </c>
-      <c r="M14" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="N14" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>31.896551724137932</v>
-      </c>
-      <c r="O14" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>15.4320987654321</v>
-      </c>
-      <c r="P14" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>35.49554140127389</v>
-      </c>
-      <c r="Q14" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>164.69931210191083</v>
-      </c>
-      <c r="R14" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>492.23073648361009</v>
-      </c>
-      <c r="S14" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>328.46502429276046</v>
-      </c>
-      <c r="T14" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.4372610935258263</v>
-      </c>
-      <c r="U14" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>20.072098765432099</v>
-      </c>
-      <c r="V14" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>28.848846620963325</v>
-      </c>
-      <c r="W14" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>16.876575273263544</v>
-      </c>
-      <c r="X14" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>32.712768468051927</v>
-      </c>
-      <c r="Y14" s="165">
+        <v>32.051470588235297</v>
+      </c>
+      <c r="AJ16" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>31.199816471667813</v>
+      </c>
+      <c r="AK16" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>320.51470588235293</v>
+      </c>
+      <c r="AL16" s="251"/>
+      <c r="AM16" s="257" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN16" s="236"/>
+      <c r="AO16" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.9624331659000518E-2</v>
-      </c>
-      <c r="Z14" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP16" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>28.172552397358597</v>
-      </c>
-      <c r="AA14" s="176">
+        <v>39.859855793642723</v>
+      </c>
+      <c r="AQ16" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>31.351351351351351</v>
-      </c>
-      <c r="AB14" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>116.21621621621622</v>
-      </c>
-      <c r="AC14" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>9.6</v>
-      </c>
-      <c r="AD14" s="177">
+        <v>21.081081081081084</v>
+      </c>
+      <c r="AR16" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>174.79674796747972</v>
+      </c>
+      <c r="AS16" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>6.8</v>
+      </c>
+      <c r="AT16" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>8</v>
       </c>
-      <c r="AE14" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.3258833546189872</v>
-      </c>
-      <c r="AF14" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>12.105855855855857</v>
-      </c>
-      <c r="AG14" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>59.523903748709948</v>
-      </c>
-      <c r="AH14" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>1326300</v>
-      </c>
-      <c r="AI14" s="245">
-        <v>4421</v>
-      </c>
-      <c r="AJ14" s="245">
-        <v>3619</v>
-      </c>
-      <c r="AK14" s="252">
-        <v>4397</v>
-      </c>
-      <c r="AL14" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>4145.666666666667</v>
-      </c>
-      <c r="AN14" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>32.330882352941174</v>
-      </c>
-      <c r="AO14" s="141">
-        <f t="shared" si="0"/>
-        <v>30.930179667955425</v>
-      </c>
-      <c r="AQ14" s="141">
-        <f t="shared" si="1"/>
-        <v>323.30882352941177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="143">
-        <v>50</v>
-      </c>
-      <c r="G15" s="143">
-        <v>15</v>
-      </c>
-      <c r="H15" s="143">
-        <v>11</v>
-      </c>
-      <c r="I15" s="143">
-        <v>10</v>
-      </c>
-      <c r="J15" s="143">
-        <v>10</v>
-      </c>
-      <c r="K15" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.798095913814292</v>
-      </c>
-      <c r="L15" s="218">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.7268932617769828</v>
-      </c>
-      <c r="M15" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="N15" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>9.4871794871794854</v>
-      </c>
-      <c r="O15" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>58.139534883720934</v>
-      </c>
-      <c r="P15" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>9.4216560509554164</v>
-      </c>
-      <c r="Q15" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>146.97783439490451</v>
-      </c>
-      <c r="R15" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>551.58020274299338</v>
-      </c>
-      <c r="S15" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>349.27901856894891</v>
-      </c>
-      <c r="T15" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3516128221335109</v>
-      </c>
-      <c r="U15" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>73.739534883720935</v>
-      </c>
-      <c r="V15" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>99.667300846998529</v>
-      </c>
-      <c r="W15" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>58.305370995494137</v>
-      </c>
-      <c r="X15" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>9.4687588814173811</v>
-      </c>
-      <c r="Y15" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.4036248707867958E-2</v>
-      </c>
-      <c r="Z15" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>106.13845321795563</v>
-      </c>
-      <c r="AA15" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>105.40540540540543</v>
-      </c>
-      <c r="AB15" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>33.725490196078432</v>
-      </c>
-      <c r="AC15" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>2.56</v>
-      </c>
-      <c r="AD15" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>30</v>
-      </c>
-      <c r="AE15" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.7268932617769828</v>
-      </c>
-      <c r="AF15" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>13.174019607843137</v>
-      </c>
-      <c r="AG15" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>211.54385862336107</v>
-      </c>
-      <c r="AH15" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>371100</v>
-      </c>
-      <c r="AI15" s="245">
-        <v>1237</v>
-      </c>
-      <c r="AJ15" s="245">
-        <v>1035</v>
-      </c>
-      <c r="AK15" s="252">
-        <v>1291</v>
-      </c>
-      <c r="AL15" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>1187.6666666666667</v>
-      </c>
-      <c r="AN15" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>9.492647058823529</v>
-      </c>
-      <c r="AO15" s="141">
-        <f t="shared" si="0"/>
-        <v>105.34469403563129</v>
-      </c>
-      <c r="AQ15" s="141">
-        <f t="shared" si="1"/>
-        <v>94.92647058823529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="149">
-        <v>145</v>
-      </c>
-      <c r="G16" s="149">
-        <v>28</v>
-      </c>
-      <c r="H16" s="149">
-        <v>15</v>
-      </c>
-      <c r="I16" s="149">
-        <v>24</v>
-      </c>
-      <c r="J16" s="149">
-        <v>24</v>
-      </c>
-      <c r="K16" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>4.0983748493313668</v>
-      </c>
-      <c r="L16" s="218">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.6127455670366113</v>
-      </c>
-      <c r="M16" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>49.92</v>
-      </c>
-      <c r="N16" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>2.9647435897435894</v>
-      </c>
-      <c r="O16" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>180.34825870646765</v>
-      </c>
-      <c r="P16" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>3.0372940918076003</v>
-      </c>
-      <c r="Q16" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>151.62172106303541</v>
-      </c>
-      <c r="R16" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>534.68634392141848</v>
-      </c>
-      <c r="S16" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>343.15403249222697</v>
-      </c>
-      <c r="T16" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3757378765778998</v>
-      </c>
-      <c r="U16" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>230.26825870646763</v>
-      </c>
-      <c r="V16" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>316.7887652761263</v>
-      </c>
-      <c r="W16" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>185.32142768653387</v>
-      </c>
-      <c r="X16" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>2.9790375907407096</v>
-      </c>
-      <c r="Y16" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.2737942859533986E-2</v>
-      </c>
-      <c r="Z16" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>329.24042577808621</v>
-      </c>
-      <c r="AA16" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>337.29729729729729</v>
-      </c>
-      <c r="AB16" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>10.356454720616572</v>
-      </c>
-      <c r="AC16" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.82758620689655182</v>
-      </c>
-      <c r="AD16" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>94</v>
-      </c>
-      <c r="AE16" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.6127455670366113</v>
-      </c>
-      <c r="AF16" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>12.514049454078357</v>
-      </c>
-      <c r="AG16" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>666.5377230753835</v>
-      </c>
-      <c r="AH16" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>115500</v>
-      </c>
-      <c r="AI16" s="245">
-        <v>385</v>
-      </c>
-      <c r="AJ16" s="245">
-        <v>326</v>
-      </c>
-      <c r="AK16" s="252">
-        <v>405</v>
-      </c>
-      <c r="AL16" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>372</v>
-      </c>
-      <c r="AN16" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>2.9779411764705883</v>
-      </c>
-      <c r="AO16" s="141">
-        <f t="shared" si="0"/>
-        <v>335.80246913580248</v>
-      </c>
-      <c r="AQ16" s="141">
-        <f t="shared" si="1"/>
-        <v>29.77941176470588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="143">
-        <v>8</v>
-      </c>
-      <c r="G17" s="143">
-        <v>3</v>
-      </c>
-      <c r="H17" s="143">
-        <v>4</v>
-      </c>
-      <c r="I17" s="143">
-        <v>2</v>
-      </c>
-      <c r="J17" s="143">
-        <v>2</v>
-      </c>
-      <c r="K17" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>89.786872864641239</v>
-      </c>
-      <c r="L17" s="165">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.8660790226552231</v>
-      </c>
-      <c r="M17" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>2.16</v>
-      </c>
-      <c r="N17" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>68.518518518518519</v>
-      </c>
-      <c r="O17" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>8.3507306889352826</v>
-      </c>
-      <c r="P17" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>65.595541401273891</v>
-      </c>
-      <c r="Q17" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>141.68636942675161</v>
-      </c>
-      <c r="R17" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>572.17969535297311</v>
-      </c>
-      <c r="S17" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>356.93303238986238</v>
-      </c>
-      <c r="T17" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3226290568824592</v>
-      </c>
-      <c r="U17" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>10.510730688935283</v>
-      </c>
-      <c r="V17" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>13.901797818251994</v>
-      </c>
-      <c r="W17" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>8.1325517236774161</v>
-      </c>
-      <c r="X17" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>67.885150713591585</v>
-      </c>
-      <c r="Y17" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.5658660707249886E-2</v>
-      </c>
-      <c r="Z17" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>15.244938583288828</v>
-      </c>
-      <c r="AA17" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>14.594594594594593</v>
-      </c>
-      <c r="AB17" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>251.46198830409358</v>
-      </c>
-      <c r="AC17" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>17.75</v>
-      </c>
-      <c r="AD17" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>4</v>
-      </c>
-      <c r="AE17" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.8660790226552231</v>
-      </c>
-      <c r="AF17" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>14.166872580512315</v>
-      </c>
-      <c r="AG17" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>29.839533177883421</v>
-      </c>
-      <c r="AH17" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>2681700</v>
-      </c>
-      <c r="AI17" s="245">
-        <v>8939</v>
-      </c>
-      <c r="AJ17" s="245">
-        <v>7332</v>
-      </c>
-      <c r="AK17" s="253">
-        <v>8610</v>
-      </c>
-      <c r="AL17" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>8293.6666666666661</v>
-      </c>
-      <c r="AN17" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>63.308823529411768</v>
-      </c>
-      <c r="AO17" s="141">
-        <f t="shared" si="0"/>
-        <v>15.795586527293844</v>
-      </c>
-      <c r="AQ17" s="141">
-        <f t="shared" si="1"/>
-        <v>633.08823529411768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" s="143">
-        <v>20</v>
-      </c>
-      <c r="G18" s="143">
-        <v>2</v>
-      </c>
-      <c r="H18" s="143">
-        <v>7</v>
-      </c>
-      <c r="I18" s="143">
-        <v>3</v>
-      </c>
-      <c r="J18" s="143">
-        <v>3</v>
-      </c>
-      <c r="K18" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>37.818519196630078</v>
-      </c>
-      <c r="L18" s="165">
+      <c r="AU16" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>6.9980965177471726</v>
       </c>
-      <c r="M18" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>3.12</v>
-      </c>
-      <c r="N18" s="189">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>47.435897435897431</v>
-      </c>
-      <c r="O18" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>21.834061135371179</v>
-      </c>
-      <c r="P18" s="198">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>25.087898089171979</v>
-      </c>
-      <c r="Q18" s="201">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>78.274242038216585</v>
-      </c>
-      <c r="R18" s="205">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>1035.7182846265814</v>
-      </c>
-      <c r="S18" s="209">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>556.99626333239894</v>
-      </c>
-      <c r="T18" s="209">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.84756403422812654</v>
-      </c>
-      <c r="U18" s="209">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>24.95406113537118</v>
-      </c>
-      <c r="V18" s="209">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>21.1501647262705</v>
-      </c>
-      <c r="W18" s="209">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>12.372846364868241</v>
-      </c>
-      <c r="X18" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>44.620250116053192</v>
-      </c>
-      <c r="Y18" s="165">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.11806582041597809</v>
-      </c>
-      <c r="Z18" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>39.859855793642723</v>
-      </c>
-      <c r="AA18" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>21.081081081081084</v>
-      </c>
-      <c r="AB18" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>174.79674796747972</v>
-      </c>
-      <c r="AC18" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>6.8</v>
-      </c>
-      <c r="AD18" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>8</v>
-      </c>
-      <c r="AE18" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.9980965177471726</v>
-      </c>
-      <c r="AF18" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>25.705404112864667</v>
-      </c>
-      <c r="AG18" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>60.940936874723803</v>
-      </c>
-      <c r="AH18" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>1402800</v>
-      </c>
-      <c r="AI18" s="245">
+      <c r="AV16" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW16" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX16" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY16" s="242">
         <v>4676</v>
       </c>
-      <c r="AJ18" s="245">
+      <c r="AZ16" s="242">
         <v>3982</v>
       </c>
-      <c r="AK18" s="252">
-        <v>4420</v>
-      </c>
-      <c r="AL18" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>4359.333333333333</v>
-      </c>
-      <c r="AN18" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>32.5</v>
-      </c>
-      <c r="AO18" s="141">
-        <f t="shared" si="0"/>
-        <v>30.76923076923077</v>
-      </c>
-      <c r="AQ18" s="141">
-        <f t="shared" si="1"/>
-        <v>325</v>
+      <c r="BA16" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="142" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142" t="s">
+    <row r="17" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="143">
+      <c r="C17" s="222"/>
+      <c r="D17" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="135">
         <v>45</v>
       </c>
-      <c r="G19" s="143">
+      <c r="F17" s="135">
         <v>6</v>
       </c>
-      <c r="H19" s="143">
+      <c r="G17" s="135">
         <v>6</v>
       </c>
-      <c r="I19" s="143">
+      <c r="H17" s="135">
         <v>7</v>
       </c>
-      <c r="J19" s="143">
+      <c r="I17" s="135">
         <v>7</v>
       </c>
-      <c r="K19" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>72</v>
+      </c>
+      <c r="M17" s="205"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="204"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="192">
+        <f>AF17*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>16.618663282514987</v>
       </c>
-      <c r="L19" s="165">
+      <c r="T17" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>5.7603686635944698</v>
       </c>
-      <c r="M19" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U17" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>8.4</v>
       </c>
-      <c r="N19" s="189">
+      <c r="V17" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>17.619047619047617</v>
       </c>
-      <c r="O19" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W17" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>48.387096774193552</v>
       </c>
-      <c r="P19" s="198">
+      <c r="X17" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>11.320594479830151</v>
       </c>
-      <c r="Q19" s="201">
+      <c r="Y17" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>95.092993630573275</v>
       </c>
-      <c r="R19" s="205">
+      <c r="Z17" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>852.53456221198155</v>
       </c>
-      <c r="S19" s="209">
+      <c r="AA17" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>473.81377792127739</v>
       </c>
-      <c r="T19" s="209">
+      <c r="AB17" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>0.99636190840874239</v>
       </c>
-      <c r="U19" s="209">
+      <c r="AC17" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>56.78709677419355</v>
       </c>
-      <c r="V19" s="209">
+      <c r="AD17" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>56.580500114927425</v>
       </c>
-      <c r="W19" s="209">
+      <c r="AE17" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>33.099592567232541</v>
       </c>
-      <c r="X19" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF17" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>16.679344264631833</v>
       </c>
-      <c r="Y19" s="165">
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="135">
+        <v>1865</v>
+      </c>
+      <c r="AI17" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>13.713235294117647</v>
+      </c>
+      <c r="AJ17" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>72.922252010723867</v>
+      </c>
+      <c r="AK17" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>137.13235294117646</v>
+      </c>
+      <c r="AL17" s="251"/>
+      <c r="AM17" s="257" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN17" s="236"/>
+      <c r="AO17" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10043373016541332</v>
-      </c>
-      <c r="Z19" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP17" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>88.334583645911451</v>
       </c>
-      <c r="AA19" s="176">
+      <c r="AQ17" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>56.756756756756758</v>
       </c>
-      <c r="AB19" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR17" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>63.988095238095241</v>
       </c>
-      <c r="AC19" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS17" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.0666666666666669</v>
       </c>
-      <c r="AD19" s="177">
+      <c r="AT17" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>20</v>
       </c>
-      <c r="AE19" s="176">
+      <c r="AU17" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>5.7603686635944698</v>
       </c>
-      <c r="AF19" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>20.865683229813666</v>
-      </c>
-      <c r="AG19" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>145.09134040266821</v>
-      </c>
-      <c r="AH19" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>561600</v>
-      </c>
-      <c r="AI19" s="245">
+      <c r="AV17" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW17" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX17" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY17" s="242">
         <v>1872</v>
       </c>
-      <c r="AJ19" s="245">
+      <c r="AZ17" s="242">
         <v>1601</v>
       </c>
-      <c r="AK19" s="252">
-        <v>1865</v>
-      </c>
-      <c r="AL19" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>1779.3333333333333</v>
-      </c>
-      <c r="AN19" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>13.713235294117647</v>
-      </c>
-      <c r="AO19" s="141">
-        <f t="shared" si="0"/>
-        <v>72.922252010723867</v>
-      </c>
-      <c r="AQ19" s="141">
-        <f t="shared" si="1"/>
-        <v>137.13235294117646</v>
+      <c r="BA17" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="142" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="148" t="s">
+    <row r="18" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="149">
+      <c r="C18" s="223"/>
+      <c r="D18" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="140">
         <v>165</v>
       </c>
-      <c r="G20" s="149">
+      <c r="F18" s="140">
         <v>12</v>
       </c>
-      <c r="H20" s="149">
+      <c r="G18" s="140">
         <v>17</v>
       </c>
-      <c r="I20" s="149">
+      <c r="H18" s="140">
         <v>16</v>
       </c>
-      <c r="J20" s="149">
+      <c r="I18" s="140">
         <v>16</v>
       </c>
-      <c r="K20" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>252</v>
+      </c>
+      <c r="M18" s="205"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="204"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="231"/>
+      <c r="S18" s="192">
+        <f>AF18*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>4.00445615147349</v>
       </c>
-      <c r="L20" s="165">
+      <c r="T18" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>9.2286834192439855</v>
       </c>
-      <c r="M20" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U18" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>23.04</v>
       </c>
-      <c r="N20" s="189">
+      <c r="V18" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>6.4236111111111116</v>
       </c>
-      <c r="O20" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W18" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>212.62886597938143</v>
       </c>
-      <c r="P20" s="198">
+      <c r="X18" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>2.576182204207683</v>
       </c>
-      <c r="Q20" s="201">
+      <c r="Y18" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>59.355237984945013</v>
       </c>
-      <c r="R20" s="205">
+      <c r="Z18" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>1365.8451460481099</v>
       </c>
-      <c r="S20" s="209">
+      <c r="AA18" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>712.60019201652744</v>
       </c>
-      <c r="T20" s="209">
+      <c r="AB18" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>0.66248929664763645</v>
       </c>
-      <c r="U20" s="209">
+      <c r="AC18" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>235.66886597938142</v>
       </c>
-      <c r="V20" s="209">
+      <c r="AD18" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>156.1281012644265</v>
       </c>
-      <c r="W20" s="209">
+      <c r="AE18" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>91.334939239689504</v>
       </c>
-      <c r="X20" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF18" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>6.0445597713609134</v>
       </c>
-      <c r="Y20" s="165">
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="135">
+        <v>538</v>
+      </c>
+      <c r="AI18" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>3.9558823529411766</v>
+      </c>
+      <c r="AJ18" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>252.78810408921933</v>
+      </c>
+      <c r="AK18" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>39.558823529411768</v>
+      </c>
+      <c r="AL18" s="251"/>
+      <c r="AM18" s="257" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN18" s="236"/>
+      <c r="AO18" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.15104899590467505</v>
-      </c>
-      <c r="Z20" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP18" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>388.17130184607987</v>
       </c>
-      <c r="AA20" s="176">
+      <c r="AQ18" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>155.67567567567568</v>
       </c>
-      <c r="AB20" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR18" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>22.970085470085472</v>
       </c>
-      <c r="AC20" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS18" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.70303030303030312</v>
       </c>
-      <c r="AD20" s="177">
+      <c r="AT18" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>69</v>
       </c>
-      <c r="AE20" s="176">
+      <c r="AU18" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>9.2286834192439855</v>
       </c>
-      <c r="AF20" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>32.672966401414676</v>
-      </c>
-      <c r="AG20" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>543.84697752175555</v>
-      </c>
-      <c r="AH20" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>163200</v>
-      </c>
-      <c r="AI20" s="245">
+      <c r="AV18" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW18" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX18" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY18" s="242">
         <v>544</v>
       </c>
-      <c r="AJ20" s="245">
+      <c r="AZ18" s="242">
         <v>477</v>
       </c>
-      <c r="AK20" s="252">
-        <v>538</v>
-      </c>
-      <c r="AL20" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>519.66666666666663</v>
-      </c>
-      <c r="AN20" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>3.9558823529411766</v>
-      </c>
-      <c r="AO20" s="141">
-        <f t="shared" si="0"/>
-        <v>252.78810408921933</v>
-      </c>
-      <c r="AQ20" s="141">
-        <f t="shared" si="1"/>
-        <v>39.558823529411768</v>
+      <c r="BA18" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:43" s="145" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143">
+    <row r="19" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="222"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135">
         <v>40</v>
       </c>
-      <c r="G21" s="143">
+      <c r="F19" s="135">
         <v>14</v>
       </c>
-      <c r="H21" s="143">
+      <c r="G19" s="135">
         <v>7</v>
       </c>
-      <c r="I21" s="143">
+      <c r="H19" s="135">
         <v>13</v>
       </c>
-      <c r="J21" s="143">
+      <c r="I19" s="135">
         <v>13</v>
       </c>
-      <c r="K21" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J19" s="134">
+        <v>7</v>
+      </c>
+      <c r="K19" s="134">
+        <v>7</v>
+      </c>
+      <c r="L19" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>103</v>
+      </c>
+      <c r="M19" s="205"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="192">
+        <f>AF19*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>14.878662749208168</v>
       </c>
-      <c r="L21" s="165">
+      <c r="T19" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="M21" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U19" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>19.760000000000002</v>
       </c>
-      <c r="N21" s="189">
+      <c r="V19" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>7.4898785425101213</v>
       </c>
-      <c r="O21" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W19" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>43.668122270742359</v>
       </c>
-      <c r="P21" s="198">
+      <c r="X19" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>12.54394904458599</v>
       </c>
-      <c r="Q21" s="201">
+      <c r="Y19" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>247.86843312101917</v>
       </c>
-      <c r="R21" s="205">
+      <c r="Z19" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>327.06893198734156</v>
       </c>
-      <c r="S21" s="209">
+      <c r="AA19" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>287.46868255418036</v>
       </c>
-      <c r="T21" s="209">
+      <c r="AB19" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.6422310625472161</v>
       </c>
-      <c r="U21" s="209">
+      <c r="AC19" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>63.428122270742364</v>
       </c>
-      <c r="V21" s="209">
+      <c r="AD19" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>104.16363263205596</v>
       </c>
-      <c r="W21" s="209">
+      <c r="AE19" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.935725089752736</v>
       </c>
-      <c r="X21" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF19" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.060030033855476</v>
       </c>
-      <c r="Y21" s="165">
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="135">
+        <v>1315</v>
+      </c>
+      <c r="AI19" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>9.6691176470588243</v>
+      </c>
+      <c r="AJ19" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>103.42205323193916</v>
+      </c>
+      <c r="AK19" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>96.691176470588246</v>
+      </c>
+      <c r="AL19" s="251"/>
+      <c r="AM19" s="257" t="s">
+        <v>280</v>
+      </c>
+      <c r="AN19" s="236"/>
+      <c r="AO19" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.0934386968059688E-2</v>
-      </c>
-      <c r="Z21" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP19" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>79.71971158728546</v>
       </c>
-      <c r="AA21" s="176">
+      <c r="AQ19" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>133.51351351351352</v>
       </c>
-      <c r="AB21" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR19" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>26.674937965260547</v>
       </c>
-      <c r="AC21" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS19" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.4</v>
       </c>
-      <c r="AD21" s="177">
+      <c r="AT19" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>29</v>
       </c>
-      <c r="AE21" s="176">
+      <c r="AU19" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="AF21" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>7.845569989782514</v>
-      </c>
-      <c r="AG21" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>213.23322510079896</v>
-      </c>
-      <c r="AH21" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>365100</v>
-      </c>
-      <c r="AI21" s="245">
+      <c r="AV19" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW19" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX19" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY19" s="242">
         <v>1217</v>
       </c>
-      <c r="AJ21" s="245">
+      <c r="AZ19" s="242">
         <v>1233</v>
       </c>
-      <c r="AK21" s="252">
-        <v>1315</v>
-      </c>
-      <c r="AL21" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>1255</v>
-      </c>
-      <c r="AN21" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>9.6691176470588243</v>
-      </c>
-      <c r="AO21" s="141">
-        <f t="shared" si="0"/>
-        <v>103.42205323193916</v>
-      </c>
-      <c r="AQ21" s="141">
-        <f t="shared" si="1"/>
-        <v>96.691176470588246</v>
+      <c r="BA19" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:43" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="142" t="s">
+    <row r="20" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="223"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="140">
+        <v>53</v>
+      </c>
+      <c r="F20" s="140">
+        <v>13</v>
+      </c>
+      <c r="G20" s="140">
+        <v>10</v>
+      </c>
+      <c r="H20" s="140">
+        <v>11</v>
+      </c>
+      <c r="I20" s="140">
+        <v>11</v>
+      </c>
+      <c r="J20" s="134">
+        <v>7</v>
+      </c>
+      <c r="K20" s="134">
+        <v>7</v>
+      </c>
+      <c r="L20" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>111</v>
+      </c>
+      <c r="M20" s="205"/>
+      <c r="N20" s="204" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="149">
-        <v>53</v>
-      </c>
-      <c r="G22" s="149">
-        <v>13</v>
-      </c>
-      <c r="H22" s="149">
-        <v>10</v>
-      </c>
-      <c r="I22" s="149">
-        <v>11</v>
-      </c>
-      <c r="J22" s="149">
-        <v>11</v>
-      </c>
-      <c r="K22" s="223">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="O20" s="204" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" s="204" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="231"/>
+      <c r="S20" s="192">
+        <f>AF20*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.268807281048847</v>
       </c>
-      <c r="L22" s="165">
+      <c r="T20" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="M22" s="186">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U20" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>16.28</v>
       </c>
-      <c r="N22" s="189">
+      <c r="V20" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.0909090909090899</v>
       </c>
-      <c r="O22" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W20" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>60.640732265446225</v>
       </c>
-      <c r="P22" s="198">
+      <c r="X20" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>9.0330489123903401</v>
       </c>
-      <c r="Q22" s="201">
+      <c r="Y20" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>147.05803629371474</v>
       </c>
-      <c r="R22" s="205">
+      <c r="Z20" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>551.27938423132923</v>
       </c>
-      <c r="S22" s="209">
+      <c r="AA20" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>349.16871026252198</v>
       </c>
-      <c r="T22" s="209">
+      <c r="AB20" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3520398195046166</v>
       </c>
-      <c r="U22" s="209">
+      <c r="AC20" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>76.920732265446219</v>
       </c>
-      <c r="V22" s="209">
+      <c r="AD20" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>103.99989296833684</v>
       </c>
-      <c r="W22" s="209">
+      <c r="AE20" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.839937386477047</v>
       </c>
-      <c r="X22" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF20" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.0742943396031794</v>
       </c>
-      <c r="Y22" s="165">
+      <c r="AG20" s="188"/>
+      <c r="AH20" s="135">
+        <v>1217</v>
+      </c>
+      <c r="AI20" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>8.9485294117647065</v>
+      </c>
+      <c r="AJ20" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>111.75020542317172</v>
+      </c>
+      <c r="AK20" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>89.485294117647072</v>
+      </c>
+      <c r="AL20" s="251"/>
+      <c r="AM20" s="257" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN20" s="236"/>
+      <c r="AO20" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.4012866790332144E-2</v>
-      </c>
-      <c r="Z22" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP20" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>110.70459262412855</v>
       </c>
-      <c r="AA22" s="176">
+      <c r="AQ20" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="AB22" s="176">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR20" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.440588457185967</v>
       </c>
-      <c r="AC22" s="176">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS20" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.4528301886792452</v>
       </c>
-      <c r="AD22" s="177">
+      <c r="AT20" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AE22" s="176">
+      <c r="AU20" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="AF22" s="178">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>13.225778371006587</v>
-      </c>
-      <c r="AG22" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>220.70459262412857</v>
-      </c>
-      <c r="AH22" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>354600</v>
-      </c>
-      <c r="AI22" s="245">
+      <c r="AV20" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW20" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX20" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY20" s="242">
         <v>1182</v>
       </c>
-      <c r="AJ22" s="245">
+      <c r="AZ20" s="242">
         <v>982</v>
       </c>
-      <c r="AK22" s="252">
-        <v>1217</v>
-      </c>
-      <c r="AL22" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>1127</v>
-      </c>
-      <c r="AN22" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>8.9485294117647065</v>
-      </c>
-      <c r="AO22" s="141">
-        <f t="shared" si="0"/>
-        <v>111.75020542317172</v>
-      </c>
-      <c r="AQ22" s="141">
-        <f t="shared" si="1"/>
-        <v>89.485294117647072</v>
+      <c r="BA20" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="241" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="136" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137">
+    <row r="21" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="201" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="222"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135">
         <v>125</v>
       </c>
-      <c r="G23" s="137">
+      <c r="F21" s="135">
         <v>25</v>
       </c>
-      <c r="H23" s="137">
+      <c r="G21" s="135">
         <v>25</v>
       </c>
-      <c r="I23" s="137">
+      <c r="H21" s="135">
         <v>25</v>
       </c>
-      <c r="J23" s="137">
+      <c r="I21" s="135">
         <v>25</v>
       </c>
-      <c r="K23" s="224">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J21" s="134">
+        <v>10</v>
+      </c>
+      <c r="K21" s="134">
+        <v>6</v>
+      </c>
+      <c r="L21" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>351</v>
+      </c>
+      <c r="M21" s="205"/>
+      <c r="N21" s="204" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" s="204"/>
+      <c r="P21" s="204"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="231"/>
+      <c r="S21" s="192">
+        <f>AF21*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>3.9777182676619427</v>
       </c>
-      <c r="L23" s="214">
+      <c r="T21" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="M23" s="215">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U21" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>49</v>
       </c>
-      <c r="N23" s="189">
+      <c r="V21" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>3.0204081632653059</v>
       </c>
-      <c r="O23" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W21" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>188.2530120481928</v>
       </c>
-      <c r="P23" s="198">
+      <c r="X21" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>2.9097579617834399</v>
       </c>
-      <c r="Q23" s="209">
+      <c r="Y21" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>142.57814012738856</v>
       </c>
-      <c r="R23" s="216">
+      <c r="Z21" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>568.60093434964358</v>
       </c>
-      <c r="S23" s="209">
+      <c r="AA21" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>355.58953723851607</v>
       </c>
-      <c r="T23" s="209">
+      <c r="AB21" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.32762623913577</v>
       </c>
-      <c r="U23" s="209">
+      <c r="AC21" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>237.2530120481928</v>
       </c>
-      <c r="V23" s="209">
+      <c r="AD21" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>314.98332410917573</v>
       </c>
-      <c r="W23" s="209">
+      <c r="AE21" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>184.26524460386779</v>
       </c>
-      <c r="X23" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF21" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>2.9961130251924466</v>
       </c>
-      <c r="Y23" s="218">
+      <c r="AG21" s="188"/>
+      <c r="AH21" s="135">
+        <v>387</v>
+      </c>
+      <c r="AI21" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>2.8455882352941178</v>
+      </c>
+      <c r="AJ21" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>351.42118863049092</v>
+      </c>
+      <c r="AK21" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>28.455882352941181</v>
+      </c>
+      <c r="AL21" s="251"/>
+      <c r="AM21" s="257" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN21" s="236"/>
+      <c r="AO21" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.5373881674228024E-2</v>
-      </c>
-      <c r="Z23" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP21" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>343.67119641356112</v>
       </c>
-      <c r="AA23" s="176">
+      <c r="AQ21" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>331.08108108108109</v>
       </c>
-      <c r="AB23" s="144">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR21" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>10.584615384615388</v>
       </c>
-      <c r="AC23" s="144">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS21" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.8</v>
       </c>
-      <c r="AD23" s="177">
+      <c r="AT21" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>96</v>
       </c>
-      <c r="AE23" s="176">
+      <c r="AU21" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="AF23" s="218">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>13.230769230769234</v>
-      </c>
-      <c r="AG23" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>674.75227749464216</v>
-      </c>
-      <c r="AH23" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>116100</v>
-      </c>
-      <c r="AI23" s="246">
+      <c r="AV21" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW21" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX21" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY21" s="242">
         <v>387</v>
       </c>
-      <c r="AJ23" s="247">
+      <c r="AZ21" s="242">
         <v>387</v>
       </c>
-      <c r="AK23" s="247">
-        <v>387</v>
-      </c>
-      <c r="AL23" s="243">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>387</v>
-      </c>
-      <c r="AN23" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>2.8455882352941178</v>
-      </c>
-      <c r="AO23" s="141">
-        <f t="shared" si="0"/>
-        <v>351.42118863049092</v>
-      </c>
-      <c r="AQ23" s="141">
-        <f t="shared" si="1"/>
-        <v>28.455882352941181</v>
+      <c r="BA21" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="226" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="226" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228">
+    <row r="22" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="201" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="223"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="140">
         <v>100</v>
       </c>
-      <c r="G24" s="228">
+      <c r="F22" s="140">
         <v>1</v>
       </c>
-      <c r="H24" s="228">
+      <c r="G22" s="140">
         <v>50</v>
       </c>
-      <c r="I24" s="228">
+      <c r="H22" s="140">
         <v>5</v>
       </c>
-      <c r="J24" s="228">
+      <c r="I22" s="140">
         <v>5</v>
       </c>
-      <c r="K24" s="229">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J22" s="134">
+        <v>2</v>
+      </c>
+      <c r="K22" s="134">
+        <v>2</v>
+      </c>
+      <c r="L22" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>141</v>
+      </c>
+      <c r="M22" s="205"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="192">
+        <f>AF22*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>2.9174938563130981</v>
       </c>
-      <c r="L24" s="230">
+      <c r="T22" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="M24" s="231">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U22" s="161">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>5</v>
       </c>
-      <c r="N24" s="232">
+      <c r="V22" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>29.6</v>
       </c>
-      <c r="O24" s="232">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W22" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>318.47133757961791</v>
       </c>
-      <c r="P24" s="232">
+      <c r="X22" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1.72</v>
       </c>
-      <c r="Q24" s="229">
+      <c r="Y22" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>8.6</v>
       </c>
-      <c r="R24" s="233">
+      <c r="Z22" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>9426.7515923566898</v>
       </c>
-      <c r="S24" s="232">
+      <c r="AA22" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>4717.6757961783451</v>
       </c>
-      <c r="T24" s="232">
+      <c r="AB22" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>0.10006834305621989</v>
       </c>
-      <c r="U24" s="232">
+      <c r="AC22" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>323.47133757961791</v>
       </c>
-      <c r="V24" s="232">
+      <c r="AD22" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>32.369240777771516</v>
       </c>
-      <c r="W24" s="232">
+      <c r="AE22" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>18.936005854996335</v>
       </c>
-      <c r="X24" s="232">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF22" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>29.155013136112451</v>
       </c>
-      <c r="Y24" s="229">
+      <c r="AG22" s="188"/>
+      <c r="AH22" s="135">
+        <v>958</v>
+      </c>
+      <c r="AI22" s="197">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>7.0441176470588234</v>
+      </c>
+      <c r="AJ22" s="197">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>141.96242171189979</v>
+      </c>
+      <c r="AK22" s="197">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>70.441176470588232</v>
+      </c>
+      <c r="AL22" s="251"/>
+      <c r="AM22" s="257" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN22" s="236"/>
+      <c r="AO22" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>1</v>
-      </c>
-      <c r="Z24" s="231">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP22" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>581.39534883720933</v>
       </c>
-      <c r="AA24" s="231">
+      <c r="AQ22" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>33.783783783783782</v>
       </c>
-      <c r="AB24" s="231">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR22" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>109.55414012738855</v>
       </c>
-      <c r="AC24" s="231">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS22" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.5</v>
       </c>
-      <c r="AD24" s="234">
+      <c r="AT22" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>39</v>
       </c>
-      <c r="AE24" s="231">
+      <c r="AU22" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="AF24" s="229">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>219.1082802547771</v>
-      </c>
-      <c r="AG24" s="231">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>615.17913262099307</v>
-      </c>
-      <c r="AH24" s="231">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>303900</v>
-      </c>
-      <c r="AI24" s="245">
+      <c r="AV22" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW22" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX22" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY22" s="242">
         <v>1013</v>
       </c>
-      <c r="AJ24" s="245">
+      <c r="AZ22" s="242">
         <v>860</v>
       </c>
-      <c r="AK24" s="252">
-        <v>958</v>
-      </c>
-      <c r="AL24" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>943.66666666666663</v>
-      </c>
-      <c r="AN24" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>7.0441176470588234</v>
-      </c>
-      <c r="AO24" s="141">
-        <f t="shared" si="0"/>
-        <v>141.96242171189979</v>
-      </c>
-      <c r="AQ24" s="141">
-        <f t="shared" si="1"/>
-        <v>70.441176470588232</v>
+      <c r="BA22" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="217"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="136" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131">
         <v>40</v>
       </c>
-      <c r="G25" s="137">
+      <c r="F23" s="131">
         <v>21</v>
       </c>
-      <c r="H25" s="137">
+      <c r="G23" s="131">
         <v>25</v>
       </c>
-      <c r="I25" s="137">
+      <c r="H23" s="131">
         <v>9</v>
       </c>
-      <c r="J25" s="137">
+      <c r="I23" s="131">
         <v>9</v>
       </c>
-      <c r="K25" s="224">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="J23" s="186">
+        <v>4</v>
+      </c>
+      <c r="K23" s="186">
+        <v>4</v>
+      </c>
+      <c r="L23" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>117</v>
+      </c>
+      <c r="N23" s="203" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" s="203" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="193">
+        <f>AF23*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.345810315354626</v>
       </c>
-      <c r="L25" s="214">
+      <c r="T23" s="184">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="M25" s="215">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
+      <c r="U23" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>16.2</v>
       </c>
-      <c r="N25" s="189">
+      <c r="V23" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.1358024691358022</v>
       </c>
-      <c r="O25" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
+      <c r="W23" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>60.240963855421697</v>
       </c>
-      <c r="P25" s="198">
+      <c r="X23" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>9.0929936305732486</v>
       </c>
-      <c r="Q25" s="218">
+      <c r="Y23" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>147.30649681528661</v>
       </c>
-      <c r="R25" s="225">
+      <c r="Z23" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>550.34954633348218</v>
       </c>
-      <c r="S25" s="209">
+      <c r="AA23" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>348.82802157438437</v>
       </c>
-      <c r="T25" s="209">
+      <c r="AB23" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3533603116782036</v>
       </c>
-      <c r="U25" s="209">
+      <c r="AC23" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>76.4409638554217</v>
       </c>
-      <c r="V25" s="209">
+      <c r="AD23" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>103.4521666683558</v>
       </c>
-      <c r="W25" s="209">
+      <c r="AE23" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.519517500988137</v>
       </c>
-      <c r="X25" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
+      <c r="AF23" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.1223380860382157</v>
       </c>
-      <c r="Y25" s="218">
+      <c r="AH23" s="135">
+        <v>1162</v>
+      </c>
+      <c r="AI23" s="233">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>8.5441176470588243</v>
+      </c>
+      <c r="AJ23" s="233">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>117.03958691910498</v>
+      </c>
+      <c r="AK23" s="233">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>85.441176470588246</v>
+      </c>
+      <c r="AM23" s="258" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO23" s="236" t="e">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.3940651423516648E-2</v>
-      </c>
-      <c r="Z25" s="176">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP23" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>109.9747828523396</v>
       </c>
-      <c r="AA25" s="176">
+      <c r="AQ23" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>109.45945945945945</v>
       </c>
-      <c r="AB25" s="144">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
+      <c r="AR23" s="236">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.173587729143286</v>
       </c>
-      <c r="AC25" s="144">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
+      <c r="AS23" s="236">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.5</v>
       </c>
-      <c r="AD25" s="177">
+      <c r="AT23" s="236">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AE25" s="176">
+      <c r="AU23" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="AF25" s="218">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>12.869435091657314</v>
-      </c>
-      <c r="AG25" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>219.43424231179904</v>
-      </c>
-      <c r="AH25" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>358800</v>
-      </c>
-      <c r="AI25" s="248">
+      <c r="AV23" s="236" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW23" s="244" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX23" s="244" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY23" s="242">
         <v>1196</v>
       </c>
-      <c r="AJ25" s="245">
+      <c r="AZ23" s="242">
         <v>999</v>
       </c>
-      <c r="AK25" s="252">
-        <v>1162</v>
-      </c>
-      <c r="AL25" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>1119</v>
-      </c>
-      <c r="AN25" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>8.5441176470588243</v>
-      </c>
-      <c r="AO25" s="141">
-        <f t="shared" si="0"/>
-        <v>117.03958691910498</v>
-      </c>
-      <c r="AQ25" s="141">
-        <f t="shared" si="1"/>
-        <v>85.441176470588246</v>
+      <c r="BA23" s="245" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137">
-        <v>30</v>
-      </c>
-      <c r="G26" s="137">
-        <v>7</v>
-      </c>
-      <c r="H26" s="137">
-        <v>10</v>
-      </c>
-      <c r="I26" s="137">
-        <v>4</v>
-      </c>
-      <c r="J26" s="137">
-        <v>4</v>
-      </c>
-      <c r="K26" s="224">
-        <f>Tabela2[[#This Row],[Kolumna1]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>24.022578958160349</v>
-      </c>
-      <c r="L26" s="214">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" s="130" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="140" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="247">
+        <v>0</v>
+      </c>
+      <c r="E24" s="131">
+        <v>0</v>
+      </c>
+      <c r="F24" s="131">
+        <v>0</v>
+      </c>
+      <c r="G24" s="131">
+        <v>0</v>
+      </c>
+      <c r="H24" s="131">
+        <v>0</v>
+      </c>
+      <c r="I24" s="131">
+        <v>0</v>
+      </c>
+      <c r="J24" s="248">
+        <v>0</v>
+      </c>
+      <c r="K24" s="186">
+        <v>0</v>
+      </c>
+      <c r="L24" s="198">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="132" t="s">
+        <v>275</v>
+      </c>
+      <c r="O24" s="132" t="s">
+        <v>276</v>
+      </c>
+      <c r="R24" s="231"/>
+      <c r="S24" s="193" t="e">
+        <f>AF24*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="184" t="e">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.9203513693068572</v>
-      </c>
-      <c r="M26" s="215">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$10)*IF(Tabela2[[#This Row],[Attack]]-$H$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$10 &gt; 0, $F$4,-$I$4)))/$F$10</f>
-        <v>4.96</v>
-      </c>
-      <c r="N26" s="189">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="164" t="e">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>29.838709677419356</v>
-      </c>
-      <c r="O26" s="197">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($I$10,$J$10)*(1+($G$10-Tabela2[[#This Row],[Defence]])*IF($G$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$10-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))</f>
-        <v>34.324942791762012</v>
-      </c>
-      <c r="P26" s="198">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="171" t="e">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>15.958386411889601</v>
-      </c>
-      <c r="Q26" s="218">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="187" t="e">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>79.153596602972414</v>
-      </c>
-      <c r="R26" s="225">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="194" t="e">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>1024.2120026574148</v>
-      </c>
-      <c r="S26" s="209">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="180" t="e">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>551.68279963019359</v>
-      </c>
-      <c r="T26" s="209">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="180" t="e">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.85572724093709895</v>
-      </c>
-      <c r="U26" s="209">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>39.284942791762013</v>
-      </c>
-      <c r="V26" s="209">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="180" t="e">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>33.617195705566282</v>
-      </c>
-      <c r="W26" s="209">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE24" s="180" t="e">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>19.666059487756275</v>
-      </c>
-      <c r="X26" s="209">
-        <f>15000/Tabela2[[#This Row],[Kolumna2]]/27.17</f>
-        <v>28.072705657767123</v>
-      </c>
-      <c r="Y26" s="218">
-        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.11693953197824576</v>
-      </c>
-      <c r="Z26" s="176">
-        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>62.662976957053907</v>
-      </c>
-      <c r="AA26" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>33.513513513513516</v>
-      </c>
-      <c r="AB26" s="144">
-        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$H$9)*IF(Tabela2[[#This Row],[Attack]]-$H$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$H$9 &gt; 0,$F$4,$I$4)))/$F$9)</f>
-        <v>108.04020100502511</v>
-      </c>
-      <c r="AC26" s="144">
-        <f>(AVERAGE($I$9,$J$9))*(1+(($G$9-Tabela2[[#This Row],[Defence]])*IF($G$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($G$9-Tabela2[[#This Row],[Defence]] &gt; 0, $F$4,$I$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="AD26" s="177">
-        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>13</v>
-      </c>
-      <c r="AE26" s="176">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.9203513693068572</v>
-      </c>
-      <c r="AF26" s="218">
-        <f>Tabela2[[#This Row],[VOB]]/Tabela2[[#This Row],[VDB]]</f>
-        <v>24.932354078082721</v>
-      </c>
-      <c r="AG26" s="176">
-        <f>SUM(Tabela2[[#This Row],[Cena_Atak]:[Cena_Obrona]])</f>
-        <v>96.176490470567416</v>
-      </c>
-      <c r="AH26" s="176">
-        <f>300*Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]</f>
-        <v>870900</v>
-      </c>
-      <c r="AI26" s="248">
-        <v>2903</v>
-      </c>
-      <c r="AJ26" s="245">
-        <v>2522</v>
-      </c>
-      <c r="AK26" s="252">
-        <v>2900</v>
-      </c>
-      <c r="AL26" s="245">
-        <f>(Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching]]+Tabela2[[#This Row],[FixedAmountAfterSearchingFixedAmountAfterSearching2]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
-        <v>2775</v>
-      </c>
-      <c r="AN26" s="141">
-        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>21.323529411764707</v>
-      </c>
-      <c r="AO26" s="141">
-        <f t="shared" si="0"/>
-        <v>46.896551724137929</v>
-      </c>
-      <c r="AQ26" s="141">
-        <f t="shared" si="1"/>
-        <v>213.23529411764707</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF24" s="180" t="e">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="249"/>
+      <c r="AH24" s="198">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="198">
+        <v>10000000000</v>
+      </c>
+      <c r="AJ24" s="132">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AK24" s="132">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>100000000000</v>
+      </c>
+      <c r="AM24" s="213" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" s="129"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="232"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="210"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="232"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" s="129"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="232"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" s="129"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="232"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A29" s="129"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="210"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="232"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" s="129"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="135"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="135"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="135"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="129"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="135"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="129"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="132"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="129"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Lizardman">
-      <formula>NOT(ISERROR(SEARCH("Lizardman",D1)))</formula>
+  <conditionalFormatting sqref="E1:E6 E24:E1048576 B23:C23 B8:C20 B1:B1048576">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Lizardman">
+      <formula>NOT(ISERROR(SEARCH("Lizardman",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Barbarians">
-      <formula>NOT(ISERROR(SEARCH("Barbarians",D1)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Barbarians">
+      <formula>NOT(ISERROR(SEARCH("Barbarians",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Toster">
-      <formula>NOT(ISERROR(SEARCH("Toster",D1)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Toster">
+      <formula>NOT(ISERROR(SEARCH("Toster",B1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$D$9</formula>
+    <cfRule type="expression" dxfId="55" priority="23">
+      <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="54" priority="24">
+      <formula>"Toster"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Lizardman">
+      <formula>NOT(ISERROR(SEARCH("Lizardman",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Barbarians">
+      <formula>NOT(ISERROR(SEARCH("Barbarians",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Toster">
+      <formula>NOT(ISERROR(SEARCH("Toster",B21)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="10">
+      <formula>Toster</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="11">
+      <formula>$B$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="12">
+      <formula>"Toster"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Lizardman">
+      <formula>NOT(ISERROR(SEARCH("Lizardman",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Barbarians">
+      <formula>NOT(ISERROR(SEARCH("Barbarians",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Toster">
+      <formula>NOT(ISERROR(SEARCH("Toster",B22)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="4">
+      <formula>Toster</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="5">
+      <formula>$B$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="1048575" man="1"/>
+  </colBreaks>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -7674,7 +7630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -19563,7 +19519,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AD137">
+  <sortState ref="B1:AD137">
     <sortCondition ref="AB1:AB137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19571,345 +19527,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" style="130" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="131" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="131" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="K1" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="M1" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="N1" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="131" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="132" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="133">
-        <v>20</v>
-      </c>
-      <c r="D2" s="133">
-        <v>20</v>
-      </c>
-      <c r="E2" s="133">
-        <v>1</v>
-      </c>
-      <c r="F2" s="133">
-        <v>1</v>
-      </c>
-      <c r="G2" s="133">
-        <v>1</v>
-      </c>
-      <c r="H2" s="133">
-        <v>10</v>
-      </c>
-      <c r="I2" s="133">
-        <v>20</v>
-      </c>
-      <c r="J2" s="134">
-        <v>10</v>
-      </c>
-      <c r="K2" s="134" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="132" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="133">
-        <v>100</v>
-      </c>
-      <c r="D3" s="133">
-        <v>1</v>
-      </c>
-      <c r="E3" s="133">
-        <v>50</v>
-      </c>
-      <c r="F3" s="133">
-        <v>2</v>
-      </c>
-      <c r="G3" s="133">
-        <v>2</v>
-      </c>
-      <c r="H3" s="133">
-        <v>1</v>
-      </c>
-      <c r="I3" s="133">
-        <v>2</v>
-      </c>
-      <c r="J3" s="134">
-        <v>10</v>
-      </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="133">
-        <v>20</v>
-      </c>
-      <c r="D4" s="133">
-        <v>2</v>
-      </c>
-      <c r="E4" s="133">
-        <v>10</v>
-      </c>
-      <c r="F4" s="133">
-        <v>4</v>
-      </c>
-      <c r="G4" s="133">
-        <v>5</v>
-      </c>
-      <c r="H4" s="133">
-        <v>3</v>
-      </c>
-      <c r="I4" s="133">
-        <v>5</v>
-      </c>
-      <c r="J4" s="134">
-        <v>10</v>
-      </c>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="133">
-        <v>40</v>
-      </c>
-      <c r="D5" s="133">
-        <v>14</v>
-      </c>
-      <c r="E5" s="133">
-        <v>7</v>
-      </c>
-      <c r="F5" s="133">
-        <v>7</v>
-      </c>
-      <c r="G5" s="133">
-        <v>7</v>
-      </c>
-      <c r="H5" s="133">
-        <v>10</v>
-      </c>
-      <c r="I5" s="133">
-        <v>15</v>
-      </c>
-      <c r="J5" s="134">
-        <v>225</v>
-      </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="133">
-        <v>40</v>
-      </c>
-      <c r="D6" s="133">
-        <v>13</v>
-      </c>
-      <c r="E6" s="133">
-        <v>10</v>
-      </c>
-      <c r="F6" s="133">
-        <v>7</v>
-      </c>
-      <c r="G6" s="133">
-        <v>7</v>
-      </c>
-      <c r="H6" s="133">
-        <v>11</v>
-      </c>
-      <c r="I6" s="133">
-        <v>15</v>
-      </c>
-      <c r="J6" s="134">
-        <v>300</v>
-      </c>
-      <c r="K6" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="133">
-        <v>5</v>
-      </c>
-      <c r="D7" s="133">
-        <v>4</v>
-      </c>
-      <c r="E7" s="133">
-        <v>3</v>
-      </c>
-      <c r="F7" s="133">
-        <v>4</v>
-      </c>
-      <c r="G7" s="133">
-        <v>4</v>
-      </c>
-      <c r="H7" s="133">
-        <v>1</v>
-      </c>
-      <c r="I7" s="133">
-        <v>3</v>
-      </c>
-      <c r="J7" s="134">
-        <v>25</v>
-      </c>
-      <c r="K7" s="134" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="134" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" s="134" t="s">
-        <v>204</v>
-      </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -2923,15 +2923,6 @@
   </cellStyles>
   <dxfs count="60">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3220,6 +3211,15 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3678,79 +3678,79 @@
     <tableColumn id="2" uniqueName="Initiative" name="I" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="52" uniqueName="Cost" name="Cena" dataDxfId="0">
+    <tableColumn id="52" uniqueName="Cost" name="Cena" dataDxfId="27">
       <calculatedColumnFormula>INT(Tabela2[[#This Row],[Cena SIM]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="44" uniqueName="44" name="Sk" dataDxfId="27"/>
-    <tableColumn id="42" uniqueName="Skill1" name="Skill1" dataDxfId="26">
+    <tableColumn id="44" uniqueName="44" name="Sk" dataDxfId="26"/>
+    <tableColumn id="42" uniqueName="Skill1" name="Skill1" dataDxfId="25">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="Skill2" name="Skill2" dataDxfId="25">
+    <tableColumn id="40" uniqueName="Skill2" name="Skill2" dataDxfId="24">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="Skill3" name="Skill3" dataDxfId="24">
+    <tableColumn id="36" uniqueName="Skill3" name="Skill3" dataDxfId="23">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="Skill4" name="Skill4" dataDxfId="23">
+    <tableColumn id="34" uniqueName="Skill4" name="Skill4" dataDxfId="22">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="48" uniqueName="48" name="Wsk" dataDxfId="22"/>
-    <tableColumn id="29" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="21">
+    <tableColumn id="48" uniqueName="48" name="Wsk" dataDxfId="21"/>
+    <tableColumn id="29" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="20">
       <calculatedColumnFormula>AF9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" uniqueName="0" name="Toughnessness" dataDxfId="20">
+    <tableColumn id="27" uniqueName="0" name="Toughnessness" dataDxfId="19">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" uniqueName="0" name="VWO" dataDxfId="19">
+    <tableColumn id="17" uniqueName="0" name="VWO" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" uniqueName="0" name="VWO_R" dataDxfId="18">
+    <tableColumn id="28" uniqueName="0" name="VWO_R" dataDxfId="17">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" uniqueName="0" name="VWD" dataDxfId="17">
+    <tableColumn id="18" uniqueName="0" name="VWD" dataDxfId="16">
       <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" uniqueName="0" name="VWD_R" dataDxfId="16">
+    <tableColumn id="14" uniqueName="0" name="VWD_R" dataDxfId="15">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" uniqueName="0" name="V_Off" dataDxfId="15">
+    <tableColumn id="15" uniqueName="0" name="V_Off" dataDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" uniqueName="0" name="V_Def" dataDxfId="14">
+    <tableColumn id="16" uniqueName="0" name="V_Def" dataDxfId="13">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" uniqueName="0" name="!ŚREDNIA" dataDxfId="13">
+    <tableColumn id="33" uniqueName="0" name="!ŚREDNIA" dataDxfId="12">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="0" name="Odchyłka" dataDxfId="12">
+    <tableColumn id="35" uniqueName="0" name="Odchyłka" dataDxfId="11">
       <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" uniqueName="0" name="Suma VW" dataDxfId="11">
+    <tableColumn id="38" uniqueName="0" name="Suma VW" dataDxfId="10">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" uniqueName="0" name="Suma*Odchyłka" dataDxfId="10">
+    <tableColumn id="39" uniqueName="0" name="Suma*Odchyłka" dataDxfId="9">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" uniqueName="0" name="V/HP" dataDxfId="9">
+    <tableColumn id="37" uniqueName="0" name="V/HP" dataDxfId="8">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="70" uniqueName="70" name="Kolumna1" dataDxfId="8">
+    <tableColumn id="70" uniqueName="70" name="Kolumna1" dataDxfId="7">
       <calculatedColumnFormula>15000/Tabela2[[#This Row],[V/HP]]/27.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="0" name="SIM" dataDxfId="7"/>
-    <tableColumn id="13" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="6"/>
-    <tableColumn id="31" uniqueName="0" name="AMT " dataDxfId="5">
+    <tableColumn id="11" uniqueName="0" name="SIM" dataDxfId="6"/>
+    <tableColumn id="13" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="5"/>
+    <tableColumn id="31" uniqueName="0" name="AMT " dataDxfId="4">
       <calculatedColumnFormula>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" uniqueName="53" name="Cena SIM" dataDxfId="4">
+    <tableColumn id="53" uniqueName="53" name="Cena SIM" dataDxfId="3">
       <calculatedColumnFormula>1000/Tabela2[[#This Row],[AMT ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" uniqueName="54" name="Ilość" dataDxfId="3">
+    <tableColumn id="54" uniqueName="54" name="Ilość" dataDxfId="2">
       <calculatedColumnFormula>$AK$7/Tabela2[[#This Row],[Cena SIM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="72" uniqueName="72" name="Data" dataDxfId="2"/>
-    <tableColumn id="73" uniqueName="Sprite" name="Sprite" dataDxfId="1">
+    <tableColumn id="72" uniqueName="72" name="Data" dataDxfId="1"/>
+    <tableColumn id="73" uniqueName="Sprite" name="Sprite" dataDxfId="0">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4024,10 +4024,10 @@
   <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="AJ11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AM22" sqref="AM22"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,8 +5088,12 @@
       <c r="I11" s="135">
         <v>2</v>
       </c>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
+      <c r="J11" s="134">
+        <v>5</v>
+      </c>
+      <c r="K11" s="134">
+        <v>5</v>
+      </c>
       <c r="L11" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>14</v>
@@ -5254,8 +5258,12 @@
       <c r="I12" s="140">
         <v>4</v>
       </c>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
+      <c r="J12" s="134">
+        <v>5</v>
+      </c>
+      <c r="K12" s="134">
+        <v>5</v>
+      </c>
       <c r="L12" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>30</v>
@@ -5420,8 +5428,12 @@
       <c r="I13" s="135">
         <v>10</v>
       </c>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
+      <c r="J13" s="134">
+        <v>5</v>
+      </c>
+      <c r="K13" s="134">
+        <v>5</v>
+      </c>
       <c r="L13" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>105</v>
@@ -5586,8 +5598,12 @@
       <c r="I14" s="140">
         <v>24</v>
       </c>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
+      <c r="J14" s="134">
+        <v>5</v>
+      </c>
+      <c r="K14" s="134">
+        <v>5</v>
+      </c>
       <c r="L14" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>335</v>
@@ -5752,8 +5768,12 @@
       <c r="I15" s="135">
         <v>2</v>
       </c>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
+      <c r="J15" s="134">
+        <v>5</v>
+      </c>
+      <c r="K15" s="134">
+        <v>5</v>
+      </c>
       <c r="L15" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>15</v>
@@ -5918,8 +5938,12 @@
       <c r="I16" s="135">
         <v>3</v>
       </c>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
+      <c r="J16" s="134">
+        <v>5</v>
+      </c>
+      <c r="K16" s="134">
+        <v>5</v>
+      </c>
       <c r="L16" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>31</v>
@@ -6084,8 +6108,12 @@
       <c r="I17" s="135">
         <v>7</v>
       </c>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
+      <c r="J17" s="134">
+        <v>5</v>
+      </c>
+      <c r="K17" s="134">
+        <v>5</v>
+      </c>
       <c r="L17" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>72</v>
@@ -6250,8 +6278,12 @@
       <c r="I18" s="140">
         <v>16</v>
       </c>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
+      <c r="J18" s="134">
+        <v>5</v>
+      </c>
+      <c r="K18" s="134">
+        <v>5</v>
+      </c>
       <c r="L18" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>252</v>

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="291">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -1211,6 +1211,12 @@
   </si>
   <si>
     <t>Sprites/Liz_Tank_sprite</t>
+  </si>
+  <si>
+    <t>Sieczka</t>
+  </si>
+  <si>
+    <t>Natarcie</t>
   </si>
 </sst>
 </file>
@@ -4027,7 +4033,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4041,14 +4047,14 @@
     <col min="13" max="13" width="10.140625" style="205" customWidth="1"/>
     <col min="14" max="17" width="10.42578125" style="132" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" style="224" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="155" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="165" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="169" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="172" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="175" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="177" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="129" hidden="1" customWidth="1"/>
-    <col min="26" max="32" width="14.85546875" style="181" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="155" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="165" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="169" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="172" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="175" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="177" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="129" customWidth="1"/>
+    <col min="26" max="32" width="8.7109375" style="181" customWidth="1"/>
     <col min="33" max="33" width="9.5703125" style="188" customWidth="1"/>
     <col min="34" max="34" width="9.42578125" style="137" customWidth="1"/>
     <col min="35" max="37" width="9.140625" customWidth="1"/>
@@ -5077,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="135">
         <v>3</v>
@@ -5089,36 +5095,40 @@
         <v>2</v>
       </c>
       <c r="J11" s="134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="198">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>14</v>
       </c>
       <c r="M11" s="205"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
+      <c r="N11" s="204" t="s">
+        <v>289</v>
+      </c>
+      <c r="O11" s="204" t="s">
+        <v>290</v>
+      </c>
       <c r="P11" s="204"/>
       <c r="Q11" s="204"/>
       <c r="R11" s="231"/>
       <c r="S11" s="192">
         <f>AF11*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>99.113706927211737</v>
+        <v>98.287900968586257</v>
       </c>
       <c r="T11" s="153">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.1041577976443882</v>
+        <v>3.0006858710562416</v>
       </c>
       <c r="U11" s="161">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="V11" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>63.793103448275865</v>
+        <v>61.666666666666671</v>
       </c>
       <c r="W11" s="170">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
@@ -5130,35 +5140,35 @@
       </c>
       <c r="Y11" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>176.46354868061877</v>
+        <v>182.54849863512288</v>
       </c>
       <c r="Z11" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>459.41535405136943</v>
+        <v>444.10150891632378</v>
       </c>
       <c r="AA11" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>317.9394513659941</v>
+        <v>313.3250037757233</v>
       </c>
       <c r="AB11" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.4848424691296218</v>
+        <v>1.5067102666913872</v>
       </c>
       <c r="AC11" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>9.5216460905349791</v>
+        <v>9.6016460905349792</v>
       </c>
       <c r="AD11" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>14.138144491248369</v>
+        <v>14.466898741746274</v>
       </c>
       <c r="AE11" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>8.2708145273802955</v>
+        <v>8.463135763921569</v>
       </c>
       <c r="AF11" s="180">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>66.750317954812914</v>
+        <v>65.233444771315234</v>
       </c>
       <c r="AG11" s="188"/>
       <c r="AH11" s="135">
@@ -5187,15 +5197,15 @@
       </c>
       <c r="AP11" s="236">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>13.147191118767344</v>
+        <v>13.147191118767342</v>
       </c>
       <c r="AQ11" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>15.675675675675675</v>
+        <v>16.216216216216214</v>
       </c>
       <c r="AR11" s="236">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>232.43243243243245</v>
+        <v>223.95833333333334</v>
       </c>
       <c r="AS11" s="236">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
@@ -5207,7 +5217,7 @@
       </c>
       <c r="AU11" s="236">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.1041577976443882</v>
+        <v>3.0006858710562416</v>
       </c>
       <c r="AV11" s="236" t="e">
         <f>#REF!/#REF!</f>

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Documents\GitHub\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F38FD77-BCDB-4C43-A52E-54DD25EE7548}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="645" windowWidth="26790" windowHeight="14595"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toster_Arena" sheetId="1" r:id="rId1"/>
     <sheet name="Heroes 3" sheetId="2" r:id="rId2"/>
     <sheet name="Spelle_Export_xml" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Piotr Musielski</author>
   </authors>
   <commentList>
-    <comment ref="U8" authorId="0" shapeId="0">
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V8" authorId="0" shapeId="0">
+    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X8" authorId="0" shapeId="0">
+    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR8" authorId="0" shapeId="0">
+    <comment ref="AR8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS8" authorId="0" shapeId="0">
+    <comment ref="AS8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -286,42 +287,42 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="mapowanie" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="mapowanie" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\mapowanie.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Units_Map" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Units_Map" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="Units_Map1" type="4" refreshedVersion="0" background="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Units_Map1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="Units_Mapping_Template2" type="4" refreshedVersion="0" background="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Units_Mapping_Template2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="Units_Mapping_Template3" type="4" refreshedVersion="0" background="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Units_Mapping_Template3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
+  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="324">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -1213,16 +1214,115 @@
     <t>Sprites/Liz_Tank_sprite</t>
   </si>
   <si>
-    <t>Sieczka</t>
-  </si>
-  <si>
-    <t>Natarcie</t>
+    <t>Wisp</t>
+  </si>
+  <si>
+    <t>StoneGolem</t>
+  </si>
+  <si>
+    <t>FireElemental</t>
+  </si>
+  <si>
+    <t>FleshGolem</t>
+  </si>
+  <si>
+    <t>Blind_by_light</t>
+  </si>
+  <si>
+    <t>Unstoppable_Light</t>
+  </si>
+  <si>
+    <t>Stone_Throw</t>
+  </si>
+  <si>
+    <t>Stone_Skin</t>
+  </si>
+  <si>
+    <t>Fire_Movement</t>
+  </si>
+  <si>
+    <t>Fire_ball</t>
+  </si>
+  <si>
+    <t>Fire_Skin</t>
+  </si>
+  <si>
+    <t>Heavy_Fists</t>
+  </si>
+  <si>
+    <t>Terrifying_Presence</t>
+  </si>
+  <si>
+    <t>Rotting</t>
+  </si>
+  <si>
+    <t>Chope</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Range_Stance</t>
+  </si>
+  <si>
+    <t>Double_Throw</t>
+  </si>
+  <si>
+    <t>Axe_Rain</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
+    <t>Hate</t>
+  </si>
+  <si>
+    <t>Cold_Blood</t>
+  </si>
+  <si>
+    <t>Insult</t>
+  </si>
+  <si>
+    <t>Rage</t>
+  </si>
+  <si>
+    <t>Massochism</t>
+  </si>
+  <si>
+    <t>Spike_Trap</t>
+  </si>
+  <si>
+    <t>Rope_Trap</t>
+  </si>
+  <si>
+    <t>Tough_Skin</t>
+  </si>
+  <si>
+    <t>Defence_Ritual</t>
+  </si>
+  <si>
+    <t>Cleanse</t>
+  </si>
+  <si>
+    <t>Force_Pull</t>
+  </si>
+  <si>
+    <t>Stone_Stance</t>
+  </si>
+  <si>
+    <t>Toxic_Fume</t>
+  </si>
+  <si>
+    <t>Shapeshift</t>
+  </si>
+  <si>
+    <t>Long_Lick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1393,7 +1493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="117">
+  <fills count="119">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2090,8 +2190,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2322,12 +2434,108 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2335,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2818,7 +3026,6 @@
     <xf numFmtId="2" fontId="0" fillId="111" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2905,9 +3112,6 @@
     <xf numFmtId="0" fontId="20" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="111" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2919,15 +3123,175 @@
     <xf numFmtId="2" fontId="13" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="117" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="112" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="117" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="113" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="114" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="111" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="109" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="107" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="106" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="117" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="117" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="117" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="110" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="117" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="117" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="117" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="111" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="118" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="103" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="103" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="103" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="103" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3470,132 +3834,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3654,109 +3892,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A8:AM24" tableType="xml" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" connectionId="8">
-  <autoFilter ref="A8:AM24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AM27" tableType="xml" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" connectionId="8">
+  <autoFilter ref="A8:AM27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="39">
-    <tableColumn id="3" uniqueName="Name" name="Name" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Name" name="Name" dataDxfId="56">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="0" name="Fraction" dataDxfId="37"/>
-    <tableColumn id="46" uniqueName="46" name="Stat" dataDxfId="36"/>
-    <tableColumn id="5" uniqueName="0" name="Level" dataDxfId="35"/>
-    <tableColumn id="10" uniqueName="HP" name="Health" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="0" name="Fraction" dataDxfId="55"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Stat" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="0" name="Level" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="HP" name="Health" dataDxfId="52">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Attack" name="Attack" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Attack" name="Attack" dataDxfId="51">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Defense" name="Defence" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Defense" name="Defence" dataDxfId="50">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="DamageMinimum" name="Damage min" dataDxfId="31">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="DamageMinimum" name="Damage min" dataDxfId="49">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="DamageMaximum" name="Damage max" dataDxfId="30">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="DamageMaximum" name="Damage max" dataDxfId="48">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="1" uniqueName="Speed" name="S" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Speed" name="S" dataDxfId="47">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Initiative" name="I" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Initiative" name="I" dataDxfId="46">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="52" uniqueName="Cost" name="Cena" dataDxfId="27">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="Cost" name="Cena" dataDxfId="45">
       <calculatedColumnFormula>INT(Tabela2[[#This Row],[Cena SIM]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="44" uniqueName="44" name="Sk" dataDxfId="26"/>
-    <tableColumn id="42" uniqueName="Skill1" name="Skill1" dataDxfId="25">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Sk" dataDxfId="44"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="Skill1" name="Skill1" dataDxfId="43">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="Skill2" name="Skill2" dataDxfId="24">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="Skill2" name="Skill2" dataDxfId="42">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="Skill3" name="Skill3" dataDxfId="23">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="Skill3" name="Skill3" dataDxfId="41">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="Skill4" name="Skill4" dataDxfId="22">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="Skill4" name="Skill4" dataDxfId="40">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="48" uniqueName="48" name="Wsk" dataDxfId="21"/>
-    <tableColumn id="29" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="20">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="Wsk" dataDxfId="39"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="38">
       <calculatedColumnFormula>AF9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" uniqueName="0" name="Toughnessness" dataDxfId="19">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="0" name="Toughnessness" dataDxfId="37">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" uniqueName="0" name="VWO" dataDxfId="18">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="0" name="VWO" dataDxfId="36">
       <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" uniqueName="0" name="VWO_R" dataDxfId="17">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="0" name="VWO_R" dataDxfId="35">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" uniqueName="0" name="VWD" dataDxfId="16">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="0" name="VWD" dataDxfId="34">
       <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" uniqueName="0" name="VWD_R" dataDxfId="15">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="0" name="VWD_R" dataDxfId="33">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" uniqueName="0" name="V_Off" dataDxfId="14">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="0" name="V_Off" dataDxfId="32">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" uniqueName="0" name="V_Def" dataDxfId="13">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="0" name="V_Def" dataDxfId="31">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" uniqueName="0" name="!ŚREDNIA" dataDxfId="12">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="0" name="!ŚREDNIA" dataDxfId="30">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="0" name="Odchyłka" dataDxfId="11">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="0" name="Odchyłka" dataDxfId="29">
       <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" uniqueName="0" name="Suma VW" dataDxfId="10">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="0" name="Suma VW" dataDxfId="28">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" uniqueName="0" name="Suma*Odchyłka" dataDxfId="9">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="0" name="Suma*Odchyłka" dataDxfId="27">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" uniqueName="0" name="V/HP" dataDxfId="8">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="0" name="V/HP" dataDxfId="26">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="70" uniqueName="70" name="Kolumna1" dataDxfId="7">
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Kolumna1" dataDxfId="25">
       <calculatedColumnFormula>15000/Tabela2[[#This Row],[V/HP]]/27.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="0" name="SIM" dataDxfId="6"/>
-    <tableColumn id="13" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="5"/>
-    <tableColumn id="31" uniqueName="0" name="AMT " dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="0" name="SIM" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="23"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="0" name="AMT " dataDxfId="22">
       <calculatedColumnFormula>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" uniqueName="53" name="Cena SIM" dataDxfId="3">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Cena SIM" dataDxfId="21">
       <calculatedColumnFormula>1000/Tabela2[[#This Row],[AMT ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" uniqueName="54" name="Ilość" dataDxfId="2">
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Ilość" dataDxfId="20">
       <calculatedColumnFormula>$AK$7/Tabela2[[#This Row],[Cena SIM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="72" uniqueName="72" name="Data" dataDxfId="1"/>
-    <tableColumn id="73" uniqueName="Sprite" name="Sprite" dataDxfId="0">
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Data" dataDxfId="19"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="Sprite" name="Sprite" dataDxfId="18">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4026,27 +4264,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="130" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="140" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="223" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="222" customWidth="1"/>
     <col min="4" max="6" width="7" style="130" customWidth="1"/>
     <col min="7" max="11" width="7" style="131" customWidth="1"/>
     <col min="12" max="12" width="7" style="132" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="205" customWidth="1"/>
-    <col min="14" max="17" width="10.42578125" style="132" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="224" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="204" customWidth="1"/>
+    <col min="14" max="17" width="10.42578125" style="132" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.42578125" style="223" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" style="155" customWidth="1"/>
     <col min="20" max="20" width="8.7109375" style="165" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" style="169" customWidth="1"/>
@@ -4058,23 +4296,23 @@
     <col min="33" max="33" width="9.5703125" style="188" customWidth="1"/>
     <col min="34" max="34" width="9.42578125" style="137" customWidth="1"/>
     <col min="35" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="7.28515625" style="251" customWidth="1"/>
+    <col min="38" max="38" width="7.28515625" style="247" customWidth="1"/>
     <col min="39" max="39" width="8.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" style="236" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" style="236" hidden="1" customWidth="1"/>
-    <col min="42" max="47" width="3.7109375" style="236" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="3.28515625" style="236" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="237" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="12.42578125" style="237" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="39" style="237" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="27.85546875" style="237" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="11" style="237" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" style="235" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14" style="235" hidden="1" customWidth="1"/>
+    <col min="42" max="47" width="3.7109375" style="235" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="3.28515625" style="235" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="236" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="12.42578125" style="236" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="39" style="236" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="27.85546875" style="236" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="11" style="236" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="141"/>
       <c r="B1" s="140"/>
-      <c r="C1" s="216"/>
+      <c r="C1" s="215"/>
       <c r="D1" s="142" t="s">
         <v>0</v>
       </c>
@@ -4086,12 +4324,12 @@
       <c r="J1" s="143"/>
       <c r="K1" s="143"/>
       <c r="L1" s="143"/>
-      <c r="M1" s="205"/>
+      <c r="M1" s="204"/>
       <c r="N1" s="143"/>
       <c r="O1" s="143"/>
       <c r="P1" s="143"/>
       <c r="Q1" s="143"/>
-      <c r="R1" s="224"/>
+      <c r="R1" s="223"/>
       <c r="U1" s="156" t="s">
         <v>225</v>
       </c>
@@ -4112,32 +4350,32 @@
       <c r="AH1" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="AJ1" s="196"/>
+      <c r="AJ1" s="195"/>
       <c r="AK1" s="141"/>
-      <c r="AL1" s="251"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236" t="s">
+      <c r="AL1" s="247"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
+      <c r="AS1" s="235" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="238" t="s">
+      <c r="AT1" s="235"/>
+      <c r="AU1" s="235"/>
+      <c r="AV1" s="235"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="237" t="s">
         <v>249</v>
       </c>
-      <c r="AZ1" s="239"/>
-      <c r="BA1" s="239"/>
+      <c r="AZ1" s="238"/>
+      <c r="BA1" s="238"/>
     </row>
     <row r="2" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="149"/>
       <c r="B2" s="140"/>
-      <c r="C2" s="217"/>
+      <c r="C2" s="216"/>
       <c r="D2" s="149"/>
       <c r="E2" s="149"/>
       <c r="F2" s="146"/>
@@ -4146,13 +4384,13 @@
       <c r="I2" s="146"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="225"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="224"/>
       <c r="T2" s="144" t="s">
         <v>234</v>
       </c>
@@ -4176,49 +4414,49 @@
       <c r="AI2" s="144" t="s">
         <v>266</v>
       </c>
-      <c r="AJ2" s="196"/>
+      <c r="AJ2" s="195"/>
       <c r="AK2" s="141"/>
-      <c r="AL2" s="251"/>
-      <c r="AN2" s="236"/>
-      <c r="AO2" s="236"/>
-      <c r="AP2" s="236"/>
-      <c r="AQ2" s="236"/>
-      <c r="AR2" s="236"/>
-      <c r="AS2" s="236" t="s">
+      <c r="AL2" s="247"/>
+      <c r="AN2" s="235"/>
+      <c r="AO2" s="235"/>
+      <c r="AP2" s="235"/>
+      <c r="AQ2" s="235"/>
+      <c r="AR2" s="235"/>
+      <c r="AS2" s="235" t="s">
         <v>197</v>
       </c>
-      <c r="AT2" s="236"/>
-      <c r="AU2" s="236"/>
-      <c r="AV2" s="236"/>
-      <c r="AW2" s="237"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="238"/>
-      <c r="AZ2" s="239"/>
-      <c r="BA2" s="239"/>
+      <c r="AT2" s="235"/>
+      <c r="AU2" s="235"/>
+      <c r="AV2" s="235"/>
+      <c r="AW2" s="236"/>
+      <c r="AX2" s="236"/>
+      <c r="AY2" s="237"/>
+      <c r="AZ2" s="238"/>
+      <c r="BA2" s="238"/>
     </row>
     <row r="3" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149"/>
       <c r="B3" s="140"/>
-      <c r="C3" s="217"/>
+      <c r="C3" s="216"/>
       <c r="D3" s="149"/>
       <c r="E3" s="149"/>
-      <c r="F3" s="259" t="s">
+      <c r="F3" s="277" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259" t="s">
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="259"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="225"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="224"/>
       <c r="U3" s="157"/>
       <c r="V3" s="156"/>
       <c r="W3" s="156" t="s">
@@ -4236,32 +4474,32 @@
       <c r="AE3" s="178"/>
       <c r="AF3" s="178"/>
       <c r="AG3" s="188"/>
-      <c r="AJ3" s="196" t="s">
+      <c r="AJ3" s="195" t="s">
         <v>269</v>
       </c>
       <c r="AK3" s="141"/>
-      <c r="AL3" s="251"/>
-      <c r="AN3" s="236"/>
-      <c r="AO3" s="236"/>
-      <c r="AP3" s="236"/>
-      <c r="AQ3" s="236"/>
-      <c r="AR3" s="236"/>
-      <c r="AS3" s="236"/>
-      <c r="AT3" s="236"/>
-      <c r="AU3" s="236"/>
-      <c r="AV3" s="236"/>
-      <c r="AW3" s="237"/>
-      <c r="AX3" s="237"/>
-      <c r="AY3" s="238" t="s">
+      <c r="AL3" s="247"/>
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="235"/>
+      <c r="AP3" s="235"/>
+      <c r="AQ3" s="235"/>
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="235"/>
+      <c r="AT3" s="235"/>
+      <c r="AU3" s="235"/>
+      <c r="AV3" s="235"/>
+      <c r="AW3" s="236"/>
+      <c r="AX3" s="236"/>
+      <c r="AY3" s="237" t="s">
         <v>250</v>
       </c>
-      <c r="AZ3" s="239"/>
-      <c r="BA3" s="239"/>
+      <c r="AZ3" s="238"/>
+      <c r="BA3" s="238"/>
     </row>
     <row r="4" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="149"/>
       <c r="B4" s="140"/>
-      <c r="C4" s="217" t="s">
+      <c r="C4" s="216" t="s">
         <v>256</v>
       </c>
       <c r="D4" s="149"/>
@@ -4277,14 +4515,14 @@
       </c>
       <c r="K4" s="151"/>
       <c r="L4" s="151"/>
-      <c r="M4" s="215" t="s">
+      <c r="M4" s="214" t="s">
         <v>260</v>
       </c>
       <c r="N4" s="151"/>
       <c r="O4" s="151"/>
       <c r="P4" s="151"/>
       <c r="Q4" s="151"/>
-      <c r="R4" s="246" t="s">
+      <c r="R4" s="245" t="s">
         <v>257</v>
       </c>
       <c r="U4" s="156"/>
@@ -4303,39 +4541,39 @@
       </c>
       <c r="AE4" s="141"/>
       <c r="AF4" s="141"/>
-      <c r="AG4" s="250" t="s">
+      <c r="AG4" s="246" t="s">
         <v>264</v>
       </c>
-      <c r="AJ4" s="196"/>
+      <c r="AJ4" s="195"/>
       <c r="AK4" s="141" t="s">
         <v>270</v>
       </c>
-      <c r="AL4" s="252" t="s">
+      <c r="AL4" s="248" t="s">
         <v>274</v>
       </c>
-      <c r="AN4" s="256" t="s">
+      <c r="AN4" s="252" t="s">
         <v>271</v>
       </c>
-      <c r="AO4" s="236"/>
-      <c r="AP4" s="236"/>
-      <c r="AQ4" s="236"/>
-      <c r="AR4" s="236"/>
-      <c r="AS4" s="236"/>
-      <c r="AT4" s="236"/>
-      <c r="AU4" s="236"/>
-      <c r="AV4" s="236"/>
-      <c r="AW4" s="237"/>
-      <c r="AX4" s="237"/>
-      <c r="AY4" s="238"/>
-      <c r="AZ4" s="239" t="s">
+      <c r="AO4" s="235"/>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="235"/>
+      <c r="AT4" s="235"/>
+      <c r="AU4" s="235"/>
+      <c r="AV4" s="235"/>
+      <c r="AW4" s="236"/>
+      <c r="AX4" s="236"/>
+      <c r="AY4" s="237"/>
+      <c r="AZ4" s="238" t="s">
         <v>248</v>
       </c>
-      <c r="BA4" s="239"/>
+      <c r="BA4" s="238"/>
     </row>
     <row r="5" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="151"/>
       <c r="B5" s="140"/>
-      <c r="C5" s="218"/>
+      <c r="C5" s="217"/>
       <c r="D5" s="151"/>
       <c r="E5" s="151"/>
       <c r="F5" s="151"/>
@@ -4345,12 +4583,12 @@
       <c r="J5" s="151"/>
       <c r="K5" s="151"/>
       <c r="L5" s="151"/>
-      <c r="M5" s="207"/>
+      <c r="M5" s="206"/>
       <c r="N5" s="151"/>
       <c r="O5" s="151"/>
       <c r="P5" s="151"/>
       <c r="Q5" s="151"/>
-      <c r="R5" s="226"/>
+      <c r="R5" s="225"/>
       <c r="U5" s="156"/>
       <c r="V5" s="156"/>
       <c r="W5" s="156"/>
@@ -4368,28 +4606,28 @@
       </c>
       <c r="AF5" s="178"/>
       <c r="AG5" s="188"/>
-      <c r="AJ5" s="196"/>
+      <c r="AJ5" s="195"/>
       <c r="AK5" s="141"/>
-      <c r="AL5" s="251"/>
-      <c r="AN5" s="236"/>
-      <c r="AO5" s="236"/>
-      <c r="AP5" s="236"/>
-      <c r="AQ5" s="236"/>
-      <c r="AR5" s="236"/>
-      <c r="AS5" s="236"/>
-      <c r="AT5" s="236"/>
-      <c r="AU5" s="236"/>
-      <c r="AV5" s="236"/>
-      <c r="AW5" s="237"/>
-      <c r="AX5" s="237"/>
-      <c r="AY5" s="238"/>
-      <c r="AZ5" s="239"/>
-      <c r="BA5" s="239"/>
+      <c r="AL5" s="247"/>
+      <c r="AN5" s="235"/>
+      <c r="AO5" s="235"/>
+      <c r="AP5" s="235"/>
+      <c r="AQ5" s="235"/>
+      <c r="AR5" s="235"/>
+      <c r="AS5" s="235"/>
+      <c r="AT5" s="235"/>
+      <c r="AU5" s="235"/>
+      <c r="AV5" s="235"/>
+      <c r="AW5" s="236"/>
+      <c r="AX5" s="236"/>
+      <c r="AY5" s="237"/>
+      <c r="AZ5" s="238"/>
+      <c r="BA5" s="238"/>
     </row>
     <row r="6" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="151"/>
       <c r="B6" s="140"/>
-      <c r="C6" s="218"/>
+      <c r="C6" s="217"/>
       <c r="D6" s="151"/>
       <c r="E6" s="151"/>
       <c r="F6" s="151"/>
@@ -4399,12 +4637,12 @@
       <c r="J6" s="151"/>
       <c r="K6" s="151"/>
       <c r="L6" s="151"/>
-      <c r="M6" s="207"/>
+      <c r="M6" s="206"/>
       <c r="N6" s="151"/>
       <c r="O6" s="151"/>
       <c r="P6" s="151"/>
       <c r="Q6" s="151"/>
-      <c r="R6" s="226"/>
+      <c r="R6" s="225"/>
       <c r="U6" s="156"/>
       <c r="V6" s="156"/>
       <c r="W6" s="156"/>
@@ -4422,58 +4660,58 @@
         <v>272</v>
       </c>
       <c r="AG6" s="188"/>
-      <c r="AJ6" s="196"/>
+      <c r="AJ6" s="195"/>
       <c r="AK6" s="141"/>
-      <c r="AL6" s="251"/>
-      <c r="AN6" s="236"/>
-      <c r="AO6" s="236"/>
-      <c r="AP6" s="236"/>
-      <c r="AQ6" s="236"/>
-      <c r="AR6" s="236"/>
-      <c r="AS6" s="236"/>
-      <c r="AT6" s="236"/>
-      <c r="AU6" s="236"/>
-      <c r="AV6" s="236"/>
-      <c r="AW6" s="237"/>
-      <c r="AX6" s="237"/>
-      <c r="AY6" s="238"/>
-      <c r="AZ6" s="239"/>
-      <c r="BA6" s="239" t="s">
+      <c r="AL6" s="247"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="235"/>
+      <c r="AP6" s="235"/>
+      <c r="AQ6" s="235"/>
+      <c r="AR6" s="235"/>
+      <c r="AS6" s="235"/>
+      <c r="AT6" s="235"/>
+      <c r="AU6" s="235"/>
+      <c r="AV6" s="235"/>
+      <c r="AW6" s="236"/>
+      <c r="AX6" s="236"/>
+      <c r="AY6" s="237"/>
+      <c r="AZ6" s="238"/>
+      <c r="BA6" s="238" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:53" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="151"/>
       <c r="B7" s="140"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="217"/>
+      <c r="D7" s="213" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="214">
+      <c r="E7" s="213">
         <f>MAX(Tabela2[Attack])</f>
         <v>50</v>
       </c>
-      <c r="F7" s="214">
+      <c r="F7" s="213">
         <f>MAX(Tabela2[Defence])</f>
         <v>50</v>
       </c>
-      <c r="G7" s="214">
+      <c r="G7" s="213">
         <f>MAX(Tabela2[Damage min])</f>
         <v>50</v>
       </c>
-      <c r="H7" s="214">
+      <c r="H7" s="213">
         <f>MAX(Tabela2[Damage max])</f>
         <v>50</v>
       </c>
-      <c r="I7" s="214">
+      <c r="I7" s="213">
         <f>MAX(Tabela2[Health])</f>
-        <v>172</v>
-      </c>
-      <c r="J7" s="214">
+        <v>200</v>
+      </c>
+      <c r="J7" s="213">
         <f>MAX(Tabela2[Attack])</f>
         <v>50</v>
       </c>
-      <c r="K7" s="214">
+      <c r="K7" s="213">
         <f>MAX(Tabela2[Defence])</f>
         <v>50</v>
       </c>
@@ -4481,44 +4719,44 @@
         <f>MAX(Tabela2[Damage min])</f>
         <v>50</v>
       </c>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="208"/>
-      <c r="Q7" s="208"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="226"/>
-      <c r="T7" s="226"/>
-      <c r="U7" s="226">
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="226"/>
+      <c r="S7" s="225"/>
+      <c r="T7" s="225"/>
+      <c r="U7" s="225">
         <f>MAX(Tabela2[VWO])</f>
         <v>148</v>
       </c>
-      <c r="V7" s="226">
+      <c r="V7" s="225">
         <f>MAX(Tabela2[VWD])</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="W7" s="226" t="e">
+      <c r="W7" s="225" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="X7" s="226" t="e">
+      <c r="X7" s="225" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y7" s="226" t="e">
+      <c r="Y7" s="225" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z7" s="226" t="e">
+      <c r="Z7" s="225" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA7" s="226"/>
-      <c r="AB7" s="226"/>
-      <c r="AC7" s="226"/>
-      <c r="AD7" s="226"/>
-      <c r="AE7" s="226"/>
-      <c r="AF7" s="226"/>
+      <c r="AA7" s="225"/>
+      <c r="AB7" s="225"/>
+      <c r="AC7" s="225"/>
+      <c r="AD7" s="225"/>
+      <c r="AE7" s="225"/>
+      <c r="AF7" s="225"/>
       <c r="AG7" s="188"/>
       <c r="AH7" s="188">
         <v>387</v>
@@ -4528,42 +4766,42 @@
       <c r="AK7" s="188">
         <v>10000</v>
       </c>
-      <c r="AL7" s="251"/>
-      <c r="AN7" s="236"/>
-      <c r="AO7" s="236" t="e">
+      <c r="AL7" s="247"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AP7" s="236" t="e">
+      <c r="AP7" s="235">
         <f>MAX(Tabela2[VWO_R])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ7" s="236" t="e">
+        <v>148</v>
+      </c>
+      <c r="AQ7" s="235">
         <f>MAX(Tabela2[VWD_R])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR7" s="236" t="e">
+        <v>547.77070063694282</v>
+      </c>
+      <c r="AR7" s="235">
         <f>MAX(Tabela2[V_Off])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS7" s="236" t="e">
+        <v>547.77070063694282</v>
+      </c>
+      <c r="AS7" s="235">
         <f>MAX(Tabela2[V_Def])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT7" s="236"/>
-      <c r="AU7" s="236">
+        <v>9426.7515923566898</v>
+      </c>
+      <c r="AT7" s="235"/>
+      <c r="AU7" s="235">
         <v>5000</v>
       </c>
-      <c r="AV7" s="236"/>
-      <c r="AW7" s="237"/>
-      <c r="AX7" s="237"/>
-      <c r="AY7" s="238">
+      <c r="AV7" s="235"/>
+      <c r="AW7" s="236"/>
+      <c r="AX7" s="236"/>
+      <c r="AY7" s="237">
         <v>136</v>
       </c>
-      <c r="AZ7" s="239">
+      <c r="AZ7" s="238">
         <v>34550</v>
       </c>
-      <c r="BA7" s="237"/>
+      <c r="BA7" s="236"/>
     </row>
     <row r="8" spans="1:53" s="139" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="139" t="s">
@@ -4572,7 +4810,7 @@
       <c r="B8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="218" t="s">
         <v>263</v>
       </c>
       <c r="D8" s="139" t="s">
@@ -4602,7 +4840,7 @@
       <c r="L8" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="209" t="s">
+      <c r="M8" s="208" t="s">
         <v>259</v>
       </c>
       <c r="N8" s="139" t="s">
@@ -4617,7 +4855,7 @@
       <c r="Q8" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="R8" s="228" t="s">
+      <c r="R8" s="227" t="s">
         <v>258</v>
       </c>
       <c r="S8" s="189" t="s">
@@ -4677,63 +4915,63 @@
       <c r="AK8" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="AL8" s="253" t="s">
+      <c r="AL8" s="249" t="s">
         <v>274</v>
       </c>
       <c r="AM8" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="AN8" s="236" t="s">
+      <c r="AN8" s="235" t="s">
         <v>261</v>
       </c>
-      <c r="AO8" s="236" t="s">
+      <c r="AO8" s="235" t="s">
         <v>233</v>
       </c>
-      <c r="AP8" s="236" t="s">
+      <c r="AP8" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="AQ8" s="236" t="s">
+      <c r="AQ8" s="235" t="s">
         <v>227</v>
       </c>
-      <c r="AR8" s="236" t="s">
+      <c r="AR8" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="AS8" s="236" t="s">
+      <c r="AS8" s="235" t="s">
         <v>215</v>
       </c>
-      <c r="AT8" s="236" t="s">
+      <c r="AT8" s="235" t="s">
         <v>213</v>
       </c>
-      <c r="AU8" s="236" t="s">
+      <c r="AU8" s="235" t="s">
         <v>216</v>
       </c>
-      <c r="AV8" s="236" t="s">
+      <c r="AV8" s="235" t="s">
         <v>217</v>
       </c>
-      <c r="AW8" s="240" t="s">
+      <c r="AW8" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="AX8" s="240" t="s">
+      <c r="AX8" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="AY8" s="241" t="s">
+      <c r="AY8" s="240" t="s">
         <v>251</v>
       </c>
-      <c r="AZ8" s="241" t="s">
+      <c r="AZ8" s="240" t="s">
         <v>253</v>
       </c>
-      <c r="BA8" s="241" t="s">
+      <c r="BA8" s="240" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:53" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="198" t="s">
         <v>245</v>
       </c>
       <c r="B9" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="220"/>
+      <c r="C9" s="219"/>
       <c r="E9" s="133">
         <v>172</v>
       </c>
@@ -4759,18 +4997,18 @@
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>1000</v>
       </c>
-      <c r="M9" s="211"/>
-      <c r="N9" s="199" t="s">
+      <c r="M9" s="210"/>
+      <c r="N9" s="198" t="s">
         <v>275</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O9" s="198" t="s">
         <v>276</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="P9" s="198" t="s">
         <v>277</v>
       </c>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="229"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="228"/>
       <c r="S9" s="190">
         <f>AF9*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>1.3563745055921186</v>
@@ -4827,7 +5065,7 @@
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>0.99951877828583047</v>
       </c>
-      <c r="AG9" s="234"/>
+      <c r="AG9" s="233"/>
       <c r="AH9" s="133">
         <v>136</v>
       </c>
@@ -4843,70 +5081,70 @@
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>10</v>
       </c>
-      <c r="AL9" s="254"/>
-      <c r="AM9" s="213" t="s">
+      <c r="AL9" s="250"/>
+      <c r="AM9" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="AN9" s="236"/>
-      <c r="AO9" s="236" t="e">
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP9" s="236">
+        <v>7.3740834544053113E-2</v>
+      </c>
+      <c r="AP9" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AQ9" s="236">
+      <c r="AQ9" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AR9" s="236">
+      <c r="AR9" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>3.44</v>
       </c>
-      <c r="AS9" s="236">
+      <c r="AS9" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.29069767441860467</v>
       </c>
-      <c r="AT9" s="236">
+      <c r="AT9" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>284</v>
       </c>
-      <c r="AU9" s="236">
+      <c r="AU9" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7011533826820462</v>
       </c>
-      <c r="AV9" s="236" t="e">
+      <c r="AV9" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW9" s="242" t="e">
+      <c r="AW9" s="241" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX9" s="242" t="e">
+      <c r="AX9" s="241" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY9" s="242">
+      <c r="AY9" s="241">
         <v>136</v>
       </c>
-      <c r="AZ9" s="242">
+      <c r="AZ9" s="241">
         <v>136</v>
       </c>
-      <c r="BA9" s="242" t="e">
+      <c r="BA9" s="241" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:53" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="199" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="221"/>
+      <c r="C10" s="220"/>
       <c r="E10" s="138">
         <v>1</v>
       </c>
@@ -4932,14 +5170,14 @@
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>4</v>
       </c>
-      <c r="M10" s="212"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200" t="s">
+      <c r="M10" s="211"/>
+      <c r="N10" s="199"/>
+      <c r="O10" s="199"/>
+      <c r="P10" s="199" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="230"/>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="229"/>
       <c r="S10" s="191">
         <f>AF10*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>471.86282004095767</v>
@@ -4996,7 +5234,7 @@
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>347.71794033385669</v>
       </c>
-      <c r="AG10" s="235"/>
+      <c r="AG10" s="234"/>
       <c r="AH10" s="138">
         <v>33308</v>
       </c>
@@ -5012,70 +5250,70 @@
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>2449.1176470588234</v>
       </c>
-      <c r="AL10" s="255"/>
-      <c r="AM10" s="200" t="s">
+      <c r="AL10" s="251"/>
+      <c r="AM10" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="AN10" s="236"/>
-      <c r="AO10" s="236" t="e">
+      <c r="AN10" s="235"/>
+      <c r="AO10" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="236">
+        <v>7.3740834544053113E-2</v>
+      </c>
+      <c r="AP10" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1.8255813953488367</v>
       </c>
-      <c r="AQ10" s="236">
+      <c r="AQ10" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>6.756756756756757</v>
       </c>
-      <c r="AR10" s="236">
+      <c r="AR10" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>547.77070063694271</v>
       </c>
-      <c r="AS10" s="236">
+      <c r="AS10" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>148</v>
       </c>
-      <c r="AT10" s="236">
+      <c r="AT10" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>1</v>
       </c>
-      <c r="AU10" s="236">
+      <c r="AU10" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="AV10" s="236" t="e">
+      <c r="AV10" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW10" s="243" t="e">
+      <c r="AW10" s="242" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX10" s="243" t="e">
+      <c r="AX10" s="242" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY10" s="242">
+      <c r="AY10" s="241">
         <v>34550</v>
       </c>
-      <c r="AZ10" s="242">
+      <c r="AZ10" s="241">
         <v>34550</v>
       </c>
-      <c r="BA10" s="242" t="e">
+      <c r="BA10" s="241" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="200" t="s">
         <v>205</v>
       </c>
       <c r="B11" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="222"/>
+      <c r="C11" s="221"/>
       <c r="D11" s="134" t="s">
         <v>19</v>
       </c>
@@ -5100,20 +5338,20 @@
       <c r="K11" s="134">
         <v>4</v>
       </c>
-      <c r="L11" s="198">
+      <c r="L11" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>14</v>
       </c>
-      <c r="M11" s="205"/>
-      <c r="N11" s="204" t="s">
-        <v>289</v>
-      </c>
-      <c r="O11" s="204" t="s">
-        <v>290</v>
-      </c>
-      <c r="P11" s="204"/>
-      <c r="Q11" s="204"/>
-      <c r="R11" s="231"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="203" t="s">
+        <v>303</v>
+      </c>
+      <c r="O11" s="203" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="230"/>
       <c r="S11" s="192">
         <f>AF11*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>98.287900968586257</v>
@@ -5174,82 +5412,82 @@
       <c r="AH11" s="135">
         <v>9080</v>
       </c>
-      <c r="AI11" s="197">
+      <c r="AI11" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>66.764705882352942</v>
       </c>
-      <c r="AJ11" s="197">
+      <c r="AJ11" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>14.977973568281937</v>
       </c>
-      <c r="AK11" s="197">
+      <c r="AK11" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>667.64705882352951</v>
       </c>
-      <c r="AL11" s="251"/>
-      <c r="AM11" s="257" t="s">
+      <c r="AL11" s="247"/>
+      <c r="AM11" s="253" t="s">
         <v>283</v>
       </c>
-      <c r="AN11" s="236"/>
-      <c r="AO11" s="236" t="e">
+      <c r="AN11" s="235"/>
+      <c r="AO11" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP11" s="236">
+        <v>6.6415119926116789E-2</v>
+      </c>
+      <c r="AP11" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>13.147191118767342</v>
       </c>
-      <c r="AQ11" s="236">
+      <c r="AQ11" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>16.216216216216214</v>
       </c>
-      <c r="AR11" s="236">
+      <c r="AR11" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>223.95833333333334</v>
       </c>
-      <c r="AS11" s="236">
+      <c r="AS11" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>20.571428571428573</v>
       </c>
-      <c r="AT11" s="236">
+      <c r="AT11" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>4</v>
       </c>
-      <c r="AU11" s="236">
+      <c r="AU11" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.0006858710562416</v>
       </c>
-      <c r="AV11" s="236" t="e">
+      <c r="AV11" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW11" s="244" t="e">
+      <c r="AW11" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX11" s="244" t="e">
+      <c r="AX11" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY11" s="242">
+      <c r="AY11" s="241">
         <v>9030</v>
       </c>
-      <c r="AZ11" s="242">
+      <c r="AZ11" s="241">
         <v>7472</v>
       </c>
-      <c r="BA11" s="245" t="e">
+      <c r="BA11" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="201" t="s">
+      <c r="A12" s="200" t="s">
         <v>206</v>
       </c>
       <c r="B12" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="223"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="134" t="s">
         <v>198</v>
       </c>
@@ -5269,21 +5507,27 @@
         <v>4</v>
       </c>
       <c r="J12" s="134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12" s="134">
-        <v>5</v>
-      </c>
-      <c r="L12" s="198">
+        <v>6</v>
+      </c>
+      <c r="L12" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>30</v>
       </c>
-      <c r="M12" s="205"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="231"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="203" t="s">
+        <v>305</v>
+      </c>
+      <c r="O12" s="203" t="s">
+        <v>306</v>
+      </c>
+      <c r="P12" s="203" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="230"/>
       <c r="S12" s="192">
         <f>AF12*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>47.016789380649485</v>
@@ -5344,82 +5588,82 @@
       <c r="AH12" s="135">
         <v>4397</v>
       </c>
-      <c r="AI12" s="197">
+      <c r="AI12" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>32.330882352941174</v>
       </c>
-      <c r="AJ12" s="197">
+      <c r="AJ12" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>30.930179667955425</v>
       </c>
-      <c r="AK12" s="197">
+      <c r="AK12" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>323.30882352941177</v>
       </c>
-      <c r="AL12" s="251"/>
-      <c r="AM12" s="257" t="s">
+      <c r="AL12" s="247"/>
+      <c r="AM12" s="253" t="s">
         <v>282</v>
       </c>
-      <c r="AN12" s="236"/>
-      <c r="AO12" s="236" t="e">
+      <c r="AN12" s="235"/>
+      <c r="AO12" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP12" s="236">
+        <v>6.9624331659000518E-2</v>
+      </c>
+      <c r="AP12" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>28.172552397358597</v>
       </c>
-      <c r="AQ12" s="236">
+      <c r="AQ12" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>31.351351351351351</v>
       </c>
-      <c r="AR12" s="236">
+      <c r="AR12" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>116.21621621621622</v>
       </c>
-      <c r="AS12" s="236">
+      <c r="AS12" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>9.6</v>
       </c>
-      <c r="AT12" s="236">
+      <c r="AT12" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>8</v>
       </c>
-      <c r="AU12" s="236">
+      <c r="AU12" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.3258833546189872</v>
       </c>
-      <c r="AV12" s="236" t="e">
+      <c r="AV12" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW12" s="244" t="e">
+      <c r="AW12" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX12" s="244" t="e">
+      <c r="AX12" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY12" s="242">
+      <c r="AY12" s="241">
         <v>4421</v>
       </c>
-      <c r="AZ12" s="242">
+      <c r="AZ12" s="241">
         <v>3619</v>
       </c>
-      <c r="BA12" s="245" t="e">
+      <c r="BA12" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="200" t="s">
         <v>207</v>
       </c>
       <c r="B13" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="222"/>
+      <c r="C13" s="221"/>
       <c r="D13" s="134" t="s">
         <v>199</v>
       </c>
@@ -5439,21 +5683,27 @@
         <v>10</v>
       </c>
       <c r="J13" s="134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="134">
         <v>5</v>
       </c>
-      <c r="L13" s="198">
+      <c r="L13" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>105</v>
       </c>
-      <c r="M13" s="205"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="231"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="203" t="s">
+        <v>308</v>
+      </c>
+      <c r="O13" s="203" t="s">
+        <v>309</v>
+      </c>
+      <c r="P13" s="203" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="230"/>
       <c r="S13" s="192">
         <f>AF13*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.798095913814292</v>
@@ -5514,82 +5764,82 @@
       <c r="AH13" s="135">
         <v>1291</v>
       </c>
-      <c r="AI13" s="197">
+      <c r="AI13" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>9.492647058823529</v>
       </c>
-      <c r="AJ13" s="197">
+      <c r="AJ13" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>105.34469403563129</v>
       </c>
-      <c r="AK13" s="197">
+      <c r="AK13" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>94.92647058823529</v>
       </c>
-      <c r="AL13" s="251"/>
-      <c r="AM13" s="257" t="s">
+      <c r="AL13" s="247"/>
+      <c r="AM13" s="253" t="s">
         <v>281</v>
       </c>
-      <c r="AN13" s="236"/>
-      <c r="AO13" s="236" t="e">
+      <c r="AN13" s="235"/>
+      <c r="AO13" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP13" s="236">
+        <v>7.4036248707867958E-2</v>
+      </c>
+      <c r="AP13" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>106.13845321795563</v>
       </c>
-      <c r="AQ13" s="236">
+      <c r="AQ13" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>105.40540540540543</v>
       </c>
-      <c r="AR13" s="236">
+      <c r="AR13" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>33.725490196078432</v>
       </c>
-      <c r="AS13" s="236">
+      <c r="AS13" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.56</v>
       </c>
-      <c r="AT13" s="236">
+      <c r="AT13" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>30</v>
       </c>
-      <c r="AU13" s="236">
+      <c r="AU13" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7268932617769828</v>
       </c>
-      <c r="AV13" s="236" t="e">
+      <c r="AV13" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW13" s="244" t="e">
+      <c r="AW13" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX13" s="244" t="e">
+      <c r="AX13" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY13" s="242">
+      <c r="AY13" s="241">
         <v>1237</v>
       </c>
-      <c r="AZ13" s="242">
+      <c r="AZ13" s="241">
         <v>1035</v>
       </c>
-      <c r="BA13" s="245" t="e">
+      <c r="BA13" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="200" t="s">
         <v>255</v>
       </c>
       <c r="B14" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="223"/>
+      <c r="C14" s="222"/>
       <c r="D14" s="134" t="s">
         <v>200</v>
       </c>
@@ -5609,21 +5859,27 @@
         <v>24</v>
       </c>
       <c r="J14" s="134">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14" s="134">
-        <v>5</v>
-      </c>
-      <c r="L14" s="198">
+        <v>4</v>
+      </c>
+      <c r="L14" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>335</v>
       </c>
-      <c r="M14" s="205"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="231"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="203" t="s">
+        <v>311</v>
+      </c>
+      <c r="O14" s="203" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="203" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="230"/>
       <c r="S14" s="192">
         <f>AF14*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>4.0983748493313668</v>
@@ -5684,82 +5940,82 @@
       <c r="AH14" s="135">
         <v>405</v>
       </c>
-      <c r="AI14" s="197">
+      <c r="AI14" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>2.9779411764705883</v>
       </c>
-      <c r="AJ14" s="197">
+      <c r="AJ14" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>335.80246913580248</v>
       </c>
-      <c r="AK14" s="197">
+      <c r="AK14" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>29.77941176470588</v>
       </c>
-      <c r="AL14" s="251"/>
-      <c r="AM14" s="257" t="s">
+      <c r="AL14" s="247"/>
+      <c r="AM14" s="253" t="s">
         <v>284</v>
       </c>
-      <c r="AN14" s="236"/>
-      <c r="AO14" s="236" t="e">
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="236">
+        <v>7.2737942859533986E-2</v>
+      </c>
+      <c r="AP14" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>329.24042577808621</v>
       </c>
-      <c r="AQ14" s="236">
+      <c r="AQ14" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>337.29729729729729</v>
       </c>
-      <c r="AR14" s="236">
+      <c r="AR14" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>10.356454720616572</v>
       </c>
-      <c r="AS14" s="236">
+      <c r="AS14" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.82758620689655182</v>
       </c>
-      <c r="AT14" s="236">
+      <c r="AT14" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>94</v>
       </c>
-      <c r="AU14" s="236">
+      <c r="AU14" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.6127455670366113</v>
       </c>
-      <c r="AV14" s="236" t="e">
+      <c r="AV14" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW14" s="244" t="e">
+      <c r="AW14" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX14" s="244" t="e">
+      <c r="AX14" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY14" s="242">
+      <c r="AY14" s="241">
         <v>385</v>
       </c>
-      <c r="AZ14" s="242">
+      <c r="AZ14" s="241">
         <v>326</v>
       </c>
-      <c r="BA14" s="245" t="e">
+      <c r="BA14" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="200" t="s">
         <v>204</v>
       </c>
       <c r="B15" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="222"/>
+      <c r="C15" s="221"/>
       <c r="D15" s="134" t="s">
         <v>19</v>
       </c>
@@ -5779,21 +6035,27 @@
         <v>2</v>
       </c>
       <c r="J15" s="134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" s="134">
-        <v>5</v>
-      </c>
-      <c r="L15" s="198">
+        <v>7</v>
+      </c>
+      <c r="L15" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>15</v>
       </c>
-      <c r="M15" s="205"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="231"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="203" t="s">
+        <v>305</v>
+      </c>
+      <c r="O15" s="203" t="s">
+        <v>314</v>
+      </c>
+      <c r="P15" s="203" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="230"/>
       <c r="S15" s="192">
         <f>AF15*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>89.786872864641239</v>
@@ -5851,85 +6113,85 @@
         <v>67.885150713591585</v>
       </c>
       <c r="AG15" s="188"/>
-      <c r="AH15" s="197">
+      <c r="AH15" s="196">
         <v>8610</v>
       </c>
-      <c r="AI15" s="197">
+      <c r="AI15" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>63.308823529411768</v>
       </c>
-      <c r="AJ15" s="197">
+      <c r="AJ15" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>15.795586527293844</v>
       </c>
-      <c r="AK15" s="197">
+      <c r="AK15" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>633.08823529411768</v>
       </c>
-      <c r="AL15" s="251"/>
-      <c r="AM15" s="257" t="s">
+      <c r="AL15" s="247"/>
+      <c r="AM15" s="253" t="s">
         <v>286</v>
       </c>
-      <c r="AN15" s="236"/>
-      <c r="AO15" s="236" t="e">
+      <c r="AN15" s="235"/>
+      <c r="AO15" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP15" s="236">
+        <v>7.5658660707249886E-2</v>
+      </c>
+      <c r="AP15" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>15.244938583288828</v>
       </c>
-      <c r="AQ15" s="236">
+      <c r="AQ15" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>14.594594594594593</v>
       </c>
-      <c r="AR15" s="236">
+      <c r="AR15" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>251.46198830409358</v>
       </c>
-      <c r="AS15" s="236">
+      <c r="AS15" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>17.75</v>
       </c>
-      <c r="AT15" s="236">
+      <c r="AT15" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>4</v>
       </c>
-      <c r="AU15" s="236">
+      <c r="AU15" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8660790226552231</v>
       </c>
-      <c r="AV15" s="236" t="e">
+      <c r="AV15" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW15" s="244" t="e">
+      <c r="AW15" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX15" s="244" t="e">
+      <c r="AX15" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY15" s="242">
+      <c r="AY15" s="241">
         <v>8939</v>
       </c>
-      <c r="AZ15" s="242">
+      <c r="AZ15" s="241">
         <v>7332</v>
       </c>
-      <c r="BA15" s="245" t="e">
+      <c r="BA15" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201" t="s">
+      <c r="A16" s="200" t="s">
         <v>203</v>
       </c>
       <c r="B16" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="223"/>
+      <c r="C16" s="222"/>
       <c r="D16" s="134" t="s">
         <v>198</v>
       </c>
@@ -5954,16 +6216,22 @@
       <c r="K16" s="134">
         <v>5</v>
       </c>
-      <c r="L16" s="198">
+      <c r="L16" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>31</v>
       </c>
-      <c r="M16" s="205"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="204"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="231"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="203" t="s">
+        <v>316</v>
+      </c>
+      <c r="O16" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="P16" s="203" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="230"/>
       <c r="S16" s="192">
         <f>AF16*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>37.818519196630078</v>
@@ -6024,82 +6292,82 @@
       <c r="AH16" s="135">
         <v>4359</v>
       </c>
-      <c r="AI16" s="197">
+      <c r="AI16" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>32.051470588235297</v>
       </c>
-      <c r="AJ16" s="197">
+      <c r="AJ16" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>31.199816471667813</v>
       </c>
-      <c r="AK16" s="197">
+      <c r="AK16" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>320.51470588235293</v>
       </c>
-      <c r="AL16" s="251"/>
-      <c r="AM16" s="257" t="s">
+      <c r="AL16" s="247"/>
+      <c r="AM16" s="253" t="s">
         <v>285</v>
       </c>
-      <c r="AN16" s="236"/>
-      <c r="AO16" s="236" t="e">
+      <c r="AN16" s="235"/>
+      <c r="AO16" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP16" s="236">
+        <v>0.11806582041597809</v>
+      </c>
+      <c r="AP16" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>39.859855793642723</v>
       </c>
-      <c r="AQ16" s="236">
+      <c r="AQ16" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>21.081081081081084</v>
       </c>
-      <c r="AR16" s="236">
+      <c r="AR16" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>174.79674796747972</v>
       </c>
-      <c r="AS16" s="236">
+      <c r="AS16" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>6.8</v>
       </c>
-      <c r="AT16" s="236">
+      <c r="AT16" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>8</v>
       </c>
-      <c r="AU16" s="236">
+      <c r="AU16" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>6.9980965177471726</v>
       </c>
-      <c r="AV16" s="236" t="e">
+      <c r="AV16" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW16" s="244" t="e">
+      <c r="AW16" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX16" s="244" t="e">
+      <c r="AX16" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY16" s="242">
+      <c r="AY16" s="241">
         <v>4676</v>
       </c>
-      <c r="AZ16" s="242">
+      <c r="AZ16" s="241">
         <v>3982</v>
       </c>
-      <c r="BA16" s="245" t="e">
+      <c r="BA16" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="200" t="s">
         <v>202</v>
       </c>
       <c r="B17" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="222"/>
+      <c r="C17" s="221"/>
       <c r="D17" s="134" t="s">
         <v>200</v>
       </c>
@@ -6119,21 +6387,25 @@
         <v>7</v>
       </c>
       <c r="J17" s="134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="134">
-        <v>5</v>
-      </c>
-      <c r="L17" s="198">
+        <v>8</v>
+      </c>
+      <c r="L17" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>72</v>
       </c>
-      <c r="M17" s="205"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="204"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="231"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="203" t="s">
+        <v>319</v>
+      </c>
+      <c r="O17" s="203" t="s">
+        <v>320</v>
+      </c>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="230"/>
       <c r="S17" s="192">
         <f>AF17*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>16.618663282514987</v>
@@ -6194,82 +6466,82 @@
       <c r="AH17" s="135">
         <v>1865</v>
       </c>
-      <c r="AI17" s="197">
+      <c r="AI17" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>13.713235294117647</v>
       </c>
-      <c r="AJ17" s="197">
+      <c r="AJ17" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>72.922252010723867</v>
       </c>
-      <c r="AK17" s="197">
+      <c r="AK17" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>137.13235294117646</v>
       </c>
-      <c r="AL17" s="251"/>
-      <c r="AM17" s="257" t="s">
+      <c r="AL17" s="247"/>
+      <c r="AM17" s="253" t="s">
         <v>287</v>
       </c>
-      <c r="AN17" s="236"/>
-      <c r="AO17" s="236" t="e">
+      <c r="AN17" s="235"/>
+      <c r="AO17" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP17" s="236">
+        <v>0.10043373016541332</v>
+      </c>
+      <c r="AP17" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>88.334583645911451</v>
       </c>
-      <c r="AQ17" s="236">
+      <c r="AQ17" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>56.756756756756758</v>
       </c>
-      <c r="AR17" s="236">
+      <c r="AR17" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>63.988095238095241</v>
       </c>
-      <c r="AS17" s="236">
+      <c r="AS17" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.0666666666666669</v>
       </c>
-      <c r="AT17" s="236">
+      <c r="AT17" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>20</v>
       </c>
-      <c r="AU17" s="236">
+      <c r="AU17" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>5.7603686635944698</v>
       </c>
-      <c r="AV17" s="236" t="e">
+      <c r="AV17" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW17" s="244" t="e">
+      <c r="AW17" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX17" s="244" t="e">
+      <c r="AX17" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY17" s="242">
+      <c r="AY17" s="241">
         <v>1872</v>
       </c>
-      <c r="AZ17" s="242">
+      <c r="AZ17" s="241">
         <v>1601</v>
       </c>
-      <c r="BA17" s="245" t="e">
+      <c r="BA17" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="201" t="s">
+      <c r="A18" s="200" t="s">
         <v>201</v>
       </c>
       <c r="B18" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="223"/>
+      <c r="C18" s="222"/>
       <c r="D18" s="134" t="s">
         <v>200</v>
       </c>
@@ -6289,21 +6561,27 @@
         <v>16</v>
       </c>
       <c r="J18" s="134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="134">
-        <v>5</v>
-      </c>
-      <c r="L18" s="198">
+        <v>7</v>
+      </c>
+      <c r="L18" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>252</v>
       </c>
-      <c r="M18" s="205"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="231"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="203" t="s">
+        <v>321</v>
+      </c>
+      <c r="O18" s="203" t="s">
+        <v>322</v>
+      </c>
+      <c r="P18" s="203" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="230"/>
       <c r="S18" s="192">
         <f>AF18*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>4.00445615147349</v>
@@ -6364,82 +6642,82 @@
       <c r="AH18" s="135">
         <v>538</v>
       </c>
-      <c r="AI18" s="197">
+      <c r="AI18" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>3.9558823529411766</v>
       </c>
-      <c r="AJ18" s="197">
+      <c r="AJ18" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>252.78810408921933</v>
       </c>
-      <c r="AK18" s="197">
+      <c r="AK18" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>39.558823529411768</v>
       </c>
-      <c r="AL18" s="251"/>
-      <c r="AM18" s="257" t="s">
+      <c r="AL18" s="247"/>
+      <c r="AM18" s="253" t="s">
         <v>288</v>
       </c>
-      <c r="AN18" s="236"/>
-      <c r="AO18" s="236" t="e">
+      <c r="AN18" s="235"/>
+      <c r="AO18" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP18" s="236">
+        <v>0.15104899590467505</v>
+      </c>
+      <c r="AP18" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>388.17130184607987</v>
       </c>
-      <c r="AQ18" s="236">
+      <c r="AQ18" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>155.67567567567568</v>
       </c>
-      <c r="AR18" s="236">
+      <c r="AR18" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>22.970085470085472</v>
       </c>
-      <c r="AS18" s="236">
+      <c r="AS18" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.70303030303030312</v>
       </c>
-      <c r="AT18" s="236">
+      <c r="AT18" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>69</v>
       </c>
-      <c r="AU18" s="236">
+      <c r="AU18" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>9.2286834192439855</v>
       </c>
-      <c r="AV18" s="236" t="e">
+      <c r="AV18" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW18" s="244" t="e">
+      <c r="AW18" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX18" s="244" t="e">
+      <c r="AX18" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY18" s="242">
+      <c r="AY18" s="241">
         <v>544</v>
       </c>
-      <c r="AZ18" s="242">
+      <c r="AZ18" s="241">
         <v>477</v>
       </c>
-      <c r="BA18" s="245" t="e">
+      <c r="BA18" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="200" t="s">
         <v>183</v>
       </c>
       <c r="B19" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="222"/>
+      <c r="C19" s="221"/>
       <c r="D19" s="134"/>
       <c r="E19" s="135">
         <v>40</v>
@@ -6462,16 +6740,16 @@
       <c r="K19" s="134">
         <v>7</v>
       </c>
-      <c r="L19" s="198">
+      <c r="L19" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>103</v>
       </c>
-      <c r="M19" s="205"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="231"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="203"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="230"/>
       <c r="S19" s="192">
         <f>AF19*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>14.878662749208168</v>
@@ -6532,82 +6810,82 @@
       <c r="AH19" s="135">
         <v>1315</v>
       </c>
-      <c r="AI19" s="197">
+      <c r="AI19" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>9.6691176470588243</v>
       </c>
-      <c r="AJ19" s="197">
+      <c r="AJ19" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>103.42205323193916</v>
       </c>
-      <c r="AK19" s="197">
+      <c r="AK19" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>96.691176470588246</v>
       </c>
-      <c r="AL19" s="251"/>
-      <c r="AM19" s="257" t="s">
+      <c r="AL19" s="247"/>
+      <c r="AM19" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="AN19" s="236"/>
-      <c r="AO19" s="236" t="e">
+      <c r="AN19" s="235"/>
+      <c r="AO19" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP19" s="236">
+        <v>6.0934386968059688E-2</v>
+      </c>
+      <c r="AP19" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>79.71971158728546</v>
       </c>
-      <c r="AQ19" s="236">
+      <c r="AQ19" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>133.51351351351352</v>
       </c>
-      <c r="AR19" s="236">
+      <c r="AR19" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>26.674937965260547</v>
       </c>
-      <c r="AS19" s="236">
+      <c r="AS19" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.4</v>
       </c>
-      <c r="AT19" s="236">
+      <c r="AT19" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>29</v>
       </c>
-      <c r="AU19" s="236">
+      <c r="AU19" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="AV19" s="236" t="e">
+      <c r="AV19" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW19" s="244" t="e">
+      <c r="AW19" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX19" s="244" t="e">
+      <c r="AX19" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY19" s="242">
+      <c r="AY19" s="241">
         <v>1217</v>
       </c>
-      <c r="AZ19" s="242">
+      <c r="AZ19" s="241">
         <v>1233</v>
       </c>
-      <c r="BA19" s="245" t="e">
+      <c r="BA19" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="200" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="223"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="134"/>
       <c r="E20" s="140">
         <v>53</v>
@@ -6630,22 +6908,22 @@
       <c r="K20" s="134">
         <v>7</v>
       </c>
-      <c r="L20" s="198">
+      <c r="L20" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>111</v>
       </c>
-      <c r="M20" s="205"/>
-      <c r="N20" s="204" t="s">
+      <c r="M20" s="204"/>
+      <c r="N20" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="204" t="s">
+      <c r="O20" s="203" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="204" t="s">
+      <c r="P20" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="231"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="230"/>
       <c r="S20" s="192">
         <f>AF20*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.268807281048847</v>
@@ -6706,116 +6984,116 @@
       <c r="AH20" s="135">
         <v>1217</v>
       </c>
-      <c r="AI20" s="197">
+      <c r="AI20" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>8.9485294117647065</v>
       </c>
-      <c r="AJ20" s="197">
+      <c r="AJ20" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>111.75020542317172</v>
       </c>
-      <c r="AK20" s="197">
+      <c r="AK20" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>89.485294117647072</v>
       </c>
-      <c r="AL20" s="251"/>
-      <c r="AM20" s="257" t="s">
+      <c r="AL20" s="247"/>
+      <c r="AM20" s="253" t="s">
         <v>189</v>
       </c>
-      <c r="AN20" s="236"/>
-      <c r="AO20" s="236" t="e">
+      <c r="AN20" s="235"/>
+      <c r="AO20" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP20" s="236">
+        <v>7.4012866790332144E-2</v>
+      </c>
+      <c r="AP20" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>110.70459262412855</v>
       </c>
-      <c r="AQ20" s="236">
+      <c r="AQ20" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="AR20" s="236">
+      <c r="AR20" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.440588457185967</v>
       </c>
-      <c r="AS20" s="236">
+      <c r="AS20" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.4528301886792452</v>
       </c>
-      <c r="AT20" s="236">
+      <c r="AT20" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AU20" s="236">
+      <c r="AU20" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="AV20" s="236" t="e">
+      <c r="AV20" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW20" s="244" t="e">
+      <c r="AW20" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX20" s="244" t="e">
+      <c r="AX20" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY20" s="242">
+      <c r="AY20" s="241">
         <v>1182</v>
       </c>
-      <c r="AZ20" s="242">
+      <c r="AZ20" s="241">
         <v>982</v>
       </c>
-      <c r="BA20" s="245" t="e">
+      <c r="BA20" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="201" t="s">
+    <row r="21" spans="1:53" s="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="289" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="222"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135">
+      <c r="C21" s="221"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="281">
         <v>125</v>
       </c>
-      <c r="F21" s="135">
+      <c r="F21" s="281">
         <v>25</v>
       </c>
-      <c r="G21" s="135">
+      <c r="G21" s="281">
         <v>25</v>
       </c>
-      <c r="H21" s="135">
+      <c r="H21" s="281">
         <v>25</v>
       </c>
-      <c r="I21" s="135">
+      <c r="I21" s="281">
         <v>25</v>
       </c>
-      <c r="J21" s="134">
+      <c r="J21" s="287">
         <v>10</v>
       </c>
-      <c r="K21" s="134">
+      <c r="K21" s="287">
         <v>6</v>
       </c>
-      <c r="L21" s="198">
+      <c r="L21" s="288">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>351</v>
       </c>
-      <c r="M21" s="205"/>
-      <c r="N21" s="204" t="s">
+      <c r="M21" s="204"/>
+      <c r="N21" s="286" t="s">
         <v>176</v>
       </c>
-      <c r="O21" s="204"/>
-      <c r="P21" s="204"/>
-      <c r="Q21" s="204"/>
-      <c r="R21" s="231"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="286"/>
+      <c r="R21" s="230"/>
       <c r="S21" s="192">
         <f>AF21*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>3.9777182676619427</v>
@@ -6824,27 +7102,27 @@
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="U21" s="161">
+      <c r="U21" s="284">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>49</v>
       </c>
-      <c r="V21" s="164">
+      <c r="V21" s="285">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>3.0204081632653059</v>
       </c>
-      <c r="W21" s="170">
+      <c r="W21" s="285">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>188.2530120481928</v>
       </c>
-      <c r="X21" s="171">
+      <c r="X21" s="285">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>2.9097579617834399</v>
       </c>
-      <c r="Y21" s="174">
+      <c r="Y21" s="285">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>142.57814012738856</v>
       </c>
-      <c r="Z21" s="176">
+      <c r="Z21" s="285">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>568.60093434964358</v>
       </c>
@@ -6873,85 +7151,85 @@
         <v>2.9961130251924466</v>
       </c>
       <c r="AG21" s="188"/>
-      <c r="AH21" s="135">
+      <c r="AH21" s="281">
         <v>387</v>
       </c>
-      <c r="AI21" s="197">
+      <c r="AI21" s="282">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>2.8455882352941178</v>
       </c>
-      <c r="AJ21" s="197">
+      <c r="AJ21" s="282">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>351.42118863049092</v>
       </c>
-      <c r="AK21" s="197">
+      <c r="AK21" s="282">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>28.455882352941181</v>
       </c>
-      <c r="AL21" s="251"/>
-      <c r="AM21" s="257" t="s">
+      <c r="AL21" s="247"/>
+      <c r="AM21" s="278" t="s">
         <v>186</v>
       </c>
-      <c r="AN21" s="236"/>
-      <c r="AO21" s="236" t="e">
+      <c r="AN21" s="279"/>
+      <c r="AO21" s="279">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP21" s="236">
+        <v>7.5373881674228024E-2</v>
+      </c>
+      <c r="AP21" s="279">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>343.67119641356112</v>
       </c>
-      <c r="AQ21" s="236">
+      <c r="AQ21" s="279">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>331.08108108108109</v>
       </c>
-      <c r="AR21" s="236">
+      <c r="AR21" s="279">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>10.584615384615388</v>
       </c>
-      <c r="AS21" s="236">
+      <c r="AS21" s="279">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.8</v>
       </c>
-      <c r="AT21" s="236">
+      <c r="AT21" s="279">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>96</v>
       </c>
-      <c r="AU21" s="236">
+      <c r="AU21" s="279">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="AV21" s="236" t="e">
+      <c r="AV21" s="279" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW21" s="244" t="e">
+      <c r="AW21" s="280" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX21" s="244" t="e">
+      <c r="AX21" s="280" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY21" s="242">
+      <c r="AY21" s="281">
         <v>387</v>
       </c>
-      <c r="AZ21" s="242">
+      <c r="AZ21" s="281">
         <v>387</v>
       </c>
-      <c r="BA21" s="245" t="e">
+      <c r="BA21" s="282" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="200" t="s">
         <v>181</v>
       </c>
       <c r="B22" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="223"/>
+      <c r="C22" s="222"/>
       <c r="D22" s="134"/>
       <c r="E22" s="140">
         <v>100</v>
@@ -6974,18 +7252,18 @@
       <c r="K22" s="134">
         <v>2</v>
       </c>
-      <c r="L22" s="198">
+      <c r="L22" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>141</v>
       </c>
-      <c r="M22" s="205"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204" t="s">
+      <c r="M22" s="204"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="P22" s="204"/>
-      <c r="Q22" s="204"/>
-      <c r="R22" s="231"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="230"/>
       <c r="S22" s="192">
         <f>AF22*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>2.9174938563130981</v>
@@ -7046,439 +7324,1048 @@
       <c r="AH22" s="135">
         <v>958</v>
       </c>
-      <c r="AI22" s="197">
+      <c r="AI22" s="196">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>7.0441176470588234</v>
       </c>
-      <c r="AJ22" s="197">
+      <c r="AJ22" s="196">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>141.96242171189979</v>
       </c>
-      <c r="AK22" s="197">
+      <c r="AK22" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>70.441176470588232</v>
       </c>
-      <c r="AL22" s="251"/>
-      <c r="AM22" s="257" t="s">
+      <c r="AL22" s="247"/>
+      <c r="AM22" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="AN22" s="236"/>
-      <c r="AO22" s="236" t="e">
+      <c r="AN22" s="235"/>
+      <c r="AO22" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP22" s="236">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>581.39534883720933</v>
       </c>
-      <c r="AQ22" s="236">
+      <c r="AQ22" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>33.783783783783782</v>
       </c>
-      <c r="AR22" s="236">
+      <c r="AR22" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>109.55414012738855</v>
       </c>
-      <c r="AS22" s="236">
+      <c r="AS22" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.5</v>
       </c>
-      <c r="AT22" s="236">
+      <c r="AT22" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>39</v>
       </c>
-      <c r="AU22" s="236">
+      <c r="AU22" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="AV22" s="236" t="e">
+      <c r="AV22" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW22" s="244" t="e">
+      <c r="AW22" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX22" s="244" t="e">
+      <c r="AX22" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY22" s="242">
+      <c r="AY22" s="241">
         <v>1013</v>
       </c>
-      <c r="AZ22" s="242">
+      <c r="AZ22" s="241">
         <v>860</v>
       </c>
-      <c r="BA22" s="245" t="e">
+      <c r="BA22" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" s="202" t="s">
+      <c r="A23" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="276" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="131">
+        <v>3</v>
+      </c>
+      <c r="F23" s="131">
+        <v>2</v>
+      </c>
+      <c r="G23" s="131">
+        <v>1</v>
+      </c>
+      <c r="H23" s="131">
+        <v>1</v>
+      </c>
+      <c r="I23" s="131">
+        <v>1</v>
+      </c>
+      <c r="J23" s="186">
+        <v>6</v>
+      </c>
+      <c r="K23" s="186">
+        <v>8</v>
+      </c>
+      <c r="L23" s="197">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>6</v>
+      </c>
+      <c r="N23" s="202" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23" s="202" t="s">
+        <v>294</v>
+      </c>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="202"/>
+      <c r="R23" s="230"/>
+      <c r="S23" s="193">
+        <f>AF23*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>233.59545546582066</v>
+      </c>
+      <c r="T23" s="184">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="U23" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>1.04</v>
+      </c>
+      <c r="V23" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>142.30769230769229</v>
+      </c>
+      <c r="W23" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>3</v>
+      </c>
+      <c r="X23" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>182.59023354564761</v>
+      </c>
+      <c r="Y23" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>189.89384288747351</v>
+      </c>
+      <c r="Z23" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>426.92307692307691</v>
+      </c>
+      <c r="AA23" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>308.40845990527521</v>
+      </c>
+      <c r="AB23" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.5307297346674538</v>
+      </c>
+      <c r="AC23" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>4.04</v>
+      </c>
+      <c r="AD23" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>6.1841481280565134</v>
+      </c>
+      <c r="AE23" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>3.61772665491306</v>
+      </c>
+      <c r="AF23" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>152.60398369184912</v>
+      </c>
+      <c r="AH23" s="135">
+        <v>20596</v>
+      </c>
+      <c r="AI23" s="232">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>151.44117647058823</v>
+      </c>
+      <c r="AJ23" s="232">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>6.6032239269761117</v>
+      </c>
+      <c r="AK23" s="232">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>1514.4117647058824</v>
+      </c>
+      <c r="AM23" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO23" s="235">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>6.5372966102314217E-2</v>
+      </c>
+      <c r="AP23" s="235">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>5.4767441860465098</v>
+      </c>
+      <c r="AQ23" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>7.0270270270270272</v>
+      </c>
+      <c r="AR23" s="235">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>524.39024390243912</v>
+      </c>
+      <c r="AS23" s="235">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>49.333333333333336</v>
+      </c>
+      <c r="AT23" s="235">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>1</v>
+      </c>
+      <c r="AU23" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="AV23" s="235" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW23" s="243" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX23" s="243" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY23" s="241">
+        <v>1196</v>
+      </c>
+      <c r="AZ23" s="241">
+        <v>999</v>
+      </c>
+      <c r="BA23" s="244" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" s="201" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="276" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="131">
+        <v>35</v>
+      </c>
+      <c r="F24" s="131">
+        <v>2</v>
+      </c>
+      <c r="G24" s="131">
+        <v>12</v>
+      </c>
+      <c r="H24" s="131">
+        <v>3</v>
+      </c>
+      <c r="I24" s="131">
+        <v>3</v>
+      </c>
+      <c r="J24" s="186">
+        <v>2</v>
+      </c>
+      <c r="K24" s="186">
+        <v>4</v>
+      </c>
+      <c r="L24" s="197">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>43</v>
+      </c>
+      <c r="N24" s="202" t="s">
+        <v>295</v>
+      </c>
+      <c r="O24" s="202" t="s">
+        <v>296</v>
+      </c>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="202"/>
+      <c r="R24" s="230"/>
+      <c r="S24" s="193">
+        <f>AF24*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>21.211532227544357</v>
+      </c>
+      <c r="T24" s="184">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>13.259986664241984</v>
+      </c>
+      <c r="U24" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>3.12</v>
+      </c>
+      <c r="V24" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>47.435897435897431</v>
+      </c>
+      <c r="W24" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>41.371158392434992</v>
+      </c>
+      <c r="X24" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>13.240400363967245</v>
+      </c>
+      <c r="Y24" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>41.310049135577806</v>
+      </c>
+      <c r="Z24" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>1962.4780263078135</v>
+      </c>
+      <c r="AA24" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>1001.8940377216957</v>
+      </c>
+      <c r="AB24" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>0.47119753409605208</v>
+      </c>
+      <c r="AC24" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>44.49115839243499</v>
+      </c>
+      <c r="AD24" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>20.964124123592239</v>
+      </c>
+      <c r="AE24" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>12.264012612301459</v>
+      </c>
+      <c r="AF24" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>45.016220783575783</v>
+      </c>
+      <c r="AH24" s="135">
+        <v>3100</v>
+      </c>
+      <c r="AI24" s="232">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>22.794117647058822</v>
+      </c>
+      <c r="AJ24" s="232">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>43.870967741935488</v>
+      </c>
+      <c r="AK24" s="232">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>227.9411764705882</v>
+      </c>
+      <c r="AM24" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO24" s="235">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>0.21237026048574628</v>
+      </c>
+      <c r="AP24" s="235">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>75.52641706525921</v>
+      </c>
+      <c r="AQ24" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>21.081081081081084</v>
+      </c>
+      <c r="AR24" s="235">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>174.79674796747972</v>
+      </c>
+      <c r="AS24" s="235">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="AT24" s="235">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>11</v>
+      </c>
+      <c r="AU24" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>13.259986664241984</v>
+      </c>
+      <c r="AV24" s="235" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW24" s="243" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX24" s="243" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY24" s="241">
+        <v>1196</v>
+      </c>
+      <c r="AZ24" s="241">
+        <v>999</v>
+      </c>
+      <c r="BA24" s="244" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="276" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="131">
+        <v>45</v>
+      </c>
+      <c r="F25" s="131">
+        <v>11</v>
+      </c>
+      <c r="G25" s="131">
+        <v>5</v>
+      </c>
+      <c r="H25" s="131">
+        <v>6</v>
+      </c>
+      <c r="I25" s="131">
+        <v>6</v>
+      </c>
+      <c r="J25" s="186">
+        <v>4</v>
+      </c>
+      <c r="K25" s="186">
+        <v>8</v>
+      </c>
+      <c r="L25" s="197">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>69</v>
+      </c>
+      <c r="N25" s="202" t="s">
+        <v>297</v>
+      </c>
+      <c r="O25" s="202" t="s">
+        <v>298</v>
+      </c>
+      <c r="P25" s="202" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="230"/>
+      <c r="S25" s="193">
+        <f>AF25*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>16.831357203480248</v>
+      </c>
+      <c r="T25" s="184">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>5.6749394673123499</v>
+      </c>
+      <c r="U25" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="V25" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>17.61904761904762</v>
+      </c>
+      <c r="W25" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>47.66949152542373</v>
+      </c>
+      <c r="X25" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>11.491012031139423</v>
+      </c>
+      <c r="Y25" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>96.524501061571144</v>
+      </c>
+      <c r="Z25" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>839.89104116222768</v>
+      </c>
+      <c r="AA25" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>468.20777111189943</v>
+      </c>
+      <c r="AB25" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.0082916797362869</v>
+      </c>
+      <c r="AC25" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>56.069491525423729</v>
+      </c>
+      <c r="AD25" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>56.534401792128996</v>
+      </c>
+      <c r="AE25" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>33.072625048395459</v>
+      </c>
+      <c r="AF25" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>16.692944652565611</v>
+      </c>
+      <c r="AH25" s="135">
+        <v>1959</v>
+      </c>
+      <c r="AI25" s="232">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>14.404411764705882</v>
+      </c>
+      <c r="AJ25" s="232">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>69.423175089331295</v>
+      </c>
+      <c r="AK25" s="232">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>144.04411764705881</v>
+      </c>
+      <c r="AM25" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO25" s="235">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>9.9245431721099023E-2</v>
+      </c>
+      <c r="AP25" s="235">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>87.024536854552593</v>
+      </c>
+      <c r="AQ25" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>56.756756756756751</v>
+      </c>
+      <c r="AR25" s="235">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>63.142437591776805</v>
+      </c>
+      <c r="AS25" s="235">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="AT25" s="235">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>20</v>
+      </c>
+      <c r="AU25" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>5.6749394673123499</v>
+      </c>
+      <c r="AV25" s="235" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW25" s="243" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX25" s="243" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY25" s="241">
+        <v>1196</v>
+      </c>
+      <c r="AZ25" s="241">
+        <v>999</v>
+      </c>
+      <c r="BA25" s="244" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" s="201" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="276" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="131">
+        <v>200</v>
+      </c>
+      <c r="F26" s="131">
+        <v>25</v>
+      </c>
+      <c r="G26" s="131">
+        <v>21</v>
+      </c>
+      <c r="H26" s="131">
+        <v>25</v>
+      </c>
+      <c r="I26" s="131">
+        <v>25</v>
+      </c>
+      <c r="J26" s="186">
+        <v>6</v>
+      </c>
+      <c r="K26" s="186">
+        <v>8</v>
+      </c>
+      <c r="L26" s="197">
+        <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>410</v>
+      </c>
+      <c r="N26" s="202" t="s">
+        <v>300</v>
+      </c>
+      <c r="O26" s="202" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" s="202" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q26" s="202"/>
+      <c r="R26" s="230"/>
+      <c r="S26" s="193">
+        <f>AF26*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.8879737370748852</v>
+      </c>
+      <c r="T26" s="184">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>5.6689342403628116</v>
+      </c>
+      <c r="U26" s="185">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>49</v>
+      </c>
+      <c r="V26" s="164">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>3.0204081632653059</v>
+      </c>
+      <c r="W26" s="170">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="X26" s="171">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>1.9719745222929943</v>
+      </c>
+      <c r="Y26" s="174">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>96.626751592356726</v>
+      </c>
+      <c r="Z26" s="176">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>839.00226757369603</v>
+      </c>
+      <c r="AA26" s="180">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>467.81450958302639</v>
+      </c>
+      <c r="AB26" s="180">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>1.0091392856129759</v>
+      </c>
+      <c r="AC26" s="180">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>326.77777777777777</v>
+      </c>
+      <c r="AD26" s="180">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>329.76429322086244</v>
+      </c>
+      <c r="AE26" s="180">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>192.91211153420451</v>
+      </c>
+      <c r="AF26" s="180">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>2.8618187580722907</v>
+      </c>
+      <c r="AH26" s="135">
+        <v>331</v>
+      </c>
+      <c r="AI26" s="232">
+        <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
+        <v>2.4338235294117645</v>
+      </c>
+      <c r="AJ26" s="232">
+        <f>1000/Tabela2[[#This Row],[AMT ]]</f>
+        <v>410.87613293051362</v>
+      </c>
+      <c r="AK26" s="232">
+        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+        <v>24.338235294117645</v>
+      </c>
+      <c r="AM26" s="254" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO26" s="235">
+        <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
+        <v>9.9162072553181727E-2</v>
+      </c>
+      <c r="AP26" s="235">
+        <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
+        <v>507.10594315245459</v>
+      </c>
+      <c r="AQ26" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
+        <v>331.08108108108115</v>
+      </c>
+      <c r="AR26" s="235">
+        <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
+        <v>10.584615384615388</v>
+      </c>
+      <c r="AS26" s="235">
+        <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
+        <v>0.54</v>
+      </c>
+      <c r="AT26" s="235">
+        <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
+        <v>116</v>
+      </c>
+      <c r="AU26" s="235">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>5.6689342403628116</v>
+      </c>
+      <c r="AV26" s="235" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AW26" s="243" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AX26" s="243" t="e">
+        <f>300*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AY26" s="241">
+        <v>1196</v>
+      </c>
+      <c r="AZ26" s="241">
+        <v>999</v>
+      </c>
+      <c r="BA26" s="244" t="e">
+        <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" s="201" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B27" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131">
+      <c r="D27" s="131"/>
+      <c r="E27" s="131">
         <v>40</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F27" s="131">
         <v>21</v>
       </c>
-      <c r="G23" s="131">
+      <c r="G27" s="131">
         <v>25</v>
       </c>
-      <c r="H23" s="131">
+      <c r="H27" s="131">
         <v>9</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I27" s="131">
         <v>9</v>
       </c>
-      <c r="J23" s="186">
+      <c r="J27" s="186">
         <v>4</v>
       </c>
-      <c r="K23" s="186">
+      <c r="K27" s="186">
         <v>4</v>
       </c>
-      <c r="L23" s="198">
+      <c r="L27" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>117</v>
       </c>
-      <c r="N23" s="203" t="s">
+      <c r="N27" s="202" t="s">
         <v>194</v>
       </c>
-      <c r="O23" s="203" t="s">
+      <c r="O27" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="P23" s="203" t="s">
+      <c r="P27" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="Q23" s="203"/>
-      <c r="R23" s="231"/>
-      <c r="S23" s="193">
-        <f>AF23*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="Q27" s="202"/>
+      <c r="R27" s="230"/>
+      <c r="S27" s="193">
+        <f>AF27*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.345810315354626</v>
       </c>
-      <c r="T23" s="184">
+      <c r="T27" s="184">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="U23" s="185">
+      <c r="U27" s="185">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>16.2</v>
       </c>
-      <c r="V23" s="164">
+      <c r="V27" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.1358024691358022</v>
       </c>
-      <c r="W23" s="170">
+      <c r="W27" s="170">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>60.240963855421697</v>
       </c>
-      <c r="X23" s="171">
+      <c r="X27" s="171">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>9.0929936305732486</v>
       </c>
-      <c r="Y23" s="174">
+      <c r="Y27" s="174">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>147.30649681528661</v>
       </c>
-      <c r="Z23" s="176">
+      <c r="Z27" s="176">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>550.34954633348218</v>
       </c>
-      <c r="AA23" s="180">
+      <c r="AA27" s="180">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>348.82802157438437</v>
       </c>
-      <c r="AB23" s="180">
+      <c r="AB27" s="180">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3533603116782036</v>
       </c>
-      <c r="AC23" s="180">
+      <c r="AC27" s="180">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>76.4409638554217</v>
       </c>
-      <c r="AD23" s="180">
+      <c r="AD27" s="180">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>103.4521666683558</v>
       </c>
-      <c r="AE23" s="180">
+      <c r="AE27" s="180">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.519517500988137</v>
       </c>
-      <c r="AF23" s="180">
+      <c r="AF27" s="180">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.1223380860382157</v>
       </c>
-      <c r="AH23" s="135">
-        <v>1162</v>
-      </c>
-      <c r="AI23" s="233">
+      <c r="AH27" s="135">
+        <v>1161</v>
+      </c>
+      <c r="AI27" s="232">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>8.5441176470588243</v>
-      </c>
-      <c r="AJ23" s="233">
+        <v>8.5367647058823533</v>
+      </c>
+      <c r="AJ27" s="232">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>117.03958691910498</v>
-      </c>
-      <c r="AK23" s="233">
+        <v>117.14039621016364</v>
+      </c>
+      <c r="AK27" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>85.441176470588246</v>
-      </c>
-      <c r="AM23" s="258" t="s">
+        <v>85.367647058823536</v>
+      </c>
+      <c r="AM27" s="254" t="s">
         <v>190</v>
       </c>
-      <c r="AO23" s="236" t="e">
+      <c r="AO27" s="235">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP23" s="236">
+        <v>7.3940651423516648E-2</v>
+      </c>
+      <c r="AP27" s="235">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>109.9747828523396</v>
       </c>
-      <c r="AQ23" s="236">
+      <c r="AQ27" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>109.45945945945945</v>
       </c>
-      <c r="AR23" s="236">
+      <c r="AR27" s="235">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.173587729143286</v>
       </c>
-      <c r="AS23" s="236">
+      <c r="AS27" s="235">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.5</v>
       </c>
-      <c r="AT23" s="236">
+      <c r="AT27" s="235">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AU23" s="236">
+      <c r="AU27" s="235">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="AV23" s="236" t="e">
+      <c r="AV27" s="235" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW23" s="244" t="e">
+      <c r="AW27" s="243" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX23" s="244" t="e">
+      <c r="AX27" s="243" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY23" s="242">
+      <c r="AY27" s="241">
         <v>1196</v>
       </c>
-      <c r="AZ23" s="242">
+      <c r="AZ27" s="241">
         <v>999</v>
       </c>
-      <c r="BA23" s="245" t="e">
+      <c r="BA27" s="244" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="130" t="s">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" s="266" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B28" s="255" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="247">
+      <c r="C28" s="256"/>
+      <c r="D28" s="267">
         <v>0</v>
       </c>
-      <c r="E24" s="131">
+      <c r="E28" s="255">
         <v>0</v>
       </c>
-      <c r="F24" s="131">
+      <c r="F28" s="255">
         <v>0</v>
       </c>
-      <c r="G24" s="131">
+      <c r="G28" s="255">
         <v>0</v>
       </c>
-      <c r="H24" s="131">
+      <c r="H28" s="255">
         <v>0</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I28" s="255">
         <v>0</v>
       </c>
-      <c r="J24" s="248">
+      <c r="J28" s="269">
         <v>0</v>
       </c>
-      <c r="K24" s="186">
+      <c r="K28" s="270">
         <v>0</v>
       </c>
-      <c r="L24" s="198">
+      <c r="L28" s="264" t="e">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="258"/>
+      <c r="N28" s="264" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" s="264" t="s">
+        <v>276</v>
+      </c>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="264"/>
+      <c r="R28" s="259"/>
+      <c r="S28" s="260" t="e">
+        <f>AF28*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="271" t="e">
+        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="268" t="e">
+        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" s="261" t="e">
+        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" s="262" t="e">
+        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" s="263" t="e">
+        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="265" t="e">
+        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="272" t="e">
+        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA28" s="257" t="e">
+        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB28" s="257" t="e">
+        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="257" t="e">
+        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD28" s="257" t="e">
+        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE28" s="257" t="e">
+        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF28" s="257" t="e">
+        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG28" s="273"/>
+      <c r="AH28" s="264">
         <v>0</v>
       </c>
-      <c r="N24" s="132" t="s">
-        <v>275</v>
-      </c>
-      <c r="O24" s="132" t="s">
-        <v>276</v>
-      </c>
-      <c r="R24" s="231"/>
-      <c r="S24" s="193" t="e">
-        <f>AF24*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="184" t="e">
-        <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="185">
-        <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="164" t="e">
-        <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="170">
-        <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="171" t="e">
-        <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="187" t="e">
-        <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z24" s="194" t="e">
-        <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA24" s="180" t="e">
-        <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB24" s="180" t="e">
-        <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC24" s="180">
-        <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="180" t="e">
-        <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE24" s="180" t="e">
-        <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF24" s="180" t="e">
-        <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG24" s="249"/>
-      <c r="AH24" s="198">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="198">
+      <c r="AI28" s="264">
         <v>10000000000</v>
       </c>
-      <c r="AJ24" s="132">
+      <c r="AJ28" s="264" t="e">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK24" s="132">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK28" s="264" t="e">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>100000000000</v>
-      </c>
-      <c r="AM24" s="213" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL28" s="274"/>
+      <c r="AM28" s="275" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="129"/>
-      <c r="R25" s="232"/>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="210"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="232"/>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A27" s="129"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="210"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="232"/>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="232"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="129"/>
-      <c r="C29" s="216"/>
+      <c r="C29" s="215"/>
       <c r="D29" s="129"/>
       <c r="E29" s="129"/>
       <c r="F29" s="129"/>
@@ -7488,55 +8375,57 @@
       <c r="J29" s="129"/>
       <c r="K29" s="129"/>
       <c r="L29" s="129"/>
-      <c r="M29" s="210"/>
+      <c r="M29" s="209"/>
       <c r="N29" s="129"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129"/>
       <c r="Q29" s="129"/>
-      <c r="R29" s="232"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
+      <c r="R29" s="231"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="129"/>
-      <c r="C31" s="216"/>
+      <c r="C31" s="215"/>
       <c r="D31" s="129"/>
       <c r="E31" s="129"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="231"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="129"/>
-      <c r="C32" s="216"/>
+      <c r="C32" s="215"/>
       <c r="D32" s="129"/>
       <c r="E32" s="129"/>
       <c r="F32" s="129"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="209"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="231"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="129"/>
-      <c r="C33" s="216"/>
+      <c r="C33" s="215"/>
       <c r="D33" s="129"/>
       <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="F33" s="132"/>
       <c r="G33" s="132"/>
       <c r="H33" s="132"/>
       <c r="I33" s="132"/>
@@ -7545,10 +8434,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="129"/>
-      <c r="C34" s="216"/>
+      <c r="C34" s="215"/>
       <c r="D34" s="129"/>
       <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
+      <c r="F34" s="132"/>
       <c r="G34" s="132"/>
       <c r="H34" s="132"/>
       <c r="I34" s="132"/>
@@ -7557,7 +8446,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="129"/>
-      <c r="C35" s="216"/>
+      <c r="C35" s="215"/>
       <c r="D35" s="129"/>
       <c r="E35" s="129"/>
       <c r="F35" s="129"/>
@@ -7567,21 +8456,9 @@
       <c r="J35" s="132"/>
       <c r="K35" s="132"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="129"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="132"/>
-    </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="129"/>
-      <c r="C37" s="216"/>
+      <c r="C37" s="215"/>
       <c r="D37" s="129"/>
       <c r="E37" s="129"/>
       <c r="F37" s="129"/>
@@ -7591,68 +8468,104 @@
       <c r="J37" s="132"/>
       <c r="K37" s="132"/>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="129"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="129"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="129"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="129"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E6 E24:E1048576 B23:C23 B8:C20 B1:B1048576">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Lizardman">
+  <conditionalFormatting sqref="E1:E6 B8:C20 B23:C27 E31:E35 E37:E1048576 E28:E29 B31:B35 B37:B1048576 B1:B29">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7672,7 +8585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -19561,7 +20474,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B1:AD137">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AD137">
     <sortCondition ref="AB1:AB137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19569,7 +20482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Documents\GitHub\TArenaUnity3D\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Desktop\GitHub\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F38FD77-BCDB-4C43-A52E-54DD25EE7548}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB4D83-E0E6-460D-A900-59771DA316E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3145,9 +3145,6 @@
     <xf numFmtId="0" fontId="0" fillId="116" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="117" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="118" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="103" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3160,138 +3157,15 @@
     <xf numFmtId="0" fontId="0" fillId="103" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="103" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3834,6 +3708,132 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3892,109 +3892,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AM27" tableType="xml" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" connectionId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AM27" tableType="xml" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" connectionId="8">
   <autoFilter ref="A8:AM27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="39">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Name" name="Name" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Name" name="Name" dataDxfId="38">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="0" name="Fraction" dataDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Stat" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="0" name="Level" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="HP" name="Health" dataDxfId="52">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="0" name="Fraction" dataDxfId="37"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Stat" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="0" name="Level" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="HP" name="Health" dataDxfId="34">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Attack" name="Attack" dataDxfId="51">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Attack" name="Attack" dataDxfId="33">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Defense" name="Defence" dataDxfId="50">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Defense" name="Defence" dataDxfId="32">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="DamageMinimum" name="Damage min" dataDxfId="49">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="DamageMinimum" name="Damage min" dataDxfId="31">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="DamageMaximum" name="Damage max" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="DamageMaximum" name="Damage max" dataDxfId="30">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Speed" name="S" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Speed" name="S" dataDxfId="29">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Initiative" name="I" dataDxfId="46">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Initiative" name="I" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="Cost" name="Cena" dataDxfId="45">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="Cost" name="Cena" dataDxfId="27">
       <calculatedColumnFormula>INT(Tabela2[[#This Row],[Cena SIM]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Sk" dataDxfId="44"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="Skill1" name="Skill1" dataDxfId="43">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Sk" dataDxfId="26"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="Skill1" name="Skill1" dataDxfId="25">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="Skill2" name="Skill2" dataDxfId="42">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="Skill2" name="Skill2" dataDxfId="24">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="Skill3" name="Skill3" dataDxfId="41">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="Skill3" name="Skill3" dataDxfId="23">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="Skill4" name="Skill4" dataDxfId="40">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="Skill4" name="Skill4" dataDxfId="22">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="Wsk" dataDxfId="39"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="38">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="Wsk" dataDxfId="21"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="20">
       <calculatedColumnFormula>AF9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="0" name="Toughnessness" dataDxfId="37">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="0" name="Toughnessness" dataDxfId="19">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="0" name="VWO" dataDxfId="36">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="0" name="VWO" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="0" name="VWO_R" dataDxfId="35">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="0" name="VWO_R" dataDxfId="17">
       <calculatedColumnFormula>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="0" name="VWD" dataDxfId="34">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="0" name="VWD" dataDxfId="16">
       <calculatedColumnFormula>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="0" name="VWD_R" dataDxfId="33">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="0" name="VWD_R" dataDxfId="15">
       <calculatedColumnFormula>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="0" name="V_Off" dataDxfId="32">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="0" name="V_Off" dataDxfId="14">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="0" name="V_Def" dataDxfId="31">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="0" name="V_Def" dataDxfId="13">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="0" name="!ŚREDNIA" dataDxfId="30">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="0" name="!ŚREDNIA" dataDxfId="12">
       <calculatedColumnFormula>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="0" name="Odchyłka" dataDxfId="29">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="0" name="Odchyłka" dataDxfId="11">
       <calculatedColumnFormula>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="0" name="Suma VW" dataDxfId="28">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="0" name="Suma VW" dataDxfId="10">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="0" name="Suma*Odchyłka" dataDxfId="27">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="0" name="Suma*Odchyłka" dataDxfId="9">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="0" name="V/HP" dataDxfId="26">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="0" name="V/HP" dataDxfId="8">
       <calculatedColumnFormula>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Kolumna1" dataDxfId="25">
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Kolumna1" dataDxfId="7">
       <calculatedColumnFormula>15000/Tabela2[[#This Row],[V/HP]]/27.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="0" name="SIM" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="23"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="0" name="AMT " dataDxfId="22">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="0" name="SIM" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="0" name="FixedAmountAfterSearching" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="0" name="AMT " dataDxfId="4">
       <calculatedColumnFormula>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Cena SIM" dataDxfId="21">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Cena SIM" dataDxfId="3">
       <calculatedColumnFormula>1000/Tabela2[[#This Row],[AMT ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Ilość" dataDxfId="20">
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Ilość" dataDxfId="2">
       <calculatedColumnFormula>$AK$7/Tabela2[[#This Row],[Cena SIM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Data" dataDxfId="19"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="Sprite" name="Sprite" dataDxfId="18">
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Data" dataDxfId="1"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="Sprite" name="Sprite" dataDxfId="0">
       <xmlColumnPr mapId="10" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4271,7 +4271,7 @@
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="BF24" sqref="BF24"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4440,16 +4440,16 @@
       <c r="C3" s="216"/>
       <c r="D3" s="149"/>
       <c r="E3" s="149"/>
-      <c r="F3" s="277" t="s">
+      <c r="F3" s="289" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="277"/>
-      <c r="H3" s="277"/>
-      <c r="I3" s="277" t="s">
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="277"/>
-      <c r="K3" s="277"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
       <c r="L3" s="194"/>
       <c r="M3" s="205"/>
       <c r="N3" s="194"/>
@@ -4764,7 +4764,7 @@
       <c r="AI7" s="188"/>
       <c r="AJ7" s="188"/>
       <c r="AK7" s="188">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AL7" s="247"/>
       <c r="AN7" s="235"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="AK9" s="133">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL9" s="250"/>
       <c r="AM9" s="212" t="s">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="AK10" s="138">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>2449.1176470588234</v>
+        <v>3673.6764705882347</v>
       </c>
       <c r="AL10" s="251"/>
       <c r="AM10" s="199" t="s">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="AK11" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>667.64705882352951</v>
+        <v>1001.4705882352941</v>
       </c>
       <c r="AL11" s="247"/>
       <c r="AM11" s="253" t="s">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="AK12" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>323.30882352941177</v>
+        <v>484.96323529411762</v>
       </c>
       <c r="AL12" s="247"/>
       <c r="AM12" s="253" t="s">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="AK13" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>94.92647058823529</v>
+        <v>142.38970588235296</v>
       </c>
       <c r="AL13" s="247"/>
       <c r="AM13" s="253" t="s">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="AK14" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>29.77941176470588</v>
+        <v>44.669117647058819</v>
       </c>
       <c r="AL14" s="247"/>
       <c r="AM14" s="253" t="s">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="AK15" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>633.08823529411768</v>
+        <v>949.63235294117646</v>
       </c>
       <c r="AL15" s="247"/>
       <c r="AM15" s="253" t="s">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="AK16" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>320.51470588235293</v>
+        <v>480.77205882352945</v>
       </c>
       <c r="AL16" s="247"/>
       <c r="AM16" s="253" t="s">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="AK17" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>137.13235294117646</v>
+        <v>205.6985294117647</v>
       </c>
       <c r="AL17" s="247"/>
       <c r="AM17" s="253" t="s">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="AK18" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>39.558823529411768</v>
+        <v>59.338235294117645</v>
       </c>
       <c r="AL18" s="247"/>
       <c r="AM18" s="253" t="s">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="AK19" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>96.691176470588246</v>
+        <v>145.03676470588235</v>
       </c>
       <c r="AL19" s="247"/>
       <c r="AM19" s="253" t="s">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="AK20" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>89.485294117647072</v>
+        <v>134.22794117647061</v>
       </c>
       <c r="AL20" s="247"/>
       <c r="AM20" s="253" t="s">
@@ -7052,47 +7052,47 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="283" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="289" t="s">
+    <row r="21" spans="1:53" s="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="288" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="221"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="281">
+      <c r="D21" s="286"/>
+      <c r="E21" s="280">
         <v>125</v>
       </c>
-      <c r="F21" s="281">
+      <c r="F21" s="280">
         <v>25</v>
       </c>
-      <c r="G21" s="281">
+      <c r="G21" s="280">
         <v>25</v>
       </c>
-      <c r="H21" s="281">
+      <c r="H21" s="280">
         <v>25</v>
       </c>
-      <c r="I21" s="281">
+      <c r="I21" s="280">
         <v>25</v>
       </c>
-      <c r="J21" s="287">
+      <c r="J21" s="286">
         <v>10</v>
       </c>
-      <c r="K21" s="287">
+      <c r="K21" s="286">
         <v>6</v>
       </c>
-      <c r="L21" s="288">
+      <c r="L21" s="287">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>351</v>
       </c>
       <c r="M21" s="204"/>
-      <c r="N21" s="286" t="s">
+      <c r="N21" s="285" t="s">
         <v>176</v>
       </c>
-      <c r="O21" s="286"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="286"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="285"/>
       <c r="R21" s="230"/>
       <c r="S21" s="192">
         <f>AF21*Tabela2[[#This Row],[Odchyłka]]</f>
@@ -7102,27 +7102,27 @@
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="U21" s="284">
+      <c r="U21" s="283">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>49</v>
       </c>
-      <c r="V21" s="285">
+      <c r="V21" s="284">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>3.0204081632653059</v>
       </c>
-      <c r="W21" s="285">
+      <c r="W21" s="284">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>188.2530120481928</v>
       </c>
-      <c r="X21" s="285">
+      <c r="X21" s="284">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>2.9097579617834399</v>
       </c>
-      <c r="Y21" s="285">
+      <c r="Y21" s="284">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>142.57814012738856</v>
       </c>
-      <c r="Z21" s="285">
+      <c r="Z21" s="284">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>568.60093434964358</v>
       </c>
@@ -7151,73 +7151,73 @@
         <v>2.9961130251924466</v>
       </c>
       <c r="AG21" s="188"/>
-      <c r="AH21" s="281">
+      <c r="AH21" s="280">
         <v>387</v>
       </c>
-      <c r="AI21" s="282">
+      <c r="AI21" s="281">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>2.8455882352941178</v>
       </c>
-      <c r="AJ21" s="282">
+      <c r="AJ21" s="281">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>351.42118863049092</v>
       </c>
-      <c r="AK21" s="282">
+      <c r="AK21" s="281">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>28.455882352941181</v>
+        <v>42.683823529411768</v>
       </c>
       <c r="AL21" s="247"/>
-      <c r="AM21" s="278" t="s">
+      <c r="AM21" s="277" t="s">
         <v>186</v>
       </c>
-      <c r="AN21" s="279"/>
-      <c r="AO21" s="279">
+      <c r="AN21" s="278"/>
+      <c r="AO21" s="278">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.5373881674228024E-2</v>
       </c>
-      <c r="AP21" s="279">
+      <c r="AP21" s="278">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>343.67119641356112</v>
       </c>
-      <c r="AQ21" s="279">
+      <c r="AQ21" s="278">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>331.08108108108109</v>
       </c>
-      <c r="AR21" s="279">
+      <c r="AR21" s="278">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>10.584615384615388</v>
       </c>
-      <c r="AS21" s="279">
+      <c r="AS21" s="278">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.8</v>
       </c>
-      <c r="AT21" s="279">
+      <c r="AT21" s="278">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>96</v>
       </c>
-      <c r="AU21" s="279">
+      <c r="AU21" s="278">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="AV21" s="279" t="e">
+      <c r="AV21" s="278" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW21" s="280" t="e">
+      <c r="AW21" s="279" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX21" s="280" t="e">
+      <c r="AX21" s="279" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY21" s="281">
+      <c r="AY21" s="280">
         <v>387</v>
       </c>
-      <c r="AZ21" s="281">
+      <c r="AZ21" s="280">
         <v>387</v>
       </c>
-      <c r="BA21" s="282" t="e">
+      <c r="BA21" s="281" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AK22" s="196">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>70.441176470588232</v>
+        <v>105.66176470588235</v>
       </c>
       <c r="AL22" s="247"/>
       <c r="AM22" s="253" t="s">
@@ -7418,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="186">
+        <v>5</v>
+      </c>
+      <c r="K23" s="186">
         <v>6</v>
-      </c>
-      <c r="K23" s="186">
-        <v>8</v>
       </c>
       <c r="L23" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="AK23" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>1514.4117647058824</v>
+        <v>2271.6176470588234</v>
       </c>
       <c r="AM23" s="254" t="s">
         <v>190</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="AK24" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>227.9411764705882</v>
+        <v>341.91176470588232</v>
       </c>
       <c r="AM24" s="254" t="s">
         <v>190</v>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="AK25" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>144.04411764705881</v>
+        <v>216.06617647058823</v>
       </c>
       <c r="AM25" s="254" t="s">
         <v>190</v>
@@ -7930,7 +7930,7 @@
         <v>6</v>
       </c>
       <c r="K26" s="186">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L26" s="197">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="AK26" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>24.338235294117645</v>
+        <v>36.507352941176471</v>
       </c>
       <c r="AM26" s="254" t="s">
         <v>190</v>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="AK27" s="232">
         <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>85.367647058823536</v>
+        <v>128.0514705882353</v>
       </c>
       <c r="AM27" s="254" t="s">
         <v>190</v>
@@ -8510,62 +8510,62 @@
     <mergeCell ref="I3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E6 B8:C20 B23:C27 E31:E35 E37:E1048576 E28:E29 B31:B35 B37:B1048576 B1:B29">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule type="expression" dxfId="55" priority="23">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
+++ b/TArenaUnity3D/Assets/Resources/Data/Units.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojtek\Desktop\GitHub\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB4D83-E0E6-460D-A900-59771DA316E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164A39E-539C-476B-BD05-DB89FBF40F76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31815" yWindow="1215" windowWidth="17190" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toster_Arena" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Piotr Musielski</author>
   </authors>
   <commentList>
-    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Y8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AS8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AT8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -291,38 +291,44 @@
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="mapowanie" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\mapowanie.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Units_Map" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{2F99B80A-63D8-4C7E-AB01-3D92D4F0793C}" name="Units" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Wojtek\Desktop\GitHub\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Units_Map" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Units_Map1" type="4" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Units_Map1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Map.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Units_Mapping" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="Units_Mapping_Template" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="Units_Mapping_Template1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Units_Mapping_Template2" type="4" refreshedVersion="0" background="1">
+  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="Units_Mapping_Template2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Units_Mapping_Template3" type="4" refreshedVersion="0" background="1">
+  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF07000000}" name="Units_Mapping_Template3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Projekty\Unity\TArena\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
+  <connection id="10" xr16:uid="{88D63113-D6D9-43FB-A469-DD07CEF15EBB}" name="Units_Mapping_Template4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Wojtek\Desktop\GitHub\TArenaUnity3D\TArenaUnity3D\Assets\Resources\Data\Units_Mapping_Template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" xr16:uid="{00000000-0015-0000-FFFF-FFFF08000000}" name="Units_Mapping1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
+  <connection id="12" xr16:uid="{00000000-0015-0000-FFFF-FFFF09000000}" name="Units_Mapping2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\piotr\Desktop\Units_Mapping.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="328">
   <si>
     <t>Balans statystyk</t>
   </si>
@@ -1301,9 +1307,6 @@
     <t>Defence_Ritual</t>
   </si>
   <si>
-    <t>Cleanse</t>
-  </si>
-  <si>
     <t>Force_Pull</t>
   </si>
   <si>
@@ -1317,6 +1320,21 @@
   </si>
   <si>
     <t>Long_Lick</t>
+  </si>
+  <si>
+    <t>Kolumna2</t>
+  </si>
+  <si>
+    <t>Sprites/Gol_W_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Gol_SG_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Gol_FE_sprite</t>
+  </si>
+  <si>
+    <t>Sprites/Gol_FG_sprite</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="119">
+  <fills count="121">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2202,6 +2220,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -2543,7 +2573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2936,7 +2966,6 @@
     <xf numFmtId="1" fontId="0" fillId="102" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="103" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2969,8 +2998,6 @@
     <xf numFmtId="0" fontId="0" fillId="103" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="104" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2991,7 +3018,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="109" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3014,10 +3040,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="110" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3054,7 +3078,6 @@
     <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="113" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="113" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="112" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3139,7 +3162,6 @@
     <xf numFmtId="2" fontId="0" fillId="110" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="117" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="117" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="117" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="117" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="111" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="116" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3160,12 +3182,32 @@
     <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="119" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="119" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="119" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="120" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3407,7 +3449,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -3455,6 +3497,15 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3662,16 +3713,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
+        <bottom style="medium">
           <color rgb="FFCCCCCC"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <top style="medium">
           <color rgb="FFCCCCCC"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -3885,63 +3936,74 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="10" Name="Units_mapa" RootElement="Units" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
+  <Map ID="12" Name="Units_mapa1" RootElement="Units" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AM27" tableType="xml" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" connectionId="8">
-  <autoFilter ref="A8:AM27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="39">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Name" name="Name" dataDxfId="38">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A8:AN27" tableType="xml" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" connectionId="10">
+  <autoFilter ref="A8:AN27" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Barbarians"/>
+        <filter val="Lizardman"/>
+        <filter val="Mage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="40">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Name" name="Name" dataDxfId="39">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="0" name="Fraction" dataDxfId="37"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Stat" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="0" name="Level" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="HP" name="Health" dataDxfId="34">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/HP" xmlDataType="integer"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="0" name="Fraction" dataDxfId="38"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Stat" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="0" name="Level" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="HP" name="Health" dataDxfId="35">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Attack" name="Attack" dataDxfId="33">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Attack" name="Attack" dataDxfId="34">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Defense" name="Defence" dataDxfId="32">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Defense" name="Defence" dataDxfId="33">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Defense" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="DamageMinimum" name="Damage min" dataDxfId="31">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="DamageMinimum" name="Damage min" dataDxfId="32">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/DamageMinimum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="DamageMaximum" name="Damage max" dataDxfId="30">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="DamageMaximum" name="Damage max" dataDxfId="31">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/DamageMaximum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Speed" name="S" dataDxfId="29">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Speed" name="S" dataDxfId="30">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Initiative" name="I" dataDxfId="28">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Initiative" name="I" dataDxfId="29">
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Initiative" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="Cost" name="Cena" dataDxfId="27">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="Cost" name="Cena" dataDxfId="28">
       <calculatedColumnFormula>INT(Tabela2[[#This Row],[Cena SIM]])</calculatedColumnFormula>
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{7273346A-DF02-485E-A166-B5DCC2C677BF}" uniqueName="Cost" name="Kolumna2" dataDxfId="27">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Cena]]*1</calculatedColumnFormula>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Sk" dataDxfId="26"/>
     <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="Skill1" name="Skill1" dataDxfId="25">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Skills/Skill1" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="Skill2" name="Skill2" dataDxfId="24">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Skills/Skill2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="Skill3" name="Skill3" dataDxfId="23">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Skills/Skill3" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="Skill4" name="Skill4" dataDxfId="22">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Skills/Skill4" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="Wsk" dataDxfId="21"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="0" name="ZBALANSOWANA ILOSC" dataDxfId="20">
-      <calculatedColumnFormula>AF9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
+      <calculatedColumnFormula>AG9*Tabela2[[#This Row],[Odchyłka]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="0" name="Toughnessness" dataDxfId="19">
       <calculatedColumnFormula>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</calculatedColumnFormula>
@@ -3991,11 +4053,11 @@
       <calculatedColumnFormula>1000/Tabela2[[#This Row],[AMT ]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Ilość" dataDxfId="2">
-      <calculatedColumnFormula>$AK$7/Tabela2[[#This Row],[Cena SIM]]</calculatedColumnFormula>
+      <calculatedColumnFormula>$AL$7/Tabela2[[#This Row],[Kolumna2]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Data" dataDxfId="1"/>
     <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="Sprite" name="Sprite" dataDxfId="0">
-      <xmlColumnPr mapId="10" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Units/Unit/Sprite" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4265,713 +4327,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="130" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="140" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="222" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="139" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="215" customWidth="1"/>
     <col min="4" max="6" width="7" style="130" customWidth="1"/>
     <col min="7" max="11" width="7" style="131" customWidth="1"/>
-    <col min="12" max="12" width="7" style="132" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="204" customWidth="1"/>
-    <col min="14" max="17" width="10.42578125" style="132" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.42578125" style="223" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="155" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="165" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="169" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="172" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="175" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="177" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="129" customWidth="1"/>
-    <col min="26" max="32" width="8.7109375" style="181" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" style="188" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" style="137" customWidth="1"/>
-    <col min="35" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="7.28515625" style="247" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" style="235" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" style="235" hidden="1" customWidth="1"/>
-    <col min="42" max="47" width="3.7109375" style="235" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="3.28515625" style="235" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="236" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="12.42578125" style="236" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="39" style="236" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="27.85546875" style="236" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="11" style="236" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="7" style="132" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="198" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.42578125" style="132" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9.42578125" style="216" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="152" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="292" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="165" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="168" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="171" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="173" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="129" hidden="1" customWidth="1"/>
+    <col min="27" max="33" width="8.7109375" style="177" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" style="182" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" style="136" customWidth="1"/>
+    <col min="36" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" style="240" customWidth="1"/>
+    <col min="40" max="40" width="8.5703125" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" style="228" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" style="228" hidden="1" customWidth="1"/>
+    <col min="43" max="48" width="3.7109375" style="228" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="3.28515625" style="228" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="229" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" style="229" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="39" style="229" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="27.85546875" style="229" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="11" style="229" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="144" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="141"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="142" t="s">
+    <row r="1" spans="1:54" s="143" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="140"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="223"/>
-      <c r="U1" s="156" t="s">
+      <c r="E1" s="141"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="216"/>
+      <c r="U1" s="283"/>
+      <c r="V1" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="178" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="174" t="s">
         <v>231</v>
       </c>
-      <c r="AB1" s="178"/>
-      <c r="AC1" s="178"/>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="144" t="s">
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="247"/>
-      <c r="AN1" s="235"/>
-      <c r="AO1" s="235"/>
-      <c r="AP1" s="235"/>
-      <c r="AQ1" s="235"/>
-      <c r="AR1" s="235"/>
-      <c r="AS1" s="235" t="s">
+      <c r="AK1" s="189"/>
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="240"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="228"/>
+      <c r="AT1" s="228" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="235"/>
-      <c r="AU1" s="235"/>
-      <c r="AV1" s="235"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="237" t="s">
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="229"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="AZ1" s="238"/>
-      <c r="BA1" s="238"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
     </row>
-    <row r="2" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="224"/>
-      <c r="T2" s="144" t="s">
+    <row r="2" spans="1:54" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="148"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="217"/>
+      <c r="U2" s="283" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="156"/>
-      <c r="V2" s="162" t="s">
+      <c r="V2" s="153"/>
+      <c r="W2" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178" t="s">
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="188"/>
-      <c r="AI2" s="144" t="s">
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="182"/>
+      <c r="AJ2" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="247"/>
-      <c r="AN2" s="235"/>
-      <c r="AO2" s="235"/>
-      <c r="AP2" s="235"/>
-      <c r="AQ2" s="235"/>
-      <c r="AR2" s="235"/>
-      <c r="AS2" s="235" t="s">
+      <c r="AK2" s="189"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="240"/>
+      <c r="AO2" s="228"/>
+      <c r="AP2" s="228"/>
+      <c r="AQ2" s="228"/>
+      <c r="AR2" s="228"/>
+      <c r="AS2" s="228"/>
+      <c r="AT2" s="228" t="s">
         <v>197</v>
       </c>
-      <c r="AT2" s="235"/>
-      <c r="AU2" s="235"/>
-      <c r="AV2" s="235"/>
-      <c r="AW2" s="236"/>
-      <c r="AX2" s="236"/>
-      <c r="AY2" s="237"/>
-      <c r="AZ2" s="238"/>
-      <c r="BA2" s="238"/>
+      <c r="AU2" s="228"/>
+      <c r="AV2" s="228"/>
+      <c r="AW2" s="228"/>
+      <c r="AX2" s="229"/>
+      <c r="AY2" s="229"/>
+      <c r="AZ2" s="230"/>
+      <c r="BA2" s="231"/>
+      <c r="BB2" s="231"/>
     </row>
-    <row r="3" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="289" t="s">
+    <row r="3" spans="1:54" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="148"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="282" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289" t="s">
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="224"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156" t="s">
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="217"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178" t="s">
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="188"/>
-      <c r="AJ3" s="195" t="s">
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="182"/>
+      <c r="AK3" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="247"/>
-      <c r="AN3" s="235"/>
-      <c r="AO3" s="235"/>
-      <c r="AP3" s="235"/>
-      <c r="AQ3" s="235"/>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="235"/>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="235"/>
-      <c r="AV3" s="235"/>
-      <c r="AW3" s="236"/>
-      <c r="AX3" s="236"/>
-      <c r="AY3" s="237" t="s">
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="240"/>
+      <c r="AO3" s="228"/>
+      <c r="AP3" s="228"/>
+      <c r="AQ3" s="228"/>
+      <c r="AR3" s="228"/>
+      <c r="AS3" s="228"/>
+      <c r="AT3" s="228"/>
+      <c r="AU3" s="228"/>
+      <c r="AV3" s="228"/>
+      <c r="AW3" s="228"/>
+      <c r="AX3" s="229"/>
+      <c r="AY3" s="229"/>
+      <c r="AZ3" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="AZ3" s="238"/>
-      <c r="BA3" s="238"/>
+      <c r="BA3" s="231"/>
+      <c r="BB3" s="231"/>
     </row>
-    <row r="4" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="216" t="s">
+    <row r="4" spans="1:54" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="148"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="209" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="147">
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="146">
         <v>0.04</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151">
+      <c r="H4" s="149"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150">
         <v>1.4E-2</v>
       </c>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="214" t="s">
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="245" t="s">
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="238" t="s">
         <v>257</v>
       </c>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="162" t="s">
+      <c r="U4" s="283"/>
+      <c r="V4" s="153"/>
+      <c r="W4" s="153"/>
+      <c r="X4" s="153"/>
+      <c r="Y4" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178" t="s">
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="174" t="s">
         <v>241</v>
       </c>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="246" t="s">
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="239" t="s">
         <v>264</v>
       </c>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="141" t="s">
+      <c r="AK4" s="189"/>
+      <c r="AL4" s="140" t="s">
         <v>270</v>
       </c>
-      <c r="AL4" s="248" t="s">
+      <c r="AM4" s="241" t="s">
         <v>274</v>
       </c>
-      <c r="AN4" s="252" t="s">
+      <c r="AO4" s="245" t="s">
         <v>271</v>
       </c>
-      <c r="AO4" s="235"/>
-      <c r="AP4" s="235"/>
-      <c r="AQ4" s="235"/>
-      <c r="AR4" s="235"/>
-      <c r="AS4" s="235"/>
-      <c r="AT4" s="235"/>
-      <c r="AU4" s="235"/>
-      <c r="AV4" s="235"/>
-      <c r="AW4" s="236"/>
-      <c r="AX4" s="236"/>
-      <c r="AY4" s="237"/>
-      <c r="AZ4" s="238" t="s">
+      <c r="AP4" s="228"/>
+      <c r="AQ4" s="228"/>
+      <c r="AR4" s="228"/>
+      <c r="AS4" s="228"/>
+      <c r="AT4" s="228"/>
+      <c r="AU4" s="228"/>
+      <c r="AV4" s="228"/>
+      <c r="AW4" s="228"/>
+      <c r="AX4" s="229"/>
+      <c r="AY4" s="229"/>
+      <c r="AZ4" s="230"/>
+      <c r="BA4" s="231" t="s">
         <v>248</v>
       </c>
-      <c r="BA4" s="238"/>
+      <c r="BB4" s="231"/>
     </row>
-    <row r="5" spans="1:53" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="225"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156" t="s">
+    <row r="5" spans="1:54" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="150"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="218"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="178"/>
-      <c r="AB5" s="178"/>
-      <c r="AC5" s="178"/>
-      <c r="AD5" s="178"/>
-      <c r="AE5" s="178" t="s">
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174" t="s">
         <v>243</v>
       </c>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="188"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="141"/>
-      <c r="AL5" s="247"/>
-      <c r="AN5" s="235"/>
-      <c r="AO5" s="235"/>
-      <c r="AP5" s="235"/>
-      <c r="AQ5" s="235"/>
-      <c r="AR5" s="235"/>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="235"/>
-      <c r="AU5" s="235"/>
-      <c r="AV5" s="235"/>
-      <c r="AW5" s="236"/>
-      <c r="AX5" s="236"/>
-      <c r="AY5" s="237"/>
-      <c r="AZ5" s="238"/>
-      <c r="BA5" s="238"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="182"/>
+      <c r="AK5" s="189"/>
+      <c r="AL5" s="140"/>
+      <c r="AM5" s="240"/>
+      <c r="AO5" s="228"/>
+      <c r="AP5" s="228"/>
+      <c r="AQ5" s="228"/>
+      <c r="AR5" s="228"/>
+      <c r="AS5" s="228"/>
+      <c r="AT5" s="228"/>
+      <c r="AU5" s="228"/>
+      <c r="AV5" s="228"/>
+      <c r="AW5" s="228"/>
+      <c r="AX5" s="229"/>
+      <c r="AY5" s="229"/>
+      <c r="AZ5" s="230"/>
+      <c r="BA5" s="231"/>
+      <c r="BB5" s="231"/>
     </row>
-    <row r="6" spans="1:53" s="144" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="217"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="225"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="173"/>
-      <c r="Z6" s="156" t="s">
+    <row r="6" spans="1:54" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="150"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="218"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="178"/>
-      <c r="AC6" s="178"/>
-      <c r="AD6" s="178"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="178" t="s">
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="AG6" s="188"/>
-      <c r="AJ6" s="195"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="247"/>
-      <c r="AN6" s="235"/>
-      <c r="AO6" s="235"/>
-      <c r="AP6" s="235"/>
-      <c r="AQ6" s="235"/>
-      <c r="AR6" s="235"/>
-      <c r="AS6" s="235"/>
-      <c r="AT6" s="235"/>
-      <c r="AU6" s="235"/>
-      <c r="AV6" s="235"/>
-      <c r="AW6" s="236"/>
-      <c r="AX6" s="236"/>
-      <c r="AY6" s="237"/>
-      <c r="AZ6" s="238"/>
-      <c r="BA6" s="238" t="s">
+      <c r="AH6" s="182"/>
+      <c r="AK6" s="189"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="240"/>
+      <c r="AO6" s="228"/>
+      <c r="AP6" s="228"/>
+      <c r="AQ6" s="228"/>
+      <c r="AR6" s="228"/>
+      <c r="AS6" s="228"/>
+      <c r="AT6" s="228"/>
+      <c r="AU6" s="228"/>
+      <c r="AV6" s="228"/>
+      <c r="AW6" s="228"/>
+      <c r="AX6" s="229"/>
+      <c r="AY6" s="229"/>
+      <c r="AZ6" s="230"/>
+      <c r="BA6" s="231"/>
+      <c r="BB6" s="231" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="213" t="s">
+    <row r="7" spans="1:54" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="150"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="206" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="213">
+      <c r="E7" s="206">
         <f>MAX(Tabela2[Attack])</f>
         <v>50</v>
       </c>
-      <c r="F7" s="213">
+      <c r="F7" s="206">
         <f>MAX(Tabela2[Defence])</f>
         <v>50</v>
       </c>
-      <c r="G7" s="213">
+      <c r="G7" s="206">
         <f>MAX(Tabela2[Damage min])</f>
         <v>50</v>
       </c>
-      <c r="H7" s="213">
+      <c r="H7" s="206">
         <f>MAX(Tabela2[Damage max])</f>
         <v>50</v>
       </c>
-      <c r="I7" s="213">
+      <c r="I7" s="206">
         <f>MAX(Tabela2[Health])</f>
         <v>200</v>
       </c>
-      <c r="J7" s="213">
+      <c r="J7" s="206">
         <f>MAX(Tabela2[Attack])</f>
         <v>50</v>
       </c>
-      <c r="K7" s="213">
+      <c r="K7" s="206">
         <f>MAX(Tabela2[Defence])</f>
         <v>50</v>
       </c>
-      <c r="L7" s="152">
+      <c r="L7" s="151">
         <f>MAX(Tabela2[Damage min])</f>
         <v>50</v>
       </c>
-      <c r="M7" s="207"/>
-      <c r="N7" s="207"/>
-      <c r="O7" s="207"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="207"/>
-      <c r="R7" s="226"/>
-      <c r="S7" s="225"/>
-      <c r="T7" s="225"/>
-      <c r="U7" s="225">
+      <c r="M7" s="293"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="284"/>
+      <c r="V7" s="218">
         <f>MAX(Tabela2[VWO])</f>
         <v>148</v>
       </c>
-      <c r="V7" s="225">
+      <c r="W7" s="218">
         <f>MAX(Tabela2[VWD])</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="W7" s="225" t="e">
+      <c r="X7" s="218" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="X7" s="225" t="e">
+      <c r="Y7" s="218" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y7" s="225" t="e">
+      <c r="Z7" s="218" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z7" s="225" t="e">
+      <c r="AA7" s="218" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA7" s="225"/>
-      <c r="AB7" s="225"/>
-      <c r="AC7" s="225"/>
-      <c r="AD7" s="225"/>
-      <c r="AE7" s="225"/>
-      <c r="AF7" s="225"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188">
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="218"/>
+      <c r="AF7" s="218"/>
+      <c r="AG7" s="218"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182">
         <v>387</v>
       </c>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188">
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182">
         <v>15000</v>
       </c>
-      <c r="AL7" s="247"/>
-      <c r="AN7" s="235"/>
-      <c r="AO7" s="235" t="e">
+      <c r="AM7" s="240"/>
+      <c r="AO7" s="228"/>
+      <c r="AP7" s="228" t="e">
         <f>MAX(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AP7" s="235">
+      <c r="AQ7" s="228">
         <f>MAX(Tabela2[VWO_R])</f>
         <v>148</v>
       </c>
-      <c r="AQ7" s="235">
+      <c r="AR7" s="228">
         <f>MAX(Tabela2[VWD_R])</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="AR7" s="235">
+      <c r="AS7" s="228">
         <f>MAX(Tabela2[V_Off])</f>
-        <v>547.77070063694282</v>
-      </c>
-      <c r="AS7" s="235">
+        <v>611.31210191082823</v>
+      </c>
+      <c r="AT7" s="228">
         <f>MAX(Tabela2[V_Def])</f>
         <v>9426.7515923566898</v>
       </c>
-      <c r="AT7" s="235"/>
-      <c r="AU7" s="235">
+      <c r="AU7" s="228"/>
+      <c r="AV7" s="228">
         <v>5000</v>
       </c>
-      <c r="AV7" s="235"/>
-      <c r="AW7" s="236"/>
-      <c r="AX7" s="236"/>
-      <c r="AY7" s="237">
+      <c r="AW7" s="228"/>
+      <c r="AX7" s="229"/>
+      <c r="AY7" s="229"/>
+      <c r="AZ7" s="230">
         <v>136</v>
       </c>
-      <c r="AZ7" s="238">
+      <c r="BA7" s="231">
         <v>34550</v>
       </c>
-      <c r="BA7" s="236"/>
+      <c r="BB7" s="229"/>
     </row>
-    <row r="8" spans="1:53" s="139" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139" t="s">
+    <row r="8" spans="1:54" s="138" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="139" t="s">
+      <c r="L8" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="208" t="s">
+      <c r="M8" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="N8" s="202" t="s">
         <v>259</v>
       </c>
-      <c r="N8" s="139" t="s">
+      <c r="O8" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="139" t="s">
+      <c r="P8" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="139" t="s">
+      <c r="Q8" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="139" t="s">
+      <c r="R8" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="R8" s="227" t="s">
+      <c r="S8" s="220" t="s">
         <v>258</v>
       </c>
-      <c r="S8" s="189" t="s">
+      <c r="T8" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="T8" s="139" t="s">
+      <c r="U8" s="285" t="s">
         <v>246</v>
       </c>
-      <c r="U8" s="158" t="s">
+      <c r="V8" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="V8" s="166" t="s">
+      <c r="W8" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="W8" s="166" t="s">
+      <c r="X8" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="X8" s="166" t="s">
+      <c r="Y8" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="Y8" s="166" t="s">
+      <c r="Z8" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="Z8" s="166" t="s">
+      <c r="AA8" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="AA8" s="166" t="s">
+      <c r="AB8" s="162" t="s">
         <v>230</v>
       </c>
-      <c r="AB8" s="166" t="s">
+      <c r="AC8" s="162" t="s">
         <v>232</v>
       </c>
-      <c r="AC8" s="166" t="s">
+      <c r="AD8" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="AD8" s="166" t="s">
+      <c r="AE8" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="AE8" s="163" t="s">
+      <c r="AF8" s="160" t="s">
         <v>273</v>
       </c>
-      <c r="AF8" s="163" t="s">
+      <c r="AG8" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="AG8" s="189" t="s">
+      <c r="AH8" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="AH8" s="139" t="s">
+      <c r="AI8" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="AI8" s="139" t="s">
+      <c r="AJ8" s="138" t="s">
         <v>267</v>
       </c>
-      <c r="AJ8" s="139" t="s">
+      <c r="AK8" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="AK8" s="139" t="s">
+      <c r="AL8" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="AL8" s="249" t="s">
+      <c r="AM8" s="242" t="s">
         <v>274</v>
       </c>
-      <c r="AM8" s="139" t="s">
+      <c r="AN8" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="AN8" s="235" t="s">
+      <c r="AO8" s="228" t="s">
         <v>261</v>
       </c>
-      <c r="AO8" s="235" t="s">
+      <c r="AP8" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="AP8" s="235" t="s">
+      <c r="AQ8" s="228" t="s">
         <v>226</v>
       </c>
-      <c r="AQ8" s="235" t="s">
+      <c r="AR8" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="AR8" s="235" t="s">
+      <c r="AS8" s="228" t="s">
         <v>209</v>
       </c>
-      <c r="AS8" s="235" t="s">
+      <c r="AT8" s="228" t="s">
         <v>215</v>
       </c>
-      <c r="AT8" s="235" t="s">
+      <c r="AU8" s="228" t="s">
         <v>213</v>
       </c>
-      <c r="AU8" s="235" t="s">
+      <c r="AV8" s="228" t="s">
         <v>216</v>
       </c>
-      <c r="AV8" s="235" t="s">
+      <c r="AW8" s="228" t="s">
         <v>217</v>
       </c>
-      <c r="AW8" s="239" t="s">
+      <c r="AX8" s="232" t="s">
         <v>228</v>
       </c>
-      <c r="AX8" s="239" t="s">
+      <c r="AY8" s="232" t="s">
         <v>229</v>
       </c>
-      <c r="AY8" s="240" t="s">
+      <c r="AZ8" s="233" t="s">
         <v>251</v>
       </c>
-      <c r="AZ8" s="240" t="s">
+      <c r="BA8" s="233" t="s">
         <v>253</v>
       </c>
-      <c r="BA8" s="240" t="s">
+      <c r="BB8" s="233" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198" t="s">
+    <row r="9" spans="1:54" s="133" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="219"/>
+      <c r="C9" s="212"/>
       <c r="E9" s="133">
         <v>172</v>
       </c>
@@ -4997,323 +5074,331 @@
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>1000</v>
       </c>
-      <c r="M9" s="210"/>
-      <c r="N9" s="198" t="s">
+      <c r="M9" s="133">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>1000</v>
+      </c>
+      <c r="N9" s="204"/>
+      <c r="O9" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="O9" s="198" t="s">
+      <c r="P9" s="192" t="s">
         <v>276</v>
       </c>
-      <c r="P9" s="198" t="s">
+      <c r="Q9" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="228"/>
-      <c r="S9" s="190">
-        <f>AF9*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="R9" s="192"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="184">
+        <f>AG9*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>1.3563745055921186</v>
       </c>
-      <c r="T9" s="154">
+      <c r="U9" s="286">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7011533826820462</v>
       </c>
-      <c r="U9" s="159">
+      <c r="V9" s="156">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>148</v>
       </c>
-      <c r="V9" s="167">
+      <c r="W9" s="163">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="W9" s="167">
+      <c r="X9" s="163">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="X9" s="167">
+      <c r="Y9" s="163">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="167">
+      <c r="Z9" s="163">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>148</v>
       </c>
-      <c r="Z9" s="167">
+      <c r="AA9" s="163">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="AA9" s="179">
+      <c r="AB9" s="175">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>347.88535031847141</v>
       </c>
-      <c r="AB9" s="179">
+      <c r="AC9" s="175">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3570275367095093</v>
       </c>
-      <c r="AC9" s="179">
+      <c r="AD9" s="175">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>695.77070063694282</v>
       </c>
-      <c r="AD9" s="179">
+      <c r="AE9" s="175">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>944.18</v>
       </c>
-      <c r="AE9" s="183">
+      <c r="AF9" s="179">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>552.34529999999995</v>
       </c>
-      <c r="AF9" s="183">
+      <c r="AG9" s="179">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>0.99951877828583047</v>
       </c>
-      <c r="AG9" s="233"/>
-      <c r="AH9" s="133">
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="133">
         <v>136</v>
       </c>
-      <c r="AI9" s="133">
+      <c r="AJ9" s="133">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>1</v>
       </c>
-      <c r="AJ9" s="133">
+      <c r="AK9" s="133">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>1000</v>
       </c>
-      <c r="AK9" s="133">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+      <c r="AL9" s="133">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
         <v>15</v>
       </c>
-      <c r="AL9" s="250"/>
-      <c r="AM9" s="212" t="s">
+      <c r="AM9" s="243"/>
+      <c r="AN9" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="AN9" s="235"/>
-      <c r="AO9" s="235">
+      <c r="AO9" s="228"/>
+      <c r="AP9" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.3740834544053113E-2</v>
       </c>
-      <c r="AP9" s="235">
+      <c r="AQ9" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AQ9" s="235">
+      <c r="AR9" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>1000</v>
       </c>
-      <c r="AR9" s="235">
+      <c r="AS9" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>3.44</v>
       </c>
-      <c r="AS9" s="235">
+      <c r="AT9" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.29069767441860467</v>
       </c>
-      <c r="AT9" s="235">
+      <c r="AU9" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>284</v>
       </c>
-      <c r="AU9" s="235">
+      <c r="AV9" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7011533826820462</v>
       </c>
-      <c r="AV9" s="235" t="e">
+      <c r="AW9" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW9" s="241" t="e">
+      <c r="AX9" s="234" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX9" s="241" t="e">
+      <c r="AY9" s="234" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY9" s="241">
+      <c r="AZ9" s="234">
         <v>136</v>
       </c>
-      <c r="AZ9" s="241">
+      <c r="BA9" s="234">
         <v>136</v>
       </c>
-      <c r="BA9" s="241" t="e">
+      <c r="BB9" s="234" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:53" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="199" t="s">
+    <row r="10" spans="1:54" s="137" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="193" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="220"/>
-      <c r="E10" s="138">
+      <c r="C10" s="213"/>
+      <c r="E10" s="137">
         <v>1</v>
       </c>
-      <c r="F10" s="138">
+      <c r="F10" s="137">
         <v>1</v>
       </c>
-      <c r="G10" s="138">
+      <c r="G10" s="137">
         <v>1</v>
       </c>
-      <c r="H10" s="138">
+      <c r="H10" s="137">
         <v>1</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="137">
         <v>1</v>
       </c>
-      <c r="J10" s="138">
+      <c r="J10" s="137">
         <v>1</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="137">
         <v>1</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="137">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>4</v>
       </c>
-      <c r="M10" s="211"/>
-      <c r="N10" s="199"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="199" t="s">
+      <c r="M10" s="137">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>4</v>
+      </c>
+      <c r="N10" s="205"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="229"/>
-      <c r="S10" s="191">
-        <f>AF10*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="R10" s="193"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="185">
+        <f>AG10*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>471.86282004095767</v>
       </c>
-      <c r="T10" s="136">
+      <c r="U10" s="287">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="U10" s="160">
+      <c r="V10" s="157">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>1</v>
       </c>
-      <c r="V10" s="168">
+      <c r="W10" s="164">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>148</v>
       </c>
-      <c r="W10" s="168">
+      <c r="X10" s="164">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>1</v>
       </c>
-      <c r="X10" s="168">
+      <c r="Y10" s="164">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="Y10" s="168">
+      <c r="Z10" s="164">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>547.77070063694282</v>
       </c>
-      <c r="Z10" s="168">
+      <c r="AA10" s="164">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>148</v>
       </c>
-      <c r="AA10" s="180">
+      <c r="AB10" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>347.88535031847141</v>
       </c>
-      <c r="AB10" s="180">
+      <c r="AC10" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3570275367095093</v>
       </c>
-      <c r="AC10" s="180">
+      <c r="AD10" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>2</v>
       </c>
-      <c r="AD10" s="180">
+      <c r="AE10" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>2.7140550734190185</v>
       </c>
-      <c r="AE10" s="182">
+      <c r="AF10" s="178">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>1.5877222179501258</v>
       </c>
-      <c r="AF10" s="182">
+      <c r="AG10" s="178">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>347.71794033385669</v>
       </c>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="138">
+      <c r="AH10" s="227"/>
+      <c r="AI10" s="137">
         <v>33308</v>
       </c>
-      <c r="AI10" s="138">
+      <c r="AJ10" s="137">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>244.91176470588235</v>
       </c>
-      <c r="AJ10" s="138">
+      <c r="AK10" s="137">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>4.0831031584003847</v>
       </c>
-      <c r="AK10" s="138">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>3673.6764705882347</v>
-      </c>
-      <c r="AL10" s="251"/>
-      <c r="AM10" s="199" t="s">
+      <c r="AL10" s="137">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>3750</v>
+      </c>
+      <c r="AM10" s="244"/>
+      <c r="AN10" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="AN10" s="235"/>
-      <c r="AO10" s="235">
+      <c r="AO10" s="228"/>
+      <c r="AP10" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.3740834544053113E-2</v>
       </c>
-      <c r="AP10" s="235">
+      <c r="AQ10" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>1.8255813953488367</v>
       </c>
-      <c r="AQ10" s="235">
+      <c r="AR10" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>6.756756756756757</v>
       </c>
-      <c r="AR10" s="235">
+      <c r="AS10" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>547.77070063694271</v>
       </c>
-      <c r="AS10" s="235">
+      <c r="AT10" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>148</v>
       </c>
-      <c r="AT10" s="235">
+      <c r="AU10" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>1</v>
       </c>
-      <c r="AU10" s="235">
+      <c r="AV10" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>1</v>
       </c>
-      <c r="AV10" s="235" t="e">
+      <c r="AW10" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW10" s="242" t="e">
+      <c r="AX10" s="235" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX10" s="242" t="e">
+      <c r="AY10" s="235" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY10" s="241">
+      <c r="AZ10" s="234">
         <v>34550</v>
       </c>
-      <c r="AZ10" s="241">
+      <c r="BA10" s="234">
         <v>34550</v>
       </c>
-      <c r="BA10" s="241" t="e">
+      <c r="BB10" s="234" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="200" t="s">
+    <row r="11" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="221"/>
+      <c r="C11" s="214"/>
       <c r="D11" s="134" t="s">
         <v>19</v>
       </c>
@@ -5324,13 +5409,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" s="135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I11" s="135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" s="134">
         <v>7</v>
@@ -5338,173 +5423,176 @@
       <c r="K11" s="134">
         <v>4</v>
       </c>
-      <c r="L11" s="197">
+      <c r="L11" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>14</v>
-      </c>
-      <c r="M11" s="204"/>
-      <c r="N11" s="203" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="191">
+        <v>31</v>
+      </c>
+      <c r="N11" s="198"/>
+      <c r="O11" s="197" t="s">
         <v>303</v>
       </c>
-      <c r="O11" s="203" t="s">
+      <c r="P11" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="230"/>
-      <c r="S11" s="192">
-        <f>AF11*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>98.287900968586257</v>
-      </c>
-      <c r="T11" s="153">
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="223"/>
+      <c r="T11" s="186">
+        <f>AG11*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>59.253635246839139</v>
+      </c>
+      <c r="U11" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.0006858710562416</v>
-      </c>
-      <c r="U11" s="161">
+        <v>0.89605734767025091</v>
+      </c>
+      <c r="V11" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>2.4</v>
-      </c>
-      <c r="V11" s="164">
+        <v>8.4</v>
+      </c>
+      <c r="W11" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>61.666666666666671</v>
-      </c>
-      <c r="W11" s="170">
+        <v>17.619047619047617</v>
+      </c>
+      <c r="X11" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>7.2016460905349797</v>
-      </c>
-      <c r="X11" s="171">
+        <v>7.5268817204301079</v>
+      </c>
+      <c r="Y11" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>76.061874431301206</v>
-      </c>
-      <c r="Y11" s="174">
+        <v>72.775250227479546</v>
+      </c>
+      <c r="Z11" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>182.54849863512288</v>
-      </c>
-      <c r="Z11" s="176">
+        <v>611.31210191082823</v>
+      </c>
+      <c r="AA11" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>444.10150891632378</v>
-      </c>
-      <c r="AA11" s="180">
+        <v>132.61648745519713</v>
+      </c>
+      <c r="AB11" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>313.3250037757233</v>
-      </c>
-      <c r="AB11" s="180">
+        <v>371.96429468301267</v>
+      </c>
+      <c r="AC11" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.5067102666913872</v>
-      </c>
-      <c r="AC11" s="180">
+        <v>1.269180958356001</v>
+      </c>
+      <c r="AD11" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>9.6016460905349792</v>
-      </c>
-      <c r="AD11" s="180">
+        <v>15.926881720430108</v>
+      </c>
+      <c r="AE11" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>14.466898741746274</v>
-      </c>
-      <c r="AE11" s="180">
+        <v>20.214095005558157</v>
+      </c>
+      <c r="AF11" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>8.463135763921569</v>
-      </c>
-      <c r="AF11" s="180">
+        <v>11.82524557825152</v>
+      </c>
+      <c r="AG11" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>65.233444771315234</v>
-      </c>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="135">
-        <v>9080</v>
-      </c>
-      <c r="AI11" s="196">
+        <v>46.686514524762273</v>
+      </c>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="135">
+        <v>4282</v>
+      </c>
+      <c r="AJ11" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>66.764705882352942</v>
-      </c>
-      <c r="AJ11" s="196">
+        <v>31.485294117647058</v>
+      </c>
+      <c r="AK11" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>14.977973568281937</v>
-      </c>
-      <c r="AK11" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>1001.4705882352941</v>
-      </c>
-      <c r="AL11" s="247"/>
-      <c r="AM11" s="253" t="s">
+        <v>31.76085941148996</v>
+      </c>
+      <c r="AL11" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>483.87096774193549</v>
+      </c>
+      <c r="AM11" s="240"/>
+      <c r="AN11" s="246" t="s">
         <v>283</v>
       </c>
-      <c r="AN11" s="235"/>
-      <c r="AO11" s="235">
+      <c r="AO11" s="228"/>
+      <c r="AP11" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.6415119926116789E-2</v>
-      </c>
-      <c r="AP11" s="235">
+        <v>7.8844819091708332E-2</v>
+      </c>
+      <c r="AQ11" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>13.147191118767342</v>
-      </c>
-      <c r="AQ11" s="235">
+        <v>13.740935233808447</v>
+      </c>
+      <c r="AR11" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>16.216216216216214</v>
-      </c>
-      <c r="AR11" s="235">
+        <v>56.756756756756758</v>
+      </c>
+      <c r="AS11" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>223.95833333333334</v>
-      </c>
-      <c r="AS11" s="235">
+        <v>63.988095238095241</v>
+      </c>
+      <c r="AT11" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>20.571428571428573</v>
-      </c>
-      <c r="AT11" s="235">
+        <v>19.714285714285715</v>
+      </c>
+      <c r="AU11" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>4</v>
-      </c>
-      <c r="AU11" s="235">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.0006858710562416</v>
-      </c>
-      <c r="AV11" s="235" t="e">
+        <v>0.89605734767025091</v>
+      </c>
+      <c r="AW11" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW11" s="243" t="e">
+      <c r="AX11" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX11" s="243" t="e">
+      <c r="AY11" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY11" s="241">
+      <c r="AZ11" s="234">
         <v>9030</v>
       </c>
-      <c r="AZ11" s="241">
+      <c r="BA11" s="234">
         <v>7472</v>
       </c>
-      <c r="BA11" s="244" t="e">
+      <c r="BB11" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="200" t="s">
+    <row r="12" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="139">
         <v>15</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="139">
         <v>5</v>
       </c>
-      <c r="G12" s="140">
-        <v>3</v>
-      </c>
-      <c r="H12" s="140">
-        <v>4</v>
-      </c>
-      <c r="I12" s="140">
-        <v>4</v>
+      <c r="G12" s="139">
+        <v>8</v>
+      </c>
+      <c r="H12" s="139">
+        <v>5</v>
+      </c>
+      <c r="I12" s="139">
+        <v>5</v>
       </c>
       <c r="J12" s="134">
         <v>3</v>
@@ -5512,175 +5600,178 @@
       <c r="K12" s="134">
         <v>6</v>
       </c>
-      <c r="L12" s="197">
+      <c r="L12" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>30</v>
-      </c>
-      <c r="M12" s="204"/>
-      <c r="N12" s="203" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="191">
+        <v>60</v>
+      </c>
+      <c r="N12" s="198"/>
+      <c r="O12" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="O12" s="203" t="s">
+      <c r="P12" s="197" t="s">
         <v>306</v>
       </c>
-      <c r="P12" s="203" t="s">
+      <c r="Q12" s="197" t="s">
         <v>307</v>
       </c>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="230"/>
-      <c r="S12" s="192">
-        <f>AF12*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>47.016789380649485</v>
-      </c>
-      <c r="T12" s="187">
+      <c r="R12" s="197"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="186">
+        <f>AG12*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>42.074800181591556</v>
+      </c>
+      <c r="U12" s="289">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.3258833546189872</v>
-      </c>
-      <c r="U12" s="161">
+        <v>2.8671916813212017</v>
+      </c>
+      <c r="V12" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="V12" s="164">
+        <v>5.8</v>
+      </c>
+      <c r="W12" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>31.896551724137932</v>
-      </c>
-      <c r="W12" s="170">
+        <v>25.517241379310345</v>
+      </c>
+      <c r="X12" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>15.4320987654321</v>
-      </c>
-      <c r="X12" s="171">
+        <v>16.62971175166297</v>
+      </c>
+      <c r="Y12" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>35.49554140127389</v>
-      </c>
-      <c r="Y12" s="174">
+        <v>32.939278131634829</v>
+      </c>
+      <c r="Z12" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>164.69931210191083</v>
-      </c>
-      <c r="Z12" s="176">
+        <v>191.047813163482</v>
+      </c>
+      <c r="AA12" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>492.23073648361009</v>
-      </c>
-      <c r="AA12" s="180">
+        <v>424.34436883553786</v>
+      </c>
+      <c r="AB12" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>328.46502429276046</v>
-      </c>
-      <c r="AB12" s="180">
+        <v>307.69609099950992</v>
+      </c>
+      <c r="AC12" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.4372610935258263</v>
-      </c>
-      <c r="AC12" s="180">
+        <v>1.5342736349573967</v>
+      </c>
+      <c r="AD12" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>20.072098765432099</v>
-      </c>
-      <c r="AD12" s="180">
+        <v>22.429711751662971</v>
+      </c>
+      <c r="AE12" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>28.848846620963325</v>
-      </c>
-      <c r="AE12" s="180">
+        <v>34.413315380270582</v>
+      </c>
+      <c r="AF12" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>16.876575273263544</v>
-      </c>
-      <c r="AF12" s="180">
+        <v>20.131789497458289</v>
+      </c>
+      <c r="AG12" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>32.712768468051927</v>
-      </c>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="135">
-        <v>4397</v>
-      </c>
-      <c r="AI12" s="196">
+        <v>27.423270023642086</v>
+      </c>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="135">
+        <v>3732</v>
+      </c>
+      <c r="AJ12" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>32.330882352941174</v>
-      </c>
-      <c r="AJ12" s="196">
+        <v>27.441176470588236</v>
+      </c>
+      <c r="AK12" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>30.930179667955425</v>
-      </c>
-      <c r="AK12" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>484.96323529411762</v>
-      </c>
-      <c r="AL12" s="247"/>
-      <c r="AM12" s="253" t="s">
+        <v>36.441586280814576</v>
+      </c>
+      <c r="AL12" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>250</v>
+      </c>
+      <c r="AM12" s="240"/>
+      <c r="AN12" s="246" t="s">
         <v>282</v>
       </c>
-      <c r="AN12" s="235"/>
-      <c r="AO12" s="235">
+      <c r="AO12" s="228"/>
+      <c r="AP12" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>6.9624331659000518E-2</v>
-      </c>
-      <c r="AP12" s="235">
+        <v>6.5221966131874892E-2</v>
+      </c>
+      <c r="AQ12" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>28.172552397358597</v>
-      </c>
-      <c r="AQ12" s="235">
+        <v>30.358892383849831</v>
+      </c>
+      <c r="AR12" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>31.351351351351351</v>
-      </c>
-      <c r="AR12" s="235">
+        <v>39.189189189189193</v>
+      </c>
+      <c r="AS12" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>116.21621621621622</v>
-      </c>
-      <c r="AS12" s="235">
+        <v>92.972972972972968</v>
+      </c>
+      <c r="AT12" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>9.6</v>
-      </c>
-      <c r="AT12" s="235">
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="AU12" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>8</v>
-      </c>
-      <c r="AU12" s="235">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.3258833546189872</v>
-      </c>
-      <c r="AV12" s="235" t="e">
+        <v>2.8671916813212017</v>
+      </c>
+      <c r="AW12" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW12" s="243" t="e">
+      <c r="AX12" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX12" s="243" t="e">
+      <c r="AY12" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY12" s="241">
+      <c r="AZ12" s="234">
         <v>4421</v>
       </c>
-      <c r="AZ12" s="241">
+      <c r="BA12" s="234">
         <v>3619</v>
       </c>
-      <c r="BA12" s="244" t="e">
+      <c r="BB12" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="200" t="s">
+    <row r="13" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="194" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="221"/>
+      <c r="C13" s="214"/>
       <c r="D13" s="134" t="s">
         <v>199</v>
       </c>
       <c r="E13" s="135">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F13" s="135">
+        <v>20</v>
+      </c>
+      <c r="G13" s="135">
+        <v>20</v>
+      </c>
+      <c r="H13" s="135">
         <v>15</v>
       </c>
-      <c r="G13" s="135">
-        <v>11</v>
-      </c>
-      <c r="H13" s="135">
-        <v>10</v>
-      </c>
       <c r="I13" s="135">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J13" s="134">
         <v>6</v>
@@ -5688,175 +5779,179 @@
       <c r="K13" s="134">
         <v>5</v>
       </c>
-      <c r="L13" s="197">
+      <c r="L13" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>105</v>
-      </c>
-      <c r="M13" s="204"/>
-      <c r="N13" s="203" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>192</v>
+      </c>
+      <c r="N13" s="198"/>
+      <c r="O13" s="197" t="s">
         <v>308</v>
       </c>
-      <c r="O13" s="203" t="s">
+      <c r="P13" s="197" t="s">
         <v>309</v>
       </c>
-      <c r="P13" s="203" t="s">
+      <c r="Q13" s="197" t="s">
         <v>310</v>
       </c>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="230"/>
-      <c r="S13" s="192">
-        <f>AF13*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>12.798095913814292</v>
-      </c>
-      <c r="T13" s="187">
+      <c r="R13" s="197"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="186">
+        <f>AG13*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>6.970329529190944</v>
+      </c>
+      <c r="U13" s="289">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.7268932617769828</v>
-      </c>
-      <c r="U13" s="161">
+        <v>4.1284782429196598</v>
+      </c>
+      <c r="V13" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="V13" s="164">
+        <v>26.4</v>
+      </c>
+      <c r="W13" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>9.4871794871794854</v>
-      </c>
-      <c r="W13" s="170">
+        <v>5.6060606060606064</v>
+      </c>
+      <c r="X13" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>58.139534883720934</v>
-      </c>
-      <c r="X13" s="171">
+        <v>108.99182561307902</v>
+      </c>
+      <c r="Y13" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>9.4216560509554164</v>
-      </c>
-      <c r="Y13" s="174">
+        <v>5.0257961783439509</v>
+      </c>
+      <c r="Z13" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>146.97783439490451</v>
-      </c>
-      <c r="Z13" s="176">
+        <v>132.68101910828028</v>
+      </c>
+      <c r="AA13" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>551.58020274299338</v>
-      </c>
-      <c r="AA13" s="180">
+        <v>611.01477995210962</v>
+      </c>
+      <c r="AB13" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>349.27901856894891</v>
-      </c>
-      <c r="AB13" s="180">
+        <v>371.84789953019492</v>
+      </c>
+      <c r="AC13" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3516128221335109</v>
-      </c>
-      <c r="AC13" s="180">
+        <v>1.2695782350699152</v>
+      </c>
+      <c r="AD13" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>73.739534883720935</v>
-      </c>
-      <c r="AD13" s="180">
+        <v>135.39182561307902</v>
+      </c>
+      <c r="AE13" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>99.667300846998529</v>
-      </c>
-      <c r="AE13" s="180">
+        <v>171.89051500474659</v>
+      </c>
+      <c r="AF13" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>58.305370995494137</v>
-      </c>
-      <c r="AF13" s="180">
+        <v>100.55595127777674</v>
+      </c>
+      <c r="AG13" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>9.4687588814173811</v>
-      </c>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="135">
-        <v>1291</v>
-      </c>
-      <c r="AI13" s="196">
+        <v>5.4902717584844947</v>
+      </c>
+      <c r="AH13" s="182"/>
+      <c r="AI13" s="135">
+        <v>708</v>
+      </c>
+      <c r="AJ13" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>9.492647058823529</v>
-      </c>
-      <c r="AJ13" s="196">
+        <v>5.2058823529411766</v>
+      </c>
+      <c r="AK13" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>105.34469403563129</v>
-      </c>
-      <c r="AK13" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>142.38970588235296</v>
-      </c>
-      <c r="AL13" s="247"/>
-      <c r="AM13" s="253" t="s">
+        <v>192.09039548022599</v>
+      </c>
+      <c r="AL13" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>78.125</v>
+      </c>
+      <c r="AM13" s="240"/>
+      <c r="AN13" s="246" t="s">
         <v>281</v>
       </c>
-      <c r="AN13" s="235"/>
-      <c r="AO13" s="235">
+      <c r="AO13" s="228"/>
+      <c r="AP13" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.4036248707867958E-2</v>
-      </c>
-      <c r="AP13" s="235">
+        <v>7.8820146952747014E-2</v>
+      </c>
+      <c r="AQ13" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>106.13845321795563</v>
-      </c>
-      <c r="AQ13" s="235">
+        <v>198.97344908434189</v>
+      </c>
+      <c r="AR13" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>105.40540540540543</v>
-      </c>
-      <c r="AR13" s="235">
+        <v>178.37837837837839</v>
+      </c>
+      <c r="AS13" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>33.725490196078432</v>
-      </c>
-      <c r="AS13" s="235">
+        <v>19.770114942528732</v>
+      </c>
+      <c r="AT13" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>2.56</v>
-      </c>
-      <c r="AT13" s="235">
+        <v>1.3750000000000002</v>
+      </c>
+      <c r="AU13" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>30</v>
-      </c>
-      <c r="AU13" s="235">
+        <v>53</v>
+      </c>
+      <c r="AV13" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.7268932617769828</v>
-      </c>
-      <c r="AV13" s="235" t="e">
+        <v>4.1284782429196598</v>
+      </c>
+      <c r="AW13" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW13" s="243" t="e">
+      <c r="AX13" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX13" s="243" t="e">
+      <c r="AY13" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY13" s="241">
+      <c r="AZ13" s="234">
         <v>1237</v>
       </c>
-      <c r="AZ13" s="241">
+      <c r="BA13" s="234">
         <v>1035</v>
       </c>
-      <c r="BA13" s="244" t="e">
+      <c r="BB13" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="200" t="s">
+    <row r="14" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="222"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="139">
         <v>145</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="139">
         <v>28</v>
       </c>
-      <c r="G14" s="140">
-        <v>15</v>
-      </c>
-      <c r="H14" s="140">
-        <v>24</v>
-      </c>
-      <c r="I14" s="140">
-        <v>24</v>
+      <c r="G14" s="139">
+        <v>30</v>
+      </c>
+      <c r="H14" s="139">
+        <v>36</v>
+      </c>
+      <c r="I14" s="139">
+        <v>36</v>
       </c>
       <c r="J14" s="134">
         <v>7</v>
@@ -5864,158 +5959,161 @@
       <c r="K14" s="134">
         <v>4</v>
       </c>
-      <c r="L14" s="197">
+      <c r="L14" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>335</v>
-      </c>
-      <c r="M14" s="204"/>
-      <c r="N14" s="203" t="s">
+        <v>501</v>
+      </c>
+      <c r="M14" s="191">
+        <v>500</v>
+      </c>
+      <c r="N14" s="198"/>
+      <c r="O14" s="197" t="s">
         <v>311</v>
       </c>
-      <c r="O14" s="203" t="s">
+      <c r="P14" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="P14" s="203" t="s">
+      <c r="Q14" s="197" t="s">
         <v>313</v>
       </c>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="230"/>
-      <c r="S14" s="192">
-        <f>AF14*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>4.0983748493313668</v>
-      </c>
-      <c r="T14" s="187">
+      <c r="R14" s="197"/>
+      <c r="S14" s="223"/>
+      <c r="T14" s="186">
+        <f>AG14*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.9585012512679931</v>
+      </c>
+      <c r="U14" s="289">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.6127455670366113</v>
-      </c>
-      <c r="U14" s="161">
+        <v>3.2599858988747878</v>
+      </c>
+      <c r="V14" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>49.92</v>
-      </c>
-      <c r="V14" s="164">
+        <v>74.88</v>
+      </c>
+      <c r="W14" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>2.9647435897435894</v>
-      </c>
-      <c r="W14" s="170">
+        <v>1.9764957264957266</v>
+      </c>
+      <c r="X14" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>180.34825870646765</v>
-      </c>
-      <c r="X14" s="171">
+        <v>244.10774410774411</v>
+      </c>
+      <c r="Y14" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>3.0372940918076003</v>
-      </c>
-      <c r="Y14" s="174">
+        <v>2.2439710081265107</v>
+      </c>
+      <c r="Z14" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>151.62172106303541</v>
-      </c>
-      <c r="Z14" s="176">
+        <v>168.0285490885131</v>
+      </c>
+      <c r="AA14" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>534.68634392141848</v>
-      </c>
-      <c r="AA14" s="180">
+        <v>482.47791303346861</v>
+      </c>
+      <c r="AB14" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>343.15403249222697</v>
-      </c>
-      <c r="AB14" s="180">
+        <v>325.25323106099086</v>
+      </c>
+      <c r="AC14" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3757378765778998</v>
-      </c>
-      <c r="AC14" s="180">
+        <v>1.451453682596852</v>
+      </c>
+      <c r="AD14" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>230.26825870646763</v>
-      </c>
-      <c r="AD14" s="180">
+        <v>318.98774410774411</v>
+      </c>
+      <c r="AE14" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>316.7887652761263</v>
-      </c>
-      <c r="AE14" s="180">
+        <v>462.99593588844749</v>
+      </c>
+      <c r="AF14" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>185.32142768653387</v>
-      </c>
-      <c r="AF14" s="180">
+        <v>270.85262249474175</v>
+      </c>
+      <c r="AG14" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>2.9790375907407096</v>
-      </c>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="135">
-        <v>405</v>
-      </c>
-      <c r="AI14" s="196">
+        <v>2.0383022115971512</v>
+      </c>
+      <c r="AH14" s="182"/>
+      <c r="AI14" s="135">
+        <v>271</v>
+      </c>
+      <c r="AJ14" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>2.9779411764705883</v>
-      </c>
-      <c r="AJ14" s="196">
+        <v>1.9926470588235294</v>
+      </c>
+      <c r="AK14" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>335.80246913580248</v>
-      </c>
-      <c r="AK14" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>44.669117647058819</v>
-      </c>
-      <c r="AL14" s="247"/>
-      <c r="AM14" s="253" t="s">
+        <v>501.84501845018451</v>
+      </c>
+      <c r="AL14" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>30</v>
+      </c>
+      <c r="AM14" s="240"/>
+      <c r="AN14" s="246" t="s">
         <v>284</v>
       </c>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="235">
+      <c r="AO14" s="228"/>
+      <c r="AP14" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.2737942859533986E-2</v>
-      </c>
-      <c r="AP14" s="235">
+        <v>6.8943531754443413E-2</v>
+      </c>
+      <c r="AQ14" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>329.24042577808621</v>
-      </c>
-      <c r="AQ14" s="235">
+        <v>445.63855610367227</v>
+      </c>
+      <c r="AR14" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>337.29729729729729</v>
-      </c>
-      <c r="AR14" s="235">
+        <v>505.94594594594588</v>
+      </c>
+      <c r="AS14" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>10.356454720616572</v>
-      </c>
-      <c r="AS14" s="235">
+        <v>6.9043031470777141</v>
+      </c>
+      <c r="AT14" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.82758620689655182</v>
-      </c>
-      <c r="AT14" s="235">
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="AU14" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>94</v>
-      </c>
-      <c r="AU14" s="235">
+        <v>135</v>
+      </c>
+      <c r="AV14" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.6127455670366113</v>
-      </c>
-      <c r="AV14" s="235" t="e">
+        <v>3.2599858988747878</v>
+      </c>
+      <c r="AW14" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW14" s="243" t="e">
+      <c r="AX14" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX14" s="243" t="e">
+      <c r="AY14" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY14" s="241">
+      <c r="AZ14" s="234">
         <v>385</v>
       </c>
-      <c r="AZ14" s="241">
+      <c r="BA14" s="234">
         <v>326</v>
       </c>
-      <c r="BA14" s="244" t="e">
+      <c r="BB14" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="200" t="s">
+    <row r="15" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="194" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="221"/>
+      <c r="C15" s="214"/>
       <c r="D15" s="134" t="s">
         <v>19</v>
       </c>
@@ -6029,10 +6127,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="134">
         <v>4</v>
@@ -6040,158 +6138,161 @@
       <c r="K15" s="134">
         <v>7</v>
       </c>
-      <c r="L15" s="197">
+      <c r="L15" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>15</v>
-      </c>
-      <c r="M15" s="204"/>
-      <c r="N15" s="203" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="191">
+        <v>45</v>
+      </c>
+      <c r="N15" s="198"/>
+      <c r="O15" s="197" t="s">
         <v>305</v>
       </c>
-      <c r="O15" s="203" t="s">
+      <c r="P15" s="197" t="s">
         <v>314</v>
       </c>
-      <c r="P15" s="203" t="s">
+      <c r="Q15" s="197" t="s">
         <v>315</v>
       </c>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="230"/>
-      <c r="S15" s="192">
-        <f>AF15*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>89.786872864641239</v>
-      </c>
-      <c r="T15" s="153">
+      <c r="R15" s="197"/>
+      <c r="S15" s="223"/>
+      <c r="T15" s="186">
+        <f>AG15*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>68.630944887990381</v>
+      </c>
+      <c r="U15" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.8660790226552231</v>
-      </c>
-      <c r="U15" s="161">
+        <v>1.5464316090620893</v>
+      </c>
+      <c r="V15" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>2.16</v>
-      </c>
-      <c r="V15" s="164">
+        <v>5.4</v>
+      </c>
+      <c r="W15" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>68.518518518518519</v>
-      </c>
-      <c r="W15" s="170">
+        <v>27.407407407407405</v>
+      </c>
+      <c r="X15" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>8.3507306889352826</v>
       </c>
-      <c r="X15" s="171">
+      <c r="Y15" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>65.595541401273891</v>
       </c>
-      <c r="Y15" s="174">
+      <c r="Z15" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>141.68636942675161</v>
-      </c>
-      <c r="Z15" s="176">
+        <v>354.21592356687904</v>
+      </c>
+      <c r="AA15" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>572.17969535297311</v>
-      </c>
-      <c r="AA15" s="180">
+        <v>228.8718781411892</v>
+      </c>
+      <c r="AB15" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>356.93303238986238</v>
-      </c>
-      <c r="AB15" s="180">
+        <v>291.54390085403412</v>
+      </c>
+      <c r="AC15" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.3226290568824592</v>
-      </c>
-      <c r="AC15" s="180">
+        <v>1.619275857313712</v>
+      </c>
+      <c r="AD15" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>10.510730688935283</v>
-      </c>
-      <c r="AD15" s="180">
+        <v>13.750730688935283</v>
+      </c>
+      <c r="AE15" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>13.901797818251994</v>
-      </c>
-      <c r="AE15" s="180">
+        <v>22.26622622501565</v>
+      </c>
+      <c r="AF15" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>8.1325517236774161</v>
-      </c>
-      <c r="AF15" s="180">
+        <v>13.025742341634155</v>
+      </c>
+      <c r="AG15" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>67.885150713591585</v>
-      </c>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="196">
-        <v>8610</v>
-      </c>
-      <c r="AI15" s="196">
+        <v>42.383726391033377</v>
+      </c>
+      <c r="AH15" s="182"/>
+      <c r="AI15" s="190">
+        <v>5260</v>
+      </c>
+      <c r="AJ15" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>63.308823529411768</v>
-      </c>
-      <c r="AJ15" s="196">
+        <v>38.676470588235297</v>
+      </c>
+      <c r="AK15" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>15.795586527293844</v>
-      </c>
-      <c r="AK15" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>949.63235294117646</v>
-      </c>
-      <c r="AL15" s="247"/>
-      <c r="AM15" s="253" t="s">
+        <v>25.85551330798479</v>
+      </c>
+      <c r="AL15" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="AM15" s="240"/>
+      <c r="AN15" s="246" t="s">
         <v>286</v>
       </c>
-      <c r="AN15" s="235"/>
-      <c r="AO15" s="235">
+      <c r="AO15" s="228"/>
+      <c r="AP15" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>7.5658660707249886E-2</v>
-      </c>
-      <c r="AP15" s="235">
+        <v>6.1798206034040223E-2</v>
+      </c>
+      <c r="AQ15" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>15.244938583288828</v>
-      </c>
-      <c r="AQ15" s="235">
+        <v>15.244938583288826</v>
+      </c>
+      <c r="AR15" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>14.594594594594593</v>
-      </c>
-      <c r="AR15" s="235">
+        <v>36.486486486486491</v>
+      </c>
+      <c r="AS15" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>251.46198830409358</v>
-      </c>
-      <c r="AS15" s="235">
+        <v>100.58479532163743</v>
+      </c>
+      <c r="AT15" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>17.75</v>
       </c>
-      <c r="AT15" s="235">
+      <c r="AU15" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>4</v>
-      </c>
-      <c r="AU15" s="235">
+        <v>6</v>
+      </c>
+      <c r="AV15" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.8660790226552231</v>
-      </c>
-      <c r="AV15" s="235" t="e">
+        <v>1.5464316090620893</v>
+      </c>
+      <c r="AW15" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW15" s="243" t="e">
+      <c r="AX15" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX15" s="243" t="e">
+      <c r="AY15" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY15" s="241">
+      <c r="AZ15" s="234">
         <v>8939</v>
       </c>
-      <c r="AZ15" s="241">
+      <c r="BA15" s="234">
         <v>7332</v>
       </c>
-      <c r="BA15" s="244" t="e">
+      <c r="BB15" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+    <row r="16" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="222"/>
+      <c r="C16" s="215"/>
       <c r="D16" s="134" t="s">
         <v>198</v>
       </c>
@@ -6199,16 +6300,16 @@
         <v>20</v>
       </c>
       <c r="F16" s="135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="135">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H16" s="135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" s="134">
         <v>5</v>
@@ -6216,175 +6317,176 @@
       <c r="K16" s="134">
         <v>5</v>
       </c>
-      <c r="L16" s="197">
+      <c r="L16" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>31</v>
-      </c>
-      <c r="M16" s="204"/>
-      <c r="N16" s="203" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="191">
+        <v>60</v>
+      </c>
+      <c r="N16" s="198"/>
+      <c r="O16" s="197" t="s">
         <v>316</v>
       </c>
-      <c r="O16" s="203" t="s">
+      <c r="P16" s="197" t="s">
         <v>317</v>
       </c>
-      <c r="P16" s="203" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="192">
-        <f>AF16*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>37.818519196630078</v>
-      </c>
-      <c r="T16" s="153">
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="186">
+        <f>AG16*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>31.083829528898459</v>
+      </c>
+      <c r="U16" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.9980965177471726</v>
-      </c>
-      <c r="U16" s="161">
+        <v>3.5179556456152197</v>
+      </c>
+      <c r="V16" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>3.12</v>
-      </c>
-      <c r="V16" s="164">
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="W16" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>47.435897435897431</v>
-      </c>
-      <c r="W16" s="170">
+        <v>22.023809523809522</v>
+      </c>
+      <c r="X16" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>21.834061135371179</v>
-      </c>
-      <c r="X16" s="171">
+        <v>23.640661938534279</v>
+      </c>
+      <c r="Y16" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>25.087898089171979</v>
-      </c>
-      <c r="Y16" s="174">
+        <v>23.17070063694268</v>
+      </c>
+      <c r="Z16" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>78.274242038216585</v>
-      </c>
-      <c r="Z16" s="176">
+        <v>155.70710828025483</v>
+      </c>
+      <c r="AA16" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>1035.7182846265814</v>
-      </c>
-      <c r="AA16" s="180">
+        <v>520.65743555105257</v>
+      </c>
+      <c r="AB16" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>556.99626333239894</v>
-      </c>
-      <c r="AB16" s="180">
+        <v>338.1822719156537</v>
+      </c>
+      <c r="AC16" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.84756403422812654</v>
-      </c>
-      <c r="AC16" s="180">
+        <v>1.3959631808190829</v>
+      </c>
+      <c r="AD16" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>24.95406113537118</v>
-      </c>
-      <c r="AD16" s="180">
+        <v>30.360661938534278</v>
+      </c>
+      <c r="AE16" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>21.1501647262705</v>
-      </c>
-      <c r="AE16" s="180">
+        <v>42.382366211489177</v>
+      </c>
+      <c r="AF16" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>12.372846364868241</v>
-      </c>
-      <c r="AF16" s="180">
+        <v>24.793684233721166</v>
+      </c>
+      <c r="AG16" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>44.620250116053192</v>
-      </c>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="135">
-        <v>4359</v>
-      </c>
-      <c r="AI16" s="196">
+        <v>22.266940816204041</v>
+      </c>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="135">
+        <v>2845</v>
+      </c>
+      <c r="AJ16" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>32.051470588235297</v>
-      </c>
-      <c r="AJ16" s="196">
+        <v>20.919117647058822</v>
+      </c>
+      <c r="AK16" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>31.199816471667813</v>
-      </c>
-      <c r="AK16" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>480.77205882352945</v>
-      </c>
-      <c r="AL16" s="247"/>
-      <c r="AM16" s="253" t="s">
+        <v>47.803163444639722</v>
+      </c>
+      <c r="AL16" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>250</v>
+      </c>
+      <c r="AM16" s="240"/>
+      <c r="AN16" s="246" t="s">
         <v>285</v>
       </c>
-      <c r="AN16" s="235"/>
-      <c r="AO16" s="235">
+      <c r="AO16" s="228"/>
+      <c r="AP16" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.11806582041597809</v>
-      </c>
-      <c r="AP16" s="235">
+        <v>7.1684084817698904E-2</v>
+      </c>
+      <c r="AQ16" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>39.859855793642723</v>
-      </c>
-      <c r="AQ16" s="235">
+        <v>43.157952608719548</v>
+      </c>
+      <c r="AR16" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>21.081081081081084</v>
-      </c>
-      <c r="AR16" s="235">
+        <v>45.405405405405403</v>
+      </c>
+      <c r="AS16" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>174.79674796747972</v>
-      </c>
-      <c r="AS16" s="235">
+        <v>80.524344569288388</v>
+      </c>
+      <c r="AT16" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>6.8</v>
-      </c>
-      <c r="AT16" s="235">
+        <v>6.3</v>
+      </c>
+      <c r="AU16" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>8</v>
-      </c>
-      <c r="AU16" s="235">
+        <v>12</v>
+      </c>
+      <c r="AV16" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.9980965177471726</v>
-      </c>
-      <c r="AV16" s="235" t="e">
+        <v>3.5179556456152197</v>
+      </c>
+      <c r="AW16" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW16" s="243" t="e">
+      <c r="AX16" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX16" s="243" t="e">
+      <c r="AY16" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY16" s="241">
+      <c r="AZ16" s="234">
         <v>4676</v>
       </c>
-      <c r="AZ16" s="241">
+      <c r="BA16" s="234">
         <v>3982</v>
       </c>
-      <c r="BA16" s="244" t="e">
+      <c r="BB16" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:53" s="137" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="200" t="s">
+    <row r="17" spans="1:54" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="221"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="134" t="s">
         <v>200</v>
       </c>
       <c r="E17" s="135">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F17" s="135">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G17" s="135">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H17" s="135">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I17" s="135">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J17" s="134">
         <v>4</v>
@@ -6392,173 +6494,177 @@
       <c r="K17" s="134">
         <v>8</v>
       </c>
-      <c r="L17" s="197">
+      <c r="L17" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>72</v>
-      </c>
-      <c r="M17" s="204"/>
-      <c r="N17" s="203" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>129</v>
+      </c>
+      <c r="N17" s="198"/>
+      <c r="O17" s="197" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="O17" s="203" t="s">
-        <v>320</v>
-      </c>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="230"/>
-      <c r="S17" s="192">
-        <f>AF17*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>16.618663282514987</v>
-      </c>
-      <c r="T17" s="153">
+      <c r="Q17" s="197"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="186">
+        <f>AG17*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>10.027670465966118</v>
+      </c>
+      <c r="U17" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.7603686635944698</v>
-      </c>
-      <c r="U17" s="161">
+        <v>4.4463050520970135</v>
+      </c>
+      <c r="V17" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>8.4</v>
-      </c>
-      <c r="V17" s="164">
+        <v>17.28</v>
+      </c>
+      <c r="W17" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>17.619047619047617</v>
-      </c>
-      <c r="W17" s="170">
+        <v>8.5648148148148149</v>
+      </c>
+      <c r="X17" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>48.387096774193552</v>
-      </c>
-      <c r="X17" s="171">
+        <v>76.832151300236404</v>
+      </c>
+      <c r="Y17" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>11.320594479830151</v>
-      </c>
-      <c r="Y17" s="174">
+        <v>7.1294463498285179</v>
+      </c>
+      <c r="Z17" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>95.092993630573275</v>
-      </c>
-      <c r="Z17" s="176">
+        <v>123.1968329250368</v>
+      </c>
+      <c r="AA17" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>852.53456221198155</v>
-      </c>
-      <c r="AA17" s="180">
+        <v>658.05314771035808</v>
+      </c>
+      <c r="AB17" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>473.81377792127739</v>
-      </c>
-      <c r="AB17" s="180">
+        <v>390.62499031769744</v>
+      </c>
+      <c r="AC17" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.99636190840874239</v>
-      </c>
-      <c r="AC17" s="180">
+        <v>1.2085504299559704</v>
+      </c>
+      <c r="AD17" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>56.78709677419355</v>
-      </c>
-      <c r="AD17" s="180">
+        <v>94.112151300236405</v>
+      </c>
+      <c r="AE17" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>56.580500114927425</v>
-      </c>
-      <c r="AE17" s="180">
+        <v>113.73928091798204</v>
+      </c>
+      <c r="AF17" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>33.099592567232541</v>
-      </c>
-      <c r="AF17" s="180">
+        <v>66.537479337019491</v>
+      </c>
+      <c r="AG17" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>16.679344264631833</v>
-      </c>
-      <c r="AG17" s="188"/>
-      <c r="AH17" s="135">
-        <v>1865</v>
-      </c>
-      <c r="AI17" s="196">
+        <v>8.2972710260269764</v>
+      </c>
+      <c r="AH17" s="182"/>
+      <c r="AI17" s="135">
+        <v>1050</v>
+      </c>
+      <c r="AJ17" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>13.713235294117647</v>
-      </c>
-      <c r="AJ17" s="196">
+        <v>7.7205882352941178</v>
+      </c>
+      <c r="AK17" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>72.922252010723867</v>
-      </c>
-      <c r="AK17" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>205.6985294117647</v>
-      </c>
-      <c r="AL17" s="247"/>
-      <c r="AM17" s="253" t="s">
+        <v>129.52380952380952</v>
+      </c>
+      <c r="AL17" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>116.27906976744185</v>
+      </c>
+      <c r="AM17" s="240"/>
+      <c r="AN17" s="246" t="s">
         <v>287</v>
       </c>
-      <c r="AN17" s="235"/>
-      <c r="AO17" s="235">
+      <c r="AO17" s="228"/>
+      <c r="AP17" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.10043373016541332</v>
-      </c>
-      <c r="AP17" s="235">
+        <v>8.2800304046779058E-2</v>
+      </c>
+      <c r="AQ17" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>88.334583645911451</v>
-      </c>
-      <c r="AQ17" s="235">
+        <v>140.26334597833849</v>
+      </c>
+      <c r="AR17" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>56.756756756756758</v>
-      </c>
-      <c r="AR17" s="235">
+        <v>116.75675675675676</v>
+      </c>
+      <c r="AS17" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>63.988095238095241</v>
-      </c>
-      <c r="AS17" s="235">
+        <v>30.626780626780629</v>
+      </c>
+      <c r="AT17" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>3.0666666666666669</v>
-      </c>
-      <c r="AT17" s="235">
+        <v>1.9384615384615385</v>
+      </c>
+      <c r="AU17" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>20</v>
-      </c>
-      <c r="AU17" s="235">
+        <v>36</v>
+      </c>
+      <c r="AV17" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.7603686635944698</v>
-      </c>
-      <c r="AV17" s="235" t="e">
+        <v>4.4463050520970135</v>
+      </c>
+      <c r="AW17" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW17" s="243" t="e">
+      <c r="AX17" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX17" s="243" t="e">
+      <c r="AY17" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY17" s="241">
+      <c r="AZ17" s="234">
         <v>1872</v>
       </c>
-      <c r="AZ17" s="241">
+      <c r="BA17" s="234">
         <v>1601</v>
       </c>
-      <c r="BA17" s="244" t="e">
+      <c r="BB17" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
+    <row r="18" spans="1:54" s="136" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="194" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="222"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="139">
         <v>165</v>
       </c>
-      <c r="F18" s="140">
-        <v>12</v>
-      </c>
-      <c r="G18" s="140">
-        <v>17</v>
-      </c>
-      <c r="H18" s="140">
-        <v>16</v>
-      </c>
-      <c r="I18" s="140">
-        <v>16</v>
+      <c r="F18" s="139">
+        <v>24</v>
+      </c>
+      <c r="G18" s="139">
+        <v>34</v>
+      </c>
+      <c r="H18" s="139">
+        <v>30</v>
+      </c>
+      <c r="I18" s="139">
+        <v>30</v>
       </c>
       <c r="J18" s="134">
         <v>3</v>
@@ -6566,158 +6672,162 @@
       <c r="K18" s="134">
         <v>7</v>
       </c>
-      <c r="L18" s="197">
+      <c r="L18" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>252</v>
-      </c>
-      <c r="M18" s="204"/>
-      <c r="N18" s="203" t="s">
+        <v>472</v>
+      </c>
+      <c r="M18" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>472</v>
+      </c>
+      <c r="N18" s="198"/>
+      <c r="O18" s="197" t="s">
+        <v>320</v>
+      </c>
+      <c r="P18" s="197" t="s">
         <v>321</v>
       </c>
-      <c r="O18" s="203" t="s">
+      <c r="Q18" s="197" t="s">
         <v>322</v>
       </c>
-      <c r="P18" s="203" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="230"/>
-      <c r="S18" s="192">
-        <f>AF18*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>4.00445615147349</v>
-      </c>
-      <c r="T18" s="153">
+      <c r="R18" s="197"/>
+      <c r="S18" s="223"/>
+      <c r="T18" s="186">
+        <f>AG18*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.5905786165539584</v>
+      </c>
+      <c r="U18" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>9.2286834192439855</v>
-      </c>
-      <c r="U18" s="161">
+        <v>5.3245043370508052</v>
+      </c>
+      <c r="V18" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>23.04</v>
-      </c>
-      <c r="V18" s="164">
+        <v>57.599999999999994</v>
+      </c>
+      <c r="W18" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>6.4236111111111116</v>
-      </c>
-      <c r="W18" s="170">
+        <v>2.5694444444444446</v>
+      </c>
+      <c r="X18" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>212.62886597938143</v>
-      </c>
-      <c r="X18" s="171">
+        <v>306.69144981412637</v>
+      </c>
+      <c r="Y18" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>2.576182204207683</v>
-      </c>
-      <c r="Y18" s="174">
+        <v>1.786064466319244</v>
+      </c>
+      <c r="Z18" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>59.355237984945013</v>
-      </c>
-      <c r="Z18" s="176">
+        <v>102.87731325998844</v>
+      </c>
+      <c r="AA18" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>1365.8451460481099</v>
-      </c>
-      <c r="AA18" s="180">
+        <v>788.02664188351923</v>
+      </c>
+      <c r="AB18" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>712.60019201652744</v>
-      </c>
-      <c r="AB18" s="180">
+        <v>445.45197757175384</v>
+      </c>
+      <c r="AC18" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.66248929664763645</v>
-      </c>
-      <c r="AC18" s="180">
+        <v>1.0597999869109465</v>
+      </c>
+      <c r="AD18" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>235.66886597938142</v>
-      </c>
-      <c r="AD18" s="180">
+        <v>364.29144981412639</v>
+      </c>
+      <c r="AE18" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>156.1281012644265</v>
-      </c>
-      <c r="AE18" s="180">
+        <v>386.07607374478084</v>
+      </c>
+      <c r="AF18" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>91.334939239689504</v>
-      </c>
-      <c r="AF18" s="180">
+        <v>225.85450314069678</v>
+      </c>
+      <c r="AG18" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>6.0445597713609134</v>
-      </c>
-      <c r="AG18" s="188"/>
-      <c r="AH18" s="135">
-        <v>538</v>
-      </c>
-      <c r="AI18" s="196">
+        <v>2.4444033294479</v>
+      </c>
+      <c r="AH18" s="182"/>
+      <c r="AI18" s="135">
+        <v>288</v>
+      </c>
+      <c r="AJ18" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>3.9558823529411766</v>
-      </c>
-      <c r="AJ18" s="196">
+        <v>2.1176470588235294</v>
+      </c>
+      <c r="AK18" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>252.78810408921933</v>
-      </c>
-      <c r="AK18" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>59.338235294117645</v>
-      </c>
-      <c r="AL18" s="247"/>
-      <c r="AM18" s="253" t="s">
+        <v>472.22222222222223</v>
+      </c>
+      <c r="AL18" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>31.779661016949152</v>
+      </c>
+      <c r="AM18" s="240"/>
+      <c r="AN18" s="246" t="s">
         <v>288</v>
       </c>
-      <c r="AN18" s="235"/>
-      <c r="AO18" s="235">
+      <c r="AO18" s="228"/>
+      <c r="AP18" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.15104899590467505</v>
-      </c>
-      <c r="AP18" s="235">
+        <v>9.4421913844228517E-2</v>
+      </c>
+      <c r="AQ18" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>388.17130184607987</v>
-      </c>
-      <c r="AQ18" s="235">
+        <v>559.89020489323059</v>
+      </c>
+      <c r="AR18" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>155.67567567567568</v>
-      </c>
-      <c r="AR18" s="235">
+        <v>389.18918918918916</v>
+      </c>
+      <c r="AS18" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>22.970085470085472</v>
-      </c>
-      <c r="AS18" s="235">
+        <v>9.0146750524109009</v>
+      </c>
+      <c r="AT18" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>0.70303030303030312</v>
-      </c>
-      <c r="AT18" s="235">
+        <v>0.49696969696969695</v>
+      </c>
+      <c r="AU18" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>69</v>
-      </c>
-      <c r="AU18" s="235">
+        <v>132</v>
+      </c>
+      <c r="AV18" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>9.2286834192439855</v>
-      </c>
-      <c r="AV18" s="235" t="e">
+        <v>5.3245043370508052</v>
+      </c>
+      <c r="AW18" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW18" s="243" t="e">
+      <c r="AX18" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX18" s="243" t="e">
+      <c r="AY18" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY18" s="241">
+      <c r="AZ18" s="234">
         <v>544</v>
       </c>
-      <c r="AZ18" s="241">
+      <c r="BA18" s="234">
         <v>477</v>
       </c>
-      <c r="BA18" s="244" t="e">
+      <c r="BB18" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="200" t="s">
+    <row r="19" spans="1:54" s="136" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="221"/>
+      <c r="C19" s="214"/>
       <c r="D19" s="134"/>
       <c r="E19" s="135">
         <v>40</v>
@@ -6740,166 +6850,170 @@
       <c r="K19" s="134">
         <v>7</v>
       </c>
-      <c r="L19" s="197">
+      <c r="L19" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>103</v>
       </c>
-      <c r="M19" s="204"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="192">
-        <f>AF19*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="M19" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>103</v>
+      </c>
+      <c r="N19" s="198"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="197"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="223"/>
+      <c r="T19" s="186">
+        <f>AG19*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>14.878662749208168</v>
       </c>
-      <c r="T19" s="153">
+      <c r="U19" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="U19" s="161">
+      <c r="V19" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>19.760000000000002</v>
       </c>
-      <c r="V19" s="164">
+      <c r="W19" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>7.4898785425101213</v>
       </c>
-      <c r="W19" s="170">
+      <c r="X19" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>43.668122270742359</v>
       </c>
-      <c r="X19" s="171">
+      <c r="Y19" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>12.54394904458599</v>
       </c>
-      <c r="Y19" s="174">
+      <c r="Z19" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>247.86843312101917</v>
       </c>
-      <c r="Z19" s="176">
+      <c r="AA19" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>327.06893198734156</v>
       </c>
-      <c r="AA19" s="180">
+      <c r="AB19" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>287.46868255418036</v>
       </c>
-      <c r="AB19" s="180">
+      <c r="AC19" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.6422310625472161</v>
       </c>
-      <c r="AC19" s="180">
+      <c r="AD19" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>63.428122270742364</v>
       </c>
-      <c r="AD19" s="180">
+      <c r="AE19" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>104.16363263205596</v>
       </c>
-      <c r="AE19" s="180">
+      <c r="AF19" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.935725089752736</v>
       </c>
-      <c r="AF19" s="180">
+      <c r="AG19" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.060030033855476</v>
       </c>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="135">
+      <c r="AH19" s="182"/>
+      <c r="AI19" s="135">
         <v>1315</v>
       </c>
-      <c r="AI19" s="196">
+      <c r="AJ19" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>9.6691176470588243</v>
       </c>
-      <c r="AJ19" s="196">
+      <c r="AK19" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>103.42205323193916</v>
       </c>
-      <c r="AK19" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>145.03676470588235</v>
-      </c>
-      <c r="AL19" s="247"/>
-      <c r="AM19" s="253" t="s">
+      <c r="AL19" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>145.63106796116506</v>
+      </c>
+      <c r="AM19" s="240"/>
+      <c r="AN19" s="246" t="s">
         <v>280</v>
       </c>
-      <c r="AN19" s="235"/>
-      <c r="AO19" s="235">
+      <c r="AO19" s="228"/>
+      <c r="AP19" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>6.0934386968059688E-2</v>
       </c>
-      <c r="AP19" s="235">
+      <c r="AQ19" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>79.71971158728546</v>
       </c>
-      <c r="AQ19" s="235">
+      <c r="AR19" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>133.51351351351352</v>
       </c>
-      <c r="AR19" s="235">
+      <c r="AS19" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>26.674937965260547</v>
       </c>
-      <c r="AS19" s="235">
+      <c r="AT19" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>3.4</v>
       </c>
-      <c r="AT19" s="235">
+      <c r="AU19" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>29</v>
       </c>
-      <c r="AU19" s="235">
+      <c r="AV19" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.2099252161306859</v>
       </c>
-      <c r="AV19" s="235" t="e">
+      <c r="AW19" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW19" s="243" t="e">
+      <c r="AX19" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX19" s="243" t="e">
+      <c r="AY19" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY19" s="241">
+      <c r="AZ19" s="234">
         <v>1217</v>
       </c>
-      <c r="AZ19" s="241">
+      <c r="BA19" s="234">
         <v>1233</v>
       </c>
-      <c r="BA19" s="244" t="e">
+      <c r="BB19" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="200" t="s">
+    <row r="20" spans="1:54" s="136" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="194" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="222"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="134"/>
-      <c r="E20" s="140">
+      <c r="E20" s="139">
         <v>53</v>
       </c>
-      <c r="F20" s="140">
+      <c r="F20" s="139">
         <v>13</v>
       </c>
-      <c r="G20" s="140">
+      <c r="G20" s="139">
         <v>10</v>
       </c>
-      <c r="H20" s="140">
+      <c r="H20" s="139">
         <v>11</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="139">
         <v>11</v>
       </c>
       <c r="J20" s="134">
@@ -6908,342 +7022,350 @@
       <c r="K20" s="134">
         <v>7</v>
       </c>
-      <c r="L20" s="197">
+      <c r="L20" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>111</v>
       </c>
-      <c r="M20" s="204"/>
-      <c r="N20" s="203" t="s">
+      <c r="M20" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>111</v>
+      </c>
+      <c r="N20" s="198"/>
+      <c r="O20" s="197" t="s">
         <v>191</v>
       </c>
-      <c r="O20" s="203" t="s">
+      <c r="P20" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="203" t="s">
+      <c r="Q20" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="230"/>
-      <c r="S20" s="192">
-        <f>AF20*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="R20" s="197"/>
+      <c r="S20" s="223"/>
+      <c r="T20" s="186">
+        <f>AG20*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.268807281048847</v>
       </c>
-      <c r="T20" s="153">
+      <c r="U20" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="U20" s="161">
+      <c r="V20" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>16.28</v>
       </c>
-      <c r="V20" s="164">
+      <c r="W20" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.0909090909090899</v>
       </c>
-      <c r="W20" s="170">
+      <c r="X20" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>60.640732265446225</v>
       </c>
-      <c r="X20" s="171">
+      <c r="Y20" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>9.0330489123903401</v>
       </c>
-      <c r="Y20" s="174">
+      <c r="Z20" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>147.05803629371474</v>
       </c>
-      <c r="Z20" s="176">
+      <c r="AA20" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>551.27938423132923</v>
       </c>
-      <c r="AA20" s="180">
+      <c r="AB20" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>349.16871026252198</v>
       </c>
-      <c r="AB20" s="180">
+      <c r="AC20" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3520398195046166</v>
       </c>
-      <c r="AC20" s="180">
+      <c r="AD20" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>76.920732265446219</v>
       </c>
-      <c r="AD20" s="180">
+      <c r="AE20" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>103.99989296833684</v>
       </c>
-      <c r="AE20" s="180">
+      <c r="AF20" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.839937386477047</v>
       </c>
-      <c r="AF20" s="180">
+      <c r="AG20" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.0742943396031794</v>
       </c>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="135">
+      <c r="AH20" s="182"/>
+      <c r="AI20" s="135">
         <v>1217</v>
       </c>
-      <c r="AI20" s="196">
+      <c r="AJ20" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>8.9485294117647065</v>
       </c>
-      <c r="AJ20" s="196">
+      <c r="AK20" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>111.75020542317172</v>
       </c>
-      <c r="AK20" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>134.22794117647061</v>
-      </c>
-      <c r="AL20" s="247"/>
-      <c r="AM20" s="253" t="s">
+      <c r="AL20" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>135.13513513513513</v>
+      </c>
+      <c r="AM20" s="240"/>
+      <c r="AN20" s="246" t="s">
         <v>189</v>
       </c>
-      <c r="AN20" s="235"/>
-      <c r="AO20" s="235">
+      <c r="AO20" s="228"/>
+      <c r="AP20" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.4012866790332144E-2</v>
       </c>
-      <c r="AP20" s="235">
+      <c r="AQ20" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>110.70459262412855</v>
       </c>
-      <c r="AQ20" s="235">
+      <c r="AR20" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="AR20" s="235">
+      <c r="AS20" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.440588457185967</v>
       </c>
-      <c r="AS20" s="235">
+      <c r="AT20" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.4528301886792452</v>
       </c>
-      <c r="AT20" s="235">
+      <c r="AU20" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AU20" s="235">
+      <c r="AV20" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7248607042657382</v>
       </c>
-      <c r="AV20" s="235" t="e">
+      <c r="AW20" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW20" s="243" t="e">
+      <c r="AX20" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX20" s="243" t="e">
+      <c r="AY20" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY20" s="241">
+      <c r="AZ20" s="234">
         <v>1182</v>
       </c>
-      <c r="AZ20" s="241">
+      <c r="BA20" s="234">
         <v>982</v>
       </c>
-      <c r="BA20" s="244" t="e">
+      <c r="BB20" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="282" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="288" t="s">
+    <row r="21" spans="1:54" s="274" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="280" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="280">
+      <c r="C21" s="214"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="272">
         <v>125</v>
       </c>
-      <c r="F21" s="280">
+      <c r="F21" s="272">
         <v>25</v>
       </c>
-      <c r="G21" s="280">
+      <c r="G21" s="272">
         <v>25</v>
       </c>
-      <c r="H21" s="280">
+      <c r="H21" s="272">
         <v>25</v>
       </c>
-      <c r="I21" s="280">
+      <c r="I21" s="272">
         <v>25</v>
       </c>
-      <c r="J21" s="286">
+      <c r="J21" s="278">
         <v>10</v>
       </c>
-      <c r="K21" s="286">
+      <c r="K21" s="278">
         <v>6</v>
       </c>
-      <c r="L21" s="287">
+      <c r="L21" s="279">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>351</v>
       </c>
-      <c r="M21" s="204"/>
-      <c r="N21" s="285" t="s">
+      <c r="M21" s="279">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>351</v>
+      </c>
+      <c r="N21" s="198"/>
+      <c r="O21" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="230"/>
-      <c r="S21" s="192">
-        <f>AF21*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="P21" s="277"/>
+      <c r="Q21" s="277"/>
+      <c r="R21" s="277"/>
+      <c r="S21" s="223"/>
+      <c r="T21" s="186">
+        <f>AG21*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>3.9777182676619427</v>
       </c>
-      <c r="T21" s="153">
+      <c r="U21" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="U21" s="283">
+      <c r="V21" s="275">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>49</v>
       </c>
-      <c r="V21" s="284">
+      <c r="W21" s="276">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>3.0204081632653059</v>
       </c>
-      <c r="W21" s="284">
+      <c r="X21" s="276">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>188.2530120481928</v>
       </c>
-      <c r="X21" s="284">
+      <c r="Y21" s="276">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>2.9097579617834399</v>
       </c>
-      <c r="Y21" s="284">
+      <c r="Z21" s="276">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>142.57814012738856</v>
       </c>
-      <c r="Z21" s="284">
+      <c r="AA21" s="276">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>568.60093434964358</v>
       </c>
-      <c r="AA21" s="180">
+      <c r="AB21" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>355.58953723851607</v>
       </c>
-      <c r="AB21" s="180">
+      <c r="AC21" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.32762623913577</v>
       </c>
-      <c r="AC21" s="180">
+      <c r="AD21" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>237.2530120481928</v>
       </c>
-      <c r="AD21" s="180">
+      <c r="AE21" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>314.98332410917573</v>
       </c>
-      <c r="AE21" s="180">
+      <c r="AF21" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>184.26524460386779</v>
       </c>
-      <c r="AF21" s="180">
+      <c r="AG21" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>2.9961130251924466</v>
       </c>
-      <c r="AG21" s="188"/>
-      <c r="AH21" s="280">
+      <c r="AH21" s="182"/>
+      <c r="AI21" s="272">
         <v>387</v>
       </c>
-      <c r="AI21" s="281">
+      <c r="AJ21" s="273">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>2.8455882352941178</v>
       </c>
-      <c r="AJ21" s="281">
+      <c r="AK21" s="273">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>351.42118863049092</v>
       </c>
-      <c r="AK21" s="281">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>42.683823529411768</v>
-      </c>
-      <c r="AL21" s="247"/>
-      <c r="AM21" s="277" t="s">
+      <c r="AL21" s="273">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>42.735042735042732</v>
+      </c>
+      <c r="AM21" s="240"/>
+      <c r="AN21" s="269" t="s">
         <v>186</v>
       </c>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278">
+      <c r="AO21" s="270"/>
+      <c r="AP21" s="270">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.5373881674228024E-2</v>
       </c>
-      <c r="AP21" s="278">
+      <c r="AQ21" s="270">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>343.67119641356112</v>
       </c>
-      <c r="AQ21" s="278">
+      <c r="AR21" s="270">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>331.08108108108109</v>
       </c>
-      <c r="AR21" s="278">
+      <c r="AS21" s="270">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>10.584615384615388</v>
       </c>
-      <c r="AS21" s="278">
+      <c r="AT21" s="270">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.8</v>
       </c>
-      <c r="AT21" s="278">
+      <c r="AU21" s="270">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>96</v>
       </c>
-      <c r="AU21" s="278">
+      <c r="AV21" s="270">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.8418982050651591</v>
       </c>
-      <c r="AV21" s="278" t="e">
+      <c r="AW21" s="270" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW21" s="279" t="e">
+      <c r="AX21" s="271" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX21" s="279" t="e">
+      <c r="AY21" s="271" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY21" s="280">
+      <c r="AZ21" s="272">
         <v>387</v>
       </c>
-      <c r="AZ21" s="280">
+      <c r="BA21" s="272">
         <v>387</v>
       </c>
-      <c r="BA21" s="281" t="e">
+      <c r="BB21" s="273" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:53" s="137" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="200" t="s">
+    <row r="22" spans="1:54" s="136" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="222"/>
+      <c r="C22" s="215"/>
       <c r="D22" s="134"/>
-      <c r="E22" s="140">
+      <c r="E22" s="139">
         <v>100</v>
       </c>
-      <c r="F22" s="140">
+      <c r="F22" s="139">
         <v>1</v>
       </c>
-      <c r="G22" s="140">
+      <c r="G22" s="139">
         <v>50</v>
       </c>
-      <c r="H22" s="140">
+      <c r="H22" s="139">
         <v>5</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="139">
         <v>5</v>
       </c>
       <c r="J22" s="134">
@@ -7252,151 +7374,155 @@
       <c r="K22" s="134">
         <v>2</v>
       </c>
-      <c r="L22" s="197">
+      <c r="L22" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>141</v>
       </c>
-      <c r="M22" s="204"/>
-      <c r="N22" s="203"/>
-      <c r="O22" s="203" t="s">
+      <c r="M22" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>141</v>
+      </c>
+      <c r="N22" s="198"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="P22" s="203"/>
-      <c r="Q22" s="203"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="192">
-        <f>AF22*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="223"/>
+      <c r="T22" s="186">
+        <f>AG22*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>2.9174938563130981</v>
       </c>
-      <c r="T22" s="153">
+      <c r="U22" s="288">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="U22" s="161">
+      <c r="V22" s="158">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>5</v>
       </c>
-      <c r="V22" s="164">
+      <c r="W22" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>29.6</v>
       </c>
-      <c r="W22" s="170">
+      <c r="X22" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>318.47133757961791</v>
       </c>
-      <c r="X22" s="171">
+      <c r="Y22" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1.72</v>
       </c>
-      <c r="Y22" s="174">
+      <c r="Z22" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>8.6</v>
       </c>
-      <c r="Z22" s="176">
+      <c r="AA22" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>9426.7515923566898</v>
       </c>
-      <c r="AA22" s="180">
+      <c r="AB22" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>4717.6757961783451</v>
       </c>
-      <c r="AB22" s="180">
+      <c r="AC22" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>0.10006834305621989</v>
       </c>
-      <c r="AC22" s="180">
+      <c r="AD22" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>323.47133757961791</v>
       </c>
-      <c r="AD22" s="180">
+      <c r="AE22" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>32.369240777771516</v>
       </c>
-      <c r="AE22" s="180">
+      <c r="AF22" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>18.936005854996335</v>
       </c>
-      <c r="AF22" s="180">
+      <c r="AG22" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>29.155013136112451</v>
       </c>
-      <c r="AG22" s="188"/>
-      <c r="AH22" s="135">
+      <c r="AH22" s="182"/>
+      <c r="AI22" s="135">
         <v>958</v>
       </c>
-      <c r="AI22" s="196">
+      <c r="AJ22" s="190">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>7.0441176470588234</v>
       </c>
-      <c r="AJ22" s="196">
+      <c r="AK22" s="190">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>141.96242171189979</v>
       </c>
-      <c r="AK22" s="196">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>105.66176470588235</v>
-      </c>
-      <c r="AL22" s="247"/>
-      <c r="AM22" s="253" t="s">
+      <c r="AL22" s="190">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>106.38297872340425</v>
+      </c>
+      <c r="AM22" s="240"/>
+      <c r="AN22" s="246" t="s">
         <v>187</v>
       </c>
-      <c r="AN22" s="235"/>
-      <c r="AO22" s="235">
+      <c r="AO22" s="228"/>
+      <c r="AP22" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>1</v>
       </c>
-      <c r="AP22" s="235">
+      <c r="AQ22" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>581.39534883720933</v>
       </c>
-      <c r="AQ22" s="235">
+      <c r="AR22" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>33.783783783783782</v>
       </c>
-      <c r="AR22" s="235">
+      <c r="AS22" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>109.55414012738855</v>
       </c>
-      <c r="AS22" s="235">
+      <c r="AT22" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.5</v>
       </c>
-      <c r="AT22" s="235">
+      <c r="AU22" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>39</v>
       </c>
-      <c r="AU22" s="235">
+      <c r="AV22" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>63.694267515923585</v>
       </c>
-      <c r="AV22" s="235" t="e">
+      <c r="AW22" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW22" s="243" t="e">
+      <c r="AX22" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX22" s="243" t="e">
+      <c r="AY22" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY22" s="241">
+      <c r="AZ22" s="234">
         <v>1013</v>
       </c>
-      <c r="AZ22" s="241">
+      <c r="BA22" s="234">
         <v>860</v>
       </c>
-      <c r="BA22" s="244" t="e">
+      <c r="BB22" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" s="201" t="s">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="268" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="131" t="s">
@@ -7417,155 +7543,159 @@
       <c r="I23" s="131">
         <v>1</v>
       </c>
-      <c r="J23" s="186">
+      <c r="J23" s="181">
         <v>5</v>
       </c>
-      <c r="K23" s="186">
+      <c r="K23" s="181">
         <v>6</v>
       </c>
-      <c r="L23" s="197">
+      <c r="L23" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>6</v>
       </c>
-      <c r="N23" s="202" t="s">
+      <c r="M23" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>6</v>
+      </c>
+      <c r="O23" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="O23" s="202" t="s">
+      <c r="P23" s="196" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202"/>
-      <c r="R23" s="230"/>
-      <c r="S23" s="193">
-        <f>AF23*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="196"/>
+      <c r="S23" s="223"/>
+      <c r="T23" s="187">
+        <f>AG23*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>233.59545546582066</v>
       </c>
-      <c r="T23" s="184">
+      <c r="U23" s="290">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.8846153846153846</v>
       </c>
-      <c r="U23" s="185">
+      <c r="V23" s="180">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>1.04</v>
       </c>
-      <c r="V23" s="164">
+      <c r="W23" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>142.30769230769229</v>
       </c>
-      <c r="W23" s="170">
+      <c r="X23" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>3</v>
       </c>
-      <c r="X23" s="171">
+      <c r="Y23" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>182.59023354564761</v>
       </c>
-      <c r="Y23" s="174">
+      <c r="Z23" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>189.89384288747351</v>
       </c>
-      <c r="Z23" s="176">
+      <c r="AA23" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>426.92307692307691</v>
       </c>
-      <c r="AA23" s="180">
+      <c r="AB23" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>308.40845990527521</v>
       </c>
-      <c r="AB23" s="180">
+      <c r="AC23" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.5307297346674538</v>
       </c>
-      <c r="AC23" s="180">
+      <c r="AD23" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>4.04</v>
       </c>
-      <c r="AD23" s="180">
+      <c r="AE23" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>6.1841481280565134</v>
       </c>
-      <c r="AE23" s="180">
+      <c r="AF23" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>3.61772665491306</v>
       </c>
-      <c r="AF23" s="180">
+      <c r="AG23" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>152.60398369184912</v>
       </c>
-      <c r="AH23" s="135">
+      <c r="AI23" s="135">
         <v>20596</v>
       </c>
-      <c r="AI23" s="232">
+      <c r="AJ23" s="225">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>151.44117647058823</v>
       </c>
-      <c r="AJ23" s="232">
+      <c r="AK23" s="225">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>6.6032239269761117</v>
       </c>
-      <c r="AK23" s="232">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>2271.6176470588234</v>
-      </c>
-      <c r="AM23" s="254" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO23" s="235">
+      <c r="AL23" s="225">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>2500</v>
+      </c>
+      <c r="AN23" s="247" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP23" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>6.5372966102314217E-2</v>
       </c>
-      <c r="AP23" s="235">
+      <c r="AQ23" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>5.4767441860465098</v>
       </c>
-      <c r="AQ23" s="235">
+      <c r="AR23" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>7.0270270270270272</v>
       </c>
-      <c r="AR23" s="235">
+      <c r="AS23" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>524.39024390243912</v>
       </c>
-      <c r="AS23" s="235">
+      <c r="AT23" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>49.333333333333336</v>
       </c>
-      <c r="AT23" s="235">
+      <c r="AU23" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>1</v>
       </c>
-      <c r="AU23" s="235">
+      <c r="AV23" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>2.8846153846153846</v>
       </c>
-      <c r="AV23" s="235" t="e">
+      <c r="AW23" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW23" s="243" t="e">
+      <c r="AX23" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX23" s="243" t="e">
+      <c r="AY23" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY23" s="241">
+      <c r="AZ23" s="234">
         <v>1196</v>
       </c>
-      <c r="AZ23" s="241">
+      <c r="BA23" s="234">
         <v>999</v>
       </c>
-      <c r="BA23" s="244" t="e">
+      <c r="BB23" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" s="201" t="s">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="276" t="s">
+      <c r="B24" s="268" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="131" t="s">
@@ -7575,337 +7705,345 @@
         <v>35</v>
       </c>
       <c r="F24" s="131">
+        <v>6</v>
+      </c>
+      <c r="G24" s="131">
+        <v>10</v>
+      </c>
+      <c r="H24" s="131">
+        <v>7</v>
+      </c>
+      <c r="I24" s="131">
+        <v>7</v>
+      </c>
+      <c r="J24" s="181">
         <v>2</v>
       </c>
-      <c r="G24" s="131">
-        <v>12</v>
-      </c>
-      <c r="H24" s="131">
-        <v>3</v>
-      </c>
-      <c r="I24" s="131">
-        <v>3</v>
-      </c>
-      <c r="J24" s="186">
-        <v>2</v>
-      </c>
-      <c r="K24" s="186">
+      <c r="K24" s="181">
         <v>4</v>
       </c>
-      <c r="L24" s="197">
+      <c r="L24" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>43</v>
-      </c>
-      <c r="N24" s="202" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>67</v>
+      </c>
+      <c r="O24" s="196" t="s">
         <v>295</v>
       </c>
-      <c r="O24" s="202" t="s">
+      <c r="P24" s="196" t="s">
         <v>296</v>
       </c>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="202"/>
-      <c r="R24" s="230"/>
-      <c r="S24" s="193">
-        <f>AF24*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>21.211532227544357</v>
-      </c>
-      <c r="T24" s="184">
+      <c r="Q24" s="196"/>
+      <c r="R24" s="196"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="187">
+        <f>AG24*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>19.4800434898916</v>
+      </c>
+      <c r="U24" s="290">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>13.259986664241984</v>
-      </c>
-      <c r="U24" s="185">
+        <v>4.7673531655225014</v>
+      </c>
+      <c r="V24" s="180">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>3.12</v>
-      </c>
-      <c r="V24" s="164">
+        <v>8.4</v>
+      </c>
+      <c r="W24" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>47.435897435897431</v>
-      </c>
-      <c r="W24" s="170">
+        <v>17.619047619047617</v>
+      </c>
+      <c r="X24" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>41.371158392434992</v>
-      </c>
-      <c r="X24" s="171">
+        <v>40.045766590389015</v>
+      </c>
+      <c r="Y24" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>13.240400363967245</v>
-      </c>
-      <c r="Y24" s="174">
+        <v>13.678616924476801</v>
+      </c>
+      <c r="Z24" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>41.310049135577806</v>
-      </c>
-      <c r="Z24" s="176">
+        <v>114.90038216560514</v>
+      </c>
+      <c r="AA24" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>1962.4780263078135</v>
-      </c>
-      <c r="AA24" s="180">
+        <v>705.56826849733022</v>
+      </c>
+      <c r="AB24" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>1001.8940377216957</v>
-      </c>
-      <c r="AB24" s="180">
+        <v>410.23432533146769</v>
+      </c>
+      <c r="AC24" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>0.47119753409605208</v>
-      </c>
-      <c r="AC24" s="180">
+        <v>1.1507813238654594</v>
+      </c>
+      <c r="AD24" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>44.49115839243499</v>
-      </c>
-      <c r="AD24" s="180">
+        <v>48.445766590389013</v>
+      </c>
+      <c r="AE24" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>20.964124123592239</v>
-      </c>
-      <c r="AE24" s="180">
+        <v>55.750483412564911</v>
+      </c>
+      <c r="AF24" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>12.264012612301459</v>
-      </c>
-      <c r="AF24" s="180">
+        <v>32.614032796350472</v>
+      </c>
+      <c r="AG24" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>45.016220783575783</v>
-      </c>
-      <c r="AH24" s="135">
-        <v>3100</v>
-      </c>
-      <c r="AI24" s="232">
+        <v>16.927667390758817</v>
+      </c>
+      <c r="AI24" s="135">
+        <v>2009</v>
+      </c>
+      <c r="AJ24" s="225">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>22.794117647058822</v>
-      </c>
-      <c r="AJ24" s="232">
+        <v>14.772058823529411</v>
+      </c>
+      <c r="AK24" s="225">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>43.870967741935488</v>
-      </c>
-      <c r="AK24" s="232">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>341.91176470588232</v>
-      </c>
-      <c r="AM24" s="254" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO24" s="235">
+        <v>67.695370831259339</v>
+      </c>
+      <c r="AL24" s="225">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>223.88059701492537</v>
+      </c>
+      <c r="AN24" s="247" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP24" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>0.21237026048574628</v>
-      </c>
-      <c r="AP24" s="235">
+        <v>8.6956870937122649E-2</v>
+      </c>
+      <c r="AQ24" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>75.52641706525921</v>
-      </c>
-      <c r="AQ24" s="235">
+        <v>73.106806449896197</v>
+      </c>
+      <c r="AR24" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>21.081081081081084</v>
-      </c>
-      <c r="AR24" s="235">
+        <v>56.756756756756758</v>
+      </c>
+      <c r="AS24" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>174.79674796747972</v>
-      </c>
-      <c r="AS24" s="235">
+        <v>63.988095238095241</v>
+      </c>
+      <c r="AT24" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>3.6</v>
-      </c>
-      <c r="AT24" s="235">
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="AU24" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>11</v>
-      </c>
-      <c r="AU24" s="235">
+        <v>18</v>
+      </c>
+      <c r="AV24" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>13.259986664241984</v>
-      </c>
-      <c r="AV24" s="235" t="e">
+        <v>4.7673531655225014</v>
+      </c>
+      <c r="AW24" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW24" s="243" t="e">
+      <c r="AX24" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX24" s="243" t="e">
+      <c r="AY24" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY24" s="241">
+      <c r="AZ24" s="234">
         <v>1196</v>
       </c>
-      <c r="AZ24" s="241">
+      <c r="BA24" s="234">
         <v>999</v>
       </c>
-      <c r="BA24" s="244" t="e">
+      <c r="BB24" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" s="201" t="s">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" s="195" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="276" t="s">
+      <c r="B25" s="268" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="131" t="s">
         <v>199</v>
       </c>
       <c r="E25" s="131">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F25" s="131">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" s="131">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H25" s="131">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I25" s="131">
-        <v>6</v>
-      </c>
-      <c r="J25" s="186">
+        <v>18</v>
+      </c>
+      <c r="J25" s="181">
         <v>4</v>
       </c>
-      <c r="K25" s="186">
+      <c r="K25" s="181">
         <v>8</v>
       </c>
-      <c r="L25" s="197">
+      <c r="L25" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>69</v>
-      </c>
-      <c r="N25" s="202" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>238</v>
+      </c>
+      <c r="O25" s="196" t="s">
         <v>297</v>
       </c>
-      <c r="O25" s="202" t="s">
+      <c r="P25" s="196" t="s">
         <v>298</v>
       </c>
-      <c r="P25" s="202" t="s">
+      <c r="Q25" s="196" t="s">
         <v>299</v>
       </c>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="193">
-        <f>AF25*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>16.831357203480248</v>
-      </c>
-      <c r="T25" s="184">
+      <c r="R25" s="196"/>
+      <c r="S25" s="223"/>
+      <c r="T25" s="187">
+        <f>AG25*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>5.5799198249443149</v>
+      </c>
+      <c r="U25" s="290">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.6749394673123499</v>
-      </c>
-      <c r="U25" s="185">
+        <v>4.5928865373309815</v>
+      </c>
+      <c r="V25" s="180">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="V25" s="164">
+        <v>30.240000000000002</v>
+      </c>
+      <c r="W25" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>17.61904761904762</v>
-      </c>
-      <c r="W25" s="170">
+        <v>4.894179894179894</v>
+      </c>
+      <c r="X25" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
-        <v>47.66949152542373</v>
-      </c>
-      <c r="X25" s="171">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="Y25" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
-        <v>11.491012031139423</v>
-      </c>
-      <c r="Y25" s="174">
+        <v>3.9439490445859886</v>
+      </c>
+      <c r="Z25" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>96.524501061571144</v>
-      </c>
-      <c r="Z25" s="176">
+        <v>119.2650191082803</v>
+      </c>
+      <c r="AA25" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>839.89104116222768</v>
-      </c>
-      <c r="AA25" s="180">
+        <v>679.74720752498524</v>
+      </c>
+      <c r="AB25" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>468.20777111189943</v>
-      </c>
-      <c r="AB25" s="180">
+        <v>399.50611331663276</v>
+      </c>
+      <c r="AC25" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.0082916797362869</v>
-      </c>
-      <c r="AC25" s="180">
+        <v>1.181684045034475</v>
+      </c>
+      <c r="AD25" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>56.069491525423729</v>
-      </c>
-      <c r="AD25" s="180">
+        <v>169.12888888888889</v>
+      </c>
+      <c r="AE25" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>56.534401792128996</v>
-      </c>
-      <c r="AE25" s="180">
+        <v>199.8569095544085</v>
+      </c>
+      <c r="AF25" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>33.072625048395459</v>
-      </c>
-      <c r="AF25" s="180">
+        <v>116.91629208932896</v>
+      </c>
+      <c r="AG25" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>16.692944652565611</v>
-      </c>
-      <c r="AH25" s="135">
-        <v>1959</v>
-      </c>
-      <c r="AI25" s="232">
+        <v>4.7220065705308931</v>
+      </c>
+      <c r="AI25" s="135">
+        <v>571</v>
+      </c>
+      <c r="AJ25" s="225">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>14.404411764705882</v>
-      </c>
-      <c r="AJ25" s="232">
+        <v>4.1985294117647056</v>
+      </c>
+      <c r="AK25" s="225">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>69.423175089331295</v>
-      </c>
-      <c r="AK25" s="232">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>216.06617647058823</v>
-      </c>
-      <c r="AM25" s="254" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO25" s="235">
+        <v>238.17863397548163</v>
+      </c>
+      <c r="AL25" s="225">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>63.025210084033617</v>
+      </c>
+      <c r="AN25" s="247" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP25" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>9.9245431721099023E-2</v>
-      </c>
-      <c r="AP25" s="235">
+        <v>8.4682824885987565E-2</v>
+      </c>
+      <c r="AQ25" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
-        <v>87.024536854552593</v>
-      </c>
-      <c r="AQ25" s="235">
+        <v>253.55297157622729</v>
+      </c>
+      <c r="AR25" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>56.756756756756751</v>
-      </c>
-      <c r="AR25" s="235">
+        <v>204.32432432432435</v>
+      </c>
+      <c r="AS25" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>63.142437591776805</v>
-      </c>
-      <c r="AS25" s="235">
+        <v>17.310789049919485</v>
+      </c>
+      <c r="AT25" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
-        <v>3.1111111111111112</v>
-      </c>
-      <c r="AT25" s="235">
+        <v>1.08</v>
+      </c>
+      <c r="AU25" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>20</v>
-      </c>
-      <c r="AU25" s="235">
+        <v>64</v>
+      </c>
+      <c r="AV25" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.6749394673123499</v>
-      </c>
-      <c r="AV25" s="235" t="e">
+        <v>4.5928865373309815</v>
+      </c>
+      <c r="AW25" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW25" s="243" t="e">
+      <c r="AX25" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX25" s="243" t="e">
+      <c r="AY25" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY25" s="241">
+      <c r="AZ25" s="234">
         <v>1196</v>
       </c>
-      <c r="AZ25" s="241">
+      <c r="BA25" s="234">
         <v>999</v>
       </c>
-      <c r="BA25" s="244" t="e">
+      <c r="BB25" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A26" s="201" t="s">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="268" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="131" t="s">
@@ -7915,168 +8053,171 @@
         <v>200</v>
       </c>
       <c r="F26" s="131">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G26" s="131">
         <v>21</v>
       </c>
       <c r="H26" s="131">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I26" s="131">
-        <v>25</v>
-      </c>
-      <c r="J26" s="186">
+        <v>35</v>
+      </c>
+      <c r="J26" s="181">
         <v>6</v>
       </c>
-      <c r="K26" s="186">
+      <c r="K26" s="181">
         <v>4</v>
       </c>
-      <c r="L26" s="197">
+      <c r="L26" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
-        <v>410</v>
-      </c>
-      <c r="N26" s="202" t="s">
+        <v>660</v>
+      </c>
+      <c r="M26" s="191">
+        <v>550</v>
+      </c>
+      <c r="O26" s="196" t="s">
         <v>300</v>
       </c>
-      <c r="O26" s="202" t="s">
+      <c r="P26" s="196" t="s">
         <v>301</v>
       </c>
-      <c r="P26" s="202" t="s">
+      <c r="Q26" s="196" t="s">
         <v>302</v>
       </c>
-      <c r="Q26" s="202"/>
-      <c r="R26" s="230"/>
-      <c r="S26" s="193">
-        <f>AF26*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>2.8879737370748852</v>
-      </c>
-      <c r="T26" s="184">
+      <c r="R26" s="196"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="187">
+        <f>AG26*Tabela2[[#This Row],[Odchyłka]]</f>
+        <v>2.5397795468982829</v>
+      </c>
+      <c r="U26" s="290">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.6689342403628116</v>
-      </c>
-      <c r="U26" s="185">
+        <v>2.9613835583984844</v>
+      </c>
+      <c r="V26" s="180">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
-        <v>49</v>
-      </c>
-      <c r="V26" s="164">
+        <v>93.799999999999983</v>
+      </c>
+      <c r="W26" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
-        <v>3.0204081632653059</v>
-      </c>
-      <c r="W26" s="170">
+        <v>1.5778251599147124</v>
+      </c>
+      <c r="X26" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>277.77777777777777</v>
       </c>
-      <c r="X26" s="171">
+      <c r="Y26" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>1.9719745222929943</v>
       </c>
-      <c r="Y26" s="174">
+      <c r="Z26" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
-        <v>96.626751592356726</v>
-      </c>
-      <c r="Z26" s="176">
+        <v>184.97121019108283</v>
+      </c>
+      <c r="AA26" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
-        <v>839.00226757369603</v>
-      </c>
-      <c r="AA26" s="180">
+        <v>438.28476664297568</v>
+      </c>
+      <c r="AB26" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
-        <v>467.81450958302639</v>
-      </c>
-      <c r="AB26" s="180">
+        <v>311.62798841702926</v>
+      </c>
+      <c r="AC26" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
-        <v>1.0091392856129759</v>
-      </c>
-      <c r="AC26" s="180">
+        <v>1.514915275736517</v>
+      </c>
+      <c r="AD26" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
-        <v>326.77777777777777</v>
-      </c>
-      <c r="AD26" s="180">
+        <v>371.57777777777778</v>
+      </c>
+      <c r="AE26" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
-        <v>329.76429322086244</v>
-      </c>
-      <c r="AE26" s="180">
+        <v>562.90885167978445</v>
+      </c>
+      <c r="AF26" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
-        <v>192.91211153420451</v>
-      </c>
-      <c r="AF26" s="180">
+        <v>329.30167823267391</v>
+      </c>
+      <c r="AG26" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
-        <v>2.8618187580722907</v>
-      </c>
-      <c r="AH26" s="135">
-        <v>331</v>
-      </c>
-      <c r="AI26" s="232">
+        <v>1.6765158999822618</v>
+      </c>
+      <c r="AI26" s="135">
+        <v>206</v>
+      </c>
+      <c r="AJ26" s="225">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
-        <v>2.4338235294117645</v>
-      </c>
-      <c r="AJ26" s="232">
+        <v>1.5147058823529411</v>
+      </c>
+      <c r="AK26" s="225">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
-        <v>410.87613293051362</v>
-      </c>
-      <c r="AK26" s="232">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>36.507352941176471</v>
-      </c>
-      <c r="AM26" s="254" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO26" s="235">
+        <v>660.19417475728153</v>
+      </c>
+      <c r="AL26" s="225">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="AN26" s="247" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP26" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
-        <v>9.9162072553181727E-2</v>
-      </c>
-      <c r="AP26" s="235">
+        <v>6.6055405644760548E-2</v>
+      </c>
+      <c r="AQ26" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>507.10594315245459</v>
       </c>
-      <c r="AQ26" s="235">
+      <c r="AR26" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
-        <v>331.08108108108115</v>
-      </c>
-      <c r="AR26" s="235">
+        <v>633.78378378378363</v>
+      </c>
+      <c r="AS26" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
-        <v>10.584615384615388</v>
-      </c>
-      <c r="AS26" s="235">
+        <v>5.4482103262591073</v>
+      </c>
+      <c r="AT26" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>0.54</v>
       </c>
-      <c r="AT26" s="235">
+      <c r="AU26" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
-        <v>116</v>
-      </c>
-      <c r="AU26" s="235">
+        <v>161</v>
+      </c>
+      <c r="AV26" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
-        <v>5.6689342403628116</v>
-      </c>
-      <c r="AV26" s="235" t="e">
+        <v>2.9613835583984844</v>
+      </c>
+      <c r="AW26" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW26" s="243" t="e">
+      <c r="AX26" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX26" s="243" t="e">
+      <c r="AY26" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY26" s="241">
+      <c r="AZ26" s="234">
         <v>1196</v>
       </c>
-      <c r="AZ26" s="241">
+      <c r="BA26" s="234">
         <v>999</v>
       </c>
-      <c r="BA26" s="244" t="e">
+      <c r="BB26" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A27" s="201" t="s">
+    <row r="27" spans="1:54" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="195" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="139" t="s">
         <v>208</v>
       </c>
       <c r="D27" s="131"/>
@@ -8095,277 +8236,282 @@
       <c r="I27" s="131">
         <v>9</v>
       </c>
-      <c r="J27" s="186">
+      <c r="J27" s="181">
         <v>4</v>
       </c>
-      <c r="K27" s="186">
+      <c r="K27" s="181">
         <v>4</v>
       </c>
-      <c r="L27" s="197">
+      <c r="L27" s="191">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>117</v>
       </c>
-      <c r="N27" s="202" t="s">
+      <c r="M27" s="191">
+        <f>Tabela2[[#This Row],[Cena]]*1</f>
+        <v>117</v>
+      </c>
+      <c r="O27" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="O27" s="202" t="s">
+      <c r="P27" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="202" t="s">
+      <c r="Q27" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="230"/>
-      <c r="S27" s="193">
-        <f>AF27*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="R27" s="196"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="187">
+        <f>AG27*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>12.345810315354626</v>
       </c>
-      <c r="T27" s="184">
+      <c r="U27" s="290">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="U27" s="185">
+      <c r="V27" s="180">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>16.2</v>
       </c>
-      <c r="V27" s="164">
+      <c r="W27" s="161">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>9.1358024691358022</v>
       </c>
-      <c r="W27" s="170">
+      <c r="X27" s="166">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>60.240963855421697</v>
       </c>
-      <c r="X27" s="171">
+      <c r="Y27" s="167">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>9.0929936305732486</v>
       </c>
-      <c r="Y27" s="174">
+      <c r="Z27" s="170">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>147.30649681528661</v>
       </c>
-      <c r="Z27" s="176">
+      <c r="AA27" s="172">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>550.34954633348218</v>
       </c>
-      <c r="AA27" s="180">
+      <c r="AB27" s="176">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>348.82802157438437</v>
       </c>
-      <c r="AB27" s="180">
+      <c r="AC27" s="176">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>1.3533603116782036</v>
       </c>
-      <c r="AC27" s="180">
+      <c r="AD27" s="176">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>76.4409638554217</v>
       </c>
-      <c r="AD27" s="180">
+      <c r="AE27" s="176">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>103.4521666683558</v>
       </c>
-      <c r="AE27" s="180">
+      <c r="AF27" s="176">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>60.519517500988137</v>
       </c>
-      <c r="AF27" s="180">
+      <c r="AG27" s="176">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>9.1223380860382157</v>
       </c>
-      <c r="AH27" s="135">
+      <c r="AI27" s="135">
         <v>1161</v>
       </c>
-      <c r="AI27" s="232">
+      <c r="AJ27" s="225">
         <f>Tabela2[[#This Row],[FixedAmountAfterSearching]]/136</f>
         <v>8.5367647058823533</v>
       </c>
-      <c r="AJ27" s="232">
+      <c r="AK27" s="225">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>117.14039621016364</v>
       </c>
-      <c r="AK27" s="232">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
-        <v>128.0514705882353</v>
-      </c>
-      <c r="AM27" s="254" t="s">
+      <c r="AL27" s="225">
+        <f>$AL$7/Tabela2[[#This Row],[Kolumna2]]</f>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="AN27" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="AO27" s="235">
+      <c r="AP27" s="228">
         <f>Tabela2[[#This Row],[!ŚREDNIA]]/MAX(Tabela2[!ŚREDNIA])</f>
         <v>7.3940651423516648E-2</v>
       </c>
-      <c r="AP27" s="235">
+      <c r="AQ27" s="228">
         <f>Tabela2[[#This Row],[VWO]]/Tabela2[[#This Row],[V_Off]]*1000</f>
         <v>109.9747828523396</v>
       </c>
-      <c r="AQ27" s="235">
+      <c r="AR27" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[V_Def]]*1000</f>
         <v>109.45945945945945</v>
       </c>
-      <c r="AR27" s="235">
+      <c r="AS27" s="228">
         <f>1/(AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$9)*IF(Tabela2[[#This Row],[Attack]]-$G$9 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$9 &gt; 0,$G$4,$J$4)))/$E$9)</f>
         <v>32.173587729143286</v>
       </c>
-      <c r="AS27" s="235">
+      <c r="AT27" s="228">
         <f>(AVERAGE($H$9,$I$9))*(1+(($F$9-Tabela2[[#This Row],[Defence]])*IF($F$9-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$9-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))/Tabela2[[#This Row],[Health]]</f>
         <v>2.5</v>
       </c>
-      <c r="AT27" s="235">
+      <c r="AU27" s="228">
         <f>INT(SQRT(((Tabela2[[#This Row],[VWO]])*Tabela2[[#This Row],[VWD]])))</f>
         <v>31</v>
       </c>
-      <c r="AU27" s="235">
+      <c r="AV27" s="228">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>3.7185780157667714</v>
       </c>
-      <c r="AV27" s="235" t="e">
+      <c r="AW27" s="228" t="e">
         <f>#REF!/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AW27" s="243" t="e">
+      <c r="AX27" s="236" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AX27" s="243" t="e">
+      <c r="AY27" s="236" t="e">
         <f>300*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AY27" s="241">
+      <c r="AZ27" s="234">
         <v>1196</v>
       </c>
-      <c r="AZ27" s="241">
+      <c r="BA27" s="234">
         <v>999</v>
       </c>
-      <c r="BA27" s="244" t="e">
+      <c r="BB27" s="237" t="e">
         <f>(#REF!+Tabela2[[#This Row],[SIM]]+Tabela2[[#This Row],[FixedAmountAfterSearching]])/3</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" s="266" t="s">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28" s="259" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="255" t="s">
+      <c r="B28" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="256"/>
-      <c r="D28" s="267">
+      <c r="C28" s="249"/>
+      <c r="D28" s="260">
         <v>0</v>
       </c>
-      <c r="E28" s="255">
+      <c r="E28" s="248">
         <v>0</v>
       </c>
-      <c r="F28" s="255">
+      <c r="F28" s="248">
         <v>0</v>
       </c>
-      <c r="G28" s="255">
+      <c r="G28" s="248">
         <v>0</v>
       </c>
-      <c r="H28" s="255">
+      <c r="H28" s="248">
         <v>0</v>
       </c>
-      <c r="I28" s="255">
+      <c r="I28" s="248">
         <v>0</v>
       </c>
-      <c r="J28" s="269">
+      <c r="J28" s="262">
         <v>0</v>
       </c>
-      <c r="K28" s="270">
+      <c r="K28" s="263">
         <v>0</v>
       </c>
-      <c r="L28" s="264" t="e">
+      <c r="L28" s="257" t="e">
         <f>INT(Tabela2[[#This Row],[Cena SIM]])</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="258"/>
-      <c r="N28" s="264" t="s">
+      <c r="M28" s="257"/>
+      <c r="N28" s="251"/>
+      <c r="O28" s="257" t="s">
         <v>275</v>
       </c>
-      <c r="O28" s="264" t="s">
+      <c r="P28" s="257" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="259"/>
-      <c r="S28" s="260" t="e">
-        <f>AF28*Tabela2[[#This Row],[Odchyłka]]</f>
+      <c r="Q28" s="257"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="253" t="e">
+        <f>AG28*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T28" s="271" t="e">
+      <c r="U28" s="291" t="e">
         <f>Tabela2[[#This Row],[VWD]]/Tabela2[[#This Row],[VWO]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U28" s="268" t="e">
+      <c r="V28" s="261" t="e">
         <f>AVERAGE((Tabela2[[#This Row],[Damage max]],Tabela2[[#This Row],[Damage min]]))*(1+(Tabela2[[#This Row],[Attack]]-$G$10)*IF(Tabela2[[#This Row],[Attack]]-$G$10 = 0, 1, IF(Tabela2[[#This Row],[Attack]]-$G$10 &gt; 0, $G$4,-$J$4)))/$E$10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V28" s="261" t="e">
+      <c r="W28" s="254" t="e">
         <f>MAX(Tabela2[VWO])/Tabela2[[#This Row],[VWO]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W28" s="262" t="e">
+      <c r="X28" s="255" t="e">
         <f>Tabela2[[#This Row],[Health]]/(AVERAGE($H$10,$I$10)*(1+($F$10-Tabela2[[#This Row],[Defence]])*IF($F$10-Tabela2[[#This Row],[Defence]] = 0, 1, IF($F$10-Tabela2[[#This Row],[Defence]] &gt; 0, $G$4,$J$4))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X28" s="263" t="e">
+      <c r="Y28" s="256" t="e">
         <f>MAX(Tabela2[VWD])/Tabela2[[#This Row],[VWD]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y28" s="265" t="e">
+      <c r="Z28" s="258" t="e">
         <f>Tabela2[[#This Row],[VWO]]*Tabela2[[#This Row],[VWD_R]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Z28" s="272" t="e">
+      <c r="AA28" s="264" t="e">
         <f>Tabela2[[#This Row],[VWO_R]]*Tabela2[[#This Row],[VWD]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AA28" s="257" t="e">
+      <c r="AB28" s="250" t="e">
         <f>(Tabela2[[#This Row],[V_Def]]+Tabela2[[#This Row],[V_Off]])/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB28" s="257" t="e">
+      <c r="AC28" s="250" t="e">
         <f>472.09/Tabela2[[#This Row],[!ŚREDNIA]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC28" s="257" t="e">
+      <c r="AD28" s="250" t="e">
         <f>Tabela2[[#This Row],[VWO]]+Tabela2[[#This Row],[VWD]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD28" s="257" t="e">
+      <c r="AE28" s="250" t="e">
         <f>Tabela2[[#This Row],[Suma VW]]*Tabela2[[#This Row],[Odchyłka]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE28" s="257" t="e">
+      <c r="AF28" s="250" t="e">
         <f>Tabela2[[#This Row],[Suma*Odchyłka]]/2*1.17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AF28" s="257" t="e">
+      <c r="AG28" s="250" t="e">
         <f>15000/Tabela2[[#This Row],[V/HP]]/27.17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG28" s="273"/>
-      <c r="AH28" s="264">
+      <c r="AH28" s="265"/>
+      <c r="AI28" s="257">
         <v>0</v>
       </c>
-      <c r="AI28" s="264">
+      <c r="AJ28" s="257">
         <v>10000000000</v>
       </c>
-      <c r="AJ28" s="264" t="e">
+      <c r="AK28" s="257" t="e">
         <f>1000/Tabela2[[#This Row],[AMT ]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AK28" s="264" t="e">
-        <f>$AK$7/Tabela2[[#This Row],[Cena SIM]]</f>
+      <c r="AL28" s="257" t="e">
+        <f>$AL$7/Tabela2[[#This Row],[Cena SIM]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AL28" s="274"/>
-      <c r="AM28" s="275" t="s">
+      <c r="AM28" s="266"/>
+      <c r="AN28" s="267" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="129"/>
-      <c r="C29" s="215"/>
+      <c r="C29" s="208"/>
       <c r="D29" s="129"/>
       <c r="E29" s="129"/>
       <c r="F29" s="129"/>
@@ -8375,16 +8521,17 @@
       <c r="J29" s="129"/>
       <c r="K29" s="129"/>
       <c r="L29" s="129"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="203"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129"/>
       <c r="Q29" s="129"/>
-      <c r="R29" s="231"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="224"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="129"/>
-      <c r="C31" s="215"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="129"/>
       <c r="E31" s="129"/>
       <c r="F31" s="129"/>
@@ -8394,16 +8541,17 @@
       <c r="J31" s="129"/>
       <c r="K31" s="129"/>
       <c r="L31" s="129"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="203"/>
       <c r="O31" s="129"/>
       <c r="P31" s="129"/>
       <c r="Q31" s="129"/>
-      <c r="R31" s="231"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="224"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="129"/>
-      <c r="C32" s="215"/>
+      <c r="C32" s="208"/>
       <c r="D32" s="129"/>
       <c r="E32" s="129"/>
       <c r="F32" s="129"/>
@@ -8413,16 +8561,17 @@
       <c r="J32" s="129"/>
       <c r="K32" s="129"/>
       <c r="L32" s="129"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="203"/>
       <c r="O32" s="129"/>
       <c r="P32" s="129"/>
       <c r="Q32" s="129"/>
-      <c r="R32" s="231"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="224"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="129"/>
-      <c r="C33" s="215"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="129"/>
       <c r="E33" s="129"/>
       <c r="F33" s="132"/>
@@ -8434,7 +8583,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="129"/>
-      <c r="C34" s="215"/>
+      <c r="C34" s="208"/>
       <c r="D34" s="129"/>
       <c r="E34" s="129"/>
       <c r="F34" s="132"/>
@@ -8446,7 +8595,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="129"/>
-      <c r="C35" s="215"/>
+      <c r="C35" s="208"/>
       <c r="D35" s="129"/>
       <c r="E35" s="129"/>
       <c r="F35" s="129"/>
@@ -8458,7 +8607,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="129"/>
-      <c r="C37" s="215"/>
+      <c r="C37" s="208"/>
       <c r="D37" s="129"/>
       <c r="E37" s="129"/>
       <c r="F37" s="129"/>
@@ -8470,7 +8619,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="C38" s="215"/>
+      <c r="C38" s="208"/>
       <c r="D38" s="129"/>
       <c r="E38" s="129"/>
       <c r="F38" s="129"/>
@@ -8482,7 +8631,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="129"/>
-      <c r="C39" s="215"/>
+      <c r="C39" s="208"/>
       <c r="D39" s="129"/>
       <c r="E39" s="129"/>
       <c r="F39" s="129"/>
@@ -8494,7 +8643,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="129"/>
-      <c r="C40" s="215"/>
+      <c r="C40" s="208"/>
       <c r="D40" s="129"/>
       <c r="E40" s="129"/>
       <c r="F40" s="129"/>
@@ -8510,62 +8659,62 @@
     <mergeCell ref="I3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E6 B8:C20 B23:C27 E31:E35 E37:E1048576 E28:E29 B31:B35 B37:B1048576 B1:B29">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="20" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="22">
+    <cfRule type="expression" dxfId="57" priority="22">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="23">
+    <cfRule type="expression" dxfId="56" priority="23">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="24">
+    <cfRule type="expression" dxfId="55" priority="24">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="53" priority="8" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="11">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="Lizardman">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Lizardman">
       <formula>NOT(ISERROR(SEARCH("Lizardman",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Barbarians">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="Barbarians">
       <formula>NOT(ISERROR(SEARCH("Barbarians",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Toster">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="Toster">
       <formula>NOT(ISERROR(SEARCH("Toster",B22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>Toster</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="44" priority="5">
       <formula>$B$9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="43" priority="6">
       <formula>"Toster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8575,7 +8724,7 @@
     <brk id="23" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="1048575" man="1"/>
+    <brk id="39" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
@@ -8589,9 +8738,9 @@
   <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="A118:XFD118"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
